--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -127,10 +127,10 @@
     <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
-    <t>Garbarnia Krakow</t>
+    <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
-    <t>Kotwica Kolobrzeg</t>
+    <t>Garbarnia Krakow</t>
   </si>
   <si>
     <t>Olimpia Elblag</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC299"/>
+  <dimension ref="A1:AC300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,7 +658,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5185149</v>
+        <v>5184790</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1370,73 +1370,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X10">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5184790</v>
+        <v>5185149</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1459,73 +1459,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N11">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2527,7 +2527,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2794,7 +2794,7 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5185156</v>
+        <v>5185158</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3058,58 +3058,58 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>54</v>
       </c>
       <c r="K29">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L29">
+        <v>3.3</v>
+      </c>
+      <c r="M29">
+        <v>3.2</v>
+      </c>
+      <c r="N29">
+        <v>1.909</v>
+      </c>
+      <c r="O29">
+        <v>3.3</v>
+      </c>
+      <c r="P29">
         <v>3.75</v>
       </c>
-      <c r="M29">
-        <v>4.75</v>
-      </c>
-      <c r="N29">
-        <v>1.571</v>
-      </c>
-      <c r="O29">
-        <v>3.75</v>
-      </c>
-      <c r="P29">
-        <v>5</v>
-      </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>0.571</v>
+        <v>0.909</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3118,16 +3118,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3135,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5185158</v>
+        <v>5185159</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3147,73 +3147,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
         <v>3.3</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3224,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5185159</v>
+        <v>5185156</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,76 +3236,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3325,7 +3325,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3773,7 +3773,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4393,7 +4393,7 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>31</v>
@@ -4930,7 +4930,7 @@
         <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5019,7 +5019,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5286,7 +5286,7 @@
         <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5998,7 +5998,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6084,7 +6084,7 @@
         <v>45031.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6977,7 +6977,7 @@
         <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>45038.51041666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>41</v>
@@ -7775,10 +7775,10 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" t="s">
         <v>37</v>
-      </c>
-      <c r="G82" t="s">
-        <v>38</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8401,7 +8401,7 @@
         <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>45053.52083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
         <v>39</v>
@@ -9024,7 +9024,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9199,7 +9199,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
         <v>41</v>
@@ -9825,7 +9825,7 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9911,7 +9911,7 @@
         <v>45065.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
         <v>30</v>
@@ -10804,7 +10804,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -11249,7 +11249,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11335,7 +11335,7 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11501,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5224885</v>
+        <v>5228058</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11513,76 +11513,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K124">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L124">
         <v>3.3</v>
       </c>
       <c r="M124">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N124">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11590,7 +11590,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5226042</v>
+        <v>5229462</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11602,58 +11602,58 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>54</v>
       </c>
       <c r="K125">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="N125">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
         <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11662,13 +11662,13 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11679,7 +11679,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5224889</v>
+        <v>5226044</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11691,49 +11691,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K126">
-        <v>3.5</v>
+        <v>1.363</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M126">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N126">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="O126">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P126">
-        <v>1.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q126">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
         <v>1.8</v>
@@ -11742,25 +11742,25 @@
         <v>2</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA126">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC126">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5226044</v>
+        <v>5185127</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11780,49 +11780,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K127">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L127">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N127">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="O127">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q127">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
         <v>1.8</v>
@@ -11831,25 +11831,25 @@
         <v>2</v>
       </c>
       <c r="W127">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11857,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5229462</v>
+        <v>5226042</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11869,58 +11869,58 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H128">
+        <v>4</v>
+      </c>
+      <c r="I128">
         <v>3</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>54</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M128">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="N128">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11929,13 +11929,13 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11946,7 +11946,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5228058</v>
+        <v>5224885</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11958,76 +11958,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K129">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
         <v>3.3</v>
       </c>
       <c r="M129">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N129">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O129">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X129">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12035,7 +12035,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5185127</v>
+        <v>5224889</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12047,10 +12047,10 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12062,34 +12062,34 @@
         <v>56</v>
       </c>
       <c r="K130">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N130">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
         <v>1.75</v>
       </c>
-      <c r="S130">
-        <v>2.05</v>
-      </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
         <v>1.8</v>
@@ -12104,13 +12104,13 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.625</v>
+        <v>0.55</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>1.05</v>
+        <v>0.375</v>
       </c>
       <c r="AB130">
         <v>-1</v>
@@ -12225,7 +12225,7 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12492,7 +12492,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
         <v>53</v>
@@ -13560,7 +13560,7 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
         <v>39</v>
@@ -14186,7 +14186,7 @@
         <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15607,7 +15607,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
         <v>47</v>
@@ -16144,7 +16144,7 @@
         <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -17565,7 +17565,7 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>
@@ -18633,7 +18633,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -19081,7 +19081,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19615,7 +19615,7 @@
         <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -20045,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6808894</v>
+        <v>6808023</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20057,10 +20057,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20072,25 +20072,25 @@
         <v>56</v>
       </c>
       <c r="K220">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L220">
         <v>3.3</v>
       </c>
       <c r="M220">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N220">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O220">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P220">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
         <v>1.85</v>
@@ -20102,10 +20102,10 @@
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -20114,7 +20114,7 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z220">
         <v>-1</v>
@@ -20126,7 +20126,7 @@
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20134,7 +20134,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6808023</v>
+        <v>6808894</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20146,10 +20146,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G221" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -20161,25 +20161,25 @@
         <v>56</v>
       </c>
       <c r="K221">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L221">
         <v>3.3</v>
       </c>
       <c r="M221">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N221">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O221">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
         <v>1.85</v>
@@ -20191,10 +20191,10 @@
         <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -20203,7 +20203,7 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z221">
         <v>-1</v>
@@ -20215,7 +20215,7 @@
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20502,7 +20502,7 @@
         <v>45200.4375</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G225" t="s">
         <v>31</v>
@@ -20861,7 +20861,7 @@
         <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -22015,7 +22015,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G242" t="s">
         <v>51</v>
@@ -22374,7 +22374,7 @@
         <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H246">
         <v>2</v>
@@ -23172,7 +23172,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G255" t="s">
         <v>33</v>
@@ -24243,7 +24243,7 @@
         <v>45</v>
       </c>
       <c r="G267" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -24596,7 +24596,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G271" t="s">
         <v>52</v>
@@ -25385,7 +25385,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6808886</v>
+        <v>6808694</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25397,49 +25397,49 @@
         <v>45248.375</v>
       </c>
       <c r="F280" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G280" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="s">
         <v>54</v>
       </c>
       <c r="K280">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L280">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M280">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N280">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O280">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P280">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q280">
         <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S280">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T280">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U280">
         <v>1.85</v>
@@ -25448,7 +25448,7 @@
         <v>1.95</v>
       </c>
       <c r="W280">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="X280">
         <v>-1</v>
@@ -25457,16 +25457,16 @@
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>1.075</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA280">
         <v>-1</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC280">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25474,7 +25474,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6808694</v>
+        <v>6808886</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25486,49 +25486,49 @@
         <v>45248.375</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G281" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
         <v>54</v>
       </c>
       <c r="K281">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L281">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M281">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N281">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P281">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S281">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T281">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
         <v>1.85</v>
@@ -25537,25 +25537,25 @@
         <v>1.95</v>
       </c>
       <c r="W281">
+        <v>1.375</v>
+      </c>
+      <c r="X281">
+        <v>-1</v>
+      </c>
+      <c r="Y281">
+        <v>-1</v>
+      </c>
+      <c r="Z281">
+        <v>1.075</v>
+      </c>
+      <c r="AA281">
+        <v>-1</v>
+      </c>
+      <c r="AB281">
+        <v>-1</v>
+      </c>
+      <c r="AC281">
         <v>0.95</v>
-      </c>
-      <c r="X281">
-        <v>-1</v>
-      </c>
-      <c r="Y281">
-        <v>-1</v>
-      </c>
-      <c r="Z281">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA281">
-        <v>-1</v>
-      </c>
-      <c r="AB281">
-        <v>0.425</v>
-      </c>
-      <c r="AC281">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25578,7 +25578,7 @@
         <v>53</v>
       </c>
       <c r="G282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H282">
         <v>3</v>
@@ -26023,7 +26023,7 @@
         <v>39</v>
       </c>
       <c r="G287" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H287">
         <v>2</v>
@@ -27088,7 +27088,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F299" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G299" t="s">
         <v>46</v>
@@ -27158,6 +27158,80 @@
       </c>
       <c r="AC299">
         <v>0.425</v>
+      </c>
+    </row>
+    <row r="300" spans="1:29">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>7544317</v>
+      </c>
+      <c r="C300" t="s">
+        <v>28</v>
+      </c>
+      <c r="D300" t="s">
+        <v>28</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F300" t="s">
+        <v>53</v>
+      </c>
+      <c r="G300" t="s">
+        <v>48</v>
+      </c>
+      <c r="K300">
+        <v>1.8</v>
+      </c>
+      <c r="L300">
+        <v>3.6</v>
+      </c>
+      <c r="M300">
+        <v>3.8</v>
+      </c>
+      <c r="N300">
+        <v>1.8</v>
+      </c>
+      <c r="O300">
+        <v>3.6</v>
+      </c>
+      <c r="P300">
+        <v>3.8</v>
+      </c>
+      <c r="Q300">
+        <v>-0.5</v>
+      </c>
+      <c r="R300">
+        <v>1.825</v>
+      </c>
+      <c r="S300">
+        <v>1.975</v>
+      </c>
+      <c r="T300">
+        <v>2.5</v>
+      </c>
+      <c r="U300">
+        <v>1.9</v>
+      </c>
+      <c r="V300">
+        <v>1.9</v>
+      </c>
+      <c r="W300">
+        <v>0</v>
+      </c>
+      <c r="X300">
+        <v>0</v>
+      </c>
+      <c r="Y300">
+        <v>0</v>
+      </c>
+      <c r="Z300">
+        <v>0</v>
+      </c>
+      <c r="AA300">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -127,10 +127,10 @@
     <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
-    <t>Kotwica Kolobrzeg</t>
+    <t>Garbarnia Krakow</t>
   </si>
   <si>
-    <t>Garbarnia Krakow</t>
+    <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
     <t>Olimpia Elblag</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC300"/>
+  <dimension ref="A1:AC299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,7 +658,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5184790</v>
+        <v>5185149</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1370,73 +1370,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5185149</v>
+        <v>5184790</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1459,73 +1459,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X11">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2527,7 +2527,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2794,7 +2794,7 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5184029</v>
+        <v>5185159</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2969,73 +2969,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>3.5</v>
       </c>
       <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>2.875</v>
+      </c>
+      <c r="O28">
         <v>3.3</v>
       </c>
-      <c r="N28">
+      <c r="P28">
+        <v>2.15</v>
+      </c>
+      <c r="Q28">
+        <v>0.25</v>
+      </c>
+      <c r="R28">
         <v>1.85</v>
       </c>
-      <c r="O28">
-        <v>3.5</v>
-      </c>
-      <c r="P28">
-        <v>3.4</v>
-      </c>
-      <c r="Q28">
-        <v>-0.5</v>
-      </c>
-      <c r="R28">
-        <v>1.925</v>
-      </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5185158</v>
+        <v>5185156</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3058,58 +3058,58 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>54</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L29">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3118,16 +3118,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3135,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5185159</v>
+        <v>5184029</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3147,73 +3147,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3224,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5185156</v>
+        <v>5185158</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,58 +3236,58 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>54</v>
       </c>
       <c r="K31">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L31">
+        <v>3.3</v>
+      </c>
+      <c r="M31">
+        <v>3.2</v>
+      </c>
+      <c r="N31">
+        <v>1.909</v>
+      </c>
+      <c r="O31">
+        <v>3.3</v>
+      </c>
+      <c r="P31">
         <v>3.75</v>
       </c>
-      <c r="M31">
-        <v>4.75</v>
-      </c>
-      <c r="N31">
-        <v>1.571</v>
-      </c>
-      <c r="O31">
-        <v>3.75</v>
-      </c>
-      <c r="P31">
-        <v>5</v>
-      </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S31">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>0.571</v>
+        <v>0.909</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3296,16 +3296,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3325,7 +3325,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3773,7 +3773,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4393,7 +4393,7 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
         <v>31</v>
@@ -4930,7 +4930,7 @@
         <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5019,7 +5019,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5286,7 +5286,7 @@
         <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5998,7 +5998,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6084,7 +6084,7 @@
         <v>45031.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6977,7 +6977,7 @@
         <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>45038.51041666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
         <v>41</v>
@@ -7775,10 +7775,10 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G82" t="s">
         <v>38</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8401,7 +8401,7 @@
         <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>45053.52083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>39</v>
@@ -9024,7 +9024,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9199,7 +9199,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>41</v>
@@ -9825,7 +9825,7 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9911,7 +9911,7 @@
         <v>45065.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
         <v>30</v>
@@ -10804,7 +10804,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -11249,7 +11249,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11335,7 +11335,7 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11501,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5228058</v>
+        <v>5185127</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11513,76 +11513,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O124">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
+        <v>1.75</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z124">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11590,7 +11590,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5229462</v>
+        <v>5224885</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11602,58 +11602,58 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>54</v>
       </c>
       <c r="K125">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S125">
+        <v>2.025</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
         <v>1.8</v>
       </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
-      <c r="U125">
-        <v>1.95</v>
-      </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W125">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11662,16 +11662,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5226044</v>
+        <v>5226042</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11691,58 +11691,58 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H126">
+        <v>4</v>
+      </c>
+      <c r="I126">
         <v>3</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>54</v>
       </c>
       <c r="K126">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M126">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N126">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="O126">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>7.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q126">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
+        <v>1.9</v>
+      </c>
+      <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>1.975</v>
+      </c>
+      <c r="V126">
         <v>1.825</v>
       </c>
-      <c r="S126">
-        <v>1.975</v>
-      </c>
-      <c r="T126">
-        <v>3.25</v>
-      </c>
-      <c r="U126">
-        <v>1.8</v>
-      </c>
-      <c r="V126">
-        <v>2</v>
-      </c>
       <c r="W126">
-        <v>0.2849999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11751,13 +11751,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11768,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5185127</v>
+        <v>5224889</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11780,10 +11780,10 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11795,34 +11795,34 @@
         <v>56</v>
       </c>
       <c r="K127">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L127">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N127">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P127">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R127">
+        <v>2.05</v>
+      </c>
+      <c r="S127">
         <v>1.75</v>
       </c>
-      <c r="S127">
-        <v>2.05</v>
-      </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.8</v>
@@ -11837,13 +11837,13 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.625</v>
+        <v>0.55</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>1.05</v>
+        <v>0.375</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11857,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5226042</v>
+        <v>5226044</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11869,58 +11869,58 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>54</v>
       </c>
       <c r="K128">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M128">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P128">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W128">
-        <v>2.3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11929,13 +11929,13 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11946,7 +11946,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5224885</v>
+        <v>5229462</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11958,58 +11958,58 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>54</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="N129">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12018,16 +12018,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12035,7 +12035,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5224889</v>
+        <v>5228058</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12047,76 +12047,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K130">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L130">
         <v>3.3</v>
       </c>
       <c r="M130">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="N130">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P130">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q130">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y130">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
+        <v>0.4</v>
+      </c>
+      <c r="AA130">
         <v>-0.5</v>
       </c>
-      <c r="AA130">
-        <v>0.375</v>
-      </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12225,7 +12225,7 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12492,7 +12492,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
         <v>53</v>
@@ -13560,7 +13560,7 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
         <v>39</v>
@@ -14186,7 +14186,7 @@
         <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15607,7 +15607,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
         <v>47</v>
@@ -16144,7 +16144,7 @@
         <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -17565,7 +17565,7 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>
@@ -18633,7 +18633,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -19081,7 +19081,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19615,7 +19615,7 @@
         <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -20045,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6808023</v>
+        <v>6808894</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20057,10 +20057,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G220" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20072,25 +20072,25 @@
         <v>56</v>
       </c>
       <c r="K220">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L220">
         <v>3.3</v>
       </c>
       <c r="M220">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N220">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O220">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P220">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
         <v>1.85</v>
@@ -20102,10 +20102,10 @@
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -20114,7 +20114,7 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z220">
         <v>-1</v>
@@ -20126,7 +20126,7 @@
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20134,7 +20134,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6808894</v>
+        <v>6808023</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20146,10 +20146,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -20161,25 +20161,25 @@
         <v>56</v>
       </c>
       <c r="K221">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
         <v>3.3</v>
       </c>
       <c r="M221">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N221">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P221">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
         <v>1.85</v>
@@ -20191,10 +20191,10 @@
         <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -20203,7 +20203,7 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
@@ -20215,7 +20215,7 @@
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20502,7 +20502,7 @@
         <v>45200.4375</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G225" t="s">
         <v>31</v>
@@ -20757,7 +20757,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6808667</v>
+        <v>6808666</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20769,73 +20769,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G228" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228">
         <v>3</v>
       </c>
-      <c r="I228">
-        <v>1</v>
-      </c>
       <c r="J228" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K228">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L228">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N228">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="O228">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q228">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T228">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V228">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W228">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z228">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB228">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20846,7 +20846,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6808666</v>
+        <v>6808667</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20858,73 +20858,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G229" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>54</v>
+      </c>
+      <c r="K229">
+        <v>1.615</v>
+      </c>
+      <c r="L229">
+        <v>3.75</v>
+      </c>
+      <c r="M229">
+        <v>4.5</v>
+      </c>
+      <c r="N229">
+        <v>1.285</v>
+      </c>
+      <c r="O229">
+        <v>4.75</v>
+      </c>
+      <c r="P229">
+        <v>8.5</v>
+      </c>
+      <c r="Q229">
+        <v>-1.5</v>
+      </c>
+      <c r="R229">
+        <v>1.85</v>
+      </c>
+      <c r="S229">
+        <v>1.95</v>
+      </c>
+      <c r="T229">
         <v>3</v>
       </c>
-      <c r="J229" t="s">
-        <v>56</v>
-      </c>
-      <c r="K229">
-        <v>2.1</v>
-      </c>
-      <c r="L229">
-        <v>3.4</v>
-      </c>
-      <c r="M229">
-        <v>2.8</v>
-      </c>
-      <c r="N229">
-        <v>2.45</v>
-      </c>
-      <c r="O229">
-        <v>3.6</v>
-      </c>
-      <c r="P229">
-        <v>2.3</v>
-      </c>
-      <c r="Q229">
-        <v>0</v>
-      </c>
-      <c r="R229">
-        <v>2</v>
-      </c>
-      <c r="S229">
-        <v>1.8</v>
-      </c>
-      <c r="T229">
-        <v>2.75</v>
-      </c>
       <c r="U229">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -22015,7 +22015,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F242" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G242" t="s">
         <v>51</v>
@@ -22374,7 +22374,7 @@
         <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H246">
         <v>2</v>
@@ -23172,7 +23172,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F255" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G255" t="s">
         <v>33</v>
@@ -23872,7 +23872,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6808888</v>
+        <v>6808197</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23884,76 +23884,76 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F263" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G263" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
         <v>55</v>
       </c>
       <c r="K263">
+        <v>1.666</v>
+      </c>
+      <c r="L263">
+        <v>3.6</v>
+      </c>
+      <c r="M263">
+        <v>4.2</v>
+      </c>
+      <c r="N263">
+        <v>2.3</v>
+      </c>
+      <c r="O263">
+        <v>3.25</v>
+      </c>
+      <c r="P263">
+        <v>2.7</v>
+      </c>
+      <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="R263">
+        <v>1.775</v>
+      </c>
+      <c r="S263">
+        <v>2.025</v>
+      </c>
+      <c r="T263">
+        <v>2.5</v>
+      </c>
+      <c r="U263">
         <v>1.85</v>
       </c>
-      <c r="L263">
-        <v>3.4</v>
-      </c>
-      <c r="M263">
-        <v>3.5</v>
-      </c>
-      <c r="N263">
-        <v>1.85</v>
-      </c>
-      <c r="O263">
-        <v>3.4</v>
-      </c>
-      <c r="P263">
-        <v>3.5</v>
-      </c>
-      <c r="Q263">
-        <v>-0.5</v>
-      </c>
-      <c r="R263">
-        <v>1.925</v>
-      </c>
-      <c r="S263">
-        <v>1.875</v>
-      </c>
-      <c r="T263">
-        <v>2.75</v>
-      </c>
-      <c r="U263">
-        <v>1.825</v>
-      </c>
       <c r="V263">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA263">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC263">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23961,7 +23961,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6808197</v>
+        <v>6808888</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23973,76 +23973,76 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G264" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
         <v>55</v>
       </c>
       <c r="K264">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M264">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N264">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O264">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P264">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q264">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R264">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S264">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T264">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V264">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB264">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24243,7 +24243,7 @@
         <v>45</v>
       </c>
       <c r="G267" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -24596,7 +24596,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G271" t="s">
         <v>52</v>
@@ -25578,7 +25578,7 @@
         <v>53</v>
       </c>
       <c r="G282" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H282">
         <v>3</v>
@@ -26023,7 +26023,7 @@
         <v>39</v>
       </c>
       <c r="G287" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H287">
         <v>2</v>
@@ -27088,7 +27088,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F299" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G299" t="s">
         <v>46</v>
@@ -27158,80 +27158,6 @@
       </c>
       <c r="AC299">
         <v>0.425</v>
-      </c>
-    </row>
-    <row r="300" spans="1:29">
-      <c r="A300" s="1">
-        <v>298</v>
-      </c>
-      <c r="B300">
-        <v>7544317</v>
-      </c>
-      <c r="C300" t="s">
-        <v>28</v>
-      </c>
-      <c r="D300" t="s">
-        <v>28</v>
-      </c>
-      <c r="E300" s="2">
-        <v>45339.45833333334</v>
-      </c>
-      <c r="F300" t="s">
-        <v>53</v>
-      </c>
-      <c r="G300" t="s">
-        <v>48</v>
-      </c>
-      <c r="K300">
-        <v>1.8</v>
-      </c>
-      <c r="L300">
-        <v>3.6</v>
-      </c>
-      <c r="M300">
-        <v>3.8</v>
-      </c>
-      <c r="N300">
-        <v>1.8</v>
-      </c>
-      <c r="O300">
-        <v>3.6</v>
-      </c>
-      <c r="P300">
-        <v>3.8</v>
-      </c>
-      <c r="Q300">
-        <v>-0.5</v>
-      </c>
-      <c r="R300">
-        <v>1.825</v>
-      </c>
-      <c r="S300">
-        <v>1.975</v>
-      </c>
-      <c r="T300">
-        <v>2.5</v>
-      </c>
-      <c r="U300">
-        <v>1.9</v>
-      </c>
-      <c r="V300">
-        <v>1.9</v>
-      </c>
-      <c r="W300">
-        <v>0</v>
-      </c>
-      <c r="X300">
-        <v>0</v>
-      </c>
-      <c r="Y300">
-        <v>0</v>
-      </c>
-      <c r="Z300">
-        <v>0</v>
-      </c>
-      <c r="AA300">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -124,13 +124,13 @@
     <t>Stomil Olsztyn</t>
   </si>
   <si>
-    <t>Siarka Tarnobrzeg</t>
+    <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
     <t>Garbarnia Krakow</t>
   </si>
   <si>
-    <t>Kotwica Kolobrzeg</t>
+    <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
     <t>Olimpia Elblag</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC299"/>
+  <dimension ref="A1:AC300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5221294</v>
+        <v>5184790</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,43 +1281,43 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1329,25 +1329,25 @@
         <v>1.875</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5184790</v>
+        <v>5221294</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1459,43 +1459,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N11">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>2.5</v>
@@ -1507,25 +1507,25 @@
         <v>1.875</v>
       </c>
       <c r="W11">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5221295</v>
+        <v>5185154</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,73 +2168,73 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
+        <v>3.3</v>
+      </c>
+      <c r="N19">
+        <v>2.05</v>
+      </c>
+      <c r="O19">
+        <v>3.2</v>
+      </c>
+      <c r="P19">
         <v>3.4</v>
-      </c>
-      <c r="N19">
-        <v>2.15</v>
-      </c>
-      <c r="O19">
-        <v>3.3</v>
-      </c>
-      <c r="P19">
-        <v>2.9</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2245,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5185154</v>
+        <v>5221295</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2257,73 +2257,73 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
+        <v>3.4</v>
+      </c>
+      <c r="N20">
+        <v>2.15</v>
+      </c>
+      <c r="O20">
         <v>3.3</v>
       </c>
-      <c r="N20">
-        <v>2.05</v>
-      </c>
-      <c r="O20">
-        <v>3.2</v>
-      </c>
       <c r="P20">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q20">
         <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2438,7 +2438,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5184469</v>
+        <v>5184791</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2702,10 +2702,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2717,43 +2717,43 @@
         <v>54</v>
       </c>
       <c r="K25">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L25">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N25">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2762,16 +2762,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2779,7 +2779,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5184791</v>
+        <v>5184469</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2791,10 +2791,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2806,43 +2806,43 @@
         <v>54</v>
       </c>
       <c r="K26">
+        <v>1.7</v>
+      </c>
+      <c r="L26">
+        <v>3.7</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>2.375</v>
+      </c>
+      <c r="O26">
+        <v>3.4</v>
+      </c>
+      <c r="P26">
         <v>2.6</v>
-      </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.45</v>
-      </c>
-      <c r="N26">
-        <v>2.5</v>
-      </c>
-      <c r="O26">
-        <v>3.1</v>
-      </c>
-      <c r="P26">
-        <v>2.5</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
+        <v>1.8</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
         <v>1.9</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>1.9</v>
       </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>1.825</v>
-      </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
       <c r="W26">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2851,16 +2851,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3135,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5184029</v>
+        <v>5185158</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3147,58 +3147,58 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>54</v>
       </c>
       <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>3.3</v>
+      </c>
+      <c r="M30">
+        <v>3.2</v>
+      </c>
+      <c r="N30">
         <v>1.909</v>
       </c>
-      <c r="L30">
-        <v>3.5</v>
-      </c>
-      <c r="M30">
+      <c r="O30">
         <v>3.3</v>
       </c>
-      <c r="N30">
-        <v>1.85</v>
-      </c>
-      <c r="O30">
-        <v>3.5</v>
-      </c>
       <c r="P30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3207,13 +3207,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3224,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5185158</v>
+        <v>5184029</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,58 +3236,58 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>54</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
+        <v>3.5</v>
+      </c>
+      <c r="M31">
         <v>3.3</v>
       </c>
-      <c r="M31">
-        <v>3.2</v>
-      </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3296,13 +3296,13 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3325,7 +3325,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3770,10 +3770,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
         <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5185171</v>
+        <v>5185166</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5184031</v>
+        <v>5185171</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,13 +4482,13 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4497,43 +4497,43 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N45">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4542,16 +4542,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5185166</v>
+        <v>5184031</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,76 +4571,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
+        <v>2.625</v>
+      </c>
+      <c r="N46">
+        <v>2.05</v>
+      </c>
+      <c r="O46">
         <v>3.2</v>
       </c>
-      <c r="N46">
-        <v>2.15</v>
-      </c>
-      <c r="O46">
+      <c r="P46">
         <v>3.25</v>
-      </c>
-      <c r="P46">
-        <v>2.9</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
+        <v>1.775</v>
+      </c>
+      <c r="S46">
+        <v>2.025</v>
+      </c>
+      <c r="T46">
+        <v>2.75</v>
+      </c>
+      <c r="U46">
+        <v>1.85</v>
+      </c>
+      <c r="V46">
         <v>1.95</v>
       </c>
-      <c r="S46">
-        <v>1.85</v>
-      </c>
-      <c r="T46">
-        <v>2.5</v>
-      </c>
-      <c r="U46">
-        <v>1.825</v>
-      </c>
-      <c r="V46">
-        <v>1.975</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X46">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
+        <v>0.425</v>
+      </c>
+      <c r="AC46">
         <v>-0.5</v>
-      </c>
-      <c r="AA46">
-        <v>0.425</v>
-      </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
-      <c r="AC46">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5019,7 +5019,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6486743</v>
+        <v>5185176</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5105,76 +5105,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K52">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
         <v>2</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q52">
         <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5182,7 +5182,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5185176</v>
+        <v>6486743</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5194,76 +5194,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K53">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53">
         <v>3.2</v>
       </c>
-      <c r="O53">
-        <v>3.4</v>
-      </c>
       <c r="P53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q53">
         <v>0.25</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5538,7 +5538,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5185177</v>
+        <v>5185173</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5550,13 +5550,13 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5565,43 +5565,43 @@
         <v>54</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L57">
         <v>3.25</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N57">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P57">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>0.833</v>
+        <v>1.2</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5610,16 +5610,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5185173</v>
+        <v>5185177</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,13 +5639,13 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -5654,43 +5654,43 @@
         <v>54</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
         <v>3.25</v>
       </c>
       <c r="M58">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O58">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
-        <v>1.2</v>
+        <v>0.833</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5699,16 +5699,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5998,7 +5998,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6087,7 +6087,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6796,7 +6796,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
         <v>39</v>
@@ -7063,7 +7063,7 @@
         <v>45038.51041666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>41</v>
@@ -7318,7 +7318,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5185186</v>
+        <v>5185187</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7330,76 +7330,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K77">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N77">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.825</v>
+      </c>
+      <c r="V77">
+        <v>1.975</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.75</v>
       </c>
-      <c r="U77">
-        <v>1.9</v>
-      </c>
-      <c r="V77">
-        <v>1.9</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7407,7 +7407,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5185187</v>
+        <v>5185186</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7419,76 +7419,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78" t="s">
+        <v>56</v>
+      </c>
+      <c r="K78">
+        <v>2.625</v>
+      </c>
+      <c r="L78">
+        <v>3.2</v>
+      </c>
+      <c r="M78">
+        <v>2.375</v>
+      </c>
+      <c r="N78">
+        <v>2.625</v>
+      </c>
+      <c r="O78">
+        <v>3.1</v>
+      </c>
+      <c r="P78">
+        <v>2.375</v>
+      </c>
+      <c r="Q78">
         <v>0</v>
       </c>
-      <c r="J78" t="s">
-        <v>55</v>
-      </c>
-      <c r="K78">
-        <v>1.8</v>
-      </c>
-      <c r="L78">
-        <v>3.75</v>
-      </c>
-      <c r="M78">
-        <v>3.4</v>
-      </c>
-      <c r="N78">
-        <v>1.75</v>
-      </c>
-      <c r="O78">
-        <v>3.75</v>
-      </c>
-      <c r="P78">
-        <v>3.5</v>
-      </c>
-      <c r="Q78">
-        <v>-0.5</v>
-      </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7763,7 +7763,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5184795</v>
+        <v>5185190</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7775,76 +7775,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L82">
         <v>3.25</v>
       </c>
       <c r="M82">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N82">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="O82">
         <v>3.25</v>
       </c>
       <c r="P82">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
         <v>2.5</v>
       </c>
       <c r="U82">
+        <v>1.95</v>
+      </c>
+      <c r="V82">
         <v>1.85</v>
       </c>
-      <c r="V82">
-        <v>1.95</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y82">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7852,7 +7852,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5185190</v>
+        <v>5184795</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7864,76 +7864,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L83">
         <v>3.25</v>
       </c>
       <c r="M83">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N83">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O83">
         <v>3.25</v>
       </c>
       <c r="P83">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
+        <v>1.85</v>
+      </c>
+      <c r="V83">
         <v>1.95</v>
       </c>
-      <c r="V83">
-        <v>1.85</v>
-      </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7941,7 +7941,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5185191</v>
+        <v>5185194</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7953,37 +7953,37 @@
         <v>45045.5</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>54</v>
       </c>
       <c r="K84">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L84">
         <v>3.3</v>
       </c>
       <c r="M84">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N84">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
         <v>3.4</v>
       </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q84">
         <v>-0.25</v>
@@ -7995,7 +7995,7 @@
         <v>1.975</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
         <v>1.9</v>
@@ -8004,7 +8004,7 @@
         <v>1.9</v>
       </c>
       <c r="W84">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -8019,10 +8019,10 @@
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5185194</v>
+        <v>5185191</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,37 +8131,37 @@
         <v>45045.5</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>54</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L86">
         <v>3.3</v>
       </c>
       <c r="M86">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N86">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O86">
         <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
         <v>-0.25</v>
@@ -8173,7 +8173,7 @@
         <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
         <v>1.9</v>
@@ -8182,7 +8182,7 @@
         <v>1.9</v>
       </c>
       <c r="W86">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8197,10 +8197,10 @@
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8475,7 +8475,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5184036</v>
+        <v>5185195</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8487,76 +8487,76 @@
         <v>45052.5</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K90">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L90">
         <v>3.4</v>
       </c>
       <c r="M90">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N90">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P90">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
+        <v>1.95</v>
+      </c>
+      <c r="S90">
         <v>1.85</v>
-      </c>
-      <c r="S90">
-        <v>1.95</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y90">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8564,7 +8564,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5185195</v>
+        <v>5184036</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8576,76 +8576,76 @@
         <v>45052.5</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K91">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L91">
         <v>3.4</v>
       </c>
       <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>3.5</v>
+      </c>
+      <c r="O91">
         <v>3.4</v>
       </c>
-      <c r="N91">
-        <v>2.15</v>
-      </c>
-      <c r="O91">
-        <v>3.25</v>
-      </c>
       <c r="P91">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R91">
+        <v>1.85</v>
+      </c>
+      <c r="S91">
         <v>1.95</v>
-      </c>
-      <c r="S91">
-        <v>1.85</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8653,7 +8653,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5221302</v>
+        <v>5184744</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8665,55 +8665,55 @@
         <v>45052.5</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>56</v>
       </c>
       <c r="K92">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="L92">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M92">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O92">
         <v>3.2</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q92">
         <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8722,19 +8722,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8742,7 +8742,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5184744</v>
+        <v>5221302</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8754,55 +8754,55 @@
         <v>45052.5</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>56</v>
       </c>
       <c r="K93">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="L93">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M93">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N93">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O93">
         <v>3.2</v>
       </c>
       <c r="P93">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q93">
         <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8811,19 +8811,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8932,7 +8932,7 @@
         <v>45053.52083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
         <v>39</v>
@@ -9024,7 +9024,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5224880</v>
+        <v>5223000</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9288,76 +9288,76 @@
         <v>45059.5</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K99">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M99">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N99">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O99">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
+        <v>1.975</v>
+      </c>
+      <c r="V99">
         <v>1.825</v>
       </c>
-      <c r="V99">
-        <v>1.975</v>
-      </c>
       <c r="W99">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.825</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5223000</v>
+        <v>5222999</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,76 +9377,76 @@
         <v>45059.5</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>55</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L100">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="N100">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O100">
+        <v>4.2</v>
+      </c>
+      <c r="P100">
+        <v>6.5</v>
+      </c>
+      <c r="Q100">
+        <v>-1.25</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
+        <v>2.75</v>
+      </c>
+      <c r="U100">
+        <v>1.8</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
         <v>3.2</v>
       </c>
-      <c r="P100">
-        <v>3.1</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.875</v>
-      </c>
-      <c r="S100">
-        <v>1.925</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>2.2</v>
-      </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5222999</v>
+        <v>5224880</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,73 +9466,73 @@
         <v>45059.5</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K101">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L101">
         <v>4</v>
       </c>
       <c r="M101">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
         <v>1.363</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P101">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q101">
         <v>-1.25</v>
       </c>
       <c r="R101">
+        <v>1.85</v>
+      </c>
+      <c r="S101">
         <v>1.95</v>
       </c>
-      <c r="S101">
-        <v>1.85</v>
-      </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9911,7 +9911,7 @@
         <v>45065.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>30</v>
@@ -10089,7 +10089,7 @@
         <v>45066.5</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
@@ -11160,7 +11160,7 @@
         <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11249,7 +11249,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11323,7 +11323,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5226043</v>
+        <v>5224889</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11335,76 +11335,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K122">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="L122">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="N122">
-        <v>1.45</v>
+        <v>5</v>
       </c>
       <c r="O122">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>1.75</v>
+      </c>
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
         <v>1.8</v>
       </c>
-      <c r="S122">
-        <v>2</v>
-      </c>
-      <c r="T122">
-        <v>2.25</v>
-      </c>
-      <c r="U122">
-        <v>1.9</v>
-      </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11412,7 +11412,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5224884</v>
+        <v>5226042</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11424,76 +11424,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K123">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N123">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11501,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5185127</v>
+        <v>5228058</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11513,76 +11513,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N124">
+        <v>2.8</v>
+      </c>
+      <c r="O124">
+        <v>3.25</v>
+      </c>
+      <c r="P124">
+        <v>2.2</v>
+      </c>
+      <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.925</v>
+      </c>
+      <c r="V124">
+        <v>1.875</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
         <v>2.25</v>
       </c>
-      <c r="O124">
-        <v>3.5</v>
-      </c>
-      <c r="P124">
-        <v>2.625</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>1.75</v>
-      </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.8</v>
-      </c>
-      <c r="V124">
-        <v>2</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
       <c r="Y124">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA124">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11590,7 +11590,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5224885</v>
+        <v>5226044</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11602,49 +11602,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>54</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N125">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P125">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R125">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U125">
         <v>1.8</v>
@@ -11653,7 +11653,7 @@
         <v>2</v>
       </c>
       <c r="W125">
-        <v>1.3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11662,16 +11662,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5226042</v>
+        <v>5224885</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11691,58 +11691,58 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>54</v>
       </c>
       <c r="K126">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M126">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N126">
+        <v>2.3</v>
+      </c>
+      <c r="O126">
         <v>3.3</v>
       </c>
-      <c r="O126">
-        <v>3.6</v>
-      </c>
       <c r="P126">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q126">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11751,16 +11751,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5224889</v>
+        <v>5229462</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11780,76 +11780,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K127">
+        <v>4</v>
+      </c>
+      <c r="L127">
         <v>3.5</v>
       </c>
-      <c r="L127">
-        <v>3.3</v>
-      </c>
       <c r="M127">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N127">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="Q127">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA127">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC127">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11857,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5226044</v>
+        <v>5226043</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11869,76 +11869,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K128">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L128">
         <v>4.5</v>
       </c>
       <c r="M128">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="O128">
+        <v>4.333</v>
+      </c>
+      <c r="P128">
         <v>5.25</v>
       </c>
-      <c r="P128">
-        <v>7.5</v>
-      </c>
       <c r="Q128">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB128">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11946,7 +11946,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5229462</v>
+        <v>5224884</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11958,76 +11958,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P129">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
+        <v>1.85</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
         <v>1.8</v>
       </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>1.95</v>
-      </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W129">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12035,7 +12035,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5228058</v>
+        <v>5185127</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12047,76 +12047,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N130">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O130">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
+        <v>1.75</v>
+      </c>
+      <c r="S130">
+        <v>2.05</v>
+      </c>
+      <c r="T130">
+        <v>2.25</v>
+      </c>
+      <c r="U130">
         <v>1.8</v>
       </c>
-      <c r="S130">
-        <v>2</v>
-      </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.925</v>
-      </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z130">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12225,7 +12225,7 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12492,7 +12492,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
         <v>53</v>
@@ -12836,7 +12836,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6808005</v>
+        <v>6808905</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12848,58 +12848,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>54</v>
       </c>
       <c r="K139">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
+        <v>3.2</v>
+      </c>
+      <c r="M139">
+        <v>2.5</v>
+      </c>
+      <c r="N139">
+        <v>2.15</v>
+      </c>
+      <c r="O139">
+        <v>3.25</v>
+      </c>
+      <c r="P139">
         <v>3.1</v>
       </c>
-      <c r="M139">
-        <v>3</v>
-      </c>
-      <c r="N139">
-        <v>2.5</v>
-      </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
-      <c r="P139">
-        <v>2.6</v>
-      </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12908,16 +12908,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12925,7 +12925,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6808905</v>
+        <v>6808005</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12937,58 +12937,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>54</v>
       </c>
       <c r="K140">
+        <v>2.2</v>
+      </c>
+      <c r="L140">
+        <v>3.1</v>
+      </c>
+      <c r="M140">
+        <v>3</v>
+      </c>
+      <c r="N140">
         <v>2.5</v>
       </c>
-      <c r="L140">
-        <v>3.2</v>
-      </c>
-      <c r="M140">
+      <c r="O140">
+        <v>3.1</v>
+      </c>
+      <c r="P140">
+        <v>2.6</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
+        <v>1.95</v>
+      </c>
+      <c r="T140">
         <v>2.5</v>
       </c>
-      <c r="N140">
-        <v>2.15</v>
-      </c>
-      <c r="O140">
-        <v>3.25</v>
-      </c>
-      <c r="P140">
-        <v>3.1</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.9</v>
-      </c>
-      <c r="S140">
-        <v>1.9</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12997,16 +12997,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13560,7 +13560,7 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
         <v>39</v>
@@ -14186,7 +14186,7 @@
         <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6808166</v>
+        <v>6808165</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45151.5</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K164">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
         <v>3.25</v>
       </c>
       <c r="M164">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N164">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S164">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.925</v>
+      </c>
+      <c r="AB164">
+        <v>0.45</v>
+      </c>
+      <c r="AC164">
         <v>-0.5</v>
-      </c>
-      <c r="AA164">
-        <v>0.4</v>
-      </c>
-      <c r="AB164">
-        <v>-0.5</v>
-      </c>
-      <c r="AC164">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6808617</v>
+        <v>6808166</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,28 +15162,28 @@
         <v>45151.5</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M165">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N165">
         <v>2.2</v>
@@ -15192,46 +15192,46 @@
         <v>3.25</v>
       </c>
       <c r="P165">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
+        <v>1.875</v>
+      </c>
+      <c r="V165">
         <v>1.925</v>
       </c>
-      <c r="V165">
-        <v>1.875</v>
-      </c>
       <c r="W165">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15239,7 +15239,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6808619</v>
+        <v>6808617</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15251,46 +15251,46 @@
         <v>45151.5</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>54</v>
       </c>
       <c r="K166">
+        <v>2.4</v>
+      </c>
+      <c r="L166">
+        <v>3.2</v>
+      </c>
+      <c r="M166">
+        <v>2.6</v>
+      </c>
+      <c r="N166">
         <v>2.2</v>
       </c>
-      <c r="L166">
+      <c r="O166">
         <v>3.25</v>
       </c>
-      <c r="M166">
-        <v>2.8</v>
-      </c>
-      <c r="N166">
-        <v>2</v>
-      </c>
-      <c r="O166">
-        <v>3.4</v>
-      </c>
       <c r="P166">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q166">
         <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
         <v>2.5</v>
@@ -15302,7 +15302,7 @@
         <v>1.875</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15311,16 +15311,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15328,7 +15328,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6808165</v>
+        <v>6808619</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15340,76 +15340,76 @@
         <v>45151.5</v>
       </c>
       <c r="F167" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K167">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L167">
         <v>3.25</v>
       </c>
       <c r="M167">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N167">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
+        <v>1.8</v>
+      </c>
+      <c r="S167">
+        <v>2</v>
+      </c>
+      <c r="T167">
+        <v>2.5</v>
+      </c>
+      <c r="U167">
+        <v>1.925</v>
+      </c>
+      <c r="V167">
         <v>1.875</v>
       </c>
-      <c r="S167">
-        <v>1.925</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>1.9</v>
-      </c>
-      <c r="V167">
-        <v>1.9</v>
-      </c>
       <c r="W167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA167">
+        <v>-1</v>
+      </c>
+      <c r="AB167">
         <v>0.925</v>
       </c>
-      <c r="AB167">
-        <v>0.45</v>
-      </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15607,7 +15607,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
         <v>47</v>
@@ -16144,7 +16144,7 @@
         <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16485,7 +16485,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6808625</v>
+        <v>6808624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16497,16 +16497,16 @@
         <v>45164.5</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
         <v>54</v>
@@ -16521,34 +16521,34 @@
         <v>3.1</v>
       </c>
       <c r="N180">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O180">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P180">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q180">
         <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16557,13 +16557,13 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16574,7 +16574,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6808624</v>
+        <v>6808625</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16586,16 +16586,16 @@
         <v>45164.5</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
         <v>54</v>
@@ -16610,34 +16610,34 @@
         <v>3.1</v>
       </c>
       <c r="N181">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P181">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q181">
         <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16646,13 +16646,13 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -17565,7 +17565,7 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>
@@ -18633,7 +18633,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -19081,7 +19081,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19615,7 +19615,7 @@
         <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -20045,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6808894</v>
+        <v>6808664</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20057,56 +20057,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H220">
         <v>0</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J220" t="s">
         <v>56</v>
       </c>
       <c r="K220">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L220">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N220">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O220">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R220">
+        <v>1.8</v>
+      </c>
+      <c r="S220">
+        <v>2</v>
+      </c>
+      <c r="T220">
+        <v>3</v>
+      </c>
+      <c r="U220">
         <v>1.85</v>
       </c>
-      <c r="S220">
+      <c r="V220">
         <v>1.95</v>
       </c>
-      <c r="T220">
-        <v>2.5</v>
-      </c>
-      <c r="U220">
-        <v>1.95</v>
-      </c>
-      <c r="V220">
-        <v>1.85</v>
-      </c>
       <c r="W220">
         <v>-1</v>
       </c>
@@ -20114,19 +20114,19 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20223,7 +20223,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6808664</v>
+        <v>6808894</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20235,56 +20235,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G222" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>56</v>
       </c>
       <c r="K222">
+        <v>2.875</v>
+      </c>
+      <c r="L222">
+        <v>3.3</v>
+      </c>
+      <c r="M222">
+        <v>2.15</v>
+      </c>
+      <c r="N222">
+        <v>2.875</v>
+      </c>
+      <c r="O222">
+        <v>3.3</v>
+      </c>
+      <c r="P222">
+        <v>2.15</v>
+      </c>
+      <c r="Q222">
+        <v>0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
+        <v>1.95</v>
+      </c>
+      <c r="T222">
         <v>2.5</v>
       </c>
-      <c r="L222">
-        <v>3.4</v>
-      </c>
-      <c r="M222">
-        <v>2.375</v>
-      </c>
-      <c r="N222">
-        <v>2.3</v>
-      </c>
-      <c r="O222">
-        <v>3.4</v>
-      </c>
-      <c r="P222">
-        <v>2.55</v>
-      </c>
-      <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
-        <v>1.8</v>
-      </c>
-      <c r="S222">
-        <v>2</v>
-      </c>
-      <c r="T222">
-        <v>3</v>
-      </c>
       <c r="U222">
+        <v>1.95</v>
+      </c>
+      <c r="V222">
         <v>1.85</v>
       </c>
-      <c r="V222">
-        <v>1.95</v>
-      </c>
       <c r="W222">
         <v>-1</v>
       </c>
@@ -20292,19 +20292,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20502,7 +20502,7 @@
         <v>45200.4375</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
         <v>31</v>
@@ -20772,7 +20772,7 @@
         <v>50</v>
       </c>
       <c r="G228" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -22015,7 +22015,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G242" t="s">
         <v>51</v>
@@ -22374,7 +22374,7 @@
         <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H246">
         <v>2</v>
@@ -23172,7 +23172,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G255" t="s">
         <v>33</v>
@@ -23872,7 +23872,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6808197</v>
+        <v>6808888</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23884,76 +23884,76 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G263" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
         <v>55</v>
       </c>
       <c r="K263">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L263">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M263">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N263">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O263">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P263">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q263">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R263">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S263">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T263">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23961,7 +23961,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6808888</v>
+        <v>6808197</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23973,76 +23973,76 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F264" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
         <v>55</v>
       </c>
       <c r="K264">
+        <v>1.666</v>
+      </c>
+      <c r="L264">
+        <v>3.6</v>
+      </c>
+      <c r="M264">
+        <v>4.2</v>
+      </c>
+      <c r="N264">
+        <v>2.3</v>
+      </c>
+      <c r="O264">
+        <v>3.25</v>
+      </c>
+      <c r="P264">
+        <v>2.7</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <v>1.775</v>
+      </c>
+      <c r="S264">
+        <v>2.025</v>
+      </c>
+      <c r="T264">
+        <v>2.5</v>
+      </c>
+      <c r="U264">
         <v>1.85</v>
       </c>
-      <c r="L264">
-        <v>3.4</v>
-      </c>
-      <c r="M264">
-        <v>3.5</v>
-      </c>
-      <c r="N264">
-        <v>1.85</v>
-      </c>
-      <c r="O264">
-        <v>3.4</v>
-      </c>
-      <c r="P264">
-        <v>3.5</v>
-      </c>
-      <c r="Q264">
-        <v>-0.5</v>
-      </c>
-      <c r="R264">
-        <v>1.925</v>
-      </c>
-      <c r="S264">
-        <v>1.875</v>
-      </c>
-      <c r="T264">
-        <v>2.75</v>
-      </c>
-      <c r="U264">
-        <v>1.825</v>
-      </c>
       <c r="V264">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA264">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC264">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24243,7 +24243,7 @@
         <v>45</v>
       </c>
       <c r="G267" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -24596,7 +24596,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
         <v>52</v>
@@ -25029,7 +25029,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6808689</v>
+        <v>6808690</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25041,13 +25041,13 @@
         <v>45242.375</v>
       </c>
       <c r="F276" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G276" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -25056,34 +25056,34 @@
         <v>54</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L276">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M276">
+        <v>2.8</v>
+      </c>
+      <c r="N276">
+        <v>2.5</v>
+      </c>
+      <c r="O276">
+        <v>3.25</v>
+      </c>
+      <c r="P276">
+        <v>2.4</v>
+      </c>
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276">
+        <v>1.95</v>
+      </c>
+      <c r="S276">
+        <v>1.85</v>
+      </c>
+      <c r="T276">
         <v>2.75</v>
-      </c>
-      <c r="N276">
-        <v>2.8</v>
-      </c>
-      <c r="O276">
-        <v>3.4</v>
-      </c>
-      <c r="P276">
-        <v>2.2</v>
-      </c>
-      <c r="Q276">
-        <v>0.25</v>
-      </c>
-      <c r="R276">
-        <v>1.825</v>
-      </c>
-      <c r="S276">
-        <v>1.975</v>
-      </c>
-      <c r="T276">
-        <v>3</v>
       </c>
       <c r="U276">
         <v>1.975</v>
@@ -25092,7 +25092,7 @@
         <v>1.825</v>
       </c>
       <c r="W276">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25101,16 +25101,16 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC276">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25118,7 +25118,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6808690</v>
+        <v>6808689</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25130,13 +25130,13 @@
         <v>45242.375</v>
       </c>
       <c r="F277" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G277" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H277">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -25145,34 +25145,34 @@
         <v>54</v>
       </c>
       <c r="K277">
+        <v>2.3</v>
+      </c>
+      <c r="L277">
+        <v>3.2</v>
+      </c>
+      <c r="M277">
+        <v>2.75</v>
+      </c>
+      <c r="N277">
+        <v>2.8</v>
+      </c>
+      <c r="O277">
+        <v>3.4</v>
+      </c>
+      <c r="P277">
         <v>2.2</v>
       </c>
-      <c r="L277">
-        <v>3.3</v>
-      </c>
-      <c r="M277">
-        <v>2.8</v>
-      </c>
-      <c r="N277">
-        <v>2.5</v>
-      </c>
-      <c r="O277">
-        <v>3.25</v>
-      </c>
-      <c r="P277">
-        <v>2.4</v>
-      </c>
       <c r="Q277">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R277">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S277">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T277">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U277">
         <v>1.975</v>
@@ -25181,7 +25181,7 @@
         <v>1.825</v>
       </c>
       <c r="W277">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25190,16 +25190,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25385,7 +25385,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6808694</v>
+        <v>6808886</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25397,49 +25397,49 @@
         <v>45248.375</v>
       </c>
       <c r="F280" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G280" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="s">
         <v>54</v>
       </c>
       <c r="K280">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L280">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M280">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N280">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O280">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P280">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q280">
         <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S280">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T280">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U280">
         <v>1.85</v>
@@ -25448,25 +25448,25 @@
         <v>1.95</v>
       </c>
       <c r="W280">
+        <v>1.375</v>
+      </c>
+      <c r="X280">
+        <v>-1</v>
+      </c>
+      <c r="Y280">
+        <v>-1</v>
+      </c>
+      <c r="Z280">
+        <v>1.075</v>
+      </c>
+      <c r="AA280">
+        <v>-1</v>
+      </c>
+      <c r="AB280">
+        <v>-1</v>
+      </c>
+      <c r="AC280">
         <v>0.95</v>
-      </c>
-      <c r="X280">
-        <v>-1</v>
-      </c>
-      <c r="Y280">
-        <v>-1</v>
-      </c>
-      <c r="Z280">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA280">
-        <v>-1</v>
-      </c>
-      <c r="AB280">
-        <v>0.425</v>
-      </c>
-      <c r="AC280">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25474,7 +25474,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6808886</v>
+        <v>6808694</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25486,49 +25486,49 @@
         <v>45248.375</v>
       </c>
       <c r="F281" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G281" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
         <v>54</v>
       </c>
       <c r="K281">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L281">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M281">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N281">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O281">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P281">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S281">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U281">
         <v>1.85</v>
@@ -25537,7 +25537,7 @@
         <v>1.95</v>
       </c>
       <c r="W281">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="X281">
         <v>-1</v>
@@ -25546,16 +25546,16 @@
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>1.075</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA281">
         <v>-1</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC281">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25578,7 +25578,7 @@
         <v>53</v>
       </c>
       <c r="G282" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H282">
         <v>3</v>
@@ -26023,7 +26023,7 @@
         <v>39</v>
       </c>
       <c r="G287" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H287">
         <v>2</v>
@@ -27088,7 +27088,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F299" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G299" t="s">
         <v>46</v>
@@ -27158,6 +27158,95 @@
       </c>
       <c r="AC299">
         <v>0.425</v>
+      </c>
+    </row>
+    <row r="300" spans="1:29">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>7544317</v>
+      </c>
+      <c r="C300" t="s">
+        <v>28</v>
+      </c>
+      <c r="D300" t="s">
+        <v>28</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F300" t="s">
+        <v>53</v>
+      </c>
+      <c r="G300" t="s">
+        <v>48</v>
+      </c>
+      <c r="H300">
+        <v>2</v>
+      </c>
+      <c r="I300">
+        <v>2</v>
+      </c>
+      <c r="J300" t="s">
+        <v>55</v>
+      </c>
+      <c r="K300">
+        <v>1.8</v>
+      </c>
+      <c r="L300">
+        <v>3.6</v>
+      </c>
+      <c r="M300">
+        <v>3.8</v>
+      </c>
+      <c r="N300">
+        <v>1.85</v>
+      </c>
+      <c r="O300">
+        <v>3.6</v>
+      </c>
+      <c r="P300">
+        <v>3.6</v>
+      </c>
+      <c r="Q300">
+        <v>-0.5</v>
+      </c>
+      <c r="R300">
+        <v>1.875</v>
+      </c>
+      <c r="S300">
+        <v>1.925</v>
+      </c>
+      <c r="T300">
+        <v>2.5</v>
+      </c>
+      <c r="U300">
+        <v>1.9</v>
+      </c>
+      <c r="V300">
+        <v>1.9</v>
+      </c>
+      <c r="W300">
+        <v>-1</v>
+      </c>
+      <c r="X300">
+        <v>2.6</v>
+      </c>
+      <c r="Y300">
+        <v>-1</v>
+      </c>
+      <c r="Z300">
+        <v>-1</v>
+      </c>
+      <c r="AA300">
+        <v>0.925</v>
+      </c>
+      <c r="AB300">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC300">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -124,13 +124,13 @@
     <t>Stomil Olsztyn</t>
   </si>
   <si>
-    <t>Kotwica Kolobrzeg</t>
+    <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
     <t>Garbarnia Krakow</t>
   </si>
   <si>
-    <t>Siarka Tarnobrzeg</t>
+    <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
     <t>Olimpia Elblag</t>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5184790</v>
+        <v>5221294</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,43 +1281,43 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N9">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1329,25 +1329,25 @@
         <v>1.875</v>
       </c>
       <c r="W9">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5221294</v>
+        <v>5184790</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1459,43 +1459,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
         <v>2.5</v>
@@ -1507,25 +1507,25 @@
         <v>1.875</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X11">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2438,7 +2438,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2705,7 +2705,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5185159</v>
+        <v>5184029</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2969,73 +2969,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L28">
         <v>3.5</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5185156</v>
+        <v>5221296</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3058,19 +3058,19 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29">
         <v>1.571</v>
@@ -3082,52 +3082,52 @@
         <v>4.75</v>
       </c>
       <c r="N29">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3135,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5185158</v>
+        <v>5185159</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3147,73 +3147,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
         <v>3.3</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3224,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5184029</v>
+        <v>5185156</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,13 +3236,13 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3251,43 +3251,43 @@
         <v>54</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M31">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N31">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3296,16 +3296,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5221296</v>
+        <v>5185158</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3325,49 +3325,49 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L32">
+        <v>3.3</v>
+      </c>
+      <c r="M32">
+        <v>3.2</v>
+      </c>
+      <c r="N32">
+        <v>1.909</v>
+      </c>
+      <c r="O32">
+        <v>3.3</v>
+      </c>
+      <c r="P32">
         <v>3.75</v>
       </c>
-      <c r="M32">
-        <v>4.75</v>
-      </c>
-      <c r="N32">
-        <v>1.7</v>
-      </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
-      <c r="P32">
-        <v>4</v>
-      </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
         <v>1.95</v>
@@ -3376,25 +3376,25 @@
         <v>1.85</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3770,10 +3770,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
         <v>38</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5185166</v>
+        <v>5185171</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X44">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5185171</v>
+        <v>5185166</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N45">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O45">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4574,7 +4574,7 @@
         <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -5019,7 +5019,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5185176</v>
+        <v>6486743</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5105,76 +5105,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K52">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
         <v>2</v>
       </c>
       <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
         <v>3.2</v>
       </c>
-      <c r="O52">
-        <v>3.4</v>
-      </c>
       <c r="P52">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q52">
         <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5182,7 +5182,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6486743</v>
+        <v>5185176</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5194,76 +5194,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K53">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L53">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q53">
         <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5894,7 +5894,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5185181</v>
+        <v>5184473</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5906,76 +5906,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K61">
+        <v>2.875</v>
+      </c>
+      <c r="L61">
+        <v>3.4</v>
+      </c>
+      <c r="M61">
+        <v>2.1</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61">
+        <v>3.3</v>
+      </c>
+      <c r="P61">
+        <v>2.05</v>
+      </c>
+      <c r="Q61">
+        <v>0.25</v>
+      </c>
+      <c r="R61">
+        <v>1.825</v>
+      </c>
+      <c r="S61">
+        <v>1.975</v>
+      </c>
+      <c r="T61">
         <v>2.5</v>
       </c>
-      <c r="L61">
-        <v>3.2</v>
-      </c>
-      <c r="M61">
-        <v>2.5</v>
-      </c>
-      <c r="N61">
-        <v>2.2</v>
-      </c>
-      <c r="O61">
-        <v>3.25</v>
-      </c>
-      <c r="P61">
-        <v>2.875</v>
-      </c>
-      <c r="Q61">
-        <v>-0.25</v>
-      </c>
-      <c r="R61">
-        <v>1.975</v>
-      </c>
-      <c r="S61">
-        <v>1.825</v>
-      </c>
-      <c r="T61">
-        <v>2.75</v>
-      </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5983,7 +5983,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5184473</v>
+        <v>5185181</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5995,76 +5995,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
       <c r="J62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K62">
+        <v>2.5</v>
+      </c>
+      <c r="L62">
+        <v>3.2</v>
+      </c>
+      <c r="M62">
+        <v>2.5</v>
+      </c>
+      <c r="N62">
+        <v>2.2</v>
+      </c>
+      <c r="O62">
+        <v>3.25</v>
+      </c>
+      <c r="P62">
         <v>2.875</v>
       </c>
-      <c r="L62">
-        <v>3.4</v>
-      </c>
-      <c r="M62">
-        <v>2.1</v>
-      </c>
-      <c r="N62">
-        <v>3</v>
-      </c>
-      <c r="O62">
-        <v>3.3</v>
-      </c>
-      <c r="P62">
-        <v>2.05</v>
-      </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
+        <v>1.975</v>
+      </c>
+      <c r="S62">
         <v>1.825</v>
       </c>
-      <c r="S62">
+      <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
         <v>1.975</v>
       </c>
-      <c r="T62">
-        <v>2.5</v>
-      </c>
-      <c r="U62">
-        <v>1.95</v>
-      </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6087,7 +6087,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5184034</v>
+        <v>5221300</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6796,58 +6796,58 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>54</v>
       </c>
       <c r="K71">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L71">
+        <v>3.4</v>
+      </c>
+      <c r="M71">
         <v>3.1</v>
       </c>
-      <c r="M71">
-        <v>2.45</v>
-      </c>
       <c r="N71">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
+        <v>1.85</v>
+      </c>
+      <c r="S71">
         <v>1.95</v>
       </c>
-      <c r="S71">
-        <v>1.85</v>
-      </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6856,16 +6856,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6873,7 +6873,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5221300</v>
+        <v>5184034</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6885,58 +6885,58 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>54</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N72">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
       </c>
-      <c r="S72">
-        <v>1.95</v>
-      </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W72">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6945,16 +6945,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7063,7 +7063,7 @@
         <v>45038.51041666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
         <v>41</v>
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7763,7 +7763,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5185190</v>
+        <v>5184795</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7775,76 +7775,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K82">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L82">
         <v>3.25</v>
       </c>
       <c r="M82">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N82">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O82">
         <v>3.25</v>
       </c>
       <c r="P82">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>2.5</v>
       </c>
       <c r="U82">
+        <v>1.85</v>
+      </c>
+      <c r="V82">
         <v>1.95</v>
       </c>
-      <c r="V82">
-        <v>1.85</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7852,7 +7852,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5184795</v>
+        <v>5185190</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7864,76 +7864,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K83">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
         <v>3.25</v>
       </c>
       <c r="M83">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N83">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="O83">
         <v>3.25</v>
       </c>
       <c r="P83">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S83">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
+        <v>1.95</v>
+      </c>
+      <c r="V83">
         <v>1.85</v>
       </c>
-      <c r="V83">
-        <v>1.95</v>
-      </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y83">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8564,7 +8564,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5184036</v>
+        <v>5221302</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8576,46 +8576,46 @@
         <v>45052.5</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>56</v>
       </c>
       <c r="K91">
+        <v>2.6</v>
+      </c>
+      <c r="L91">
+        <v>3.25</v>
+      </c>
+      <c r="M91">
+        <v>2.375</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
         <v>3.2</v>
       </c>
-      <c r="L91">
-        <v>3.4</v>
-      </c>
-      <c r="M91">
-        <v>2</v>
-      </c>
-      <c r="N91">
-        <v>3.5</v>
-      </c>
-      <c r="O91">
-        <v>3.4</v>
-      </c>
       <c r="P91">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q91">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.75</v>
@@ -8633,13 +8633,13 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
         <v>-1</v>
@@ -8653,7 +8653,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5184744</v>
+        <v>5184036</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8665,13 +8665,13 @@
         <v>45052.5</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -8680,40 +8680,40 @@
         <v>56</v>
       </c>
       <c r="K92">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O92">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8722,19 +8722,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8742,7 +8742,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5221302</v>
+        <v>5184744</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8754,55 +8754,55 @@
         <v>45052.5</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>56</v>
       </c>
       <c r="K93">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="L93">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M93">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O93">
         <v>3.2</v>
       </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q93">
         <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8811,19 +8811,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8932,7 +8932,7 @@
         <v>45053.52083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>39</v>
@@ -9024,7 +9024,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5222999</v>
+        <v>5224880</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,73 +9377,73 @@
         <v>45059.5</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K100">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L100">
         <v>4</v>
       </c>
       <c r="M100">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="N100">
         <v>1.363</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P100">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q100">
         <v>-1.25</v>
       </c>
       <c r="R100">
+        <v>1.85</v>
+      </c>
+      <c r="S100">
         <v>1.95</v>
       </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X100">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5224880</v>
+        <v>5222999</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,73 +9466,73 @@
         <v>45059.5</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K101">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L101">
         <v>4</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="N101">
         <v>1.363</v>
       </c>
       <c r="O101">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q101">
         <v>-1.25</v>
       </c>
       <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
         <v>1.85</v>
       </c>
-      <c r="S101">
-        <v>1.95</v>
-      </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9911,7 +9911,7 @@
         <v>45065.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
         <v>30</v>
@@ -10089,7 +10089,7 @@
         <v>45066.5</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
@@ -11160,7 +11160,7 @@
         <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11249,7 +11249,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11501,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5228058</v>
+        <v>5226044</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11513,76 +11513,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M124">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N124">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="O124">
+        <v>5.25</v>
+      </c>
+      <c r="P124">
+        <v>7.5</v>
+      </c>
+      <c r="Q124">
+        <v>-1.5</v>
+      </c>
+      <c r="R124">
+        <v>1.825</v>
+      </c>
+      <c r="S124">
+        <v>1.975</v>
+      </c>
+      <c r="T124">
         <v>3.25</v>
       </c>
-      <c r="P124">
-        <v>2.2</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
+      <c r="U124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X124">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11590,7 +11590,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5226044</v>
+        <v>5228058</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11602,76 +11602,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>55</v>
+      </c>
+      <c r="K125">
         <v>3</v>
       </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-      <c r="J125" t="s">
-        <v>54</v>
-      </c>
-      <c r="K125">
-        <v>1.363</v>
-      </c>
       <c r="L125">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N125">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="O125">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P125">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q125">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5224885</v>
+        <v>5229462</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11691,58 +11691,58 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>54</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="N126">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="O126">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11751,16 +11751,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC126">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5229462</v>
+        <v>5226043</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11780,76 +11780,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K127">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L127">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M127">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="N127">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P127">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB127">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11857,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5226043</v>
+        <v>5185127</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11869,76 +11869,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K128">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L128">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N128">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T128">
         <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12035,7 +12035,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5185127</v>
+        <v>5224885</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12047,34 +12047,34 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
         <v>0</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
       <c r="J130" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K130">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N130">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
         <v>2.625</v>
@@ -12083,13 +12083,13 @@
         <v>0</v>
       </c>
       <c r="R130">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
         <v>1.8</v>
@@ -12098,19 +12098,19 @@
         <v>2</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
@@ -12225,7 +12225,7 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12492,7 +12492,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
         <v>53</v>
@@ -12747,7 +12747,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6808604</v>
+        <v>6808005</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12759,19 +12759,19 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K138">
         <v>2.2</v>
@@ -12783,52 +12783,52 @@
         <v>3</v>
       </c>
       <c r="N138">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O138">
         <v>3.1</v>
       </c>
       <c r="P138">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q138">
         <v>0</v>
       </c>
       <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
         <v>1.95</v>
-      </c>
-      <c r="S138">
-        <v>1.85</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X138">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12925,7 +12925,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6808005</v>
+        <v>6808604</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12937,19 +12937,19 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K140">
         <v>2.2</v>
@@ -12961,52 +12961,52 @@
         <v>3</v>
       </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O140">
         <v>3.1</v>
       </c>
       <c r="P140">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q140">
         <v>0</v>
       </c>
       <c r="R140">
+        <v>1.95</v>
+      </c>
+      <c r="S140">
         <v>1.85</v>
-      </c>
-      <c r="S140">
-        <v>1.95</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13560,7 +13560,7 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
         <v>39</v>
@@ -13726,7 +13726,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6808161</v>
+        <v>6808609</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13738,76 +13738,76 @@
         <v>45137.5</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>55</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
+        <v>2.4</v>
+      </c>
+      <c r="N149">
+        <v>2.25</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>2.5</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
+        <v>3</v>
+      </c>
+      <c r="U149">
+        <v>1.875</v>
+      </c>
+      <c r="V149">
+        <v>1.925</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
         <v>2.75</v>
       </c>
-      <c r="N149">
-        <v>2.2</v>
-      </c>
-      <c r="O149">
-        <v>3.2</v>
-      </c>
-      <c r="P149">
-        <v>2.875</v>
-      </c>
-      <c r="Q149">
-        <v>-0.25</v>
-      </c>
-      <c r="R149">
-        <v>2</v>
-      </c>
-      <c r="S149">
-        <v>1.8</v>
-      </c>
-      <c r="T149">
-        <v>2.25</v>
-      </c>
-      <c r="U149">
-        <v>1.8</v>
-      </c>
-      <c r="V149">
-        <v>2</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>2.2</v>
-      </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13815,7 +13815,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6808609</v>
+        <v>6808161</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13827,76 +13827,76 @@
         <v>45137.5</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>55</v>
       </c>
       <c r="K150">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N150">
+        <v>2.2</v>
+      </c>
+      <c r="O150">
+        <v>3.2</v>
+      </c>
+      <c r="P150">
+        <v>2.875</v>
+      </c>
+      <c r="Q150">
+        <v>-0.25</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
         <v>2.25</v>
       </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
-      <c r="P150">
-        <v>2.5</v>
-      </c>
-      <c r="Q150">
-        <v>0</v>
-      </c>
-      <c r="R150">
+      <c r="U150">
         <v>1.8</v>
       </c>
-      <c r="S150">
-        <v>2</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.875</v>
-      </c>
       <c r="V150">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14186,7 +14186,7 @@
         <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14705,7 +14705,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6808618</v>
+        <v>6808901</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14717,19 +14717,19 @@
         <v>45150.5</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K160">
         <v>2.5</v>
@@ -14762,31 +14762,31 @@
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA160">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14794,7 +14794,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6808901</v>
+        <v>6808618</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14806,19 +14806,19 @@
         <v>45150.5</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K161">
         <v>2.5</v>
@@ -14851,31 +14851,31 @@
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB161">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6808165</v>
+        <v>6808617</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45151.5</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
+        <v>3.2</v>
+      </c>
+      <c r="M164">
+        <v>2.6</v>
+      </c>
+      <c r="N164">
+        <v>2.2</v>
+      </c>
+      <c r="O164">
         <v>3.25</v>
       </c>
-      <c r="M164">
-        <v>3.5</v>
-      </c>
-      <c r="N164">
-        <v>1.615</v>
-      </c>
-      <c r="O164">
-        <v>3.6</v>
-      </c>
       <c r="P164">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>1.975</v>
+      </c>
+      <c r="S164">
+        <v>1.825</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>1.925</v>
+      </c>
+      <c r="V164">
         <v>1.875</v>
       </c>
-      <c r="S164">
-        <v>1.925</v>
-      </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
-      <c r="U164">
-        <v>1.9</v>
-      </c>
-      <c r="V164">
-        <v>1.9</v>
-      </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6808166</v>
+        <v>6808619</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,19 +15162,19 @@
         <v>45151.5</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K165">
         <v>2.2</v>
@@ -15186,52 +15186,52 @@
         <v>2.8</v>
       </c>
       <c r="N165">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O165">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
+        <v>1.925</v>
+      </c>
+      <c r="V165">
         <v>1.875</v>
       </c>
-      <c r="V165">
-        <v>1.925</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X165">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA165">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC165">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15239,7 +15239,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6808617</v>
+        <v>6808165</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15251,76 +15251,76 @@
         <v>45151.5</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K166">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M166">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N166">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O166">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC166">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15328,7 +15328,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6808619</v>
+        <v>6808166</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15340,19 +15340,19 @@
         <v>45151.5</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K167">
         <v>2.2</v>
@@ -15364,52 +15364,52 @@
         <v>2.8</v>
       </c>
       <c r="N167">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P167">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q167">
         <v>-0.25</v>
       </c>
       <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
         <v>1.8</v>
       </c>
-      <c r="S167">
-        <v>2</v>
-      </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
+        <v>1.875</v>
+      </c>
+      <c r="V167">
         <v>1.925</v>
       </c>
-      <c r="V167">
-        <v>1.875</v>
-      </c>
       <c r="W167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB167">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15595,7 +15595,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6808169</v>
+        <v>6808168</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15607,55 +15607,55 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>56</v>
       </c>
       <c r="K170">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L170">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N170">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O170">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15664,19 +15664,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15684,7 +15684,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6808168</v>
+        <v>6808169</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15696,56 +15696,56 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>56</v>
       </c>
       <c r="K171">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N171">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
+        <v>1.875</v>
+      </c>
+      <c r="S171">
+        <v>1.925</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
         <v>1.95</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.85</v>
       </c>
-      <c r="T171">
-        <v>2.25</v>
-      </c>
-      <c r="U171">
-        <v>1.775</v>
-      </c>
-      <c r="V171">
-        <v>2.025</v>
-      </c>
       <c r="W171">
         <v>-1</v>
       </c>
@@ -15753,19 +15753,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC171">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16144,7 +16144,7 @@
         <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16307,7 +16307,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7105151</v>
+        <v>6808625</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16319,76 +16319,76 @@
         <v>45164.5</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>3.4</v>
+      </c>
+      <c r="M178">
+        <v>3.1</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178">
+        <v>3.4</v>
+      </c>
+      <c r="P178">
+        <v>3.1</v>
+      </c>
+      <c r="Q178">
+        <v>-0.25</v>
+      </c>
+      <c r="R178">
         <v>1.8</v>
       </c>
-      <c r="L178">
-        <v>3.25</v>
-      </c>
-      <c r="M178">
-        <v>4</v>
-      </c>
-      <c r="N178">
-        <v>1.8</v>
-      </c>
-      <c r="O178">
-        <v>3.25</v>
-      </c>
-      <c r="P178">
-        <v>4</v>
-      </c>
-      <c r="Q178">
-        <v>-0.5</v>
-      </c>
-      <c r="R178">
-        <v>1.85</v>
-      </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16396,7 +16396,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6808899</v>
+        <v>6808624</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16408,58 +16408,58 @@
         <v>45164.5</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>54</v>
       </c>
       <c r="K179">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L179">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N179">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O179">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
+        <v>1.825</v>
+      </c>
+      <c r="V179">
         <v>1.975</v>
       </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16468,13 +16468,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16485,7 +16485,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6808624</v>
+        <v>6808899</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16497,58 +16497,58 @@
         <v>45164.5</v>
       </c>
       <c r="F180" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>54</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M180">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N180">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P180">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q180">
         <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
+        <v>1.975</v>
+      </c>
+      <c r="V180">
         <v>1.825</v>
       </c>
-      <c r="V180">
-        <v>1.975</v>
-      </c>
       <c r="W180">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16557,13 +16557,13 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16574,7 +16574,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6808625</v>
+        <v>7105151</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16586,76 +16586,76 @@
         <v>45164.5</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>56</v>
+      </c>
+      <c r="K181">
+        <v>1.8</v>
+      </c>
+      <c r="L181">
+        <v>3.25</v>
+      </c>
+      <c r="M181">
         <v>4</v>
       </c>
-      <c r="I181">
-        <v>2</v>
-      </c>
-      <c r="J181" t="s">
-        <v>54</v>
-      </c>
-      <c r="K181">
-        <v>2</v>
-      </c>
-      <c r="L181">
-        <v>3.4</v>
-      </c>
-      <c r="M181">
-        <v>3.1</v>
-      </c>
       <c r="N181">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O181">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P181">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17565,7 +17565,7 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>
@@ -18633,7 +18633,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -19081,7 +19081,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19615,7 +19615,7 @@
         <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -20045,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6808664</v>
+        <v>6808894</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20057,56 +20057,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G220" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>0</v>
       </c>
       <c r="I220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
         <v>56</v>
       </c>
       <c r="K220">
+        <v>2.875</v>
+      </c>
+      <c r="L220">
+        <v>3.3</v>
+      </c>
+      <c r="M220">
+        <v>2.15</v>
+      </c>
+      <c r="N220">
+        <v>2.875</v>
+      </c>
+      <c r="O220">
+        <v>3.3</v>
+      </c>
+      <c r="P220">
+        <v>2.15</v>
+      </c>
+      <c r="Q220">
+        <v>0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.85</v>
+      </c>
+      <c r="S220">
+        <v>1.95</v>
+      </c>
+      <c r="T220">
         <v>2.5</v>
       </c>
-      <c r="L220">
-        <v>3.4</v>
-      </c>
-      <c r="M220">
-        <v>2.375</v>
-      </c>
-      <c r="N220">
-        <v>2.3</v>
-      </c>
-      <c r="O220">
-        <v>3.4</v>
-      </c>
-      <c r="P220">
-        <v>2.55</v>
-      </c>
-      <c r="Q220">
-        <v>0</v>
-      </c>
-      <c r="R220">
-        <v>1.8</v>
-      </c>
-      <c r="S220">
-        <v>2</v>
-      </c>
-      <c r="T220">
-        <v>3</v>
-      </c>
       <c r="U220">
+        <v>1.95</v>
+      </c>
+      <c r="V220">
         <v>1.85</v>
       </c>
-      <c r="V220">
-        <v>1.95</v>
-      </c>
       <c r="W220">
         <v>-1</v>
       </c>
@@ -20114,19 +20114,19 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20134,7 +20134,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6808023</v>
+        <v>6808664</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20146,56 +20146,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G221" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
         <v>56</v>
       </c>
       <c r="K221">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L221">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N221">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O221">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P221">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R221">
+        <v>1.8</v>
+      </c>
+      <c r="S221">
+        <v>2</v>
+      </c>
+      <c r="T221">
+        <v>3</v>
+      </c>
+      <c r="U221">
         <v>1.85</v>
       </c>
-      <c r="S221">
+      <c r="V221">
         <v>1.95</v>
       </c>
-      <c r="T221">
-        <v>2.5</v>
-      </c>
-      <c r="U221">
-        <v>1.9</v>
-      </c>
-      <c r="V221">
-        <v>1.9</v>
-      </c>
       <c r="W221">
         <v>-1</v>
       </c>
@@ -20203,19 +20203,19 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC221">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20223,7 +20223,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6808894</v>
+        <v>6808023</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20235,10 +20235,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20250,25 +20250,25 @@
         <v>56</v>
       </c>
       <c r="K222">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L222">
         <v>3.3</v>
       </c>
       <c r="M222">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N222">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P222">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
         <v>1.85</v>
@@ -20280,10 +20280,10 @@
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20292,7 +20292,7 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z222">
         <v>-1</v>
@@ -20304,7 +20304,7 @@
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20502,7 +20502,7 @@
         <v>45200.4375</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G225" t="s">
         <v>31</v>
@@ -20772,7 +20772,7 @@
         <v>50</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -22015,7 +22015,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G242" t="s">
         <v>51</v>
@@ -22374,7 +22374,7 @@
         <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H246">
         <v>2</v>
@@ -23172,7 +23172,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G255" t="s">
         <v>33</v>
@@ -23694,7 +23694,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6808683</v>
+        <v>6808198</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23706,73 +23706,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G261" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H261">
         <v>2</v>
       </c>
       <c r="I261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K261">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L261">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M261">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N261">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O261">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P261">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q261">
         <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S261">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T261">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U261">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V261">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X261">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA261">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC261">
         <v>-1</v>
@@ -23783,7 +23783,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6808198</v>
+        <v>6808683</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23795,73 +23795,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G262" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H262">
         <v>2</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K262">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L262">
+        <v>3.3</v>
+      </c>
+      <c r="M262">
         <v>3.25</v>
       </c>
-      <c r="M262">
-        <v>2.3</v>
-      </c>
       <c r="N262">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O262">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P262">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q262">
         <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S262">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T262">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U262">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V262">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W262">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB262">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -23872,7 +23872,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6808888</v>
+        <v>6808197</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23884,76 +23884,76 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F263" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G263" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
         <v>55</v>
       </c>
       <c r="K263">
+        <v>1.666</v>
+      </c>
+      <c r="L263">
+        <v>3.6</v>
+      </c>
+      <c r="M263">
+        <v>4.2</v>
+      </c>
+      <c r="N263">
+        <v>2.3</v>
+      </c>
+      <c r="O263">
+        <v>3.25</v>
+      </c>
+      <c r="P263">
+        <v>2.7</v>
+      </c>
+      <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="R263">
+        <v>1.775</v>
+      </c>
+      <c r="S263">
+        <v>2.025</v>
+      </c>
+      <c r="T263">
+        <v>2.5</v>
+      </c>
+      <c r="U263">
         <v>1.85</v>
       </c>
-      <c r="L263">
-        <v>3.4</v>
-      </c>
-      <c r="M263">
-        <v>3.5</v>
-      </c>
-      <c r="N263">
-        <v>1.85</v>
-      </c>
-      <c r="O263">
-        <v>3.4</v>
-      </c>
-      <c r="P263">
-        <v>3.5</v>
-      </c>
-      <c r="Q263">
-        <v>-0.5</v>
-      </c>
-      <c r="R263">
-        <v>1.925</v>
-      </c>
-      <c r="S263">
-        <v>1.875</v>
-      </c>
-      <c r="T263">
-        <v>2.75</v>
-      </c>
-      <c r="U263">
-        <v>1.825</v>
-      </c>
       <c r="V263">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA263">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC263">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23961,7 +23961,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6808197</v>
+        <v>6808888</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23973,76 +23973,76 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G264" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
         <v>55</v>
       </c>
       <c r="K264">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M264">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N264">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O264">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P264">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q264">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R264">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S264">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T264">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V264">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB264">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24243,7 +24243,7 @@
         <v>45</v>
       </c>
       <c r="G267" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -24596,7 +24596,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G271" t="s">
         <v>52</v>
@@ -25029,7 +25029,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6808690</v>
+        <v>6808689</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25041,13 +25041,13 @@
         <v>45242.375</v>
       </c>
       <c r="F276" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G276" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H276">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -25056,34 +25056,34 @@
         <v>54</v>
       </c>
       <c r="K276">
+        <v>2.3</v>
+      </c>
+      <c r="L276">
+        <v>3.2</v>
+      </c>
+      <c r="M276">
+        <v>2.75</v>
+      </c>
+      <c r="N276">
+        <v>2.8</v>
+      </c>
+      <c r="O276">
+        <v>3.4</v>
+      </c>
+      <c r="P276">
         <v>2.2</v>
       </c>
-      <c r="L276">
-        <v>3.3</v>
-      </c>
-      <c r="M276">
-        <v>2.8</v>
-      </c>
-      <c r="N276">
-        <v>2.5</v>
-      </c>
-      <c r="O276">
-        <v>3.25</v>
-      </c>
-      <c r="P276">
-        <v>2.4</v>
-      </c>
       <c r="Q276">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R276">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S276">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T276">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U276">
         <v>1.975</v>
@@ -25092,7 +25092,7 @@
         <v>1.825</v>
       </c>
       <c r="W276">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25101,16 +25101,16 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25118,7 +25118,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6808689</v>
+        <v>6808690</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25130,13 +25130,13 @@
         <v>45242.375</v>
       </c>
       <c r="F277" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G277" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -25145,34 +25145,34 @@
         <v>54</v>
       </c>
       <c r="K277">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L277">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M277">
+        <v>2.8</v>
+      </c>
+      <c r="N277">
+        <v>2.5</v>
+      </c>
+      <c r="O277">
+        <v>3.25</v>
+      </c>
+      <c r="P277">
+        <v>2.4</v>
+      </c>
+      <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <v>1.95</v>
+      </c>
+      <c r="S277">
+        <v>1.85</v>
+      </c>
+      <c r="T277">
         <v>2.75</v>
-      </c>
-      <c r="N277">
-        <v>2.8</v>
-      </c>
-      <c r="O277">
-        <v>3.4</v>
-      </c>
-      <c r="P277">
-        <v>2.2</v>
-      </c>
-      <c r="Q277">
-        <v>0.25</v>
-      </c>
-      <c r="R277">
-        <v>1.825</v>
-      </c>
-      <c r="S277">
-        <v>1.975</v>
-      </c>
-      <c r="T277">
-        <v>3</v>
       </c>
       <c r="U277">
         <v>1.975</v>
@@ -25181,7 +25181,7 @@
         <v>1.825</v>
       </c>
       <c r="W277">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25190,16 +25190,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC277">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25578,7 +25578,7 @@
         <v>53</v>
       </c>
       <c r="G282" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H282">
         <v>3</v>
@@ -26023,7 +26023,7 @@
         <v>39</v>
       </c>
       <c r="G287" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H287">
         <v>2</v>
@@ -27088,7 +27088,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F299" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G299" t="s">
         <v>46</v>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -124,13 +124,13 @@
     <t>Stomil Olsztyn</t>
   </si>
   <si>
-    <t>Siarka Tarnobrzeg</t>
+    <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
     <t>Garbarnia Krakow</t>
   </si>
   <si>
-    <t>Kotwica Kolobrzeg</t>
+    <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
     <t>Olimpia Elblag</t>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5221294</v>
+        <v>5184790</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,43 +1281,43 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1329,25 +1329,25 @@
         <v>1.875</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5184790</v>
+        <v>5221294</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1459,43 +1459,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N11">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>2.5</v>
@@ -1507,25 +1507,25 @@
         <v>1.875</v>
       </c>
       <c r="W11">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5185154</v>
+        <v>5221295</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,73 +2168,73 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
+        <v>3.4</v>
+      </c>
+      <c r="N19">
+        <v>2.15</v>
+      </c>
+      <c r="O19">
         <v>3.3</v>
       </c>
-      <c r="N19">
-        <v>2.05</v>
-      </c>
-      <c r="O19">
-        <v>3.2</v>
-      </c>
       <c r="P19">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2245,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5221295</v>
+        <v>5185154</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2257,73 +2257,73 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
+        <v>3.3</v>
+      </c>
+      <c r="N20">
+        <v>2.05</v>
+      </c>
+      <c r="O20">
+        <v>3.2</v>
+      </c>
+      <c r="P20">
         <v>3.4</v>
-      </c>
-      <c r="N20">
-        <v>2.15</v>
-      </c>
-      <c r="O20">
-        <v>3.3</v>
-      </c>
-      <c r="P20">
-        <v>2.9</v>
       </c>
       <c r="Q20">
         <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2334,7 +2334,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5185155</v>
+        <v>5184028</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2346,76 +2346,76 @@
         <v>44996.44791666666</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
         <v>3.2</v>
       </c>
       <c r="M21">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O21">
         <v>3.2</v>
       </c>
       <c r="P21">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5184028</v>
+        <v>5185155</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2435,76 +2435,76 @@
         <v>44996.44791666666</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="L22">
         <v>3.2</v>
       </c>
       <c r="M22">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N22">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O22">
         <v>3.2</v>
       </c>
       <c r="P22">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5184791</v>
+        <v>5184469</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2702,10 +2702,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2717,43 +2717,43 @@
         <v>54</v>
       </c>
       <c r="K25">
+        <v>1.7</v>
+      </c>
+      <c r="L25">
+        <v>3.7</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>2.375</v>
+      </c>
+      <c r="O25">
+        <v>3.4</v>
+      </c>
+      <c r="P25">
         <v>2.6</v>
-      </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.45</v>
-      </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>3.1</v>
-      </c>
-      <c r="P25">
-        <v>2.5</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
+        <v>1.8</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
         <v>1.9</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>1.9</v>
       </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
-      <c r="U25">
-        <v>1.825</v>
-      </c>
-      <c r="V25">
-        <v>1.975</v>
-      </c>
       <c r="W25">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2762,16 +2762,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2779,7 +2779,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5184469</v>
+        <v>5184791</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2791,10 +2791,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2806,43 +2806,43 @@
         <v>54</v>
       </c>
       <c r="K26">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L26">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N26">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2851,16 +2851,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5184029</v>
+        <v>5221296</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2969,76 +2969,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N28">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O28">
         <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
+        <v>2.75</v>
+      </c>
+      <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
+        <v>1.85</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
         <v>2.5</v>
       </c>
-      <c r="U28">
-        <v>1.825</v>
-      </c>
-      <c r="V28">
-        <v>1.975</v>
-      </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.825</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
-      <c r="Z28">
-        <v>0.925</v>
-      </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>0.825</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5221296</v>
+        <v>5185159</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3058,76 +3058,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3135,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5185159</v>
+        <v>5185158</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3147,73 +3147,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O30">
         <v>3.3</v>
       </c>
       <c r="P30">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
         <v>0.95</v>
-      </c>
-      <c r="AB30">
-        <v>0.875</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5185158</v>
+        <v>5184029</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3325,58 +3325,58 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>54</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
+        <v>3.5</v>
+      </c>
+      <c r="M32">
         <v>3.3</v>
       </c>
-      <c r="M32">
-        <v>3.2</v>
-      </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
         <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3385,13 +3385,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3770,10 +3770,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
         <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3847,7 +3847,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5185160</v>
+        <v>5221158</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3859,13 +3859,13 @@
         <v>45010.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3874,34 +3874,34 @@
         <v>54</v>
       </c>
       <c r="K38">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
         <v>3.3</v>
       </c>
       <c r="M38">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="N38">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
         <v>1.8</v>
@@ -3910,7 +3910,7 @@
         <v>2</v>
       </c>
       <c r="W38">
-        <v>1.9</v>
+        <v>0.75</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3919,16 +3919,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3936,7 +3936,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5221158</v>
+        <v>5185160</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3948,13 +3948,13 @@
         <v>45010.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3963,34 +3963,34 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L39">
         <v>3.3</v>
       </c>
       <c r="M39">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="N39">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.8</v>
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="W39">
-        <v>0.75</v>
+        <v>1.9</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4008,16 +4008,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0.8</v>
       </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5185171</v>
+        <v>5185166</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5185166</v>
+        <v>5185171</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N45">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X45">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4574,7 +4574,7 @@
         <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -5019,7 +5019,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6486743</v>
+        <v>5185176</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5105,76 +5105,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K52">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
         <v>2</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q52">
         <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5182,7 +5182,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5185176</v>
+        <v>6486743</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5194,76 +5194,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K53">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53">
         <v>3.2</v>
       </c>
-      <c r="O53">
-        <v>3.4</v>
-      </c>
       <c r="P53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q53">
         <v>0.25</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5449,7 +5449,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5185174</v>
+        <v>5185173</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5461,76 +5461,76 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K56">
         <v>2</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O56">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P56">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>1.975</v>
+      </c>
+      <c r="S56">
+        <v>1.825</v>
+      </c>
+      <c r="T56">
+        <v>2.25</v>
+      </c>
+      <c r="U56">
         <v>1.8</v>
       </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
-      <c r="T56">
-        <v>2.75</v>
-      </c>
-      <c r="U56">
-        <v>1.925</v>
-      </c>
       <c r="V56">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X56">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5538,7 +5538,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5185173</v>
+        <v>5185177</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5550,13 +5550,13 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5565,43 +5565,43 @@
         <v>54</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
         <v>3.25</v>
       </c>
       <c r="M57">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O57">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>1.2</v>
+        <v>0.833</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5610,16 +5610,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC57">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5185177</v>
+        <v>5185174</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,73 +5639,73 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L58">
+        <v>3.4</v>
+      </c>
+      <c r="M58">
+        <v>3.1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
         <v>3.25</v>
       </c>
-      <c r="M58">
-        <v>3.5</v>
-      </c>
-      <c r="N58">
-        <v>1.833</v>
-      </c>
-      <c r="O58">
-        <v>3.3</v>
-      </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q58">
+        <v>-0.25</v>
+      </c>
+      <c r="R58">
+        <v>1.8</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
+        <v>1.925</v>
+      </c>
+      <c r="V58">
+        <v>1.875</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>2.25</v>
+      </c>
+      <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
         <v>-0.5</v>
       </c>
-      <c r="R58">
-        <v>1.9</v>
-      </c>
-      <c r="S58">
-        <v>1.9</v>
-      </c>
-      <c r="T58">
-        <v>2.5</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
-      <c r="W58">
-        <v>0.833</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
-      <c r="Z58">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB58">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5909,7 +5909,7 @@
         <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6087,7 +6087,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5221300</v>
+        <v>5184034</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6796,58 +6796,58 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>54</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M71">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N71">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
         <v>1.85</v>
       </c>
-      <c r="S71">
-        <v>1.95</v>
-      </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W71">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6856,16 +6856,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6873,7 +6873,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5184034</v>
+        <v>5221300</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6885,58 +6885,58 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>54</v>
       </c>
       <c r="K72">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L72">
+        <v>3.4</v>
+      </c>
+      <c r="M72">
         <v>3.1</v>
       </c>
-      <c r="M72">
-        <v>2.45</v>
-      </c>
       <c r="N72">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
         <v>1.95</v>
       </c>
-      <c r="S72">
-        <v>1.85</v>
-      </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6945,16 +6945,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7063,7 +7063,7 @@
         <v>45038.51041666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>41</v>
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7778,7 +7778,7 @@
         <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8475,7 +8475,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5185195</v>
+        <v>5184744</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8487,73 +8487,73 @@
         <v>45052.5</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K90">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N90">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O90">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
+        <v>1.775</v>
+      </c>
+      <c r="S90">
+        <v>2.025</v>
+      </c>
+      <c r="T90">
+        <v>2.5</v>
+      </c>
+      <c r="U90">
+        <v>1.85</v>
+      </c>
+      <c r="V90">
         <v>1.95</v>
       </c>
-      <c r="S90">
-        <v>1.85</v>
-      </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.925</v>
-      </c>
-      <c r="V90">
-        <v>1.875</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8564,7 +8564,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5221302</v>
+        <v>5185195</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8576,76 +8576,76 @@
         <v>45052.5</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K91">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L91">
+        <v>3.4</v>
+      </c>
+      <c r="M91">
+        <v>3.4</v>
+      </c>
+      <c r="N91">
+        <v>2.15</v>
+      </c>
+      <c r="O91">
         <v>3.25</v>
       </c>
-      <c r="M91">
-        <v>2.375</v>
-      </c>
-      <c r="N91">
-        <v>3</v>
-      </c>
-      <c r="O91">
-        <v>3.2</v>
-      </c>
       <c r="P91">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y91">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
+        <v>0.425</v>
+      </c>
+      <c r="AB91">
         <v>0.925</v>
       </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8665,7 +8665,7 @@
         <v>45052.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
         <v>30</v>
@@ -8742,7 +8742,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5184744</v>
+        <v>5221302</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8754,55 +8754,55 @@
         <v>45052.5</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>56</v>
       </c>
       <c r="K93">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="L93">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M93">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N93">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O93">
         <v>3.2</v>
       </c>
       <c r="P93">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q93">
         <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8811,19 +8811,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8932,7 +8932,7 @@
         <v>45053.52083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
         <v>39</v>
@@ -9024,7 +9024,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5223000</v>
+        <v>5224880</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9288,76 +9288,76 @@
         <v>45059.5</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N99">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P99">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U99">
+        <v>1.825</v>
+      </c>
+      <c r="V99">
         <v>1.975</v>
       </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X99">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5224880</v>
+        <v>5223000</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,76 +9377,76 @@
         <v>45059.5</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K100">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N100">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="V100">
-        <v>1.975</v>
-      </c>
       <c r="W100">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.825</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9469,7 +9469,7 @@
         <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9911,7 +9911,7 @@
         <v>45065.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>30</v>
@@ -10089,7 +10089,7 @@
         <v>45066.5</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
@@ -11160,7 +11160,7 @@
         <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11249,7 +11249,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11501,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5226044</v>
+        <v>5185127</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11513,49 +11513,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K124">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N124">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="O124">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q124">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
         <v>1.8</v>
@@ -11564,25 +11564,25 @@
         <v>2</v>
       </c>
       <c r="W124">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11590,7 +11590,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5228058</v>
+        <v>5224884</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11602,76 +11602,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>55</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N125">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O125">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5229462</v>
+        <v>5226043</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11691,76 +11691,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K126">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M126">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="N126">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P126">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB126">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5226043</v>
+        <v>5226044</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11780,76 +11780,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K127">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L127">
         <v>4.5</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N127">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="O127">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P127">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R127">
+        <v>1.825</v>
+      </c>
+      <c r="S127">
+        <v>1.975</v>
+      </c>
+      <c r="T127">
+        <v>3.25</v>
+      </c>
+      <c r="U127">
         <v>1.8</v>
       </c>
-      <c r="S127">
-        <v>2</v>
-      </c>
-      <c r="T127">
-        <v>2.25</v>
-      </c>
-      <c r="U127">
-        <v>1.9</v>
-      </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X127">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC127">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11857,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5185127</v>
+        <v>5228058</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11869,76 +11869,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N128">
+        <v>2.8</v>
+      </c>
+      <c r="O128">
+        <v>3.25</v>
+      </c>
+      <c r="P128">
+        <v>2.2</v>
+      </c>
+      <c r="Q128">
+        <v>0.25</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
+        <v>1.925</v>
+      </c>
+      <c r="V128">
+        <v>1.875</v>
+      </c>
+      <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
         <v>2.25</v>
       </c>
-      <c r="O128">
-        <v>3.5</v>
-      </c>
-      <c r="P128">
-        <v>2.625</v>
-      </c>
-      <c r="Q128">
-        <v>0</v>
-      </c>
-      <c r="R128">
-        <v>1.75</v>
-      </c>
-      <c r="S128">
-        <v>2.05</v>
-      </c>
-      <c r="T128">
-        <v>2.25</v>
-      </c>
-      <c r="U128">
-        <v>1.8</v>
-      </c>
-      <c r="V128">
-        <v>2</v>
-      </c>
-      <c r="W128">
-        <v>-1</v>
-      </c>
-      <c r="X128">
-        <v>-1</v>
-      </c>
       <c r="Y128">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA128">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11946,7 +11946,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5224884</v>
+        <v>5229462</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11958,76 +11958,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K129">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="N129">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
         <v>1.95</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>1.85</v>
       </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
-      <c r="U129">
-        <v>1.8</v>
-      </c>
-      <c r="V129">
-        <v>2</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X129">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12047,7 +12047,7 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
         <v>34</v>
@@ -12225,7 +12225,7 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12492,7 +12492,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
         <v>53</v>
@@ -12747,7 +12747,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6808005</v>
+        <v>6808905</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12759,58 +12759,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G138" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>54</v>
       </c>
       <c r="K138">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L138">
+        <v>3.2</v>
+      </c>
+      <c r="M138">
+        <v>2.5</v>
+      </c>
+      <c r="N138">
+        <v>2.15</v>
+      </c>
+      <c r="O138">
+        <v>3.25</v>
+      </c>
+      <c r="P138">
         <v>3.1</v>
       </c>
-      <c r="M138">
-        <v>3</v>
-      </c>
-      <c r="N138">
-        <v>2.5</v>
-      </c>
-      <c r="O138">
-        <v>3.1</v>
-      </c>
-      <c r="P138">
-        <v>2.6</v>
-      </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12819,16 +12819,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12836,7 +12836,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6808905</v>
+        <v>6808005</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12848,58 +12848,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>54</v>
       </c>
       <c r="K139">
+        <v>2.2</v>
+      </c>
+      <c r="L139">
+        <v>3.1</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
         <v>2.5</v>
       </c>
-      <c r="L139">
-        <v>3.2</v>
-      </c>
-      <c r="M139">
+      <c r="O139">
+        <v>3.1</v>
+      </c>
+      <c r="P139">
+        <v>2.6</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
+        <v>1.95</v>
+      </c>
+      <c r="T139">
         <v>2.5</v>
       </c>
-      <c r="N139">
-        <v>2.15</v>
-      </c>
-      <c r="O139">
-        <v>3.25</v>
-      </c>
-      <c r="P139">
-        <v>3.1</v>
-      </c>
-      <c r="Q139">
-        <v>-0.25</v>
-      </c>
-      <c r="R139">
-        <v>1.9</v>
-      </c>
-      <c r="S139">
-        <v>1.9</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12908,16 +12908,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13548,7 +13548,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6808608</v>
+        <v>6808160</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13560,13 +13560,13 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13575,61 +13575,61 @@
         <v>54</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L147">
+        <v>3.3</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>1.8</v>
+      </c>
+      <c r="O147">
         <v>3.4</v>
       </c>
-      <c r="M147">
-        <v>3.4</v>
-      </c>
-      <c r="N147">
-        <v>1.85</v>
-      </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
       <c r="P147">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q147">
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
+        <v>0.8</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13637,7 +13637,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6808160</v>
+        <v>6808608</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13649,13 +13649,13 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13664,43 +13664,43 @@
         <v>54</v>
       </c>
       <c r="K148">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L148">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13709,16 +13709,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14186,7 +14186,7 @@
         <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6808617</v>
+        <v>6808165</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45151.5</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M164">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N164">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z164">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC164">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15239,7 +15239,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6808165</v>
+        <v>6808617</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15251,76 +15251,76 @@
         <v>45151.5</v>
       </c>
       <c r="F166" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K166">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L166">
+        <v>3.2</v>
+      </c>
+      <c r="M166">
+        <v>2.6</v>
+      </c>
+      <c r="N166">
+        <v>2.2</v>
+      </c>
+      <c r="O166">
         <v>3.25</v>
       </c>
-      <c r="M166">
-        <v>3.5</v>
-      </c>
-      <c r="N166">
-        <v>1.615</v>
-      </c>
-      <c r="O166">
-        <v>3.6</v>
-      </c>
       <c r="P166">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
+        <v>1.975</v>
+      </c>
+      <c r="S166">
+        <v>1.825</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
+        <v>1.925</v>
+      </c>
+      <c r="V166">
         <v>1.875</v>
       </c>
-      <c r="S166">
-        <v>1.925</v>
-      </c>
-      <c r="T166">
-        <v>2.75</v>
-      </c>
-      <c r="U166">
-        <v>1.9</v>
-      </c>
-      <c r="V166">
-        <v>1.9</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15595,7 +15595,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6808168</v>
+        <v>6808169</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15607,56 +15607,56 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>56</v>
       </c>
       <c r="K170">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M170">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N170">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P170">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
+        <v>1.875</v>
+      </c>
+      <c r="S170">
+        <v>1.925</v>
+      </c>
+      <c r="T170">
+        <v>2.5</v>
+      </c>
+      <c r="U170">
         <v>1.95</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.85</v>
       </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
-      <c r="U170">
-        <v>1.775</v>
-      </c>
-      <c r="V170">
-        <v>2.025</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
@@ -15664,19 +15664,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC170">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15684,7 +15684,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6808169</v>
+        <v>6808168</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15696,55 +15696,55 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>56</v>
       </c>
       <c r="K171">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L171">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M171">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N171">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P171">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15753,19 +15753,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16144,7 +16144,7 @@
         <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16307,7 +16307,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6808625</v>
+        <v>6808624</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16319,16 +16319,16 @@
         <v>45164.5</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>54</v>
@@ -16343,34 +16343,34 @@
         <v>3.1</v>
       </c>
       <c r="N178">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O178">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V178">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16379,13 +16379,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16396,7 +16396,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6808624</v>
+        <v>6808899</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16408,58 +16408,58 @@
         <v>45164.5</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>54</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M179">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N179">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O179">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P179">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
+        <v>1.975</v>
+      </c>
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="V179">
-        <v>1.975</v>
-      </c>
       <c r="W179">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16468,13 +16468,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16485,7 +16485,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6808899</v>
+        <v>7105151</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16497,76 +16497,76 @@
         <v>45164.5</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>56</v>
+      </c>
+      <c r="K180">
+        <v>1.8</v>
+      </c>
+      <c r="L180">
+        <v>3.25</v>
+      </c>
+      <c r="M180">
+        <v>4</v>
+      </c>
+      <c r="N180">
+        <v>1.8</v>
+      </c>
+      <c r="O180">
+        <v>3.25</v>
+      </c>
+      <c r="P180">
+        <v>4</v>
+      </c>
+      <c r="Q180">
+        <v>-0.5</v>
+      </c>
+      <c r="R180">
+        <v>1.85</v>
+      </c>
+      <c r="S180">
+        <v>1.95</v>
+      </c>
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>1.85</v>
+      </c>
+      <c r="V180">
+        <v>1.95</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
         <v>3</v>
       </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180" t="s">
-        <v>54</v>
-      </c>
-      <c r="K180">
-        <v>2.25</v>
-      </c>
-      <c r="L180">
-        <v>3.3</v>
-      </c>
-      <c r="M180">
-        <v>2.75</v>
-      </c>
-      <c r="N180">
-        <v>2.25</v>
-      </c>
-      <c r="O180">
-        <v>3.3</v>
-      </c>
-      <c r="P180">
-        <v>2.75</v>
-      </c>
-      <c r="Q180">
-        <v>-0.25</v>
-      </c>
-      <c r="R180">
-        <v>2.025</v>
-      </c>
-      <c r="S180">
-        <v>1.775</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
-      <c r="U180">
-        <v>1.975</v>
-      </c>
-      <c r="V180">
-        <v>1.825</v>
-      </c>
-      <c r="W180">
-        <v>1.25</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
       <c r="Z180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB180">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16574,7 +16574,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7105151</v>
+        <v>6808625</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16586,76 +16586,76 @@
         <v>45164.5</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>3.4</v>
+      </c>
+      <c r="M181">
+        <v>3.1</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181">
+        <v>3.4</v>
+      </c>
+      <c r="P181">
+        <v>3.1</v>
+      </c>
+      <c r="Q181">
+        <v>-0.25</v>
+      </c>
+      <c r="R181">
         <v>1.8</v>
       </c>
-      <c r="L181">
-        <v>3.25</v>
-      </c>
-      <c r="M181">
-        <v>4</v>
-      </c>
-      <c r="N181">
-        <v>1.8</v>
-      </c>
-      <c r="O181">
-        <v>3.25</v>
-      </c>
-      <c r="P181">
-        <v>4</v>
-      </c>
-      <c r="Q181">
-        <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>1.85</v>
-      </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17565,7 +17565,7 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>
@@ -18633,7 +18633,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -19081,7 +19081,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19615,7 +19615,7 @@
         <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -20045,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6808894</v>
+        <v>6808023</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20057,10 +20057,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20072,25 +20072,25 @@
         <v>56</v>
       </c>
       <c r="K220">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L220">
         <v>3.3</v>
       </c>
       <c r="M220">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N220">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O220">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P220">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
         <v>1.85</v>
@@ -20102,10 +20102,10 @@
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -20114,7 +20114,7 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z220">
         <v>-1</v>
@@ -20126,7 +20126,7 @@
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20223,7 +20223,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6808023</v>
+        <v>6808894</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20235,10 +20235,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G222" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20250,25 +20250,25 @@
         <v>56</v>
       </c>
       <c r="K222">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L222">
         <v>3.3</v>
       </c>
       <c r="M222">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N222">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O222">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
         <v>1.85</v>
@@ -20280,10 +20280,10 @@
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20292,7 +20292,7 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z222">
         <v>-1</v>
@@ -20304,7 +20304,7 @@
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20502,7 +20502,7 @@
         <v>45200.4375</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
         <v>31</v>
@@ -20757,7 +20757,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6808666</v>
+        <v>6808667</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20769,73 +20769,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G228" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="s">
+        <v>54</v>
+      </c>
+      <c r="K228">
+        <v>1.615</v>
+      </c>
+      <c r="L228">
+        <v>3.75</v>
+      </c>
+      <c r="M228">
+        <v>4.5</v>
+      </c>
+      <c r="N228">
+        <v>1.285</v>
+      </c>
+      <c r="O228">
+        <v>4.75</v>
+      </c>
+      <c r="P228">
+        <v>8.5</v>
+      </c>
+      <c r="Q228">
+        <v>-1.5</v>
+      </c>
+      <c r="R228">
+        <v>1.85</v>
+      </c>
+      <c r="S228">
+        <v>1.95</v>
+      </c>
+      <c r="T228">
         <v>3</v>
       </c>
-      <c r="J228" t="s">
-        <v>56</v>
-      </c>
-      <c r="K228">
-        <v>2.1</v>
-      </c>
-      <c r="L228">
-        <v>3.4</v>
-      </c>
-      <c r="M228">
-        <v>2.8</v>
-      </c>
-      <c r="N228">
-        <v>2.45</v>
-      </c>
-      <c r="O228">
-        <v>3.6</v>
-      </c>
-      <c r="P228">
-        <v>2.3</v>
-      </c>
-      <c r="Q228">
-        <v>0</v>
-      </c>
-      <c r="R228">
-        <v>2</v>
-      </c>
-      <c r="S228">
-        <v>1.8</v>
-      </c>
-      <c r="T228">
-        <v>2.75</v>
-      </c>
       <c r="U228">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20846,7 +20846,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6808667</v>
+        <v>6808666</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20858,73 +20858,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229">
         <v>3</v>
       </c>
-      <c r="I229">
-        <v>1</v>
-      </c>
       <c r="J229" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K229">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N229">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="O229">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q229">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S229">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V229">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W229">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z229">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB229">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -22015,7 +22015,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G242" t="s">
         <v>51</v>
@@ -22374,7 +22374,7 @@
         <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H246">
         <v>2</v>
@@ -23172,7 +23172,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G255" t="s">
         <v>33</v>
@@ -23694,7 +23694,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6808198</v>
+        <v>6808683</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23706,73 +23706,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G261" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H261">
         <v>2</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K261">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L261">
+        <v>3.3</v>
+      </c>
+      <c r="M261">
         <v>3.25</v>
       </c>
-      <c r="M261">
-        <v>2.3</v>
-      </c>
       <c r="N261">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O261">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P261">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q261">
         <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S261">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T261">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U261">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V261">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W261">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB261">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC261">
         <v>-1</v>
@@ -23783,7 +23783,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6808683</v>
+        <v>6808198</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23795,73 +23795,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G262" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H262">
         <v>2</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K262">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L262">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M262">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N262">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O262">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P262">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q262">
         <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S262">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T262">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U262">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V262">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X262">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA262">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -24243,7 +24243,7 @@
         <v>45</v>
       </c>
       <c r="G267" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -24596,7 +24596,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
         <v>52</v>
@@ -24940,7 +24940,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6808200</v>
+        <v>6808689</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24952,10 +24952,10 @@
         <v>45242.375</v>
       </c>
       <c r="F275" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G275" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -24967,44 +24967,44 @@
         <v>54</v>
       </c>
       <c r="K275">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L275">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M275">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N275">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O275">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P275">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q275">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R275">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S275">
+        <v>1.975</v>
+      </c>
+      <c r="T275">
+        <v>3</v>
+      </c>
+      <c r="U275">
+        <v>1.975</v>
+      </c>
+      <c r="V275">
+        <v>1.825</v>
+      </c>
+      <c r="W275">
         <v>1.8</v>
       </c>
-      <c r="T275">
-        <v>2.5</v>
-      </c>
-      <c r="U275">
-        <v>1.9</v>
-      </c>
-      <c r="V275">
-        <v>1.9</v>
-      </c>
-      <c r="W275">
-        <v>0.95</v>
-      </c>
       <c r="X275">
         <v>-1</v>
       </c>
@@ -25012,7 +25012,7 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA275">
         <v>-1</v>
@@ -25021,7 +25021,7 @@
         <v>-1</v>
       </c>
       <c r="AC275">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25029,7 +25029,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6808689</v>
+        <v>6808200</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25041,10 +25041,10 @@
         <v>45242.375</v>
       </c>
       <c r="F276" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G276" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -25056,43 +25056,43 @@
         <v>54</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L276">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M276">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N276">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O276">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P276">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q276">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S276">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T276">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U276">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V276">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
-        <v>1.8</v>
+        <v>0.95</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25101,7 +25101,7 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA276">
         <v>-1</v>
@@ -25110,7 +25110,7 @@
         <v>-1</v>
       </c>
       <c r="AC276">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25385,7 +25385,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6808886</v>
+        <v>6808694</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25397,49 +25397,49 @@
         <v>45248.375</v>
       </c>
       <c r="F280" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G280" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="s">
         <v>54</v>
       </c>
       <c r="K280">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L280">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M280">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N280">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O280">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P280">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q280">
         <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S280">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T280">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U280">
         <v>1.85</v>
@@ -25448,7 +25448,7 @@
         <v>1.95</v>
       </c>
       <c r="W280">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="X280">
         <v>-1</v>
@@ -25457,16 +25457,16 @@
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>1.075</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA280">
         <v>-1</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC280">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25474,7 +25474,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6808694</v>
+        <v>6808886</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25486,49 +25486,49 @@
         <v>45248.375</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G281" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
         <v>54</v>
       </c>
       <c r="K281">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L281">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M281">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N281">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P281">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S281">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T281">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
         <v>1.85</v>
@@ -25537,25 +25537,25 @@
         <v>1.95</v>
       </c>
       <c r="W281">
+        <v>1.375</v>
+      </c>
+      <c r="X281">
+        <v>-1</v>
+      </c>
+      <c r="Y281">
+        <v>-1</v>
+      </c>
+      <c r="Z281">
+        <v>1.075</v>
+      </c>
+      <c r="AA281">
+        <v>-1</v>
+      </c>
+      <c r="AB281">
+        <v>-1</v>
+      </c>
+      <c r="AC281">
         <v>0.95</v>
-      </c>
-      <c r="X281">
-        <v>-1</v>
-      </c>
-      <c r="Y281">
-        <v>-1</v>
-      </c>
-      <c r="Z281">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA281">
-        <v>-1</v>
-      </c>
-      <c r="AB281">
-        <v>0.425</v>
-      </c>
-      <c r="AC281">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25578,7 +25578,7 @@
         <v>53</v>
       </c>
       <c r="G282" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H282">
         <v>3</v>
@@ -26023,7 +26023,7 @@
         <v>39</v>
       </c>
       <c r="G287" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H287">
         <v>2</v>
@@ -27088,7 +27088,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F299" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G299" t="s">
         <v>46</v>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -124,13 +124,13 @@
     <t>Stomil Olsztyn</t>
   </si>
   <si>
-    <t>Kotwica Kolobrzeg</t>
+    <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
     <t>Garbarnia Krakow</t>
   </si>
   <si>
-    <t>Siarka Tarnobrzeg</t>
+    <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
     <t>Olimpia Elblag</t>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5184790</v>
+        <v>5221294</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,43 +1281,43 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N9">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1329,25 +1329,25 @@
         <v>1.875</v>
       </c>
       <c r="W9">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5221294</v>
+        <v>5184790</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1459,43 +1459,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
         <v>2.5</v>
@@ -1507,25 +1507,25 @@
         <v>1.875</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X11">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2334,7 +2334,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5184028</v>
+        <v>5185155</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2346,76 +2346,76 @@
         <v>44996.44791666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="L21">
         <v>3.2</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N21">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
         <v>3.2</v>
       </c>
       <c r="P21">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5185155</v>
+        <v>5184028</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2435,76 +2435,76 @@
         <v>44996.44791666666</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="L22">
         <v>3.2</v>
       </c>
       <c r="M22">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N22">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O22">
         <v>3.2</v>
       </c>
       <c r="P22">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5184469</v>
+        <v>5184791</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2702,10 +2702,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2717,43 +2717,43 @@
         <v>54</v>
       </c>
       <c r="K25">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L25">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N25">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2762,16 +2762,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2779,7 +2779,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5184791</v>
+        <v>5184469</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2791,10 +2791,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2806,43 +2806,43 @@
         <v>54</v>
       </c>
       <c r="K26">
+        <v>1.7</v>
+      </c>
+      <c r="L26">
+        <v>3.7</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>2.375</v>
+      </c>
+      <c r="O26">
+        <v>3.4</v>
+      </c>
+      <c r="P26">
         <v>2.6</v>
-      </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.45</v>
-      </c>
-      <c r="N26">
-        <v>2.5</v>
-      </c>
-      <c r="O26">
-        <v>3.1</v>
-      </c>
-      <c r="P26">
-        <v>2.5</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
+        <v>1.8</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
         <v>1.9</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>1.9</v>
       </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>1.825</v>
-      </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
       <c r="W26">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2851,16 +2851,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5221296</v>
+        <v>5185156</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2969,19 +2969,19 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28">
         <v>1.571</v>
@@ -2993,52 +2993,52 @@
         <v>4.75</v>
       </c>
       <c r="N28">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T28">
         <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X28">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5185159</v>
+        <v>5184029</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3058,73 +3058,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N29">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q29">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3135,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5185158</v>
+        <v>5221296</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3147,49 +3147,49 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N30">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
         <v>1.95</v>
@@ -3198,25 +3198,25 @@
         <v>1.85</v>
       </c>
       <c r="W30">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3224,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5185156</v>
+        <v>5185159</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,76 +3236,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5184029</v>
+        <v>5185158</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3325,58 +3325,58 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>54</v>
       </c>
       <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>3.3</v>
+      </c>
+      <c r="M32">
+        <v>3.2</v>
+      </c>
+      <c r="N32">
         <v>1.909</v>
       </c>
-      <c r="L32">
-        <v>3.5</v>
-      </c>
-      <c r="M32">
+      <c r="O32">
         <v>3.3</v>
       </c>
-      <c r="N32">
-        <v>1.85</v>
-      </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
       <c r="P32">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T32">
         <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3385,13 +3385,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3770,10 +3770,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
         <v>38</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5185166</v>
+        <v>5185171</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X44">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5185171</v>
+        <v>5184031</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,13 +4482,13 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4497,43 +4497,43 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N45">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="O45">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P45">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4542,16 +4542,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5184031</v>
+        <v>5185166</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,76 +4571,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L46">
+        <v>3.3</v>
+      </c>
+      <c r="M46">
         <v>3.2</v>
       </c>
-      <c r="M46">
-        <v>2.625</v>
-      </c>
       <c r="N46">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB46">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5019,7 +5019,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5185176</v>
+        <v>6486743</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5105,76 +5105,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K52">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
         <v>2</v>
       </c>
       <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
         <v>3.2</v>
       </c>
-      <c r="O52">
-        <v>3.4</v>
-      </c>
       <c r="P52">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q52">
         <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5182,7 +5182,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6486743</v>
+        <v>5185176</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5194,76 +5194,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K53">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L53">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q53">
         <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5909,7 +5909,7 @@
         <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6087,7 +6087,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6796,7 +6796,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
         <v>39</v>
@@ -7063,7 +7063,7 @@
         <v>45038.51041666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
         <v>41</v>
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7778,7 +7778,7 @@
         <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5185192</v>
+        <v>5185191</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,76 +8042,76 @@
         <v>45045.5</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
         <v>0</v>
       </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
       <c r="J85" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K85">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N85">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
         <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5185191</v>
+        <v>5185192</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,76 +8131,76 @@
         <v>45045.5</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K86">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L86">
         <v>3.3</v>
       </c>
       <c r="M86">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB86">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8475,7 +8475,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5184744</v>
+        <v>5221302</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8487,55 +8487,55 @@
         <v>45052.5</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>56</v>
       </c>
       <c r="K90">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N90">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O90">
         <v>3.2</v>
       </c>
       <c r="P90">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q90">
         <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8544,19 +8544,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8653,7 +8653,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5184036</v>
+        <v>5184744</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8665,13 +8665,13 @@
         <v>45052.5</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -8680,41 +8680,41 @@
         <v>56</v>
       </c>
       <c r="K92">
+        <v>2.9</v>
+      </c>
+      <c r="L92">
         <v>3.2</v>
       </c>
-      <c r="L92">
-        <v>3.4</v>
-      </c>
       <c r="M92">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N92">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
+        <v>1.775</v>
+      </c>
+      <c r="S92">
+        <v>2.025</v>
+      </c>
+      <c r="T92">
+        <v>2.5</v>
+      </c>
+      <c r="U92">
         <v>1.85</v>
       </c>
-      <c r="S92">
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>2.75</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
-      <c r="V92">
-        <v>1.825</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
@@ -8722,19 +8722,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8742,7 +8742,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5221302</v>
+        <v>5184036</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8754,46 +8754,46 @@
         <v>45052.5</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>56</v>
       </c>
       <c r="K93">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O93">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>2.75</v>
@@ -8811,13 +8811,13 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8932,7 +8932,7 @@
         <v>45053.52083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>39</v>
@@ -9024,7 +9024,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5224880</v>
+        <v>5222999</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9288,73 +9288,73 @@
         <v>45059.5</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K99">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L99">
         <v>4</v>
       </c>
       <c r="M99">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="N99">
         <v>1.363</v>
       </c>
       <c r="O99">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q99">
         <v>-1.25</v>
       </c>
       <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
         <v>1.85</v>
       </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
       <c r="AB99">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5223000</v>
+        <v>5224880</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,76 +9377,76 @@
         <v>45059.5</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L100">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N100">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P100">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U100">
+        <v>1.825</v>
+      </c>
+      <c r="V100">
         <v>1.975</v>
       </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X100">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5222999</v>
+        <v>5223000</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,76 +9466,76 @@
         <v>45059.5</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>55</v>
       </c>
       <c r="K101">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="N101">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P101">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9911,7 +9911,7 @@
         <v>45065.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
         <v>30</v>
@@ -10089,7 +10089,7 @@
         <v>45066.5</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
@@ -11160,7 +11160,7 @@
         <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11249,7 +11249,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11323,7 +11323,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5224889</v>
+        <v>5224885</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11335,46 +11335,46 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
       <c r="J122" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K122">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
         <v>3.3</v>
       </c>
       <c r="M122">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N122">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
         <v>2.5</v>
@@ -11386,19 +11386,19 @@
         <v>2</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
@@ -11501,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5185127</v>
+        <v>5224889</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11513,10 +11513,10 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11528,34 +11528,34 @@
         <v>56</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N124">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
+        <v>2.05</v>
+      </c>
+      <c r="S124">
         <v>1.75</v>
       </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
         <v>1.8</v>
@@ -11570,13 +11570,13 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.625</v>
+        <v>0.55</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>1.05</v>
+        <v>0.375</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11590,7 +11590,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5224884</v>
+        <v>5228058</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11602,76 +11602,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>55</v>
       </c>
       <c r="K125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L125">
+        <v>3.3</v>
+      </c>
+      <c r="M125">
+        <v>2.1</v>
+      </c>
+      <c r="N125">
+        <v>2.8</v>
+      </c>
+      <c r="O125">
         <v>3.25</v>
       </c>
-      <c r="M125">
-        <v>2.5</v>
-      </c>
-      <c r="N125">
-        <v>2.6</v>
-      </c>
-      <c r="O125">
-        <v>3.1</v>
-      </c>
       <c r="P125">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5226043</v>
+        <v>5229462</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11691,76 +11691,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K126">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="N126">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O126">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
         <v>1.8</v>
       </c>
-      <c r="S126">
-        <v>2</v>
-      </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X126">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC126">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5226044</v>
+        <v>5224884</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11780,49 +11780,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K127">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L127">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N127">
-        <v>1.285</v>
+        <v>2.6</v>
       </c>
       <c r="O127">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P127">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q127">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.8</v>
@@ -11831,25 +11831,25 @@
         <v>2</v>
       </c>
       <c r="W127">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11857,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5228058</v>
+        <v>5185127</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11869,76 +11869,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N128">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R128">
+        <v>1.75</v>
+      </c>
+      <c r="S128">
+        <v>2.05</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
         <v>1.8</v>
       </c>
-      <c r="S128">
-        <v>2</v>
-      </c>
-      <c r="T128">
-        <v>2.5</v>
-      </c>
-      <c r="U128">
-        <v>1.925</v>
-      </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z128">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11946,7 +11946,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5229462</v>
+        <v>5226043</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11958,76 +11958,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M129">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P129">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB129">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12035,7 +12035,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5224885</v>
+        <v>5226044</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12047,49 +12047,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>54</v>
       </c>
       <c r="K130">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M130">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N130">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P130">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
         <v>1.8</v>
@@ -12098,7 +12098,7 @@
         <v>2</v>
       </c>
       <c r="W130">
-        <v>1.3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12107,16 +12107,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12225,7 +12225,7 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12492,7 +12492,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
         <v>53</v>
@@ -12836,7 +12836,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6808005</v>
+        <v>6808604</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12848,19 +12848,19 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K139">
         <v>2.2</v>
@@ -12872,52 +12872,52 @@
         <v>3</v>
       </c>
       <c r="N139">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O139">
         <v>3.1</v>
       </c>
       <c r="P139">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139">
+        <v>1.95</v>
+      </c>
+      <c r="S139">
         <v>1.85</v>
-      </c>
-      <c r="S139">
-        <v>1.95</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12925,7 +12925,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6808604</v>
+        <v>6808005</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12937,19 +12937,19 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K140">
         <v>2.2</v>
@@ -12961,52 +12961,52 @@
         <v>3</v>
       </c>
       <c r="N140">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
         <v>3.1</v>
       </c>
       <c r="P140">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q140">
         <v>0</v>
       </c>
       <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
         <v>1.95</v>
-      </c>
-      <c r="S140">
-        <v>1.85</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13548,7 +13548,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6808160</v>
+        <v>6808608</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13560,13 +13560,13 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13575,43 +13575,43 @@
         <v>54</v>
       </c>
       <c r="K147">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L147">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N147">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q147">
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13620,16 +13620,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13637,7 +13637,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6808608</v>
+        <v>6808160</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13649,13 +13649,13 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13664,61 +13664,61 @@
         <v>54</v>
       </c>
       <c r="K148">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L148">
+        <v>3.3</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>1.8</v>
+      </c>
+      <c r="O148">
         <v>3.4</v>
       </c>
-      <c r="M148">
-        <v>3.4</v>
-      </c>
-      <c r="N148">
-        <v>1.85</v>
-      </c>
-      <c r="O148">
-        <v>3.5</v>
-      </c>
       <c r="P148">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
+        <v>0.8</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
-      <c r="Z148">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14186,7 +14186,7 @@
         <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14705,7 +14705,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6808901</v>
+        <v>6808618</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14717,19 +14717,19 @@
         <v>45150.5</v>
       </c>
       <c r="F160" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K160">
         <v>2.5</v>
@@ -14762,31 +14762,31 @@
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z160">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB160">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14794,7 +14794,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6808618</v>
+        <v>6808901</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14806,19 +14806,19 @@
         <v>45150.5</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K161">
         <v>2.5</v>
@@ -14851,31 +14851,31 @@
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC161">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6808165</v>
+        <v>6808619</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45151.5</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L164">
         <v>3.25</v>
       </c>
       <c r="M164">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N164">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>1.8</v>
+      </c>
+      <c r="S164">
+        <v>2</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>1.925</v>
+      </c>
+      <c r="V164">
         <v>1.875</v>
       </c>
-      <c r="S164">
-        <v>1.925</v>
-      </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
-      <c r="U164">
-        <v>1.9</v>
-      </c>
-      <c r="V164">
-        <v>1.9</v>
-      </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA164">
+        <v>-1</v>
+      </c>
+      <c r="AB164">
         <v>0.925</v>
       </c>
-      <c r="AB164">
-        <v>0.45</v>
-      </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6808619</v>
+        <v>6808617</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,46 +15162,46 @@
         <v>45151.5</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
         <v>54</v>
       </c>
       <c r="K165">
+        <v>2.4</v>
+      </c>
+      <c r="L165">
+        <v>3.2</v>
+      </c>
+      <c r="M165">
+        <v>2.6</v>
+      </c>
+      <c r="N165">
         <v>2.2</v>
       </c>
-      <c r="L165">
+      <c r="O165">
         <v>3.25</v>
       </c>
-      <c r="M165">
-        <v>2.8</v>
-      </c>
-      <c r="N165">
-        <v>2</v>
-      </c>
-      <c r="O165">
-        <v>3.4</v>
-      </c>
       <c r="P165">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
         <v>2.5</v>
@@ -15213,7 +15213,7 @@
         <v>1.875</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15222,16 +15222,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15239,7 +15239,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6808617</v>
+        <v>6808166</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15251,28 +15251,28 @@
         <v>45151.5</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K166">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M166">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N166">
         <v>2.2</v>
@@ -15281,46 +15281,46 @@
         <v>3.25</v>
       </c>
       <c r="P166">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q166">
         <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
+        <v>1.875</v>
+      </c>
+      <c r="V166">
         <v>1.925</v>
       </c>
-      <c r="V166">
-        <v>1.875</v>
-      </c>
       <c r="W166">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15328,7 +15328,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6808166</v>
+        <v>6808165</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15340,76 +15340,76 @@
         <v>45151.5</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G167" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K167">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L167">
         <v>3.25</v>
       </c>
       <c r="M167">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O167">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z167">
+        <v>-1</v>
+      </c>
+      <c r="AA167">
+        <v>0.925</v>
+      </c>
+      <c r="AB167">
+        <v>0.45</v>
+      </c>
+      <c r="AC167">
         <v>-0.5</v>
-      </c>
-      <c r="AA167">
-        <v>0.4</v>
-      </c>
-      <c r="AB167">
-        <v>-0.5</v>
-      </c>
-      <c r="AC167">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15607,7 +15607,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
         <v>47</v>
@@ -16144,7 +16144,7 @@
         <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16307,7 +16307,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6808624</v>
+        <v>6808625</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16319,16 +16319,16 @@
         <v>45164.5</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>54</v>
@@ -16343,34 +16343,34 @@
         <v>3.1</v>
       </c>
       <c r="N178">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S178">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16379,13 +16379,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16396,7 +16396,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6808899</v>
+        <v>7105151</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16408,76 +16408,76 @@
         <v>45164.5</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>56</v>
+      </c>
+      <c r="K179">
+        <v>1.8</v>
+      </c>
+      <c r="L179">
+        <v>3.25</v>
+      </c>
+      <c r="M179">
+        <v>4</v>
+      </c>
+      <c r="N179">
+        <v>1.8</v>
+      </c>
+      <c r="O179">
+        <v>3.25</v>
+      </c>
+      <c r="P179">
+        <v>4</v>
+      </c>
+      <c r="Q179">
+        <v>-0.5</v>
+      </c>
+      <c r="R179">
+        <v>1.85</v>
+      </c>
+      <c r="S179">
+        <v>1.95</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>1.85</v>
+      </c>
+      <c r="V179">
+        <v>1.95</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
         <v>3</v>
       </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179" t="s">
-        <v>54</v>
-      </c>
-      <c r="K179">
-        <v>2.25</v>
-      </c>
-      <c r="L179">
-        <v>3.3</v>
-      </c>
-      <c r="M179">
-        <v>2.75</v>
-      </c>
-      <c r="N179">
-        <v>2.25</v>
-      </c>
-      <c r="O179">
-        <v>3.3</v>
-      </c>
-      <c r="P179">
-        <v>2.75</v>
-      </c>
-      <c r="Q179">
-        <v>-0.25</v>
-      </c>
-      <c r="R179">
-        <v>2.025</v>
-      </c>
-      <c r="S179">
-        <v>1.775</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.975</v>
-      </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
-      <c r="W179">
-        <v>1.25</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
       <c r="Z179">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16485,7 +16485,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7105151</v>
+        <v>6808899</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16497,76 +16497,76 @@
         <v>45164.5</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H180">
+        <v>3</v>
+      </c>
+      <c r="I180">
         <v>0</v>
       </c>
-      <c r="I180">
-        <v>1</v>
-      </c>
       <c r="J180" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L180">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M180">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N180">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O180">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P180">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16574,7 +16574,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6808625</v>
+        <v>6808624</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16586,16 +16586,16 @@
         <v>45164.5</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G181" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>54</v>
@@ -16610,34 +16610,34 @@
         <v>3.1</v>
       </c>
       <c r="N181">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O181">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q181">
         <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16646,13 +16646,13 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -17565,7 +17565,7 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>
@@ -18633,7 +18633,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -18710,7 +18710,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6808649</v>
+        <v>7203342</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18722,55 +18722,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F205" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
       <c r="I205">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
         <v>56</v>
       </c>
       <c r="K205">
+        <v>1.8</v>
+      </c>
+      <c r="L205">
+        <v>3.4</v>
+      </c>
+      <c r="M205">
+        <v>3.75</v>
+      </c>
+      <c r="N205">
+        <v>1.95</v>
+      </c>
+      <c r="O205">
+        <v>3.3</v>
+      </c>
+      <c r="P205">
+        <v>3.25</v>
+      </c>
+      <c r="Q205">
+        <v>-0.5</v>
+      </c>
+      <c r="R205">
+        <v>2.025</v>
+      </c>
+      <c r="S205">
+        <v>1.775</v>
+      </c>
+      <c r="T205">
         <v>2.5</v>
       </c>
-      <c r="L205">
-        <v>3.2</v>
-      </c>
-      <c r="M205">
-        <v>2.5</v>
-      </c>
-      <c r="N205">
-        <v>2.5</v>
-      </c>
-      <c r="O205">
-        <v>3.25</v>
-      </c>
-      <c r="P205">
-        <v>2.5</v>
-      </c>
-      <c r="Q205">
-        <v>0</v>
-      </c>
-      <c r="R205">
-        <v>1.9</v>
-      </c>
-      <c r="S205">
-        <v>1.9</v>
-      </c>
-      <c r="T205">
-        <v>2.75</v>
-      </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18779,19 +18779,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB205">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18799,7 +18799,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7203342</v>
+        <v>6808649</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18811,55 +18811,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G206" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J206" t="s">
         <v>56</v>
       </c>
       <c r="K206">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M206">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N206">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P206">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S206">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18868,19 +18868,19 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC206">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19081,7 +19081,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19615,7 +19615,7 @@
         <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -20045,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6808023</v>
+        <v>6808894</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20057,10 +20057,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G220" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20072,25 +20072,25 @@
         <v>56</v>
       </c>
       <c r="K220">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L220">
         <v>3.3</v>
       </c>
       <c r="M220">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N220">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O220">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P220">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
         <v>1.85</v>
@@ -20102,10 +20102,10 @@
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -20114,7 +20114,7 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z220">
         <v>-1</v>
@@ -20126,7 +20126,7 @@
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20223,7 +20223,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6808894</v>
+        <v>6808023</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20235,10 +20235,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20250,25 +20250,25 @@
         <v>56</v>
       </c>
       <c r="K222">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L222">
         <v>3.3</v>
       </c>
       <c r="M222">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N222">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P222">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
         <v>1.85</v>
@@ -20280,10 +20280,10 @@
         <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20292,7 +20292,7 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z222">
         <v>-1</v>
@@ -20304,7 +20304,7 @@
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20502,7 +20502,7 @@
         <v>45200.4375</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G225" t="s">
         <v>31</v>
@@ -20861,7 +20861,7 @@
         <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -22015,7 +22015,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G242" t="s">
         <v>51</v>
@@ -22374,7 +22374,7 @@
         <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H246">
         <v>2</v>
@@ -23172,7 +23172,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G255" t="s">
         <v>33</v>
@@ -23694,7 +23694,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6808683</v>
+        <v>6808198</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23706,73 +23706,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G261" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H261">
         <v>2</v>
       </c>
       <c r="I261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K261">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L261">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M261">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N261">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O261">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P261">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q261">
         <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S261">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T261">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U261">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V261">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X261">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA261">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC261">
         <v>-1</v>
@@ -23783,7 +23783,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6808198</v>
+        <v>6808683</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23795,73 +23795,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G262" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H262">
         <v>2</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K262">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L262">
+        <v>3.3</v>
+      </c>
+      <c r="M262">
         <v>3.25</v>
       </c>
-      <c r="M262">
-        <v>2.3</v>
-      </c>
       <c r="N262">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O262">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P262">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q262">
         <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S262">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T262">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U262">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V262">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W262">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB262">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -24243,7 +24243,7 @@
         <v>45</v>
       </c>
       <c r="G267" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -24596,7 +24596,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G271" t="s">
         <v>52</v>
@@ -24940,7 +24940,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6808689</v>
+        <v>6808200</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24952,10 +24952,10 @@
         <v>45242.375</v>
       </c>
       <c r="F275" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G275" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -24967,43 +24967,43 @@
         <v>54</v>
       </c>
       <c r="K275">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L275">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M275">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N275">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O275">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P275">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q275">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S275">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T275">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U275">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V275">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W275">
-        <v>1.8</v>
+        <v>0.95</v>
       </c>
       <c r="X275">
         <v>-1</v>
@@ -25012,7 +25012,7 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA275">
         <v>-1</v>
@@ -25021,7 +25021,7 @@
         <v>-1</v>
       </c>
       <c r="AC275">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25029,7 +25029,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6808200</v>
+        <v>6808689</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25041,10 +25041,10 @@
         <v>45242.375</v>
       </c>
       <c r="F276" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G276" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -25056,44 +25056,44 @@
         <v>54</v>
       </c>
       <c r="K276">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L276">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M276">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N276">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O276">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P276">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q276">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R276">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S276">
+        <v>1.975</v>
+      </c>
+      <c r="T276">
+        <v>3</v>
+      </c>
+      <c r="U276">
+        <v>1.975</v>
+      </c>
+      <c r="V276">
+        <v>1.825</v>
+      </c>
+      <c r="W276">
         <v>1.8</v>
       </c>
-      <c r="T276">
-        <v>2.5</v>
-      </c>
-      <c r="U276">
-        <v>1.9</v>
-      </c>
-      <c r="V276">
-        <v>1.9</v>
-      </c>
-      <c r="W276">
-        <v>0.95</v>
-      </c>
       <c r="X276">
         <v>-1</v>
       </c>
@@ -25101,7 +25101,7 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA276">
         <v>-1</v>
@@ -25110,7 +25110,7 @@
         <v>-1</v>
       </c>
       <c r="AC276">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25385,7 +25385,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6808694</v>
+        <v>6808886</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25397,49 +25397,49 @@
         <v>45248.375</v>
       </c>
       <c r="F280" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G280" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="s">
         <v>54</v>
       </c>
       <c r="K280">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L280">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M280">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N280">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O280">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P280">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q280">
         <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S280">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T280">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U280">
         <v>1.85</v>
@@ -25448,25 +25448,25 @@
         <v>1.95</v>
       </c>
       <c r="W280">
+        <v>1.375</v>
+      </c>
+      <c r="X280">
+        <v>-1</v>
+      </c>
+      <c r="Y280">
+        <v>-1</v>
+      </c>
+      <c r="Z280">
+        <v>1.075</v>
+      </c>
+      <c r="AA280">
+        <v>-1</v>
+      </c>
+      <c r="AB280">
+        <v>-1</v>
+      </c>
+      <c r="AC280">
         <v>0.95</v>
-      </c>
-      <c r="X280">
-        <v>-1</v>
-      </c>
-      <c r="Y280">
-        <v>-1</v>
-      </c>
-      <c r="Z280">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA280">
-        <v>-1</v>
-      </c>
-      <c r="AB280">
-        <v>0.425</v>
-      </c>
-      <c r="AC280">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25474,7 +25474,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6808886</v>
+        <v>6808694</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25486,49 +25486,49 @@
         <v>45248.375</v>
       </c>
       <c r="F281" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G281" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
         <v>54</v>
       </c>
       <c r="K281">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L281">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M281">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N281">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O281">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P281">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S281">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U281">
         <v>1.85</v>
@@ -25537,7 +25537,7 @@
         <v>1.95</v>
       </c>
       <c r="W281">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="X281">
         <v>-1</v>
@@ -25546,16 +25546,16 @@
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>1.075</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA281">
         <v>-1</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC281">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25578,7 +25578,7 @@
         <v>53</v>
       </c>
       <c r="G282" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H282">
         <v>3</v>
@@ -26023,7 +26023,7 @@
         <v>39</v>
       </c>
       <c r="G287" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H287">
         <v>2</v>
@@ -27088,7 +27088,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F299" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G299" t="s">
         <v>46</v>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC300"/>
+  <dimension ref="A1:AC302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5221295</v>
+        <v>5185154</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,73 +2168,73 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
+        <v>3.3</v>
+      </c>
+      <c r="N19">
+        <v>2.05</v>
+      </c>
+      <c r="O19">
+        <v>3.2</v>
+      </c>
+      <c r="P19">
         <v>3.4</v>
-      </c>
-      <c r="N19">
-        <v>2.15</v>
-      </c>
-      <c r="O19">
-        <v>3.3</v>
-      </c>
-      <c r="P19">
-        <v>2.9</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2245,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5185154</v>
+        <v>5221295</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2257,73 +2257,73 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
+        <v>3.4</v>
+      </c>
+      <c r="N20">
+        <v>2.15</v>
+      </c>
+      <c r="O20">
         <v>3.3</v>
       </c>
-      <c r="N20">
-        <v>2.05</v>
-      </c>
-      <c r="O20">
-        <v>3.2</v>
-      </c>
       <c r="P20">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q20">
         <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5184791</v>
+        <v>5184469</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2702,10 +2702,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2717,43 +2717,43 @@
         <v>54</v>
       </c>
       <c r="K25">
+        <v>1.7</v>
+      </c>
+      <c r="L25">
+        <v>3.7</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>2.375</v>
+      </c>
+      <c r="O25">
+        <v>3.4</v>
+      </c>
+      <c r="P25">
         <v>2.6</v>
-      </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.45</v>
-      </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>3.1</v>
-      </c>
-      <c r="P25">
-        <v>2.5</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
+        <v>1.8</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
         <v>1.9</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>1.9</v>
       </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
-      <c r="U25">
-        <v>1.825</v>
-      </c>
-      <c r="V25">
-        <v>1.975</v>
-      </c>
       <c r="W25">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2762,16 +2762,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2779,7 +2779,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5184469</v>
+        <v>5184791</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2791,10 +2791,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2806,43 +2806,43 @@
         <v>54</v>
       </c>
       <c r="K26">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L26">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N26">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2851,16 +2851,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5185156</v>
+        <v>5185159</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2969,76 +2969,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O28">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P28">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z28">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5184029</v>
+        <v>5185156</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3058,13 +3058,13 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3073,43 +3073,43 @@
         <v>54</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N29">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3118,16 +3118,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3135,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5221296</v>
+        <v>5185158</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3147,49 +3147,49 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L30">
+        <v>3.3</v>
+      </c>
+      <c r="M30">
+        <v>3.2</v>
+      </c>
+      <c r="N30">
+        <v>1.909</v>
+      </c>
+      <c r="O30">
+        <v>3.3</v>
+      </c>
+      <c r="P30">
         <v>3.75</v>
       </c>
-      <c r="M30">
-        <v>4.75</v>
-      </c>
-      <c r="N30">
-        <v>1.7</v>
-      </c>
-      <c r="O30">
-        <v>3.5</v>
-      </c>
-      <c r="P30">
-        <v>4</v>
-      </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
         <v>1.95</v>
@@ -3198,25 +3198,25 @@
         <v>1.85</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X30">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3224,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5185159</v>
+        <v>5221296</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,76 +3236,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="L31">
+        <v>3.75</v>
+      </c>
+      <c r="M31">
+        <v>4.75</v>
+      </c>
+      <c r="N31">
+        <v>1.7</v>
+      </c>
+      <c r="O31">
         <v>3.5</v>
       </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-      <c r="N31">
-        <v>2.875</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
       <c r="P31">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.95</v>
+      </c>
+      <c r="V31">
         <v>1.85</v>
       </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
-      <c r="T31">
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
         <v>2.5</v>
       </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
       <c r="Y31">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5185158</v>
+        <v>5184029</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3325,58 +3325,58 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>54</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
+        <v>3.5</v>
+      </c>
+      <c r="M32">
         <v>3.3</v>
       </c>
-      <c r="M32">
-        <v>3.2</v>
-      </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
         <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3385,13 +3385,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5185171</v>
+        <v>5184031</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,13 +4393,13 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4408,43 +4408,43 @@
         <v>54</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P44">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4453,16 +4453,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5184031</v>
+        <v>5185166</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L45">
+        <v>3.3</v>
+      </c>
+      <c r="M45">
         <v>3.2</v>
       </c>
-      <c r="M45">
-        <v>2.625</v>
-      </c>
       <c r="N45">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB45">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5185166</v>
+        <v>5185171</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,76 +4571,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X46">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5093,7 +5093,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6486743</v>
+        <v>5185176</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5105,76 +5105,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K52">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
         <v>2</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q52">
         <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5182,7 +5182,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5185176</v>
+        <v>6486743</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5194,76 +5194,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K53">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53">
         <v>3.2</v>
       </c>
-      <c r="O53">
-        <v>3.4</v>
-      </c>
       <c r="P53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q53">
         <v>0.25</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5449,7 +5449,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5185173</v>
+        <v>5185174</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5461,76 +5461,76 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K56">
         <v>2</v>
       </c>
       <c r="L56">
+        <v>3.4</v>
+      </c>
+      <c r="M56">
+        <v>3.1</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
         <v>3.25</v>
       </c>
-      <c r="M56">
-        <v>3.25</v>
-      </c>
-      <c r="N56">
-        <v>2.2</v>
-      </c>
-      <c r="O56">
+      <c r="P56">
         <v>3.2</v>
-      </c>
-      <c r="P56">
-        <v>2.9</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T56">
+        <v>2.75</v>
+      </c>
+      <c r="U56">
+        <v>1.925</v>
+      </c>
+      <c r="V56">
+        <v>1.875</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
         <v>2.25</v>
       </c>
-      <c r="U56">
-        <v>1.8</v>
-      </c>
-      <c r="V56">
-        <v>2</v>
-      </c>
-      <c r="W56">
-        <v>1.2</v>
-      </c>
-      <c r="X56">
-        <v>-1</v>
-      </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5185174</v>
+        <v>5185173</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,76 +5639,76 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K58">
         <v>2</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P58">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.975</v>
+      </c>
+      <c r="S58">
+        <v>1.825</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
         <v>1.8</v>
       </c>
-      <c r="S58">
-        <v>2</v>
-      </c>
-      <c r="T58">
-        <v>2.75</v>
-      </c>
-      <c r="U58">
-        <v>1.925</v>
-      </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X58">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5894,7 +5894,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5184473</v>
+        <v>5185181</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5906,76 +5906,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
       <c r="J61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K61">
+        <v>2.5</v>
+      </c>
+      <c r="L61">
+        <v>3.2</v>
+      </c>
+      <c r="M61">
+        <v>2.5</v>
+      </c>
+      <c r="N61">
+        <v>2.2</v>
+      </c>
+      <c r="O61">
+        <v>3.25</v>
+      </c>
+      <c r="P61">
         <v>2.875</v>
       </c>
-      <c r="L61">
-        <v>3.4</v>
-      </c>
-      <c r="M61">
-        <v>2.1</v>
-      </c>
-      <c r="N61">
-        <v>3</v>
-      </c>
-      <c r="O61">
-        <v>3.3</v>
-      </c>
-      <c r="P61">
-        <v>2.05</v>
-      </c>
       <c r="Q61">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
+        <v>1.975</v>
+      </c>
+      <c r="S61">
         <v>1.825</v>
       </c>
-      <c r="S61">
+      <c r="T61">
+        <v>2.75</v>
+      </c>
+      <c r="U61">
         <v>1.975</v>
       </c>
-      <c r="T61">
-        <v>2.5</v>
-      </c>
-      <c r="U61">
-        <v>1.95</v>
-      </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5983,7 +5983,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5185181</v>
+        <v>5184473</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5995,76 +5995,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K62">
+        <v>2.875</v>
+      </c>
+      <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>2.1</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>3.3</v>
+      </c>
+      <c r="P62">
+        <v>2.05</v>
+      </c>
+      <c r="Q62">
+        <v>0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.825</v>
+      </c>
+      <c r="S62">
+        <v>1.975</v>
+      </c>
+      <c r="T62">
         <v>2.5</v>
       </c>
-      <c r="L62">
-        <v>3.2</v>
-      </c>
-      <c r="M62">
-        <v>2.5</v>
-      </c>
-      <c r="N62">
-        <v>2.2</v>
-      </c>
-      <c r="O62">
-        <v>3.25</v>
-      </c>
-      <c r="P62">
-        <v>2.875</v>
-      </c>
-      <c r="Q62">
-        <v>-0.25</v>
-      </c>
-      <c r="R62">
-        <v>1.975</v>
-      </c>
-      <c r="S62">
-        <v>1.825</v>
-      </c>
-      <c r="T62">
-        <v>2.75</v>
-      </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -7763,7 +7763,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5184795</v>
+        <v>5185190</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7775,76 +7775,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L82">
         <v>3.25</v>
       </c>
       <c r="M82">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N82">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="O82">
         <v>3.25</v>
       </c>
       <c r="P82">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
         <v>2.5</v>
       </c>
       <c r="U82">
+        <v>1.95</v>
+      </c>
+      <c r="V82">
         <v>1.85</v>
       </c>
-      <c r="V82">
-        <v>1.95</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y82">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7852,7 +7852,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5185190</v>
+        <v>5184795</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7864,76 +7864,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L83">
         <v>3.25</v>
       </c>
       <c r="M83">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N83">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O83">
         <v>3.25</v>
       </c>
       <c r="P83">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
+        <v>1.85</v>
+      </c>
+      <c r="V83">
         <v>1.95</v>
       </c>
-      <c r="V83">
-        <v>1.85</v>
-      </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5185191</v>
+        <v>5185192</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,76 +8042,76 @@
         <v>45045.5</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K85">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
         <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB85">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5185192</v>
+        <v>5185191</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,76 +8131,76 @@
         <v>45045.5</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
       <c r="J86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L86">
         <v>3.3</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N86">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T86">
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8475,7 +8475,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5221302</v>
+        <v>5184744</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8487,55 +8487,55 @@
         <v>45052.5</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>56</v>
       </c>
       <c r="K90">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O90">
         <v>3.2</v>
       </c>
       <c r="P90">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q90">
         <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8544,19 +8544,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8564,7 +8564,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5185195</v>
+        <v>5221302</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8576,76 +8576,76 @@
         <v>45052.5</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K91">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M91">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N91">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P91">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8653,7 +8653,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5184744</v>
+        <v>5184036</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8665,13 +8665,13 @@
         <v>45052.5</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -8680,40 +8680,40 @@
         <v>56</v>
       </c>
       <c r="K92">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O92">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8722,19 +8722,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8742,7 +8742,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5184036</v>
+        <v>5185195</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8754,76 +8754,76 @@
         <v>45052.5</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K93">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N93">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P93">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
         <v>1.85</v>
-      </c>
-      <c r="S93">
-        <v>1.95</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y93">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9276,7 +9276,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5222999</v>
+        <v>5224880</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9288,73 +9288,73 @@
         <v>45059.5</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K99">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L99">
         <v>4</v>
       </c>
       <c r="M99">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="N99">
         <v>1.363</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P99">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q99">
         <v>-1.25</v>
       </c>
       <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
         <v>1.95</v>
       </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X99">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5224880</v>
+        <v>5223000</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,76 +9377,76 @@
         <v>45059.5</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K100">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N100">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="V100">
-        <v>1.975</v>
-      </c>
       <c r="W100">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.825</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5223000</v>
+        <v>5222999</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,76 +9466,76 @@
         <v>45059.5</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>55</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="N101">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O101">
+        <v>4.2</v>
+      </c>
+      <c r="P101">
+        <v>6.5</v>
+      </c>
+      <c r="Q101">
+        <v>-1.25</v>
+      </c>
+      <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>1.85</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>1.8</v>
+      </c>
+      <c r="V101">
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>3.2</v>
       </c>
-      <c r="P101">
-        <v>3.1</v>
-      </c>
-      <c r="Q101">
-        <v>-0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
-      <c r="S101">
-        <v>1.925</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>1.975</v>
-      </c>
-      <c r="V101">
-        <v>1.825</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>2.2</v>
-      </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -11323,7 +11323,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5224885</v>
+        <v>5226043</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11335,76 +11335,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K122">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M122">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P122">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11501,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5224889</v>
+        <v>5224885</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11513,46 +11513,46 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
         <v>0</v>
       </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
       <c r="J124" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K124">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L124">
         <v>3.3</v>
       </c>
       <c r="M124">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N124">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
         <v>2.5</v>
@@ -11564,19 +11564,19 @@
         <v>2</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11590,7 +11590,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5228058</v>
+        <v>5224889</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11602,76 +11602,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L125">
         <v>3.3</v>
       </c>
       <c r="M125">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N125">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O125">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z125">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5229462</v>
+        <v>5185127</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11691,76 +11691,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L126">
         <v>3.5</v>
       </c>
       <c r="M126">
+        <v>3.1</v>
+      </c>
+      <c r="N126">
+        <v>2.25</v>
+      </c>
+      <c r="O126">
+        <v>3.5</v>
+      </c>
+      <c r="P126">
+        <v>2.625</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
         <v>1.75</v>
       </c>
-      <c r="N126">
-        <v>3.2</v>
-      </c>
-      <c r="O126">
-        <v>3.4</v>
-      </c>
-      <c r="P126">
-        <v>2</v>
-      </c>
-      <c r="Q126">
-        <v>0.25</v>
-      </c>
-      <c r="R126">
-        <v>2</v>
-      </c>
       <c r="S126">
+        <v>2.05</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
         <v>1.8</v>
       </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>1.95</v>
-      </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5224884</v>
+        <v>5226044</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11780,49 +11780,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K127">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L127">
+        <v>4.5</v>
+      </c>
+      <c r="M127">
+        <v>6.5</v>
+      </c>
+      <c r="N127">
+        <v>1.285</v>
+      </c>
+      <c r="O127">
+        <v>5.25</v>
+      </c>
+      <c r="P127">
+        <v>7.5</v>
+      </c>
+      <c r="Q127">
+        <v>-1.5</v>
+      </c>
+      <c r="R127">
+        <v>1.825</v>
+      </c>
+      <c r="S127">
+        <v>1.975</v>
+      </c>
+      <c r="T127">
         <v>3.25</v>
-      </c>
-      <c r="M127">
-        <v>2.5</v>
-      </c>
-      <c r="N127">
-        <v>2.6</v>
-      </c>
-      <c r="O127">
-        <v>3.1</v>
-      </c>
-      <c r="P127">
-        <v>2.5</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
-      <c r="R127">
-        <v>1.95</v>
-      </c>
-      <c r="S127">
-        <v>1.85</v>
-      </c>
-      <c r="T127">
-        <v>2.5</v>
       </c>
       <c r="U127">
         <v>1.8</v>
@@ -11831,25 +11831,25 @@
         <v>2</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X127">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC127">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11857,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5185127</v>
+        <v>5224884</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11869,49 +11869,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
+        <v>2.5</v>
+      </c>
+      <c r="N128">
+        <v>2.6</v>
+      </c>
+      <c r="O128">
         <v>3.1</v>
       </c>
-      <c r="N128">
-        <v>2.25</v>
-      </c>
-      <c r="O128">
-        <v>3.5</v>
-      </c>
       <c r="P128">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q128">
         <v>0</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
         <v>1.8</v>
@@ -11923,16 +11923,16 @@
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y128">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
         <v>-1</v>
@@ -11946,7 +11946,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5226043</v>
+        <v>5229462</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11958,76 +11958,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K129">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="N129">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
         <v>1.8</v>
       </c>
-      <c r="S129">
-        <v>2</v>
-      </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X129">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12035,7 +12035,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5226044</v>
+        <v>5228058</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12047,76 +12047,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>55</v>
+      </c>
+      <c r="K130">
         <v>3</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130" t="s">
-        <v>54</v>
-      </c>
-      <c r="K130">
-        <v>1.363</v>
-      </c>
       <c r="L130">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N130">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="O130">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P130">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q130">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12747,7 +12747,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6808905</v>
+        <v>6808005</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12759,58 +12759,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>54</v>
       </c>
       <c r="K138">
+        <v>2.2</v>
+      </c>
+      <c r="L138">
+        <v>3.1</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
         <v>2.5</v>
       </c>
-      <c r="L138">
-        <v>3.2</v>
-      </c>
-      <c r="M138">
+      <c r="O138">
+        <v>3.1</v>
+      </c>
+      <c r="P138">
+        <v>2.6</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
+        <v>1.95</v>
+      </c>
+      <c r="T138">
         <v>2.5</v>
       </c>
-      <c r="N138">
-        <v>2.15</v>
-      </c>
-      <c r="O138">
-        <v>3.25</v>
-      </c>
-      <c r="P138">
-        <v>3.1</v>
-      </c>
-      <c r="Q138">
-        <v>-0.25</v>
-      </c>
-      <c r="R138">
-        <v>1.9</v>
-      </c>
-      <c r="S138">
-        <v>1.9</v>
-      </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12819,16 +12819,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12836,7 +12836,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6808604</v>
+        <v>6808905</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12848,76 +12848,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K139">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
+        <v>3.2</v>
+      </c>
+      <c r="M139">
+        <v>2.5</v>
+      </c>
+      <c r="N139">
+        <v>2.15</v>
+      </c>
+      <c r="O139">
+        <v>3.25</v>
+      </c>
+      <c r="P139">
         <v>3.1</v>
       </c>
-      <c r="M139">
-        <v>3</v>
-      </c>
-      <c r="N139">
-        <v>2.6</v>
-      </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
-      <c r="P139">
-        <v>2.5</v>
-      </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12925,7 +12925,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6808005</v>
+        <v>6808604</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12937,19 +12937,19 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K140">
         <v>2.2</v>
@@ -12961,52 +12961,52 @@
         <v>3</v>
       </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O140">
         <v>3.1</v>
       </c>
       <c r="P140">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q140">
         <v>0</v>
       </c>
       <c r="R140">
+        <v>1.95</v>
+      </c>
+      <c r="S140">
         <v>1.85</v>
-      </c>
-      <c r="S140">
-        <v>1.95</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13548,7 +13548,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6808608</v>
+        <v>6808160</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13560,13 +13560,13 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13575,61 +13575,61 @@
         <v>54</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L147">
+        <v>3.3</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>1.8</v>
+      </c>
+      <c r="O147">
         <v>3.4</v>
       </c>
-      <c r="M147">
-        <v>3.4</v>
-      </c>
-      <c r="N147">
-        <v>1.85</v>
-      </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
       <c r="P147">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q147">
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
+        <v>0.8</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13637,7 +13637,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6808160</v>
+        <v>6808608</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13649,13 +13649,13 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13664,43 +13664,43 @@
         <v>54</v>
       </c>
       <c r="K148">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L148">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13709,16 +13709,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6808619</v>
+        <v>6808166</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,19 +15073,19 @@
         <v>45151.5</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K164">
         <v>2.2</v>
@@ -15097,52 +15097,52 @@
         <v>2.8</v>
       </c>
       <c r="N164">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q164">
         <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
         <v>1.8</v>
       </c>
-      <c r="S164">
-        <v>2</v>
-      </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
+        <v>1.875</v>
+      </c>
+      <c r="V164">
         <v>1.925</v>
       </c>
-      <c r="V164">
-        <v>1.875</v>
-      </c>
       <c r="W164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB164">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6808617</v>
+        <v>6808619</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,46 +15162,46 @@
         <v>45151.5</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>54</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L165">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M165">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N165">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O165">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T165">
         <v>2.5</v>
@@ -15213,7 +15213,7 @@
         <v>1.875</v>
       </c>
       <c r="W165">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15222,16 +15222,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC165">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15239,7 +15239,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6808166</v>
+        <v>6808165</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15251,76 +15251,76 @@
         <v>45151.5</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G166" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K166">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L166">
         <v>3.25</v>
       </c>
       <c r="M166">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N166">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O166">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
+        <v>0.925</v>
+      </c>
+      <c r="AB166">
+        <v>0.45</v>
+      </c>
+      <c r="AC166">
         <v>-0.5</v>
-      </c>
-      <c r="AA166">
-        <v>0.4</v>
-      </c>
-      <c r="AB166">
-        <v>-0.5</v>
-      </c>
-      <c r="AC166">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15328,7 +15328,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6808165</v>
+        <v>6808617</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15340,76 +15340,76 @@
         <v>45151.5</v>
       </c>
       <c r="F167" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K167">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L167">
+        <v>3.2</v>
+      </c>
+      <c r="M167">
+        <v>2.6</v>
+      </c>
+      <c r="N167">
+        <v>2.2</v>
+      </c>
+      <c r="O167">
         <v>3.25</v>
       </c>
-      <c r="M167">
-        <v>3.5</v>
-      </c>
-      <c r="N167">
-        <v>1.615</v>
-      </c>
-      <c r="O167">
-        <v>3.6</v>
-      </c>
       <c r="P167">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
+        <v>1.975</v>
+      </c>
+      <c r="S167">
+        <v>1.825</v>
+      </c>
+      <c r="T167">
+        <v>2.5</v>
+      </c>
+      <c r="U167">
+        <v>1.925</v>
+      </c>
+      <c r="V167">
         <v>1.875</v>
       </c>
-      <c r="S167">
-        <v>1.925</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>1.9</v>
-      </c>
-      <c r="V167">
-        <v>1.9</v>
-      </c>
       <c r="W167">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15595,7 +15595,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6808169</v>
+        <v>6808168</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15607,55 +15607,55 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>56</v>
       </c>
       <c r="K170">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L170">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N170">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O170">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15664,19 +15664,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15684,7 +15684,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6808168</v>
+        <v>6808169</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15696,56 +15696,56 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>56</v>
       </c>
       <c r="K171">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N171">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
+        <v>1.875</v>
+      </c>
+      <c r="S171">
+        <v>1.925</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
         <v>1.95</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.85</v>
       </c>
-      <c r="T171">
-        <v>2.25</v>
-      </c>
-      <c r="U171">
-        <v>1.775</v>
-      </c>
-      <c r="V171">
-        <v>2.025</v>
-      </c>
       <c r="W171">
         <v>-1</v>
       </c>
@@ -15753,19 +15753,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC171">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -18710,7 +18710,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7203342</v>
+        <v>6808649</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18722,55 +18722,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J205" t="s">
         <v>56</v>
       </c>
       <c r="K205">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M205">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N205">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O205">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P205">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R205">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18779,19 +18779,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC205">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18799,7 +18799,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6808649</v>
+        <v>7203342</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18811,55 +18811,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
         <v>56</v>
       </c>
       <c r="K206">
+        <v>1.8</v>
+      </c>
+      <c r="L206">
+        <v>3.4</v>
+      </c>
+      <c r="M206">
+        <v>3.75</v>
+      </c>
+      <c r="N206">
+        <v>1.95</v>
+      </c>
+      <c r="O206">
+        <v>3.3</v>
+      </c>
+      <c r="P206">
+        <v>3.25</v>
+      </c>
+      <c r="Q206">
+        <v>-0.5</v>
+      </c>
+      <c r="R206">
+        <v>2.025</v>
+      </c>
+      <c r="S206">
+        <v>1.775</v>
+      </c>
+      <c r="T206">
         <v>2.5</v>
       </c>
-      <c r="L206">
-        <v>3.2</v>
-      </c>
-      <c r="M206">
-        <v>2.5</v>
-      </c>
-      <c r="N206">
-        <v>2.5</v>
-      </c>
-      <c r="O206">
-        <v>3.25</v>
-      </c>
-      <c r="P206">
-        <v>2.5</v>
-      </c>
-      <c r="Q206">
-        <v>0</v>
-      </c>
-      <c r="R206">
-        <v>1.9</v>
-      </c>
-      <c r="S206">
-        <v>1.9</v>
-      </c>
-      <c r="T206">
-        <v>2.75</v>
-      </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V206">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18868,19 +18868,19 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB206">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -23694,7 +23694,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6808198</v>
+        <v>6808683</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23706,73 +23706,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G261" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H261">
         <v>2</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K261">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L261">
+        <v>3.3</v>
+      </c>
+      <c r="M261">
         <v>3.25</v>
       </c>
-      <c r="M261">
-        <v>2.3</v>
-      </c>
       <c r="N261">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O261">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P261">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q261">
         <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S261">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T261">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U261">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V261">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W261">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB261">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC261">
         <v>-1</v>
@@ -23783,7 +23783,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6808683</v>
+        <v>6808198</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23795,73 +23795,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G262" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H262">
         <v>2</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K262">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L262">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M262">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N262">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O262">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P262">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q262">
         <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S262">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T262">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U262">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V262">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X262">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA262">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -27247,6 +27247,154 @@
       </c>
       <c r="AC300">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:29">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>6808142</v>
+      </c>
+      <c r="C301" t="s">
+        <v>28</v>
+      </c>
+      <c r="D301" t="s">
+        <v>28</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45345.54166666666</v>
+      </c>
+      <c r="F301" t="s">
+        <v>51</v>
+      </c>
+      <c r="G301" t="s">
+        <v>50</v>
+      </c>
+      <c r="K301">
+        <v>2.1</v>
+      </c>
+      <c r="L301">
+        <v>3.4</v>
+      </c>
+      <c r="M301">
+        <v>2.875</v>
+      </c>
+      <c r="N301">
+        <v>1.85</v>
+      </c>
+      <c r="O301">
+        <v>3.5</v>
+      </c>
+      <c r="P301">
+        <v>3.3</v>
+      </c>
+      <c r="Q301">
+        <v>-0.5</v>
+      </c>
+      <c r="R301">
+        <v>1.975</v>
+      </c>
+      <c r="S301">
+        <v>1.825</v>
+      </c>
+      <c r="T301">
+        <v>2.5</v>
+      </c>
+      <c r="U301">
+        <v>1.8</v>
+      </c>
+      <c r="V301">
+        <v>2</v>
+      </c>
+      <c r="W301">
+        <v>0</v>
+      </c>
+      <c r="X301">
+        <v>0</v>
+      </c>
+      <c r="Y301">
+        <v>0</v>
+      </c>
+      <c r="Z301">
+        <v>0</v>
+      </c>
+      <c r="AA301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:29">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>6808207</v>
+      </c>
+      <c r="C302" t="s">
+        <v>28</v>
+      </c>
+      <c r="D302" t="s">
+        <v>28</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45345.60416666666</v>
+      </c>
+      <c r="F302" t="s">
+        <v>53</v>
+      </c>
+      <c r="G302" t="s">
+        <v>40</v>
+      </c>
+      <c r="K302">
+        <v>2.4</v>
+      </c>
+      <c r="L302">
+        <v>3.25</v>
+      </c>
+      <c r="M302">
+        <v>2.55</v>
+      </c>
+      <c r="N302">
+        <v>2</v>
+      </c>
+      <c r="O302">
+        <v>3.25</v>
+      </c>
+      <c r="P302">
+        <v>3.2</v>
+      </c>
+      <c r="Q302">
+        <v>-0.25</v>
+      </c>
+      <c r="R302">
+        <v>1.775</v>
+      </c>
+      <c r="S302">
+        <v>2.025</v>
+      </c>
+      <c r="T302">
+        <v>2.5</v>
+      </c>
+      <c r="U302">
+        <v>1.825</v>
+      </c>
+      <c r="V302">
+        <v>1.975</v>
+      </c>
+      <c r="W302">
+        <v>0</v>
+      </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
+      <c r="Y302">
+        <v>0</v>
+      </c>
+      <c r="Z302">
+        <v>0</v>
+      </c>
+      <c r="AA302">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -124,13 +124,13 @@
     <t>Stomil Olsztyn</t>
   </si>
   <si>
-    <t>Siarka Tarnobrzeg</t>
+    <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
     <t>Garbarnia Krakow</t>
   </si>
   <si>
-    <t>Kotwica Kolobrzeg</t>
+    <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
     <t>Olimpia Elblag</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC302"/>
+  <dimension ref="A1:AC308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5221294</v>
+        <v>5184790</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,43 +1281,43 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1329,25 +1329,25 @@
         <v>1.875</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5184790</v>
+        <v>5221294</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1459,43 +1459,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N11">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>2.5</v>
@@ -1507,25 +1507,25 @@
         <v>1.875</v>
       </c>
       <c r="W11">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5185154</v>
+        <v>5221295</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,73 +2168,73 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
+        <v>3.4</v>
+      </c>
+      <c r="N19">
+        <v>2.15</v>
+      </c>
+      <c r="O19">
         <v>3.3</v>
       </c>
-      <c r="N19">
-        <v>2.05</v>
-      </c>
-      <c r="O19">
-        <v>3.2</v>
-      </c>
       <c r="P19">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2245,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5221295</v>
+        <v>5185154</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2257,73 +2257,73 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
+        <v>3.3</v>
+      </c>
+      <c r="N20">
+        <v>2.05</v>
+      </c>
+      <c r="O20">
+        <v>3.2</v>
+      </c>
+      <c r="P20">
         <v>3.4</v>
-      </c>
-      <c r="N20">
-        <v>2.15</v>
-      </c>
-      <c r="O20">
-        <v>3.3</v>
-      </c>
-      <c r="P20">
-        <v>2.9</v>
       </c>
       <c r="Q20">
         <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2334,7 +2334,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5185155</v>
+        <v>5184028</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2346,76 +2346,76 @@
         <v>44996.44791666666</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
         <v>3.2</v>
       </c>
       <c r="M21">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O21">
         <v>3.2</v>
       </c>
       <c r="P21">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5184028</v>
+        <v>5185155</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2435,76 +2435,76 @@
         <v>44996.44791666666</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="L22">
         <v>3.2</v>
       </c>
       <c r="M22">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N22">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O22">
         <v>3.2</v>
       </c>
       <c r="P22">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2794,7 +2794,7 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5185159</v>
+        <v>5184029</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2969,73 +2969,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L28">
         <v>3.5</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3135,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5185158</v>
+        <v>5185159</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3147,73 +3147,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
         <v>3.3</v>
       </c>
       <c r="P30">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3236,7 +3236,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5184029</v>
+        <v>5185158</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3325,58 +3325,58 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>54</v>
       </c>
       <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>3.3</v>
+      </c>
+      <c r="M32">
+        <v>3.2</v>
+      </c>
+      <c r="N32">
         <v>1.909</v>
       </c>
-      <c r="L32">
-        <v>3.5</v>
-      </c>
-      <c r="M32">
+      <c r="O32">
         <v>3.3</v>
       </c>
-      <c r="N32">
-        <v>1.85</v>
-      </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
       <c r="P32">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T32">
         <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3385,13 +3385,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3770,10 +3770,10 @@
         <v>45010.41666666666</v>
       </c>
       <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
         <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3847,7 +3847,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5221158</v>
+        <v>5185160</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3859,13 +3859,13 @@
         <v>45010.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3874,34 +3874,34 @@
         <v>54</v>
       </c>
       <c r="K38">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L38">
         <v>3.3</v>
       </c>
       <c r="M38">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="N38">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>1.8</v>
@@ -3910,7 +3910,7 @@
         <v>2</v>
       </c>
       <c r="W38">
-        <v>0.75</v>
+        <v>1.9</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3919,16 +3919,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
         <v>0.8</v>
       </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
       <c r="AC38">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3936,7 +3936,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5185160</v>
+        <v>5221158</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3948,13 +3948,13 @@
         <v>45010.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3963,34 +3963,34 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L39">
         <v>3.3</v>
       </c>
       <c r="M39">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="N39">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
         <v>1.8</v>
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="W39">
-        <v>1.9</v>
+        <v>0.75</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4008,16 +4008,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5184031</v>
+        <v>5185171</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,13 +4393,13 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4408,43 +4408,43 @@
         <v>54</v>
       </c>
       <c r="K44">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4453,16 +4453,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5185171</v>
+        <v>5184031</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,13 +4571,13 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4586,43 +4586,43 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N46">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P46">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4631,16 +4631,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5019,7 +5019,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5185176</v>
+        <v>6486743</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5105,76 +5105,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K52">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
         <v>2</v>
       </c>
       <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
         <v>3.2</v>
       </c>
-      <c r="O52">
-        <v>3.4</v>
-      </c>
       <c r="P52">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q52">
         <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5182,7 +5182,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6486743</v>
+        <v>5185176</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5194,76 +5194,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K53">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L53">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q53">
         <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5538,7 +5538,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5185177</v>
+        <v>5185173</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5550,13 +5550,13 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5565,43 +5565,43 @@
         <v>54</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L57">
         <v>3.25</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N57">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P57">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>0.833</v>
+        <v>1.2</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5610,16 +5610,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5185173</v>
+        <v>5185177</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,13 +5639,13 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -5654,43 +5654,43 @@
         <v>54</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
         <v>3.25</v>
       </c>
       <c r="M58">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O58">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
-        <v>1.2</v>
+        <v>0.833</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5699,16 +5699,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5998,7 +5998,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6087,7 +6087,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6796,7 +6796,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
         <v>39</v>
@@ -7063,7 +7063,7 @@
         <v>45038.51041666666</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>41</v>
@@ -7318,7 +7318,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5185187</v>
+        <v>5185186</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7330,76 +7330,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
+        <v>4</v>
+      </c>
+      <c r="J77" t="s">
+        <v>56</v>
+      </c>
+      <c r="K77">
+        <v>2.625</v>
+      </c>
+      <c r="L77">
+        <v>3.2</v>
+      </c>
+      <c r="M77">
+        <v>2.375</v>
+      </c>
+      <c r="N77">
+        <v>2.625</v>
+      </c>
+      <c r="O77">
+        <v>3.1</v>
+      </c>
+      <c r="P77">
+        <v>2.375</v>
+      </c>
+      <c r="Q77">
         <v>0</v>
       </c>
-      <c r="J77" t="s">
-        <v>55</v>
-      </c>
-      <c r="K77">
-        <v>1.8</v>
-      </c>
-      <c r="L77">
-        <v>3.75</v>
-      </c>
-      <c r="M77">
-        <v>3.4</v>
-      </c>
-      <c r="N77">
-        <v>1.75</v>
-      </c>
-      <c r="O77">
-        <v>3.75</v>
-      </c>
-      <c r="P77">
-        <v>3.5</v>
-      </c>
-      <c r="Q77">
-        <v>-0.5</v>
-      </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7407,7 +7407,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5185186</v>
+        <v>5185187</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7419,76 +7419,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K78">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L78">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>1.825</v>
+      </c>
+      <c r="V78">
+        <v>1.975</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>2.75</v>
       </c>
-      <c r="U78">
-        <v>1.9</v>
-      </c>
-      <c r="V78">
-        <v>1.9</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7763,7 +7763,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5185190</v>
+        <v>5184795</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7775,76 +7775,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K82">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L82">
         <v>3.25</v>
       </c>
       <c r="M82">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N82">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O82">
         <v>3.25</v>
       </c>
       <c r="P82">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>2.5</v>
       </c>
       <c r="U82">
+        <v>1.85</v>
+      </c>
+      <c r="V82">
         <v>1.95</v>
       </c>
-      <c r="V82">
-        <v>1.85</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7852,7 +7852,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5184795</v>
+        <v>5185190</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7864,76 +7864,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K83">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
         <v>3.25</v>
       </c>
       <c r="M83">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N83">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="O83">
         <v>3.25</v>
       </c>
       <c r="P83">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S83">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
+        <v>1.95</v>
+      </c>
+      <c r="V83">
         <v>1.85</v>
       </c>
-      <c r="V83">
-        <v>1.95</v>
-      </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y83">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8475,7 +8475,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5184744</v>
+        <v>5184036</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8487,13 +8487,13 @@
         <v>45052.5</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -8502,40 +8502,40 @@
         <v>56</v>
       </c>
       <c r="K90">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N90">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R90">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8544,19 +8544,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8564,7 +8564,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5221302</v>
+        <v>5184744</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8576,55 +8576,55 @@
         <v>45052.5</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>56</v>
       </c>
       <c r="K91">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M91">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O91">
         <v>3.2</v>
       </c>
       <c r="P91">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q91">
         <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8633,19 +8633,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8653,7 +8653,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5184036</v>
+        <v>5185195</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8665,76 +8665,76 @@
         <v>45052.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N92">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P92">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
+        <v>1.95</v>
+      </c>
+      <c r="S92">
         <v>1.85</v>
-      </c>
-      <c r="S92">
-        <v>1.95</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y92">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8742,7 +8742,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5185195</v>
+        <v>5221302</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8754,76 +8754,76 @@
         <v>45052.5</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K93">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M93">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N93">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O93">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P93">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8932,7 +8932,7 @@
         <v>45053.52083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
         <v>39</v>
@@ -9024,7 +9024,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9469,7 +9469,7 @@
         <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9911,7 +9911,7 @@
         <v>45065.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>30</v>
@@ -10089,7 +10089,7 @@
         <v>45066.5</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
@@ -11160,7 +11160,7 @@
         <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11249,7 +11249,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11323,7 +11323,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5226043</v>
+        <v>5185127</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11335,76 +11335,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K122">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N122">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O122">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S122">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11412,7 +11412,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5226042</v>
+        <v>5224884</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11424,76 +11424,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K123">
+        <v>2.5</v>
+      </c>
+      <c r="L123">
+        <v>3.25</v>
+      </c>
+      <c r="M123">
+        <v>2.5</v>
+      </c>
+      <c r="N123">
+        <v>2.6</v>
+      </c>
+      <c r="O123">
         <v>3.1</v>
       </c>
-      <c r="L123">
-        <v>3.6</v>
-      </c>
-      <c r="M123">
+      <c r="P123">
+        <v>2.5</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
         <v>1.95</v>
       </c>
-      <c r="N123">
-        <v>3.3</v>
-      </c>
-      <c r="O123">
-        <v>3.6</v>
-      </c>
-      <c r="P123">
+      <c r="S123">
         <v>1.85</v>
       </c>
-      <c r="Q123">
-        <v>0.5</v>
-      </c>
-      <c r="R123">
-        <v>1.9</v>
-      </c>
-      <c r="S123">
-        <v>1.9</v>
-      </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11501,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5224885</v>
+        <v>5226043</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11516,73 +11516,73 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K124">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M124">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N124">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P124">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11590,7 +11590,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5224889</v>
+        <v>5224885</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11602,46 +11602,46 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
         <v>0</v>
       </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
       <c r="J125" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K125">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
         <v>3.3</v>
       </c>
       <c r="M125">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q125">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S125">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T125">
         <v>2.5</v>
@@ -11653,19 +11653,19 @@
         <v>2</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA125">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
         <v>-1</v>
@@ -11679,7 +11679,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5185127</v>
+        <v>5226044</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11691,49 +11691,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M126">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P126">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R126">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
         <v>1.8</v>
@@ -11742,25 +11742,25 @@
         <v>2</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA126">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC126">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5226044</v>
+        <v>5228058</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11780,76 +11780,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>55</v>
+      </c>
+      <c r="K127">
         <v>3</v>
       </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127" t="s">
-        <v>54</v>
-      </c>
-      <c r="K127">
-        <v>1.363</v>
-      </c>
       <c r="L127">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N127">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="O127">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q127">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11857,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5224884</v>
+        <v>5229462</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11869,76 +11869,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K128">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="N128">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O128">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>1.8</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
         <v>1.95</v>
       </c>
-      <c r="S128">
+      <c r="V128">
         <v>1.85</v>
       </c>
-      <c r="T128">
-        <v>2.5</v>
-      </c>
-      <c r="U128">
-        <v>1.8</v>
-      </c>
-      <c r="V128">
-        <v>2</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X128">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC128">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11946,7 +11946,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5229462</v>
+        <v>5226042</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11958,58 +11958,58 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H129">
+        <v>4</v>
+      </c>
+      <c r="I129">
         <v>3</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>54</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12018,13 +12018,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12035,7 +12035,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5228058</v>
+        <v>5224889</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12047,76 +12047,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K130">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L130">
         <v>3.3</v>
       </c>
       <c r="M130">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N130">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O130">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z130">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12225,7 +12225,7 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -12492,7 +12492,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
         <v>53</v>
@@ -12747,7 +12747,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6808005</v>
+        <v>6808905</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12759,58 +12759,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G138" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>54</v>
       </c>
       <c r="K138">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L138">
+        <v>3.2</v>
+      </c>
+      <c r="M138">
+        <v>2.5</v>
+      </c>
+      <c r="N138">
+        <v>2.15</v>
+      </c>
+      <c r="O138">
+        <v>3.25</v>
+      </c>
+      <c r="P138">
         <v>3.1</v>
       </c>
-      <c r="M138">
-        <v>3</v>
-      </c>
-      <c r="N138">
-        <v>2.5</v>
-      </c>
-      <c r="O138">
-        <v>3.1</v>
-      </c>
-      <c r="P138">
-        <v>2.6</v>
-      </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12819,16 +12819,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12836,7 +12836,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6808905</v>
+        <v>6808604</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12848,76 +12848,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>55</v>
+      </c>
+      <c r="K139">
+        <v>2.2</v>
+      </c>
+      <c r="L139">
+        <v>3.1</v>
+      </c>
+      <c r="M139">
         <v>3</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c r="J139" t="s">
-        <v>54</v>
-      </c>
-      <c r="K139">
+      <c r="N139">
+        <v>2.6</v>
+      </c>
+      <c r="O139">
+        <v>3.1</v>
+      </c>
+      <c r="P139">
         <v>2.5</v>
       </c>
-      <c r="L139">
-        <v>3.2</v>
-      </c>
-      <c r="M139">
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1.95</v>
+      </c>
+      <c r="S139">
+        <v>1.85</v>
+      </c>
+      <c r="T139">
         <v>2.5</v>
       </c>
-      <c r="N139">
-        <v>2.15</v>
-      </c>
-      <c r="O139">
-        <v>3.25</v>
-      </c>
-      <c r="P139">
-        <v>3.1</v>
-      </c>
-      <c r="Q139">
-        <v>-0.25</v>
-      </c>
-      <c r="R139">
-        <v>1.9</v>
-      </c>
-      <c r="S139">
-        <v>1.9</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12925,7 +12925,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6808604</v>
+        <v>6808005</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12937,19 +12937,19 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K140">
         <v>2.2</v>
@@ -12961,52 +12961,52 @@
         <v>3</v>
       </c>
       <c r="N140">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
         <v>3.1</v>
       </c>
       <c r="P140">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q140">
         <v>0</v>
       </c>
       <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
         <v>1.95</v>
-      </c>
-      <c r="S140">
-        <v>1.85</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13649,7 +13649,7 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
         <v>39</v>
@@ -14186,7 +14186,7 @@
         <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14705,7 +14705,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6808618</v>
+        <v>6808901</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14717,19 +14717,19 @@
         <v>45150.5</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K160">
         <v>2.5</v>
@@ -14762,31 +14762,31 @@
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA160">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14794,7 +14794,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6808901</v>
+        <v>6808618</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14806,19 +14806,19 @@
         <v>45150.5</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K161">
         <v>2.5</v>
@@ -14851,31 +14851,31 @@
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB161">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6808166</v>
+        <v>6808165</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45151.5</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K164">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
         <v>3.25</v>
       </c>
       <c r="M164">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N164">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S164">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.925</v>
+      </c>
+      <c r="AB164">
+        <v>0.45</v>
+      </c>
+      <c r="AC164">
         <v>-0.5</v>
-      </c>
-      <c r="AA164">
-        <v>0.4</v>
-      </c>
-      <c r="AB164">
-        <v>-0.5</v>
-      </c>
-      <c r="AC164">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6808619</v>
+        <v>6808166</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,19 +15162,19 @@
         <v>45151.5</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K165">
         <v>2.2</v>
@@ -15186,52 +15186,52 @@
         <v>2.8</v>
       </c>
       <c r="N165">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O165">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P165">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
         <v>1.8</v>
       </c>
-      <c r="S165">
-        <v>2</v>
-      </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
+        <v>1.875</v>
+      </c>
+      <c r="V165">
         <v>1.925</v>
       </c>
-      <c r="V165">
-        <v>1.875</v>
-      </c>
       <c r="W165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB165">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15239,7 +15239,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6808165</v>
+        <v>6808617</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15251,76 +15251,76 @@
         <v>45151.5</v>
       </c>
       <c r="F166" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K166">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L166">
+        <v>3.2</v>
+      </c>
+      <c r="M166">
+        <v>2.6</v>
+      </c>
+      <c r="N166">
+        <v>2.2</v>
+      </c>
+      <c r="O166">
         <v>3.25</v>
       </c>
-      <c r="M166">
-        <v>3.5</v>
-      </c>
-      <c r="N166">
-        <v>1.615</v>
-      </c>
-      <c r="O166">
-        <v>3.6</v>
-      </c>
       <c r="P166">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
+        <v>1.975</v>
+      </c>
+      <c r="S166">
+        <v>1.825</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
+        <v>1.925</v>
+      </c>
+      <c r="V166">
         <v>1.875</v>
       </c>
-      <c r="S166">
-        <v>1.925</v>
-      </c>
-      <c r="T166">
-        <v>2.75</v>
-      </c>
-      <c r="U166">
-        <v>1.9</v>
-      </c>
-      <c r="V166">
-        <v>1.9</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15328,7 +15328,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6808617</v>
+        <v>6808619</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15340,46 +15340,46 @@
         <v>45151.5</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>54</v>
       </c>
       <c r="K167">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N167">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O167">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q167">
         <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T167">
         <v>2.5</v>
@@ -15391,7 +15391,7 @@
         <v>1.875</v>
       </c>
       <c r="W167">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15400,16 +15400,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC167">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15595,7 +15595,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6808168</v>
+        <v>6808169</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15607,56 +15607,56 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>56</v>
       </c>
       <c r="K170">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M170">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N170">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P170">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
+        <v>1.875</v>
+      </c>
+      <c r="S170">
+        <v>1.925</v>
+      </c>
+      <c r="T170">
+        <v>2.5</v>
+      </c>
+      <c r="U170">
         <v>1.95</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.85</v>
       </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
-      <c r="U170">
-        <v>1.775</v>
-      </c>
-      <c r="V170">
-        <v>2.025</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
@@ -15664,19 +15664,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC170">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15684,7 +15684,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6808169</v>
+        <v>6808168</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15696,55 +15696,55 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>56</v>
       </c>
       <c r="K171">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L171">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M171">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N171">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P171">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15753,19 +15753,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16144,7 +16144,7 @@
         <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16307,7 +16307,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6808625</v>
+        <v>6808899</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16319,58 +16319,58 @@
         <v>45164.5</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>54</v>
       </c>
       <c r="K178">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N178">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O178">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P178">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16379,13 +16379,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16485,7 +16485,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6808899</v>
+        <v>6808624</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16497,58 +16497,58 @@
         <v>45164.5</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
         <v>54</v>
       </c>
       <c r="K180">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N180">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O180">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P180">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q180">
         <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
+        <v>1.825</v>
+      </c>
+      <c r="V180">
         <v>1.975</v>
       </c>
-      <c r="V180">
-        <v>1.825</v>
-      </c>
       <c r="W180">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16557,13 +16557,13 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16574,7 +16574,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6808624</v>
+        <v>6808625</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16586,16 +16586,16 @@
         <v>45164.5</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
         <v>54</v>
@@ -16610,34 +16610,34 @@
         <v>3.1</v>
       </c>
       <c r="N181">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P181">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q181">
         <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16646,13 +16646,13 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16930,7 +16930,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6808631</v>
+        <v>6808898</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16942,73 +16942,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K185">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L185">
         <v>3.2</v>
       </c>
       <c r="M185">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N185">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O185">
         <v>3.2</v>
       </c>
       <c r="P185">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
         <v>1.8</v>
       </c>
-      <c r="V185">
-        <v>2</v>
-      </c>
       <c r="W185">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z185">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17019,7 +17019,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6808898</v>
+        <v>6808631</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17031,73 +17031,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K186">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L186">
         <v>3.2</v>
       </c>
       <c r="M186">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N186">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O186">
         <v>3.2</v>
       </c>
       <c r="P186">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S186">
+        <v>1.85</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
         <v>1.8</v>
       </c>
-      <c r="T186">
-        <v>2.5</v>
-      </c>
-      <c r="U186">
-        <v>2</v>
-      </c>
       <c r="V186">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA186">
+        <v>-1</v>
+      </c>
+      <c r="AB186">
         <v>0.8</v>
-      </c>
-      <c r="AB186">
-        <v>1</v>
       </c>
       <c r="AC186">
         <v>-1</v>
@@ -17565,7 +17565,7 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G192" t="s">
         <v>40</v>
@@ -18633,7 +18633,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -19081,7 +19081,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19615,7 +19615,7 @@
         <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -20045,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6808894</v>
+        <v>6808023</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20057,10 +20057,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20072,25 +20072,25 @@
         <v>56</v>
       </c>
       <c r="K220">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L220">
         <v>3.3</v>
       </c>
       <c r="M220">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N220">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O220">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P220">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
         <v>1.85</v>
@@ -20102,10 +20102,10 @@
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -20114,7 +20114,7 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z220">
         <v>-1</v>
@@ -20126,7 +20126,7 @@
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20134,7 +20134,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6808664</v>
+        <v>6808894</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20146,56 +20146,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G221" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>56</v>
       </c>
       <c r="K221">
+        <v>2.875</v>
+      </c>
+      <c r="L221">
+        <v>3.3</v>
+      </c>
+      <c r="M221">
+        <v>2.15</v>
+      </c>
+      <c r="N221">
+        <v>2.875</v>
+      </c>
+      <c r="O221">
+        <v>3.3</v>
+      </c>
+      <c r="P221">
+        <v>2.15</v>
+      </c>
+      <c r="Q221">
+        <v>0.25</v>
+      </c>
+      <c r="R221">
+        <v>1.85</v>
+      </c>
+      <c r="S221">
+        <v>1.95</v>
+      </c>
+      <c r="T221">
         <v>2.5</v>
       </c>
-      <c r="L221">
-        <v>3.4</v>
-      </c>
-      <c r="M221">
-        <v>2.375</v>
-      </c>
-      <c r="N221">
-        <v>2.3</v>
-      </c>
-      <c r="O221">
-        <v>3.4</v>
-      </c>
-      <c r="P221">
-        <v>2.55</v>
-      </c>
-      <c r="Q221">
-        <v>0</v>
-      </c>
-      <c r="R221">
-        <v>1.8</v>
-      </c>
-      <c r="S221">
-        <v>2</v>
-      </c>
-      <c r="T221">
-        <v>3</v>
-      </c>
       <c r="U221">
+        <v>1.95</v>
+      </c>
+      <c r="V221">
         <v>1.85</v>
       </c>
-      <c r="V221">
-        <v>1.95</v>
-      </c>
       <c r="W221">
         <v>-1</v>
       </c>
@@ -20203,19 +20203,19 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20223,7 +20223,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6808023</v>
+        <v>6808664</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20235,56 +20235,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G222" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J222" t="s">
         <v>56</v>
       </c>
       <c r="K222">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L222">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N222">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O222">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P222">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R222">
+        <v>1.8</v>
+      </c>
+      <c r="S222">
+        <v>2</v>
+      </c>
+      <c r="T222">
+        <v>3</v>
+      </c>
+      <c r="U222">
         <v>1.85</v>
       </c>
-      <c r="S222">
+      <c r="V222">
         <v>1.95</v>
       </c>
-      <c r="T222">
-        <v>2.5</v>
-      </c>
-      <c r="U222">
-        <v>1.9</v>
-      </c>
-      <c r="V222">
-        <v>1.9</v>
-      </c>
       <c r="W222">
         <v>-1</v>
       </c>
@@ -20292,19 +20292,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC222">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20502,7 +20502,7 @@
         <v>45200.4375</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
         <v>31</v>
@@ -20861,7 +20861,7 @@
         <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -22015,7 +22015,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G242" t="s">
         <v>51</v>
@@ -22374,7 +22374,7 @@
         <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H246">
         <v>2</v>
@@ -23172,7 +23172,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G255" t="s">
         <v>33</v>
@@ -24243,7 +24243,7 @@
         <v>45</v>
       </c>
       <c r="G267" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -24596,7 +24596,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
         <v>52</v>
@@ -24940,7 +24940,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6808200</v>
+        <v>6808690</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24952,13 +24952,13 @@
         <v>45242.375</v>
       </c>
       <c r="F275" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G275" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -24967,61 +24967,61 @@
         <v>54</v>
       </c>
       <c r="K275">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L275">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M275">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N275">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O275">
         <v>3.25</v>
       </c>
       <c r="P275">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q275">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R275">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S275">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T275">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U275">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V275">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W275">
+        <v>1.5</v>
+      </c>
+      <c r="X275">
+        <v>-1</v>
+      </c>
+      <c r="Y275">
+        <v>-1</v>
+      </c>
+      <c r="Z275">
         <v>0.95</v>
       </c>
-      <c r="X275">
-        <v>-1</v>
-      </c>
-      <c r="Y275">
-        <v>-1</v>
-      </c>
-      <c r="Z275">
-        <v>1</v>
-      </c>
       <c r="AA275">
         <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC275">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25118,7 +25118,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6808690</v>
+        <v>6808200</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25130,13 +25130,13 @@
         <v>45242.375</v>
       </c>
       <c r="F277" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G277" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H277">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -25145,43 +25145,43 @@
         <v>54</v>
       </c>
       <c r="K277">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L277">
+        <v>3.25</v>
+      </c>
+      <c r="M277">
         <v>3.3</v>
       </c>
-      <c r="M277">
-        <v>2.8</v>
-      </c>
       <c r="N277">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O277">
         <v>3.25</v>
       </c>
       <c r="P277">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q277">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R277">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S277">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T277">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V277">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W277">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25190,16 +25190,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25385,7 +25385,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6808886</v>
+        <v>6808694</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25397,49 +25397,49 @@
         <v>45248.375</v>
       </c>
       <c r="F280" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G280" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="s">
         <v>54</v>
       </c>
       <c r="K280">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L280">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M280">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N280">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O280">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P280">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q280">
         <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S280">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T280">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U280">
         <v>1.85</v>
@@ -25448,7 +25448,7 @@
         <v>1.95</v>
       </c>
       <c r="W280">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="X280">
         <v>-1</v>
@@ -25457,16 +25457,16 @@
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>1.075</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA280">
         <v>-1</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC280">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25474,7 +25474,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6808694</v>
+        <v>6808886</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25486,49 +25486,49 @@
         <v>45248.375</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G281" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
         <v>54</v>
       </c>
       <c r="K281">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L281">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M281">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N281">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P281">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S281">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T281">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
         <v>1.85</v>
@@ -25537,25 +25537,25 @@
         <v>1.95</v>
       </c>
       <c r="W281">
+        <v>1.375</v>
+      </c>
+      <c r="X281">
+        <v>-1</v>
+      </c>
+      <c r="Y281">
+        <v>-1</v>
+      </c>
+      <c r="Z281">
+        <v>1.075</v>
+      </c>
+      <c r="AA281">
+        <v>-1</v>
+      </c>
+      <c r="AB281">
+        <v>-1</v>
+      </c>
+      <c r="AC281">
         <v>0.95</v>
-      </c>
-      <c r="X281">
-        <v>-1</v>
-      </c>
-      <c r="Y281">
-        <v>-1</v>
-      </c>
-      <c r="Z281">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA281">
-        <v>-1</v>
-      </c>
-      <c r="AB281">
-        <v>0.425</v>
-      </c>
-      <c r="AC281">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25578,7 +25578,7 @@
         <v>53</v>
       </c>
       <c r="G282" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H282">
         <v>3</v>
@@ -26023,7 +26023,7 @@
         <v>39</v>
       </c>
       <c r="G287" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H287">
         <v>2</v>
@@ -27088,7 +27088,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F299" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G299" t="s">
         <v>46</v>
@@ -27271,6 +27271,15 @@
       <c r="G301" t="s">
         <v>50</v>
       </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301" t="s">
+        <v>54</v>
+      </c>
       <c r="K301">
         <v>2.1</v>
       </c>
@@ -27281,46 +27290,52 @@
         <v>2.875</v>
       </c>
       <c r="N301">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O301">
         <v>3.5</v>
       </c>
       <c r="P301">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q301">
         <v>-0.5</v>
       </c>
       <c r="R301">
+        <v>2</v>
+      </c>
+      <c r="S301">
+        <v>1.8</v>
+      </c>
+      <c r="T301">
+        <v>2.75</v>
+      </c>
+      <c r="U301">
         <v>1.975</v>
       </c>
-      <c r="S301">
+      <c r="V301">
         <v>1.825</v>
       </c>
-      <c r="T301">
-        <v>2.5</v>
-      </c>
-      <c r="U301">
-        <v>1.8</v>
-      </c>
-      <c r="V301">
-        <v>2</v>
-      </c>
       <c r="W301">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA301">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB301">
+        <v>-1</v>
+      </c>
+      <c r="AC301">
+        <v>0.825</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27345,6 +27360,15 @@
       <c r="G302" t="s">
         <v>40</v>
       </c>
+      <c r="H302">
+        <v>2</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302" t="s">
+        <v>54</v>
+      </c>
       <c r="K302">
         <v>2.4</v>
       </c>
@@ -27355,45 +27379,495 @@
         <v>2.55</v>
       </c>
       <c r="N302">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O302">
+        <v>3.3</v>
+      </c>
+      <c r="P302">
         <v>3.25</v>
       </c>
-      <c r="P302">
-        <v>3.2</v>
-      </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R302">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S302">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T302">
         <v>2.5</v>
       </c>
       <c r="U302">
+        <v>1.875</v>
+      </c>
+      <c r="V302">
+        <v>1.925</v>
+      </c>
+      <c r="W302">
+        <v>0.95</v>
+      </c>
+      <c r="X302">
+        <v>-1</v>
+      </c>
+      <c r="Y302">
+        <v>-1</v>
+      </c>
+      <c r="Z302">
+        <v>1</v>
+      </c>
+      <c r="AA302">
+        <v>-1</v>
+      </c>
+      <c r="AB302">
+        <v>0.875</v>
+      </c>
+      <c r="AC302">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:29">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>6808141</v>
+      </c>
+      <c r="C303" t="s">
+        <v>28</v>
+      </c>
+      <c r="D303" t="s">
+        <v>28</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45346.33333333334</v>
+      </c>
+      <c r="F303" t="s">
+        <v>46</v>
+      </c>
+      <c r="G303" t="s">
+        <v>47</v>
+      </c>
+      <c r="K303">
+        <v>2.5</v>
+      </c>
+      <c r="L303">
+        <v>3.4</v>
+      </c>
+      <c r="M303">
+        <v>2.375</v>
+      </c>
+      <c r="N303">
+        <v>2.55</v>
+      </c>
+      <c r="O303">
+        <v>3.4</v>
+      </c>
+      <c r="P303">
+        <v>2.3</v>
+      </c>
+      <c r="Q303">
+        <v>0</v>
+      </c>
+      <c r="R303">
+        <v>2</v>
+      </c>
+      <c r="S303">
+        <v>1.8</v>
+      </c>
+      <c r="T303">
+        <v>2.5</v>
+      </c>
+      <c r="U303">
+        <v>1.9</v>
+      </c>
+      <c r="V303">
+        <v>1.9</v>
+      </c>
+      <c r="W303">
+        <v>0</v>
+      </c>
+      <c r="X303">
+        <v>0</v>
+      </c>
+      <c r="Y303">
+        <v>0</v>
+      </c>
+      <c r="Z303">
+        <v>0</v>
+      </c>
+      <c r="AA303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:29">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>6808039</v>
+      </c>
+      <c r="C304" t="s">
+        <v>28</v>
+      </c>
+      <c r="D304" t="s">
+        <v>28</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45346.36458333334</v>
+      </c>
+      <c r="F304" t="s">
+        <v>36</v>
+      </c>
+      <c r="G304" t="s">
+        <v>49</v>
+      </c>
+      <c r="K304">
+        <v>1.909</v>
+      </c>
+      <c r="L304">
+        <v>3.6</v>
+      </c>
+      <c r="M304">
+        <v>3.2</v>
+      </c>
+      <c r="N304">
+        <v>1.85</v>
+      </c>
+      <c r="O304">
+        <v>3.6</v>
+      </c>
+      <c r="P304">
+        <v>3.3</v>
+      </c>
+      <c r="Q304">
+        <v>-0.5</v>
+      </c>
+      <c r="R304">
+        <v>1.925</v>
+      </c>
+      <c r="S304">
+        <v>1.875</v>
+      </c>
+      <c r="T304">
+        <v>2.75</v>
+      </c>
+      <c r="U304">
+        <v>1.975</v>
+      </c>
+      <c r="V304">
         <v>1.825</v>
       </c>
-      <c r="V302">
-        <v>1.975</v>
-      </c>
-      <c r="W302">
+      <c r="W304">
         <v>0</v>
       </c>
-      <c r="X302">
+      <c r="X304">
         <v>0</v>
       </c>
-      <c r="Y302">
+      <c r="Y304">
         <v>0</v>
       </c>
-      <c r="Z302">
+      <c r="Z304">
         <v>0</v>
       </c>
-      <c r="AA302">
+      <c r="AA304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:27">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>6808706</v>
+      </c>
+      <c r="C305" t="s">
+        <v>28</v>
+      </c>
+      <c r="D305" t="s">
+        <v>28</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45346.375</v>
+      </c>
+      <c r="F305" t="s">
+        <v>45</v>
+      </c>
+      <c r="G305" t="s">
+        <v>32</v>
+      </c>
+      <c r="K305">
+        <v>1.909</v>
+      </c>
+      <c r="L305">
+        <v>3.4</v>
+      </c>
+      <c r="M305">
+        <v>3.4</v>
+      </c>
+      <c r="N305">
+        <v>1.95</v>
+      </c>
+      <c r="O305">
+        <v>3.4</v>
+      </c>
+      <c r="P305">
+        <v>3.25</v>
+      </c>
+      <c r="Q305">
+        <v>-0.5</v>
+      </c>
+      <c r="R305">
+        <v>2.025</v>
+      </c>
+      <c r="S305">
+        <v>1.775</v>
+      </c>
+      <c r="T305">
+        <v>2.5</v>
+      </c>
+      <c r="U305">
+        <v>1.925</v>
+      </c>
+      <c r="V305">
+        <v>1.875</v>
+      </c>
+      <c r="W305">
+        <v>0</v>
+      </c>
+      <c r="X305">
+        <v>0</v>
+      </c>
+      <c r="Y305">
+        <v>0</v>
+      </c>
+      <c r="Z305">
+        <v>0</v>
+      </c>
+      <c r="AA305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:27">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>7874422</v>
+      </c>
+      <c r="C306" t="s">
+        <v>28</v>
+      </c>
+      <c r="D306" t="s">
+        <v>28</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45346.47916666666</v>
+      </c>
+      <c r="F306" t="s">
+        <v>39</v>
+      </c>
+      <c r="G306" t="s">
+        <v>48</v>
+      </c>
+      <c r="K306">
+        <v>2</v>
+      </c>
+      <c r="L306">
+        <v>3.25</v>
+      </c>
+      <c r="M306">
+        <v>3.25</v>
+      </c>
+      <c r="N306">
+        <v>2.375</v>
+      </c>
+      <c r="O306">
+        <v>3.2</v>
+      </c>
+      <c r="P306">
+        <v>2.7</v>
+      </c>
+      <c r="Q306">
+        <v>0</v>
+      </c>
+      <c r="R306">
+        <v>1.75</v>
+      </c>
+      <c r="S306">
+        <v>2.05</v>
+      </c>
+      <c r="T306">
+        <v>2.25</v>
+      </c>
+      <c r="U306">
+        <v>1.95</v>
+      </c>
+      <c r="V306">
+        <v>1.85</v>
+      </c>
+      <c r="W306">
+        <v>0</v>
+      </c>
+      <c r="X306">
+        <v>0</v>
+      </c>
+      <c r="Y306">
+        <v>0</v>
+      </c>
+      <c r="Z306">
+        <v>0</v>
+      </c>
+      <c r="AA306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:27">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>6808707</v>
+      </c>
+      <c r="C307" t="s">
+        <v>28</v>
+      </c>
+      <c r="D307" t="s">
+        <v>28</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F307" t="s">
+        <v>33</v>
+      </c>
+      <c r="G307" t="s">
+        <v>29</v>
+      </c>
+      <c r="K307">
+        <v>2.3</v>
+      </c>
+      <c r="L307">
+        <v>3.2</v>
+      </c>
+      <c r="M307">
+        <v>2.75</v>
+      </c>
+      <c r="N307">
+        <v>2.15</v>
+      </c>
+      <c r="O307">
+        <v>3.2</v>
+      </c>
+      <c r="P307">
+        <v>3</v>
+      </c>
+      <c r="Q307">
+        <v>-0.25</v>
+      </c>
+      <c r="R307">
+        <v>1.95</v>
+      </c>
+      <c r="S307">
+        <v>1.85</v>
+      </c>
+      <c r="T307">
+        <v>2.5</v>
+      </c>
+      <c r="U307">
+        <v>1.95</v>
+      </c>
+      <c r="V307">
+        <v>1.85</v>
+      </c>
+      <c r="W307">
+        <v>0</v>
+      </c>
+      <c r="X307">
+        <v>0</v>
+      </c>
+      <c r="Y307">
+        <v>0</v>
+      </c>
+      <c r="Z307">
+        <v>0</v>
+      </c>
+      <c r="AA307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:27">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>6808882</v>
+      </c>
+      <c r="C308" t="s">
+        <v>28</v>
+      </c>
+      <c r="D308" t="s">
+        <v>28</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45346.64583333334</v>
+      </c>
+      <c r="F308" t="s">
+        <v>52</v>
+      </c>
+      <c r="G308" t="s">
+        <v>42</v>
+      </c>
+      <c r="K308">
+        <v>2.25</v>
+      </c>
+      <c r="L308">
+        <v>3.25</v>
+      </c>
+      <c r="M308">
+        <v>2.75</v>
+      </c>
+      <c r="N308">
+        <v>2.375</v>
+      </c>
+      <c r="O308">
+        <v>3.25</v>
+      </c>
+      <c r="P308">
+        <v>2.6</v>
+      </c>
+      <c r="Q308">
+        <v>0</v>
+      </c>
+      <c r="R308">
+        <v>1.8</v>
+      </c>
+      <c r="S308">
+        <v>2</v>
+      </c>
+      <c r="T308">
+        <v>2.5</v>
+      </c>
+      <c r="U308">
+        <v>1.9</v>
+      </c>
+      <c r="V308">
+        <v>1.9</v>
+      </c>
+      <c r="W308">
+        <v>0</v>
+      </c>
+      <c r="X308">
+        <v>0</v>
+      </c>
+      <c r="Y308">
+        <v>0</v>
+      </c>
+      <c r="Z308">
+        <v>0</v>
+      </c>
+      <c r="AA308">
         <v>0</v>
       </c>
     </row>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC308"/>
+  <dimension ref="A1:AC305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7941,7 +7941,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5185194</v>
+        <v>5185192</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7953,76 +7953,76 @@
         <v>45045.5</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K84">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
         <v>3.3</v>
       </c>
       <c r="M84">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5185192</v>
+        <v>5185194</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,76 +8042,76 @@
         <v>45045.5</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K85">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
+        <v>2.6</v>
+      </c>
+      <c r="N85">
+        <v>2.1</v>
+      </c>
+      <c r="O85">
+        <v>3.4</v>
+      </c>
+      <c r="P85">
         <v>3</v>
       </c>
-      <c r="N85">
-        <v>1.571</v>
-      </c>
-      <c r="O85">
-        <v>3.75</v>
-      </c>
-      <c r="P85">
-        <v>5</v>
-      </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -11323,7 +11323,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5185127</v>
+        <v>5226043</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11335,76 +11335,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M122">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N122">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="O122">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P122">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y122">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11412,7 +11412,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5224884</v>
+        <v>5185127</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11424,49 +11424,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K123">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N123">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q123">
         <v>0</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
         <v>1.8</v>
@@ -11478,16 +11478,16 @@
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB123">
         <v>-1</v>
@@ -11501,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5226043</v>
+        <v>5224884</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11513,76 +11513,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>55</v>
       </c>
       <c r="K124">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N124">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="O124">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R124">
+        <v>1.95</v>
+      </c>
+      <c r="S124">
+        <v>1.85</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.9</v>
-      </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>3.333</v>
+        <v>2.1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5226044</v>
+        <v>5224889</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11691,49 +11691,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G126" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K126">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M126">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N126">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="O126">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>7.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q126">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R126">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T126">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
         <v>1.8</v>
@@ -11742,25 +11742,25 @@
         <v>2</v>
       </c>
       <c r="W126">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z126">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5228058</v>
+        <v>5226042</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11780,76 +11780,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K127">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L127">
+        <v>3.6</v>
+      </c>
+      <c r="M127">
+        <v>1.95</v>
+      </c>
+      <c r="N127">
         <v>3.3</v>
       </c>
-      <c r="M127">
-        <v>2.1</v>
-      </c>
-      <c r="N127">
-        <v>2.8</v>
-      </c>
       <c r="O127">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X127">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11946,7 +11946,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5226042</v>
+        <v>5228058</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11958,76 +11958,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>55</v>
+      </c>
+      <c r="K129">
         <v>3</v>
       </c>
-      <c r="J129" t="s">
-        <v>54</v>
-      </c>
-      <c r="K129">
-        <v>3.1</v>
-      </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="N129">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P129">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12035,7 +12035,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5224889</v>
+        <v>5226044</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12047,49 +12047,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K130">
-        <v>3.5</v>
+        <v>1.363</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M130">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N130">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P130">
-        <v>1.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q130">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R130">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
         <v>1.8</v>
@@ -12098,25 +12098,25 @@
         <v>2</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12747,7 +12747,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6808905</v>
+        <v>6808604</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12759,76 +12759,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>55</v>
+      </c>
+      <c r="K138">
+        <v>2.2</v>
+      </c>
+      <c r="L138">
+        <v>3.1</v>
+      </c>
+      <c r="M138">
         <v>3</v>
       </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c r="J138" t="s">
-        <v>54</v>
-      </c>
-      <c r="K138">
+      <c r="N138">
+        <v>2.6</v>
+      </c>
+      <c r="O138">
+        <v>3.1</v>
+      </c>
+      <c r="P138">
         <v>2.5</v>
       </c>
-      <c r="L138">
-        <v>3.2</v>
-      </c>
-      <c r="M138">
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>1.85</v>
+      </c>
+      <c r="T138">
         <v>2.5</v>
       </c>
-      <c r="N138">
-        <v>2.15</v>
-      </c>
-      <c r="O138">
-        <v>3.25</v>
-      </c>
-      <c r="P138">
-        <v>3.1</v>
-      </c>
-      <c r="Q138">
-        <v>-0.25</v>
-      </c>
-      <c r="R138">
-        <v>1.9</v>
-      </c>
-      <c r="S138">
-        <v>1.9</v>
-      </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12836,7 +12836,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6808604</v>
+        <v>6808005</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12848,19 +12848,19 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K139">
         <v>2.2</v>
@@ -12872,52 +12872,52 @@
         <v>3</v>
       </c>
       <c r="N139">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O139">
         <v>3.1</v>
       </c>
       <c r="P139">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
         <v>1.95</v>
-      </c>
-      <c r="S139">
-        <v>1.85</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12925,7 +12925,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6808005</v>
+        <v>6808905</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12937,58 +12937,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G140" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>54</v>
       </c>
       <c r="K140">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L140">
+        <v>3.2</v>
+      </c>
+      <c r="M140">
+        <v>2.5</v>
+      </c>
+      <c r="N140">
+        <v>2.15</v>
+      </c>
+      <c r="O140">
+        <v>3.25</v>
+      </c>
+      <c r="P140">
         <v>3.1</v>
       </c>
-      <c r="M140">
-        <v>3</v>
-      </c>
-      <c r="N140">
-        <v>2.5</v>
-      </c>
-      <c r="O140">
-        <v>3.1</v>
-      </c>
-      <c r="P140">
-        <v>2.6</v>
-      </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12997,16 +12997,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -27432,7 +27432,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6808141</v>
+        <v>6808707</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,49 +27441,49 @@
         <v>28</v>
       </c>
       <c r="E303" s="2">
-        <v>45346.33333333334</v>
+        <v>45346.58333333334</v>
       </c>
       <c r="F303" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G303" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K303">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L303">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M303">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N303">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O303">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P303">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q303">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R303">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S303">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T303">
         <v>2.5</v>
       </c>
       <c r="U303">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V303">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W303">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6808039</v>
+        <v>6808882</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27515,49 +27515,49 @@
         <v>28</v>
       </c>
       <c r="E304" s="2">
-        <v>45346.36458333334</v>
+        <v>45346.64583333334</v>
       </c>
       <c r="F304" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G304" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K304">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L304">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M304">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N304">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P304">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q304">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R304">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S304">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T304">
         <v>2.75</v>
       </c>
       <c r="U304">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W304">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6808706</v>
+        <v>6808708</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27589,49 +27589,49 @@
         <v>28</v>
       </c>
       <c r="E305" s="2">
-        <v>45346.375</v>
+        <v>45347.33333333334</v>
       </c>
       <c r="F305" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G305" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K305">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L305">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M305">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N305">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O305">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P305">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q305">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R305">
+        <v>1.775</v>
+      </c>
+      <c r="S305">
         <v>2.025</v>
-      </c>
-      <c r="S305">
-        <v>1.775</v>
       </c>
       <c r="T305">
         <v>2.5</v>
       </c>
       <c r="U305">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V305">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W305">
         <v>0</v>
@@ -27646,228 +27646,6 @@
         <v>0</v>
       </c>
       <c r="AA305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:27">
-      <c r="A306" s="1">
-        <v>304</v>
-      </c>
-      <c r="B306">
-        <v>7874422</v>
-      </c>
-      <c r="C306" t="s">
-        <v>28</v>
-      </c>
-      <c r="D306" t="s">
-        <v>28</v>
-      </c>
-      <c r="E306" s="2">
-        <v>45346.47916666666</v>
-      </c>
-      <c r="F306" t="s">
-        <v>39</v>
-      </c>
-      <c r="G306" t="s">
-        <v>48</v>
-      </c>
-      <c r="K306">
-        <v>2</v>
-      </c>
-      <c r="L306">
-        <v>3.25</v>
-      </c>
-      <c r="M306">
-        <v>3.25</v>
-      </c>
-      <c r="N306">
-        <v>2.375</v>
-      </c>
-      <c r="O306">
-        <v>3.2</v>
-      </c>
-      <c r="P306">
-        <v>2.7</v>
-      </c>
-      <c r="Q306">
-        <v>0</v>
-      </c>
-      <c r="R306">
-        <v>1.75</v>
-      </c>
-      <c r="S306">
-        <v>2.05</v>
-      </c>
-      <c r="T306">
-        <v>2.25</v>
-      </c>
-      <c r="U306">
-        <v>1.95</v>
-      </c>
-      <c r="V306">
-        <v>1.85</v>
-      </c>
-      <c r="W306">
-        <v>0</v>
-      </c>
-      <c r="X306">
-        <v>0</v>
-      </c>
-      <c r="Y306">
-        <v>0</v>
-      </c>
-      <c r="Z306">
-        <v>0</v>
-      </c>
-      <c r="AA306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:27">
-      <c r="A307" s="1">
-        <v>305</v>
-      </c>
-      <c r="B307">
-        <v>6808707</v>
-      </c>
-      <c r="C307" t="s">
-        <v>28</v>
-      </c>
-      <c r="D307" t="s">
-        <v>28</v>
-      </c>
-      <c r="E307" s="2">
-        <v>45346.58333333334</v>
-      </c>
-      <c r="F307" t="s">
-        <v>33</v>
-      </c>
-      <c r="G307" t="s">
-        <v>29</v>
-      </c>
-      <c r="K307">
-        <v>2.3</v>
-      </c>
-      <c r="L307">
-        <v>3.2</v>
-      </c>
-      <c r="M307">
-        <v>2.75</v>
-      </c>
-      <c r="N307">
-        <v>2.15</v>
-      </c>
-      <c r="O307">
-        <v>3.2</v>
-      </c>
-      <c r="P307">
-        <v>3</v>
-      </c>
-      <c r="Q307">
-        <v>-0.25</v>
-      </c>
-      <c r="R307">
-        <v>1.95</v>
-      </c>
-      <c r="S307">
-        <v>1.85</v>
-      </c>
-      <c r="T307">
-        <v>2.5</v>
-      </c>
-      <c r="U307">
-        <v>1.95</v>
-      </c>
-      <c r="V307">
-        <v>1.85</v>
-      </c>
-      <c r="W307">
-        <v>0</v>
-      </c>
-      <c r="X307">
-        <v>0</v>
-      </c>
-      <c r="Y307">
-        <v>0</v>
-      </c>
-      <c r="Z307">
-        <v>0</v>
-      </c>
-      <c r="AA307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:27">
-      <c r="A308" s="1">
-        <v>306</v>
-      </c>
-      <c r="B308">
-        <v>6808882</v>
-      </c>
-      <c r="C308" t="s">
-        <v>28</v>
-      </c>
-      <c r="D308" t="s">
-        <v>28</v>
-      </c>
-      <c r="E308" s="2">
-        <v>45346.64583333334</v>
-      </c>
-      <c r="F308" t="s">
-        <v>52</v>
-      </c>
-      <c r="G308" t="s">
-        <v>42</v>
-      </c>
-      <c r="K308">
-        <v>2.25</v>
-      </c>
-      <c r="L308">
-        <v>3.25</v>
-      </c>
-      <c r="M308">
-        <v>2.75</v>
-      </c>
-      <c r="N308">
-        <v>2.375</v>
-      </c>
-      <c r="O308">
-        <v>3.25</v>
-      </c>
-      <c r="P308">
-        <v>2.6</v>
-      </c>
-      <c r="Q308">
-        <v>0</v>
-      </c>
-      <c r="R308">
-        <v>1.8</v>
-      </c>
-      <c r="S308">
-        <v>2</v>
-      </c>
-      <c r="T308">
-        <v>2.5</v>
-      </c>
-      <c r="U308">
-        <v>1.9</v>
-      </c>
-      <c r="V308">
-        <v>1.9</v>
-      </c>
-      <c r="W308">
-        <v>0</v>
-      </c>
-      <c r="X308">
-        <v>0</v>
-      </c>
-      <c r="Y308">
-        <v>0</v>
-      </c>
-      <c r="Z308">
-        <v>0</v>
-      </c>
-      <c r="AA308">
         <v>0</v>
       </c>
     </row>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC305"/>
+  <dimension ref="A1:AC309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5221295</v>
+        <v>5185154</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,73 +2168,73 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
+        <v>3.3</v>
+      </c>
+      <c r="N19">
+        <v>2.05</v>
+      </c>
+      <c r="O19">
+        <v>3.2</v>
+      </c>
+      <c r="P19">
         <v>3.4</v>
-      </c>
-      <c r="N19">
-        <v>2.15</v>
-      </c>
-      <c r="O19">
-        <v>3.3</v>
-      </c>
-      <c r="P19">
-        <v>2.9</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2245,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5185154</v>
+        <v>5221295</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2257,73 +2257,73 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
+        <v>3.4</v>
+      </c>
+      <c r="N20">
+        <v>2.15</v>
+      </c>
+      <c r="O20">
         <v>3.3</v>
       </c>
-      <c r="N20">
-        <v>2.05</v>
-      </c>
-      <c r="O20">
-        <v>3.2</v>
-      </c>
       <c r="P20">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q20">
         <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5184469</v>
+        <v>5184791</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2702,10 +2702,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2717,43 +2717,43 @@
         <v>54</v>
       </c>
       <c r="K25">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L25">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N25">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2762,16 +2762,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2779,7 +2779,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5184791</v>
+        <v>5184469</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2791,10 +2791,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2806,43 +2806,43 @@
         <v>54</v>
       </c>
       <c r="K26">
+        <v>1.7</v>
+      </c>
+      <c r="L26">
+        <v>3.7</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>2.375</v>
+      </c>
+      <c r="O26">
+        <v>3.4</v>
+      </c>
+      <c r="P26">
         <v>2.6</v>
-      </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.45</v>
-      </c>
-      <c r="N26">
-        <v>2.5</v>
-      </c>
-      <c r="O26">
-        <v>3.1</v>
-      </c>
-      <c r="P26">
-        <v>2.5</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
+        <v>1.8</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
         <v>1.9</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>1.9</v>
       </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>1.825</v>
-      </c>
-      <c r="V26">
-        <v>1.975</v>
-      </c>
       <c r="W26">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2851,16 +2851,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5185156</v>
+        <v>5221296</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3058,19 +3058,19 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29">
         <v>1.571</v>
@@ -3082,52 +3082,52 @@
         <v>4.75</v>
       </c>
       <c r="N29">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3224,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5221296</v>
+        <v>5185158</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,49 +3236,49 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L31">
+        <v>3.3</v>
+      </c>
+      <c r="M31">
+        <v>3.2</v>
+      </c>
+      <c r="N31">
+        <v>1.909</v>
+      </c>
+      <c r="O31">
+        <v>3.3</v>
+      </c>
+      <c r="P31">
         <v>3.75</v>
       </c>
-      <c r="M31">
-        <v>4.75</v>
-      </c>
-      <c r="N31">
-        <v>1.7</v>
-      </c>
-      <c r="O31">
-        <v>3.5</v>
-      </c>
-      <c r="P31">
-        <v>4</v>
-      </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
         <v>1.95</v>
@@ -3287,25 +3287,25 @@
         <v>1.85</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X31">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5185158</v>
+        <v>5185156</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3325,58 +3325,58 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>54</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R32">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S32">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3385,16 +3385,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3847,7 +3847,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5185160</v>
+        <v>5221158</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3859,13 +3859,13 @@
         <v>45010.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3874,34 +3874,34 @@
         <v>54</v>
       </c>
       <c r="K38">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
         <v>3.3</v>
       </c>
       <c r="M38">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="N38">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
         <v>1.8</v>
@@ -3910,7 +3910,7 @@
         <v>2</v>
       </c>
       <c r="W38">
-        <v>1.9</v>
+        <v>0.75</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3919,16 +3919,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3936,7 +3936,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5221158</v>
+        <v>5185160</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3948,13 +3948,13 @@
         <v>45010.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3963,34 +3963,34 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L39">
         <v>3.3</v>
       </c>
       <c r="M39">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="N39">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.8</v>
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="W39">
-        <v>0.75</v>
+        <v>1.9</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4008,16 +4008,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0.8</v>
       </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5185166</v>
+        <v>5184031</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
+        <v>2.625</v>
+      </c>
+      <c r="N45">
+        <v>2.05</v>
+      </c>
+      <c r="O45">
         <v>3.2</v>
       </c>
-      <c r="N45">
-        <v>2.15</v>
-      </c>
-      <c r="O45">
+      <c r="P45">
         <v>3.25</v>
-      </c>
-      <c r="P45">
-        <v>2.9</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
+        <v>1.775</v>
+      </c>
+      <c r="S45">
+        <v>2.025</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>1.85</v>
+      </c>
+      <c r="V45">
         <v>1.95</v>
       </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
-      <c r="T45">
-        <v>2.5</v>
-      </c>
-      <c r="U45">
-        <v>1.825</v>
-      </c>
-      <c r="V45">
-        <v>1.975</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X45">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
+        <v>0.425</v>
+      </c>
+      <c r="AC45">
         <v>-0.5</v>
-      </c>
-      <c r="AA45">
-        <v>0.425</v>
-      </c>
-      <c r="AB45">
-        <v>-1</v>
-      </c>
-      <c r="AC45">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5184031</v>
+        <v>5185166</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,76 +4571,76 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L46">
+        <v>3.3</v>
+      </c>
+      <c r="M46">
         <v>3.2</v>
       </c>
-      <c r="M46">
-        <v>2.625</v>
-      </c>
       <c r="N46">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB46">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5449,7 +5449,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5185174</v>
+        <v>5185177</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5461,73 +5461,73 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O56">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X56">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5185177</v>
+        <v>5185174</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,73 +5639,73 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L58">
+        <v>3.4</v>
+      </c>
+      <c r="M58">
+        <v>3.1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
         <v>3.25</v>
       </c>
-      <c r="M58">
-        <v>3.5</v>
-      </c>
-      <c r="N58">
-        <v>1.833</v>
-      </c>
-      <c r="O58">
-        <v>3.3</v>
-      </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q58">
+        <v>-0.25</v>
+      </c>
+      <c r="R58">
+        <v>1.8</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
+        <v>1.925</v>
+      </c>
+      <c r="V58">
+        <v>1.875</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>2.25</v>
+      </c>
+      <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
         <v>-0.5</v>
       </c>
-      <c r="R58">
-        <v>1.9</v>
-      </c>
-      <c r="S58">
-        <v>1.9</v>
-      </c>
-      <c r="T58">
-        <v>2.5</v>
-      </c>
-      <c r="U58">
-        <v>1.9</v>
-      </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
-      <c r="W58">
-        <v>0.833</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
-      <c r="Z58">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB58">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -6784,7 +6784,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5184034</v>
+        <v>5221300</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6796,58 +6796,58 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>54</v>
       </c>
       <c r="K71">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L71">
+        <v>3.4</v>
+      </c>
+      <c r="M71">
         <v>3.1</v>
       </c>
-      <c r="M71">
-        <v>2.45</v>
-      </c>
       <c r="N71">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
+        <v>1.85</v>
+      </c>
+      <c r="S71">
         <v>1.95</v>
       </c>
-      <c r="S71">
-        <v>1.85</v>
-      </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6856,16 +6856,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6873,7 +6873,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5221300</v>
+        <v>5184034</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6885,58 +6885,58 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>54</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N72">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
       </c>
-      <c r="S72">
-        <v>1.95</v>
-      </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W72">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6945,16 +6945,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7318,7 +7318,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5185186</v>
+        <v>5185187</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7330,76 +7330,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K77">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N77">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
+        <v>1.825</v>
+      </c>
+      <c r="V77">
+        <v>1.975</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>2.75</v>
       </c>
-      <c r="U77">
-        <v>1.9</v>
-      </c>
-      <c r="V77">
-        <v>1.9</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7407,7 +7407,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5185187</v>
+        <v>5185186</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7419,76 +7419,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78" t="s">
+        <v>56</v>
+      </c>
+      <c r="K78">
+        <v>2.625</v>
+      </c>
+      <c r="L78">
+        <v>3.2</v>
+      </c>
+      <c r="M78">
+        <v>2.375</v>
+      </c>
+      <c r="N78">
+        <v>2.625</v>
+      </c>
+      <c r="O78">
+        <v>3.1</v>
+      </c>
+      <c r="P78">
+        <v>2.375</v>
+      </c>
+      <c r="Q78">
         <v>0</v>
       </c>
-      <c r="J78" t="s">
-        <v>55</v>
-      </c>
-      <c r="K78">
-        <v>1.8</v>
-      </c>
-      <c r="L78">
-        <v>3.75</v>
-      </c>
-      <c r="M78">
-        <v>3.4</v>
-      </c>
-      <c r="N78">
-        <v>1.75</v>
-      </c>
-      <c r="O78">
-        <v>3.75</v>
-      </c>
-      <c r="P78">
-        <v>3.5</v>
-      </c>
-      <c r="Q78">
-        <v>-0.5</v>
-      </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7941,7 +7941,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5185192</v>
+        <v>5185194</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7953,76 +7953,76 @@
         <v>45045.5</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L84">
         <v>3.3</v>
       </c>
       <c r="M84">
+        <v>2.6</v>
+      </c>
+      <c r="N84">
+        <v>2.1</v>
+      </c>
+      <c r="O84">
+        <v>3.4</v>
+      </c>
+      <c r="P84">
         <v>3</v>
       </c>
-      <c r="N84">
-        <v>1.571</v>
-      </c>
-      <c r="O84">
-        <v>3.75</v>
-      </c>
-      <c r="P84">
-        <v>5</v>
-      </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5185194</v>
+        <v>5185192</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,76 +8042,76 @@
         <v>45045.5</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K85">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
         <v>3.3</v>
       </c>
       <c r="M85">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8475,7 +8475,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5184036</v>
+        <v>5184744</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8487,13 +8487,13 @@
         <v>45052.5</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -8502,41 +8502,41 @@
         <v>56</v>
       </c>
       <c r="K90">
+        <v>2.9</v>
+      </c>
+      <c r="L90">
         <v>3.2</v>
       </c>
-      <c r="L90">
-        <v>3.4</v>
-      </c>
       <c r="M90">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N90">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
+        <v>1.775</v>
+      </c>
+      <c r="S90">
+        <v>2.025</v>
+      </c>
+      <c r="T90">
+        <v>2.5</v>
+      </c>
+      <c r="U90">
         <v>1.85</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.95</v>
       </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.975</v>
-      </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
@@ -8544,19 +8544,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8564,7 +8564,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5184744</v>
+        <v>5184036</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8576,13 +8576,13 @@
         <v>45052.5</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>2</v>
@@ -8591,40 +8591,40 @@
         <v>56</v>
       </c>
       <c r="K91">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O91">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R91">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8633,19 +8633,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8653,7 +8653,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5185195</v>
+        <v>5221302</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8665,76 +8665,76 @@
         <v>45052.5</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M92">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N92">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O92">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8742,7 +8742,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5221302</v>
+        <v>5185195</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8754,76 +8754,76 @@
         <v>45052.5</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K93">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L93">
+        <v>3.4</v>
+      </c>
+      <c r="M93">
+        <v>3.4</v>
+      </c>
+      <c r="N93">
+        <v>2.15</v>
+      </c>
+      <c r="O93">
         <v>3.25</v>
       </c>
-      <c r="M93">
-        <v>2.375</v>
-      </c>
-      <c r="N93">
-        <v>3</v>
-      </c>
-      <c r="O93">
-        <v>3.2</v>
-      </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
+        <v>0.425</v>
+      </c>
+      <c r="AB93">
         <v>0.925</v>
       </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
       <c r="AC93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9276,7 +9276,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5224880</v>
+        <v>5223000</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9288,76 +9288,76 @@
         <v>45059.5</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K99">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M99">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N99">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O99">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
+        <v>1.975</v>
+      </c>
+      <c r="V99">
         <v>1.825</v>
       </c>
-      <c r="V99">
-        <v>1.975</v>
-      </c>
       <c r="W99">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.825</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5223000</v>
+        <v>5224880</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,76 +9377,76 @@
         <v>45059.5</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L100">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N100">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P100">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U100">
+        <v>1.825</v>
+      </c>
+      <c r="V100">
         <v>1.975</v>
       </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X100">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -11323,7 +11323,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5226043</v>
+        <v>5185127</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11335,76 +11335,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K122">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N122">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O122">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P122">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S122">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11412,7 +11412,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5185127</v>
+        <v>5229462</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11424,76 +11424,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L123">
         <v>3.5</v>
       </c>
       <c r="M123">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="N123">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P123">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11501,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5224884</v>
+        <v>5226044</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11513,49 +11513,49 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K124">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L124">
+        <v>4.5</v>
+      </c>
+      <c r="M124">
+        <v>6.5</v>
+      </c>
+      <c r="N124">
+        <v>1.285</v>
+      </c>
+      <c r="O124">
+        <v>5.25</v>
+      </c>
+      <c r="P124">
+        <v>7.5</v>
+      </c>
+      <c r="Q124">
+        <v>-1.5</v>
+      </c>
+      <c r="R124">
+        <v>1.825</v>
+      </c>
+      <c r="S124">
+        <v>1.975</v>
+      </c>
+      <c r="T124">
         <v>3.25</v>
-      </c>
-      <c r="M124">
-        <v>2.5</v>
-      </c>
-      <c r="N124">
-        <v>2.6</v>
-      </c>
-      <c r="O124">
-        <v>3.1</v>
-      </c>
-      <c r="P124">
-        <v>2.5</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>1.95</v>
-      </c>
-      <c r="S124">
-        <v>1.85</v>
-      </c>
-      <c r="T124">
-        <v>2.5</v>
       </c>
       <c r="U124">
         <v>1.8</v>
@@ -11564,25 +11564,25 @@
         <v>2</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X124">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11590,7 +11590,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5224885</v>
+        <v>5226043</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11602,76 +11602,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P125">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R125">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5224889</v>
+        <v>5226042</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11691,76 +11691,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K126">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L126">
+        <v>3.6</v>
+      </c>
+      <c r="M126">
+        <v>1.95</v>
+      </c>
+      <c r="N126">
         <v>3.3</v>
       </c>
-      <c r="M126">
-        <v>1.909</v>
-      </c>
-      <c r="N126">
-        <v>5</v>
-      </c>
       <c r="O126">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q126">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC126">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5226042</v>
+        <v>5224884</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11780,76 +11780,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K127">
+        <v>2.5</v>
+      </c>
+      <c r="L127">
+        <v>3.25</v>
+      </c>
+      <c r="M127">
+        <v>2.5</v>
+      </c>
+      <c r="N127">
+        <v>2.6</v>
+      </c>
+      <c r="O127">
         <v>3.1</v>
       </c>
-      <c r="L127">
-        <v>3.6</v>
-      </c>
-      <c r="M127">
+      <c r="P127">
+        <v>2.5</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
         <v>1.95</v>
       </c>
-      <c r="N127">
-        <v>3.3</v>
-      </c>
-      <c r="O127">
-        <v>3.6</v>
-      </c>
-      <c r="P127">
+      <c r="S127">
         <v>1.85</v>
       </c>
-      <c r="Q127">
-        <v>0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.9</v>
-      </c>
-      <c r="S127">
-        <v>1.9</v>
-      </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11857,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5229462</v>
+        <v>5224885</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11869,58 +11869,58 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>54</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P128">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S128">
+        <v>2.025</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
         <v>1.8</v>
       </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>1.95</v>
-      </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W128">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11929,16 +11929,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11946,7 +11946,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5228058</v>
+        <v>5224889</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11958,76 +11958,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K129">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L129">
         <v>3.3</v>
       </c>
       <c r="M129">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N129">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O129">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z129">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12035,7 +12035,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5226044</v>
+        <v>5228058</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12047,76 +12047,76 @@
         <v>45081.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>55</v>
+      </c>
+      <c r="K130">
         <v>3</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130" t="s">
-        <v>54</v>
-      </c>
-      <c r="K130">
-        <v>1.363</v>
-      </c>
       <c r="L130">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N130">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="O130">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P130">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q130">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12747,7 +12747,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6808604</v>
+        <v>6808905</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12759,76 +12759,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K138">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L138">
+        <v>3.2</v>
+      </c>
+      <c r="M138">
+        <v>2.5</v>
+      </c>
+      <c r="N138">
+        <v>2.15</v>
+      </c>
+      <c r="O138">
+        <v>3.25</v>
+      </c>
+      <c r="P138">
         <v>3.1</v>
       </c>
-      <c r="M138">
-        <v>3</v>
-      </c>
-      <c r="N138">
-        <v>2.6</v>
-      </c>
-      <c r="O138">
-        <v>3.1</v>
-      </c>
-      <c r="P138">
-        <v>2.5</v>
-      </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X138">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12836,7 +12836,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6808005</v>
+        <v>6808604</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12848,19 +12848,19 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K139">
         <v>2.2</v>
@@ -12872,52 +12872,52 @@
         <v>3</v>
       </c>
       <c r="N139">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O139">
         <v>3.1</v>
       </c>
       <c r="P139">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139">
+        <v>1.95</v>
+      </c>
+      <c r="S139">
         <v>1.85</v>
-      </c>
-      <c r="S139">
-        <v>1.95</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12925,7 +12925,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6808905</v>
+        <v>6808005</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12937,58 +12937,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>54</v>
       </c>
       <c r="K140">
+        <v>2.2</v>
+      </c>
+      <c r="L140">
+        <v>3.1</v>
+      </c>
+      <c r="M140">
+        <v>3</v>
+      </c>
+      <c r="N140">
         <v>2.5</v>
       </c>
-      <c r="L140">
-        <v>3.2</v>
-      </c>
-      <c r="M140">
+      <c r="O140">
+        <v>3.1</v>
+      </c>
+      <c r="P140">
+        <v>2.6</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
+        <v>1.95</v>
+      </c>
+      <c r="T140">
         <v>2.5</v>
       </c>
-      <c r="N140">
-        <v>2.15</v>
-      </c>
-      <c r="O140">
-        <v>3.25</v>
-      </c>
-      <c r="P140">
-        <v>3.1</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.9</v>
-      </c>
-      <c r="S140">
-        <v>1.9</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12997,16 +12997,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13548,7 +13548,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6808160</v>
+        <v>6808608</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13560,13 +13560,13 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13575,43 +13575,43 @@
         <v>54</v>
       </c>
       <c r="K147">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L147">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N147">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q147">
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13620,16 +13620,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13637,7 +13637,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6808608</v>
+        <v>6808160</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13649,13 +13649,13 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13664,61 +13664,61 @@
         <v>54</v>
       </c>
       <c r="K148">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L148">
+        <v>3.3</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>1.8</v>
+      </c>
+      <c r="O148">
         <v>3.4</v>
       </c>
-      <c r="M148">
-        <v>3.4</v>
-      </c>
-      <c r="N148">
-        <v>1.85</v>
-      </c>
-      <c r="O148">
-        <v>3.5</v>
-      </c>
       <c r="P148">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
+        <v>0.8</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
-      <c r="Z148">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14705,7 +14705,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6808901</v>
+        <v>6808618</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14717,19 +14717,19 @@
         <v>45150.5</v>
       </c>
       <c r="F160" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K160">
         <v>2.5</v>
@@ -14762,31 +14762,31 @@
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z160">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB160">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14794,7 +14794,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6808618</v>
+        <v>6808901</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14806,19 +14806,19 @@
         <v>45150.5</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K161">
         <v>2.5</v>
@@ -14851,31 +14851,31 @@
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC161">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6808165</v>
+        <v>6808619</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45151.5</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L164">
         <v>3.25</v>
       </c>
       <c r="M164">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N164">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>1.8</v>
+      </c>
+      <c r="S164">
+        <v>2</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>1.925</v>
+      </c>
+      <c r="V164">
         <v>1.875</v>
       </c>
-      <c r="S164">
-        <v>1.925</v>
-      </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
-      <c r="U164">
-        <v>1.9</v>
-      </c>
-      <c r="V164">
-        <v>1.9</v>
-      </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA164">
+        <v>-1</v>
+      </c>
+      <c r="AB164">
         <v>0.925</v>
       </c>
-      <c r="AB164">
-        <v>0.45</v>
-      </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6808166</v>
+        <v>6808617</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,28 +15162,28 @@
         <v>45151.5</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K165">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L165">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N165">
         <v>2.2</v>
@@ -15192,46 +15192,46 @@
         <v>3.25</v>
       </c>
       <c r="P165">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q165">
         <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
+        <v>1.925</v>
+      </c>
+      <c r="V165">
         <v>1.875</v>
       </c>
-      <c r="V165">
-        <v>1.925</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X165">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA165">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15239,7 +15239,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6808617</v>
+        <v>6808166</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15251,28 +15251,28 @@
         <v>45151.5</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K166">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M166">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N166">
         <v>2.2</v>
@@ -15281,46 +15281,46 @@
         <v>3.25</v>
       </c>
       <c r="P166">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q166">
         <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
+        <v>1.875</v>
+      </c>
+      <c r="V166">
         <v>1.925</v>
       </c>
-      <c r="V166">
-        <v>1.875</v>
-      </c>
       <c r="W166">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15328,7 +15328,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6808619</v>
+        <v>6808165</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15340,76 +15340,76 @@
         <v>45151.5</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K167">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L167">
         <v>3.25</v>
       </c>
       <c r="M167">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N167">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB167">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15595,7 +15595,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6808169</v>
+        <v>6808168</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15607,55 +15607,55 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>56</v>
       </c>
       <c r="K170">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L170">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N170">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O170">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15664,19 +15664,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15684,7 +15684,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6808168</v>
+        <v>6808169</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15696,56 +15696,56 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>56</v>
       </c>
       <c r="K171">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L171">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N171">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
+        <v>1.875</v>
+      </c>
+      <c r="S171">
+        <v>1.925</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
         <v>1.95</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.85</v>
       </c>
-      <c r="T171">
-        <v>2.25</v>
-      </c>
-      <c r="U171">
-        <v>1.775</v>
-      </c>
-      <c r="V171">
-        <v>2.025</v>
-      </c>
       <c r="W171">
         <v>-1</v>
       </c>
@@ -15753,19 +15753,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC171">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16307,7 +16307,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6808899</v>
+        <v>7105151</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16319,76 +16319,76 @@
         <v>45164.5</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>56</v>
+      </c>
+      <c r="K178">
+        <v>1.8</v>
+      </c>
+      <c r="L178">
+        <v>3.25</v>
+      </c>
+      <c r="M178">
+        <v>4</v>
+      </c>
+      <c r="N178">
+        <v>1.8</v>
+      </c>
+      <c r="O178">
+        <v>3.25</v>
+      </c>
+      <c r="P178">
+        <v>4</v>
+      </c>
+      <c r="Q178">
+        <v>-0.5</v>
+      </c>
+      <c r="R178">
+        <v>1.85</v>
+      </c>
+      <c r="S178">
+        <v>1.95</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.85</v>
+      </c>
+      <c r="V178">
+        <v>1.95</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
         <v>3</v>
       </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178" t="s">
-        <v>54</v>
-      </c>
-      <c r="K178">
-        <v>2.25</v>
-      </c>
-      <c r="L178">
-        <v>3.3</v>
-      </c>
-      <c r="M178">
-        <v>2.75</v>
-      </c>
-      <c r="N178">
-        <v>2.25</v>
-      </c>
-      <c r="O178">
-        <v>3.3</v>
-      </c>
-      <c r="P178">
-        <v>2.75</v>
-      </c>
-      <c r="Q178">
-        <v>-0.25</v>
-      </c>
-      <c r="R178">
-        <v>2.025</v>
-      </c>
-      <c r="S178">
-        <v>1.775</v>
-      </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
-      <c r="U178">
-        <v>1.975</v>
-      </c>
-      <c r="V178">
-        <v>1.825</v>
-      </c>
-      <c r="W178">
-        <v>1.25</v>
-      </c>
-      <c r="X178">
-        <v>-1</v>
-      </c>
-      <c r="Y178">
-        <v>-1</v>
-      </c>
       <c r="Z178">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16396,7 +16396,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7105151</v>
+        <v>6808625</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16408,76 +16408,76 @@
         <v>45164.5</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>3.4</v>
+      </c>
+      <c r="M179">
+        <v>3.1</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179">
+        <v>3.4</v>
+      </c>
+      <c r="P179">
+        <v>3.1</v>
+      </c>
+      <c r="Q179">
+        <v>-0.25</v>
+      </c>
+      <c r="R179">
         <v>1.8</v>
       </c>
-      <c r="L179">
-        <v>3.25</v>
-      </c>
-      <c r="M179">
-        <v>4</v>
-      </c>
-      <c r="N179">
-        <v>1.8</v>
-      </c>
-      <c r="O179">
-        <v>3.25</v>
-      </c>
-      <c r="P179">
-        <v>4</v>
-      </c>
-      <c r="Q179">
-        <v>-0.5</v>
-      </c>
-      <c r="R179">
-        <v>1.85</v>
-      </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16574,7 +16574,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6808625</v>
+        <v>6808899</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16586,58 +16586,58 @@
         <v>45164.5</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>54</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M181">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N181">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O181">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P181">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q181">
         <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S181">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T181">
         <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16646,13 +16646,13 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16930,7 +16930,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6808898</v>
+        <v>6808631</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16942,73 +16942,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K185">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L185">
         <v>3.2</v>
       </c>
       <c r="M185">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N185">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O185">
         <v>3.2</v>
       </c>
       <c r="P185">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
+        <v>1.85</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
         <v>1.8</v>
       </c>
-      <c r="T185">
-        <v>2.5</v>
-      </c>
-      <c r="U185">
-        <v>2</v>
-      </c>
       <c r="V185">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA185">
+        <v>-1</v>
+      </c>
+      <c r="AB185">
         <v>0.8</v>
-      </c>
-      <c r="AB185">
-        <v>1</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17019,7 +17019,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6808631</v>
+        <v>6808898</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17031,73 +17031,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K186">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L186">
         <v>3.2</v>
       </c>
       <c r="M186">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N186">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O186">
         <v>3.2</v>
       </c>
       <c r="P186">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U186">
+        <v>2</v>
+      </c>
+      <c r="V186">
         <v>1.8</v>
       </c>
-      <c r="V186">
-        <v>2</v>
-      </c>
       <c r="W186">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB186">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC186">
         <v>-1</v>
@@ -18710,7 +18710,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6808649</v>
+        <v>7203342</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18722,55 +18722,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F205" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
       <c r="I205">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
         <v>56</v>
       </c>
       <c r="K205">
+        <v>1.8</v>
+      </c>
+      <c r="L205">
+        <v>3.4</v>
+      </c>
+      <c r="M205">
+        <v>3.75</v>
+      </c>
+      <c r="N205">
+        <v>1.95</v>
+      </c>
+      <c r="O205">
+        <v>3.3</v>
+      </c>
+      <c r="P205">
+        <v>3.25</v>
+      </c>
+      <c r="Q205">
+        <v>-0.5</v>
+      </c>
+      <c r="R205">
+        <v>2.025</v>
+      </c>
+      <c r="S205">
+        <v>1.775</v>
+      </c>
+      <c r="T205">
         <v>2.5</v>
       </c>
-      <c r="L205">
-        <v>3.2</v>
-      </c>
-      <c r="M205">
-        <v>2.5</v>
-      </c>
-      <c r="N205">
-        <v>2.5</v>
-      </c>
-      <c r="O205">
-        <v>3.25</v>
-      </c>
-      <c r="P205">
-        <v>2.5</v>
-      </c>
-      <c r="Q205">
-        <v>0</v>
-      </c>
-      <c r="R205">
-        <v>1.9</v>
-      </c>
-      <c r="S205">
-        <v>1.9</v>
-      </c>
-      <c r="T205">
-        <v>2.75</v>
-      </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18779,19 +18779,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB205">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18799,7 +18799,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7203342</v>
+        <v>6808649</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18811,55 +18811,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G206" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J206" t="s">
         <v>56</v>
       </c>
       <c r="K206">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M206">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N206">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P206">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S206">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18868,19 +18868,19 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC206">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -20045,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6808023</v>
+        <v>6808894</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20057,10 +20057,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G220" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20072,25 +20072,25 @@
         <v>56</v>
       </c>
       <c r="K220">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L220">
         <v>3.3</v>
       </c>
       <c r="M220">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N220">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O220">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P220">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
         <v>1.85</v>
@@ -20102,10 +20102,10 @@
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -20114,7 +20114,7 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z220">
         <v>-1</v>
@@ -20126,7 +20126,7 @@
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20134,7 +20134,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6808894</v>
+        <v>6808664</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20146,56 +20146,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
         <v>56</v>
       </c>
       <c r="K221">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L221">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N221">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P221">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R221">
+        <v>1.8</v>
+      </c>
+      <c r="S221">
+        <v>2</v>
+      </c>
+      <c r="T221">
+        <v>3</v>
+      </c>
+      <c r="U221">
         <v>1.85</v>
       </c>
-      <c r="S221">
+      <c r="V221">
         <v>1.95</v>
       </c>
-      <c r="T221">
-        <v>2.5</v>
-      </c>
-      <c r="U221">
-        <v>1.95</v>
-      </c>
-      <c r="V221">
-        <v>1.85</v>
-      </c>
       <c r="W221">
         <v>-1</v>
       </c>
@@ -20203,19 +20203,19 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC221">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20223,7 +20223,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6808664</v>
+        <v>6808023</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20235,55 +20235,55 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G222" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>56</v>
       </c>
       <c r="K222">
+        <v>1.909</v>
+      </c>
+      <c r="L222">
+        <v>3.3</v>
+      </c>
+      <c r="M222">
+        <v>3.5</v>
+      </c>
+      <c r="N222">
+        <v>2.05</v>
+      </c>
+      <c r="O222">
+        <v>3.25</v>
+      </c>
+      <c r="P222">
+        <v>3.1</v>
+      </c>
+      <c r="Q222">
+        <v>-0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
+        <v>1.95</v>
+      </c>
+      <c r="T222">
         <v>2.5</v>
       </c>
-      <c r="L222">
-        <v>3.4</v>
-      </c>
-      <c r="M222">
-        <v>2.375</v>
-      </c>
-      <c r="N222">
-        <v>2.3</v>
-      </c>
-      <c r="O222">
-        <v>3.4</v>
-      </c>
-      <c r="P222">
-        <v>2.55</v>
-      </c>
-      <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
-        <v>1.8</v>
-      </c>
-      <c r="S222">
-        <v>2</v>
-      </c>
-      <c r="T222">
-        <v>3</v>
-      </c>
       <c r="U222">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V222">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20292,19 +20292,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20757,7 +20757,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6808667</v>
+        <v>6808666</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20769,73 +20769,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G228" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228">
         <v>3</v>
       </c>
-      <c r="I228">
-        <v>1</v>
-      </c>
       <c r="J228" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K228">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L228">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N228">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="O228">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q228">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T228">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V228">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W228">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z228">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB228">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20846,7 +20846,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6808666</v>
+        <v>6808667</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20858,73 +20858,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G229" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>54</v>
+      </c>
+      <c r="K229">
+        <v>1.615</v>
+      </c>
+      <c r="L229">
+        <v>3.75</v>
+      </c>
+      <c r="M229">
+        <v>4.5</v>
+      </c>
+      <c r="N229">
+        <v>1.285</v>
+      </c>
+      <c r="O229">
+        <v>4.75</v>
+      </c>
+      <c r="P229">
+        <v>8.5</v>
+      </c>
+      <c r="Q229">
+        <v>-1.5</v>
+      </c>
+      <c r="R229">
+        <v>1.85</v>
+      </c>
+      <c r="S229">
+        <v>1.95</v>
+      </c>
+      <c r="T229">
         <v>3</v>
       </c>
-      <c r="J229" t="s">
-        <v>56</v>
-      </c>
-      <c r="K229">
-        <v>2.1</v>
-      </c>
-      <c r="L229">
-        <v>3.4</v>
-      </c>
-      <c r="M229">
-        <v>2.8</v>
-      </c>
-      <c r="N229">
-        <v>2.45</v>
-      </c>
-      <c r="O229">
-        <v>3.6</v>
-      </c>
-      <c r="P229">
-        <v>2.3</v>
-      </c>
-      <c r="Q229">
-        <v>0</v>
-      </c>
-      <c r="R229">
-        <v>2</v>
-      </c>
-      <c r="S229">
-        <v>1.8</v>
-      </c>
-      <c r="T229">
-        <v>2.75</v>
-      </c>
       <c r="U229">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -25385,7 +25385,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6808694</v>
+        <v>6808886</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25397,49 +25397,49 @@
         <v>45248.375</v>
       </c>
       <c r="F280" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G280" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="s">
         <v>54</v>
       </c>
       <c r="K280">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L280">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M280">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N280">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O280">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P280">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q280">
         <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S280">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T280">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U280">
         <v>1.85</v>
@@ -25448,25 +25448,25 @@
         <v>1.95</v>
       </c>
       <c r="W280">
+        <v>1.375</v>
+      </c>
+      <c r="X280">
+        <v>-1</v>
+      </c>
+      <c r="Y280">
+        <v>-1</v>
+      </c>
+      <c r="Z280">
+        <v>1.075</v>
+      </c>
+      <c r="AA280">
+        <v>-1</v>
+      </c>
+      <c r="AB280">
+        <v>-1</v>
+      </c>
+      <c r="AC280">
         <v>0.95</v>
-      </c>
-      <c r="X280">
-        <v>-1</v>
-      </c>
-      <c r="Y280">
-        <v>-1</v>
-      </c>
-      <c r="Z280">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA280">
-        <v>-1</v>
-      </c>
-      <c r="AB280">
-        <v>0.425</v>
-      </c>
-      <c r="AC280">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25474,7 +25474,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6808886</v>
+        <v>6808694</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25486,49 +25486,49 @@
         <v>45248.375</v>
       </c>
       <c r="F281" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G281" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
         <v>54</v>
       </c>
       <c r="K281">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L281">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M281">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N281">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O281">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P281">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S281">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U281">
         <v>1.85</v>
@@ -25537,7 +25537,7 @@
         <v>1.95</v>
       </c>
       <c r="W281">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="X281">
         <v>-1</v>
@@ -25546,16 +25546,16 @@
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>1.075</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA281">
         <v>-1</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC281">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -27432,7 +27432,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6808707</v>
+        <v>7874422</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27441,64 +27441,79 @@
         <v>28</v>
       </c>
       <c r="E303" s="2">
-        <v>45346.58333333334</v>
+        <v>45346.29166666666</v>
       </c>
       <c r="F303" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G303" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="H303">
+        <v>2</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303" t="s">
+        <v>54</v>
       </c>
       <c r="K303">
+        <v>2</v>
+      </c>
+      <c r="L303">
+        <v>3.25</v>
+      </c>
+      <c r="M303">
+        <v>3.25</v>
+      </c>
+      <c r="N303">
         <v>2.3</v>
       </c>
-      <c r="L303">
-        <v>3.2</v>
-      </c>
-      <c r="M303">
-        <v>2.75</v>
-      </c>
-      <c r="N303">
-        <v>2.15</v>
-      </c>
       <c r="O303">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P303">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R303">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S303">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T303">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U303">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V303">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W303">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X303">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA303">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB303">
+        <v>0.925</v>
+      </c>
+      <c r="AC303">
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27506,7 +27521,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6808882</v>
+        <v>6808141</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27515,137 +27530,508 @@
         <v>28</v>
       </c>
       <c r="E304" s="2">
-        <v>45346.64583333334</v>
+        <v>45346.33333333334</v>
       </c>
       <c r="F304" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G304" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304" t="s">
+        <v>55</v>
       </c>
       <c r="K304">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L304">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M304">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N304">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O304">
         <v>3.4</v>
       </c>
       <c r="P304">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q304">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R304">
+        <v>2</v>
+      </c>
+      <c r="S304">
+        <v>1.8</v>
+      </c>
+      <c r="T304">
+        <v>2.5</v>
+      </c>
+      <c r="U304">
         <v>1.9</v>
       </c>
-      <c r="S304">
+      <c r="V304">
         <v>1.9</v>
       </c>
-      <c r="T304">
-        <v>2.75</v>
-      </c>
-      <c r="U304">
-        <v>2</v>
-      </c>
-      <c r="V304">
-        <v>1.8</v>
-      </c>
       <c r="W304">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X304">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y304">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
         <v>0</v>
       </c>
       <c r="AA304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB304">
+        <v>-1</v>
+      </c>
+      <c r="AC304">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:29">
       <c r="A305" s="1">
         <v>303</v>
       </c>
       <c r="B305">
+        <v>6808039</v>
+      </c>
+      <c r="C305" t="s">
+        <v>28</v>
+      </c>
+      <c r="D305" t="s">
+        <v>28</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45346.36458333334</v>
+      </c>
+      <c r="F305" t="s">
+        <v>36</v>
+      </c>
+      <c r="G305" t="s">
+        <v>49</v>
+      </c>
+      <c r="H305">
+        <v>3</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305" t="s">
+        <v>54</v>
+      </c>
+      <c r="K305">
+        <v>1.909</v>
+      </c>
+      <c r="L305">
+        <v>3.6</v>
+      </c>
+      <c r="M305">
+        <v>3.2</v>
+      </c>
+      <c r="N305">
+        <v>1.909</v>
+      </c>
+      <c r="O305">
+        <v>3.8</v>
+      </c>
+      <c r="P305">
+        <v>3.1</v>
+      </c>
+      <c r="Q305">
+        <v>-0.5</v>
+      </c>
+      <c r="R305">
+        <v>1.95</v>
+      </c>
+      <c r="S305">
+        <v>1.85</v>
+      </c>
+      <c r="T305">
+        <v>3</v>
+      </c>
+      <c r="U305">
+        <v>1.975</v>
+      </c>
+      <c r="V305">
+        <v>1.825</v>
+      </c>
+      <c r="W305">
+        <v>0.909</v>
+      </c>
+      <c r="X305">
+        <v>-1</v>
+      </c>
+      <c r="Y305">
+        <v>-1</v>
+      </c>
+      <c r="Z305">
+        <v>0.95</v>
+      </c>
+      <c r="AA305">
+        <v>-1</v>
+      </c>
+      <c r="AB305">
+        <v>0</v>
+      </c>
+      <c r="AC305">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:29">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>6808706</v>
+      </c>
+      <c r="C306" t="s">
+        <v>28</v>
+      </c>
+      <c r="D306" t="s">
+        <v>28</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45346.375</v>
+      </c>
+      <c r="F306" t="s">
+        <v>45</v>
+      </c>
+      <c r="G306" t="s">
+        <v>32</v>
+      </c>
+      <c r="H306">
+        <v>1</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306" t="s">
+        <v>55</v>
+      </c>
+      <c r="K306">
+        <v>1.909</v>
+      </c>
+      <c r="L306">
+        <v>3.4</v>
+      </c>
+      <c r="M306">
+        <v>3.4</v>
+      </c>
+      <c r="N306">
+        <v>2.2</v>
+      </c>
+      <c r="O306">
+        <v>3.3</v>
+      </c>
+      <c r="P306">
+        <v>2.8</v>
+      </c>
+      <c r="Q306">
+        <v>-0.25</v>
+      </c>
+      <c r="R306">
+        <v>2</v>
+      </c>
+      <c r="S306">
+        <v>1.8</v>
+      </c>
+      <c r="T306">
+        <v>2.5</v>
+      </c>
+      <c r="U306">
+        <v>1.85</v>
+      </c>
+      <c r="V306">
+        <v>1.95</v>
+      </c>
+      <c r="W306">
+        <v>-1</v>
+      </c>
+      <c r="X306">
+        <v>2.3</v>
+      </c>
+      <c r="Y306">
+        <v>-1</v>
+      </c>
+      <c r="Z306">
+        <v>-0.5</v>
+      </c>
+      <c r="AA306">
+        <v>0.4</v>
+      </c>
+      <c r="AB306">
+        <v>-1</v>
+      </c>
+      <c r="AC306">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="307" spans="1:29">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>6808707</v>
+      </c>
+      <c r="C307" t="s">
+        <v>28</v>
+      </c>
+      <c r="D307" t="s">
+        <v>28</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F307" t="s">
+        <v>33</v>
+      </c>
+      <c r="G307" t="s">
+        <v>29</v>
+      </c>
+      <c r="H307">
+        <v>5</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307" t="s">
+        <v>54</v>
+      </c>
+      <c r="K307">
+        <v>2.3</v>
+      </c>
+      <c r="L307">
+        <v>3.2</v>
+      </c>
+      <c r="M307">
+        <v>2.75</v>
+      </c>
+      <c r="N307">
+        <v>2.15</v>
+      </c>
+      <c r="O307">
+        <v>3.2</v>
+      </c>
+      <c r="P307">
+        <v>3</v>
+      </c>
+      <c r="Q307">
+        <v>-0.25</v>
+      </c>
+      <c r="R307">
+        <v>1.95</v>
+      </c>
+      <c r="S307">
+        <v>1.85</v>
+      </c>
+      <c r="T307">
+        <v>2.5</v>
+      </c>
+      <c r="U307">
+        <v>1.95</v>
+      </c>
+      <c r="V307">
+        <v>1.85</v>
+      </c>
+      <c r="W307">
+        <v>1.15</v>
+      </c>
+      <c r="X307">
+        <v>-1</v>
+      </c>
+      <c r="Y307">
+        <v>-1</v>
+      </c>
+      <c r="Z307">
+        <v>0.95</v>
+      </c>
+      <c r="AA307">
+        <v>-1</v>
+      </c>
+      <c r="AB307">
+        <v>0.95</v>
+      </c>
+      <c r="AC307">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:29">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>6808882</v>
+      </c>
+      <c r="C308" t="s">
+        <v>28</v>
+      </c>
+      <c r="D308" t="s">
+        <v>28</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45346.64583333334</v>
+      </c>
+      <c r="F308" t="s">
+        <v>52</v>
+      </c>
+      <c r="G308" t="s">
+        <v>42</v>
+      </c>
+      <c r="H308">
+        <v>1</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308" t="s">
+        <v>55</v>
+      </c>
+      <c r="K308">
+        <v>2.25</v>
+      </c>
+      <c r="L308">
+        <v>3.25</v>
+      </c>
+      <c r="M308">
+        <v>2.75</v>
+      </c>
+      <c r="N308">
+        <v>2.1</v>
+      </c>
+      <c r="O308">
+        <v>3.4</v>
+      </c>
+      <c r="P308">
+        <v>2.9</v>
+      </c>
+      <c r="Q308">
+        <v>-0.25</v>
+      </c>
+      <c r="R308">
+        <v>1.9</v>
+      </c>
+      <c r="S308">
+        <v>1.9</v>
+      </c>
+      <c r="T308">
+        <v>2.75</v>
+      </c>
+      <c r="U308">
+        <v>2</v>
+      </c>
+      <c r="V308">
+        <v>1.8</v>
+      </c>
+      <c r="W308">
+        <v>-1</v>
+      </c>
+      <c r="X308">
+        <v>2.4</v>
+      </c>
+      <c r="Y308">
+        <v>-1</v>
+      </c>
+      <c r="Z308">
+        <v>-0.5</v>
+      </c>
+      <c r="AA308">
+        <v>0.45</v>
+      </c>
+      <c r="AB308">
+        <v>-1</v>
+      </c>
+      <c r="AC308">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:29">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
         <v>6808708</v>
       </c>
-      <c r="C305" t="s">
-        <v>28</v>
-      </c>
-      <c r="D305" t="s">
-        <v>28</v>
-      </c>
-      <c r="E305" s="2">
+      <c r="C309" t="s">
+        <v>28</v>
+      </c>
+      <c r="D309" t="s">
+        <v>28</v>
+      </c>
+      <c r="E309" s="2">
         <v>45347.33333333334</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F309" t="s">
         <v>35</v>
       </c>
-      <c r="G305" t="s">
+      <c r="G309" t="s">
         <v>31</v>
       </c>
-      <c r="K305">
+      <c r="K309">
         <v>2.25</v>
       </c>
-      <c r="L305">
+      <c r="L309">
         <v>3.25</v>
       </c>
-      <c r="M305">
+      <c r="M309">
         <v>2.75</v>
       </c>
-      <c r="N305">
+      <c r="N309">
         <v>2.3</v>
       </c>
-      <c r="O305">
+      <c r="O309">
         <v>3.25</v>
       </c>
-      <c r="P305">
+      <c r="P309">
         <v>2.625</v>
       </c>
-      <c r="Q305">
+      <c r="Q309">
         <v>0</v>
       </c>
-      <c r="R305">
+      <c r="R309">
+        <v>1.8</v>
+      </c>
+      <c r="S309">
+        <v>2</v>
+      </c>
+      <c r="T309">
+        <v>2.5</v>
+      </c>
+      <c r="U309">
+        <v>2.025</v>
+      </c>
+      <c r="V309">
         <v>1.775</v>
       </c>
-      <c r="S305">
-        <v>2.025</v>
-      </c>
-      <c r="T305">
-        <v>2.5</v>
-      </c>
-      <c r="U305">
-        <v>2</v>
-      </c>
-      <c r="V305">
-        <v>1.8</v>
-      </c>
-      <c r="W305">
+      <c r="W309">
         <v>0</v>
       </c>
-      <c r="X305">
+      <c r="X309">
         <v>0</v>
       </c>
-      <c r="Y305">
+      <c r="Y309">
         <v>0</v>
       </c>
-      <c r="Z305">
+      <c r="Z309">
         <v>0</v>
       </c>
-      <c r="AA305">
+      <c r="AA309">
         <v>0</v>
       </c>
     </row>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -103,7 +103,10 @@
     <t>Poland II Liga</t>
   </si>
   <si>
-    <t>Garbarnia Krakow</t>
+    <t>Siarka Tarnobrzeg</t>
+  </si>
+  <si>
+    <t>Hutnik Krakow</t>
   </si>
   <si>
     <t>Polonia Warsaw</t>
@@ -112,22 +115,19 @@
     <t>Wisla Pulawy</t>
   </si>
   <si>
-    <t>Hutnik Krakow</t>
-  </si>
-  <si>
-    <t>Siarka Tarnobrzeg</t>
-  </si>
-  <si>
-    <t>Radunia Stezyca</t>
+    <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
     <t>Zaglebie Lubin II</t>
   </si>
   <si>
-    <t>Kotwica Kolobrzeg</t>
+    <t>Olimpia Elblag</t>
   </si>
   <si>
-    <t>Olimpia Elblag</t>
+    <t>Garbarnia Krakow</t>
+  </si>
+  <si>
+    <t>Radunia Stezyca</t>
   </si>
   <si>
     <t>Stomil Olsztyn</t>
@@ -166,25 +166,25 @@
     <t>Polonia Bytom</t>
   </si>
   <si>
-    <t>Gornik Polkowice</t>
+    <t>Slask Wroclaw II</t>
+  </si>
+  <si>
+    <t>Znicz Pruszkw</t>
   </si>
   <si>
     <t>Motor Lublin</t>
   </si>
   <si>
-    <t>Znicz Pruszkw</t>
-  </si>
-  <si>
-    <t>Slask Wroclaw II</t>
+    <t>Gornik Polkowice</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5229462</v>
+        <v>5224885</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -661,52 +661,52 @@
         <v>50</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>54</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
+        <v>2.025</v>
+      </c>
+      <c r="T2">
+        <v>2.5</v>
+      </c>
+      <c r="U2">
         <v>1.8</v>
       </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.95</v>
-      </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -715,16 +715,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5228058</v>
+        <v>5224889</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -750,7 +750,7 @@
         <v>51</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -759,61 +759,61 @@
         <v>55</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L3">
         <v>3.3</v>
       </c>
       <c r="M3">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N3">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P3">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z3">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5226044</v>
+        <v>5228058</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -836,73 +836,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4">
-        <v>1.363</v>
-      </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N4">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5224889</v>
+        <v>5226044</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,46 +925,46 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>1.363</v>
       </c>
       <c r="L5">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>1.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
         <v>1.8</v>
@@ -973,25 +973,25 @@
         <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5224885</v>
+        <v>5226043</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N6">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P6">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5224884</v>
+        <v>5226042</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1103,73 +1103,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L7">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N7">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X7">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5226042</v>
+        <v>5185127</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1192,73 +1192,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>3.5</v>
+      </c>
+      <c r="M8">
         <v>3.1</v>
       </c>
-      <c r="L8">
-        <v>3.6</v>
-      </c>
-      <c r="M8">
-        <v>1.95</v>
-      </c>
       <c r="N8">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5226043</v>
+        <v>5229462</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,73 +1281,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="N9">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
         <v>1.8</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X9">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5185127</v>
+        <v>5224884</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1370,46 +1370,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>56</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
+        <v>2.5</v>
+      </c>
+      <c r="N10">
+        <v>2.6</v>
+      </c>
+      <c r="O10">
         <v>3.1</v>
       </c>
-      <c r="N10">
-        <v>2.25</v>
-      </c>
-      <c r="O10">
-        <v>3.5</v>
-      </c>
       <c r="P10">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
         <v>1.8</v>
@@ -1421,16 +1421,16 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y10">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
         <v>-1</v>
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1545,10 +1545,10 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1637,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13">
         <v>2.55</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14">
         <v>1.8</v>
@@ -1812,7 +1812,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>1.666</v>
@@ -1901,7 +1901,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1990,7 +1990,7 @@
         <v>45129.5</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -2168,7 +2168,7 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20">
         <v>2.2</v>
@@ -2349,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2438,7 +2438,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22">
         <v>1.615</v>
@@ -2524,7 +2524,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2969,10 +2969,10 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3058,7 +3058,7 @@
         <v>45137.5</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29">
         <v>2.4</v>
@@ -3147,10 +3147,10 @@
         <v>45137.5</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3506,7 +3506,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>3.1</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3770,7 +3770,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3859,10 +3859,10 @@
         <v>45144.5</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38">
         <v>1.75</v>
@@ -3951,7 +3951,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39">
         <v>2.2</v>
@@ -4037,7 +4037,7 @@
         <v>45150.5</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>48</v>
@@ -4138,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41">
         <v>2.5</v>
@@ -4218,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K42">
         <v>2.375</v>
@@ -4405,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K44">
         <v>1.909</v>
@@ -4482,7 +4482,7 @@
         <v>45151.5</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K45">
         <v>2.2</v>
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4660,7 +4660,7 @@
         <v>45151.5</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -4752,7 +4752,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4838,7 +4838,7 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K49">
         <v>2.1</v>
@@ -4927,10 +4927,10 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
         <v>37</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K50">
         <v>2.25</v>
@@ -5016,7 +5016,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5028,7 +5028,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K51">
         <v>1.909</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K53">
         <v>2.25</v>
@@ -5295,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5372,7 +5372,7 @@
         <v>45163.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5464,7 +5464,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K57">
         <v>2.3</v>
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6808625</v>
+        <v>6808624</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,16 +5639,16 @@
         <v>45164.5</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>54</v>
@@ -5663,34 +5663,34 @@
         <v>3.1</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O58">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5699,13 +5699,13 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5805,7 +5805,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7105151</v>
+        <v>6808625</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5817,76 +5817,76 @@
         <v>45164.5</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>3.4</v>
+      </c>
+      <c r="M60">
+        <v>3.1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>3.4</v>
+      </c>
+      <c r="P60">
+        <v>3.1</v>
+      </c>
+      <c r="Q60">
+        <v>-0.25</v>
+      </c>
+      <c r="R60">
         <v>1.8</v>
       </c>
-      <c r="L60">
-        <v>3.25</v>
-      </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.8</v>
-      </c>
-      <c r="O60">
-        <v>3.25</v>
-      </c>
-      <c r="P60">
-        <v>4</v>
-      </c>
-      <c r="Q60">
-        <v>-0.5</v>
-      </c>
-      <c r="R60">
-        <v>1.85</v>
-      </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5894,7 +5894,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6808624</v>
+        <v>7105151</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5906,76 +5906,76 @@
         <v>45164.5</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M61">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P61">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
+        <v>1.85</v>
+      </c>
+      <c r="S61">
         <v>1.95</v>
-      </c>
-      <c r="S61">
-        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
         <v>0.95</v>
       </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K62">
         <v>2.4</v>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K64">
         <v>1.833</v>
@@ -6250,7 +6250,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6808631</v>
+        <v>6808898</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6262,73 +6262,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K65">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L65">
         <v>3.2</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O65">
         <v>3.2</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
         <v>1.8</v>
       </c>
-      <c r="V65">
-        <v>2</v>
-      </c>
       <c r="W65">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB65">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6339,7 +6339,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6808898</v>
+        <v>6808631</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6351,73 +6351,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L66">
         <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N66">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O66">
         <v>3.2</v>
       </c>
       <c r="P66">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
+        <v>1.85</v>
+      </c>
+      <c r="T66">
+        <v>2.25</v>
+      </c>
+      <c r="U66">
         <v>1.8</v>
       </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
-      <c r="U66">
-        <v>2</v>
-      </c>
       <c r="V66">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
         <v>0.8</v>
-      </c>
-      <c r="AB66">
-        <v>1</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6621,7 +6621,7 @@
         <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6707,7 +6707,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6885,10 +6885,10 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6986,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K73">
         <v>2.1</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7152,7 +7152,7 @@
         <v>45178.44791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
         <v>40</v>
@@ -7333,7 +7333,7 @@
         <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7431,7 +7431,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K78">
         <v>2.4</v>
@@ -7508,7 +7508,7 @@
         <v>45180.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K79">
         <v>1.833</v>
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7609,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -7686,10 +7686,10 @@
         <v>45184.625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7778,7 +7778,7 @@
         <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7953,7 +7953,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>41</v>
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6808649</v>
+        <v>7203342</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,55 +8042,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K85">
+        <v>1.8</v>
+      </c>
+      <c r="L85">
+        <v>3.4</v>
+      </c>
+      <c r="M85">
+        <v>3.75</v>
+      </c>
+      <c r="N85">
+        <v>1.95</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
+        <v>3.25</v>
+      </c>
+      <c r="Q85">
+        <v>-0.5</v>
+      </c>
+      <c r="R85">
+        <v>2.025</v>
+      </c>
+      <c r="S85">
+        <v>1.775</v>
+      </c>
+      <c r="T85">
         <v>2.5</v>
       </c>
-      <c r="L85">
-        <v>3.2</v>
-      </c>
-      <c r="M85">
-        <v>2.5</v>
-      </c>
-      <c r="N85">
-        <v>2.5</v>
-      </c>
-      <c r="O85">
-        <v>3.25</v>
-      </c>
-      <c r="P85">
-        <v>2.5</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.9</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8099,19 +8099,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7203342</v>
+        <v>6808649</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,55 +8131,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N86">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8188,19 +8188,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8220,7 +8220,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8398,10 +8398,10 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8410,7 +8410,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K89">
         <v>2.875</v>
@@ -8487,7 +8487,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8576,7 +8576,7 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8588,7 +8588,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K91">
         <v>1.615</v>
@@ -8668,7 +8668,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8757,7 +8757,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8843,7 +8843,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8855,7 +8855,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K94">
         <v>1.8</v>
@@ -8935,7 +8935,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -8944,7 +8944,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K95">
         <v>2.5</v>
@@ -9202,7 +9202,7 @@
         <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9211,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6808894</v>
+        <v>6808023</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,10 +9377,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9389,28 +9389,28 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K100">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
         <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N100">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P100">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
         <v>1.85</v>
@@ -9422,10 +9422,10 @@
         <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9434,7 +9434,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9446,7 +9446,7 @@
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6808023</v>
+        <v>6808894</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,10 +9466,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9478,28 +9478,28 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K101">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L101">
         <v>3.3</v>
       </c>
       <c r="M101">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N101">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
         <v>1.85</v>
@@ -9511,10 +9511,10 @@
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9523,7 +9523,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9535,7 +9535,7 @@
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9567,7 +9567,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K102">
         <v>2.5</v>
@@ -9644,7 +9644,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>47</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K104">
         <v>2.15</v>
@@ -9822,10 +9822,10 @@
         <v>45200.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9923,7 +9923,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K106">
         <v>2.25</v>
@@ -10077,7 +10077,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6808667</v>
+        <v>6808666</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10089,73 +10089,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
         <v>3</v>
       </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
       <c r="J108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K108">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N108">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="O108">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W108">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10166,7 +10166,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6808666</v>
+        <v>6808667</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10178,73 +10178,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>54</v>
+      </c>
+      <c r="K109">
+        <v>1.615</v>
+      </c>
+      <c r="L109">
+        <v>3.75</v>
+      </c>
+      <c r="M109">
+        <v>4.5</v>
+      </c>
+      <c r="N109">
+        <v>1.285</v>
+      </c>
+      <c r="O109">
+        <v>4.75</v>
+      </c>
+      <c r="P109">
+        <v>8.5</v>
+      </c>
+      <c r="Q109">
+        <v>-1.5</v>
+      </c>
+      <c r="R109">
+        <v>1.85</v>
+      </c>
+      <c r="S109">
+        <v>1.95</v>
+      </c>
+      <c r="T109">
         <v>3</v>
       </c>
-      <c r="J109" t="s">
-        <v>56</v>
-      </c>
-      <c r="K109">
-        <v>2.1</v>
-      </c>
-      <c r="L109">
-        <v>3.4</v>
-      </c>
-      <c r="M109">
-        <v>2.8</v>
-      </c>
-      <c r="N109">
-        <v>2.45</v>
-      </c>
-      <c r="O109">
-        <v>3.6</v>
-      </c>
-      <c r="P109">
-        <v>2.3</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>2</v>
-      </c>
-      <c r="S109">
-        <v>1.8</v>
-      </c>
-      <c r="T109">
-        <v>2.75</v>
-      </c>
       <c r="U109">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10270,7 +10270,7 @@
         <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10279,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K110">
         <v>2.45</v>
@@ -10356,7 +10356,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>48</v>
@@ -10368,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K111">
         <v>1.75</v>
@@ -10445,7 +10445,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>40</v>
@@ -10537,7 +10537,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10626,7 +10626,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10635,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K114">
         <v>2.3</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K115">
         <v>1.6</v>
@@ -10801,7 +10801,7 @@
         <v>45212.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -10813,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K116">
         <v>2.75</v>
@@ -10893,7 +10893,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -10982,7 +10982,7 @@
         <v>49</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K118">
         <v>2.45</v>
@@ -11068,7 +11068,7 @@
         <v>45214.375</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11080,7 +11080,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K119">
         <v>2.15</v>
@@ -11169,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K120">
         <v>3.5</v>
@@ -11258,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K121">
         <v>2.7</v>
@@ -11335,7 +11335,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>47</v>
@@ -11513,10 +11513,10 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K124">
         <v>2.2</v>
@@ -11602,10 +11602,10 @@
         <v>45220.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11694,7 +11694,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11881,7 +11881,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -12139,7 +12139,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12225,7 +12225,7 @@
         <v>45225.375</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
         <v>41</v>
@@ -12237,7 +12237,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K132">
         <v>1.727</v>
@@ -12326,7 +12326,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12403,7 +12403,7 @@
         <v>45227.375</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
         <v>48</v>
@@ -12492,7 +12492,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
         <v>42</v>
@@ -12593,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K136">
         <v>3.25</v>
@@ -12851,7 +12851,7 @@
         <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -12937,7 +12937,7 @@
         <v>45228.39236111111</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
         <v>46</v>
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K140">
         <v>1.8</v>
@@ -13014,7 +13014,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6808198</v>
+        <v>6808683</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13026,73 +13026,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K141">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L141">
+        <v>3.3</v>
+      </c>
+      <c r="M141">
         <v>3.25</v>
       </c>
-      <c r="M141">
-        <v>2.3</v>
-      </c>
       <c r="N141">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q141">
         <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13103,7 +13103,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6808683</v>
+        <v>6808198</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13115,73 +13115,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M142">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O142">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X142">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA142">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13216,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K143">
         <v>1.85</v>
@@ -13305,7 +13305,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K144">
         <v>1.666</v>
@@ -13394,7 +13394,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K145">
         <v>1.75</v>
@@ -13560,10 +13560,10 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13572,7 +13572,7 @@
         <v>5</v>
       </c>
       <c r="J147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K147">
         <v>2.75</v>
@@ -13652,7 +13652,7 @@
         <v>47</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13661,7 +13661,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K148">
         <v>2</v>
@@ -13741,7 +13741,7 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13916,7 +13916,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
         <v>48</v>
@@ -14008,7 +14008,7 @@
         <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14017,7 +14017,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K152">
         <v>2</v>
@@ -14094,7 +14094,7 @@
         <v>45241.51041666666</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
         <v>44</v>
@@ -14260,7 +14260,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6808690</v>
+        <v>6808200</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14272,13 +14272,13 @@
         <v>45242.375</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14287,43 +14287,43 @@
         <v>54</v>
       </c>
       <c r="K155">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L155">
+        <v>3.25</v>
+      </c>
+      <c r="M155">
         <v>3.3</v>
       </c>
-      <c r="M155">
-        <v>2.8</v>
-      </c>
       <c r="N155">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O155">
         <v>3.25</v>
       </c>
       <c r="P155">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14332,16 +14332,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14438,7 +14438,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6808200</v>
+        <v>6808690</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14453,10 +14453,10 @@
         <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -14465,61 +14465,61 @@
         <v>54</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L157">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M157">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N157">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O157">
         <v>3.25</v>
       </c>
       <c r="P157">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W157">
+        <v>1.5</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
         <v>0.95</v>
       </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>1</v>
-      </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14542,7 +14542,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14551,7 +14551,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K158">
         <v>2.2</v>
@@ -14705,7 +14705,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6808694</v>
+        <v>6808886</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14717,49 +14717,49 @@
         <v>45248.375</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>54</v>
       </c>
       <c r="K160">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M160">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N160">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P160">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q160">
         <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S160">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U160">
         <v>1.85</v>
@@ -14768,25 +14768,25 @@
         <v>1.95</v>
       </c>
       <c r="W160">
+        <v>1.375</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>-1</v>
+      </c>
+      <c r="Z160">
+        <v>1.075</v>
+      </c>
+      <c r="AA160">
+        <v>-1</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.95</v>
-      </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
-      <c r="Z160">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
-      <c r="AB160">
-        <v>0.425</v>
-      </c>
-      <c r="AC160">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14794,7 +14794,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6808886</v>
+        <v>6808694</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14806,49 +14806,49 @@
         <v>45248.375</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>54</v>
       </c>
       <c r="K161">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L161">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N161">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q161">
         <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S161">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
         <v>1.85</v>
@@ -14857,7 +14857,7 @@
         <v>1.95</v>
       </c>
       <c r="W161">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14866,16 +14866,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.075</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC161">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K162">
         <v>2.8</v>
@@ -15076,7 +15076,7 @@
         <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15085,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K164">
         <v>2</v>
@@ -15162,7 +15162,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
         <v>42</v>
@@ -15174,7 +15174,7 @@
         <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K165">
         <v>2.1</v>
@@ -15263,7 +15263,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K166">
         <v>2.25</v>
@@ -15340,10 +15340,10 @@
         <v>45254.65625</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15352,7 +15352,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15441,7 +15441,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K168">
         <v>2.5</v>
@@ -15518,10 +15518,10 @@
         <v>45255.35416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15708,7 +15708,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K171">
         <v>2.6</v>
@@ -15788,7 +15788,7 @@
         <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15966,7 +15966,7 @@
         <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16144,7 +16144,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16153,7 +16153,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K176">
         <v>1.909</v>
@@ -16230,10 +16230,10 @@
         <v>45262.375</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16408,7 +16408,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>45</v>
@@ -16420,7 +16420,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K179">
         <v>1.4</v>
@@ -16509,7 +16509,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16678,7 +16678,7 @@
         <v>49</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16764,7 +16764,7 @@
         <v>45346.29166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
         <v>43</v>
@@ -16865,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K184">
         <v>2.5</v>
@@ -16942,7 +16942,7 @@
         <v>45346.36458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
         <v>44</v>
@@ -17031,7 +17031,7 @@
         <v>45346.375</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
         <v>41</v>
@@ -17043,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K186">
         <v>1.909</v>
@@ -17212,7 +17212,7 @@
         <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17221,7 +17221,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K188">
         <v>2.25</v>
@@ -17301,7 +17301,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17310,7 +17310,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K189">
         <v>2.25</v>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -103,7 +103,13 @@
     <t>Poland II Liga</t>
   </si>
   <si>
-    <t>Siarka Tarnobrzeg</t>
+    <t>Olimpia Elblag</t>
+  </si>
+  <si>
+    <t>Wisla Pulawy</t>
+  </si>
+  <si>
+    <t>Zaglebie Lubin II</t>
   </si>
   <si>
     <t>Hutnik Krakow</t>
@@ -112,22 +118,16 @@
     <t>Polonia Warsaw</t>
   </si>
   <si>
-    <t>Wisla Pulawy</t>
+    <t>Radunia Stezyca</t>
   </si>
   <si>
     <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
-    <t>Zaglebie Lubin II</t>
-  </si>
-  <si>
-    <t>Olimpia Elblag</t>
+    <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
     <t>Garbarnia Krakow</t>
-  </si>
-  <si>
-    <t>Radunia Stezyca</t>
   </si>
   <si>
     <t>Stomil Olsztyn</t>
@@ -166,22 +166,22 @@
     <t>Polonia Bytom</t>
   </si>
   <si>
-    <t>Slask Wroclaw II</t>
-  </si>
-  <si>
     <t>Znicz Pruszkw</t>
   </si>
   <si>
     <t>Motor Lublin</t>
   </si>
   <si>
+    <t>Slask Wroclaw II</t>
+  </si>
+  <si>
     <t>Gornik Polkowice</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC189"/>
+  <dimension ref="A1:AC190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5224885</v>
+        <v>5185127</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -658,31 +658,31 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>54</v>
       </c>
       <c r="K2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
         <v>2.625</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
         <v>1.8</v>
@@ -706,19 +706,19 @@
         <v>2</v>
       </c>
       <c r="W2">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB2">
         <v>-1</v>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5224889</v>
+        <v>5226044</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -747,10 +747,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -759,34 +759,34 @@
         <v>55</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>1.363</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P3">
-        <v>1.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
         <v>1.8</v>
@@ -795,25 +795,25 @@
         <v>2</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5228058</v>
+        <v>5226042</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -836,73 +836,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>1.95</v>
+      </c>
+      <c r="N4">
         <v>3.3</v>
       </c>
-      <c r="M4">
-        <v>2.1</v>
-      </c>
-      <c r="N4">
-        <v>2.8</v>
-      </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X4">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5226044</v>
+        <v>5224889</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,10 +925,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -937,34 +937,34 @@
         <v>54</v>
       </c>
       <c r="K5">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M5">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N5">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>7.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
         <v>1.8</v>
@@ -973,25 +973,25 @@
         <v>2</v>
       </c>
       <c r="W5">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5226043</v>
+        <v>5228058</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,7 +1014,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1026,25 +1026,25 @@
         <v>56</v>
       </c>
       <c r="K6">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="N6">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O6">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
         <v>1.8</v>
@@ -1053,34 +1053,34 @@
         <v>2</v>
       </c>
       <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
+        <v>1.925</v>
+      </c>
+      <c r="V6">
+        <v>1.875</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
         <v>2.25</v>
       </c>
-      <c r="U6">
-        <v>1.9</v>
-      </c>
-      <c r="V6">
-        <v>1.9</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>3.333</v>
-      </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5226042</v>
+        <v>5224884</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1103,73 +1103,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K7">
+        <v>2.5</v>
+      </c>
+      <c r="L7">
+        <v>3.25</v>
+      </c>
+      <c r="M7">
+        <v>2.5</v>
+      </c>
+      <c r="N7">
+        <v>2.6</v>
+      </c>
+      <c r="O7">
         <v>3.1</v>
       </c>
-      <c r="L7">
-        <v>3.6</v>
-      </c>
-      <c r="M7">
+      <c r="P7">
+        <v>2.5</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>1.95</v>
       </c>
-      <c r="N7">
-        <v>3.3</v>
-      </c>
-      <c r="O7">
-        <v>3.6</v>
-      </c>
-      <c r="P7">
+      <c r="S7">
         <v>1.85</v>
       </c>
-      <c r="Q7">
-        <v>0.5</v>
-      </c>
-      <c r="R7">
-        <v>1.9</v>
-      </c>
-      <c r="S7">
-        <v>1.9</v>
-      </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5185127</v>
+        <v>5226043</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1192,73 +1192,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N8">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y8">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5229462</v>
+        <v>5224885</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,55 +1281,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9">
+        <v>2.1</v>
+      </c>
+      <c r="L9">
+        <v>3.3</v>
+      </c>
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>3.5</v>
-      </c>
-      <c r="M9">
-        <v>1.75</v>
-      </c>
       <c r="N9">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>2.5</v>
+      </c>
+      <c r="U9">
         <v>1.8</v>
       </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.95</v>
-      </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1338,16 +1338,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5224884</v>
+        <v>5229462</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1370,73 +1370,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="N10">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.95</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.8</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X10">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1545,10 +1545,10 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1637,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <v>2.55</v>
@@ -1812,7 +1812,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
         <v>1.666</v>
@@ -1901,7 +1901,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1990,7 +1990,7 @@
         <v>45129.5</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17">
         <v>2.1</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18">
         <v>2.5</v>
@@ -2168,7 +2168,7 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19">
         <v>2.2</v>
@@ -2349,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2438,7 +2438,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
         <v>1.615</v>
@@ -2524,7 +2524,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
         <v>1.909</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24">
         <v>2.6</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27">
         <v>2.1</v>
@@ -2969,10 +2969,10 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28">
         <v>1.909</v>
@@ -3058,7 +3058,7 @@
         <v>45137.5</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -3147,10 +3147,10 @@
         <v>45137.5</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3506,7 +3506,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>3.1</v>
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
         <v>2.7</v>
@@ -3770,7 +3770,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>2.3</v>
@@ -3859,10 +3859,10 @@
         <v>45144.5</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>2.2</v>
@@ -4037,7 +4037,7 @@
         <v>45150.5</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>48</v>
@@ -4049,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>2.5</v>
@@ -4138,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
         <v>2.5</v>
@@ -4218,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43">
         <v>2.2</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6808165</v>
+        <v>6808166</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>45151.5</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
         <v>3.25</v>
       </c>
       <c r="M44">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N44">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>1.8</v>
+      </c>
+      <c r="T44">
+        <v>2.25</v>
+      </c>
+      <c r="U44">
         <v>1.875</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>1.925</v>
       </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
-      <c r="U44">
-        <v>1.9</v>
-      </c>
-      <c r="V44">
-        <v>1.9</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y44">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB44">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6808166</v>
+        <v>6808617</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,28 +4482,28 @@
         <v>45151.5</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N45">
         <v>2.2</v>
@@ -4512,46 +4512,46 @@
         <v>3.25</v>
       </c>
       <c r="P45">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
+        <v>1.925</v>
+      </c>
+      <c r="V45">
         <v>1.875</v>
       </c>
-      <c r="V45">
-        <v>1.925</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X45">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA45">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6808617</v>
+        <v>6808619</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,46 +4571,46 @@
         <v>45151.5</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>2.5</v>
@@ -4622,7 +4622,7 @@
         <v>1.875</v>
       </c>
       <c r="W46">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4631,16 +4631,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6808619</v>
+        <v>6808165</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4660,76 +4660,76 @@
         <v>45151.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>54</v>
       </c>
       <c r="K47">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
         <v>3.25</v>
       </c>
       <c r="M47">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB47">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4752,7 +4752,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K48">
         <v>2.25</v>
@@ -4838,7 +4838,7 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
@@ -4927,10 +4927,10 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K50">
         <v>2.25</v>
@@ -5016,7 +5016,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5028,7 +5028,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51">
         <v>1.909</v>
@@ -5117,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K52">
         <v>2.625</v>
@@ -5295,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5372,7 +5372,7 @@
         <v>45163.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K55">
         <v>1.909</v>
@@ -5464,7 +5464,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K56">
         <v>2.5</v>
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6808624</v>
+        <v>6808899</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,58 +5639,58 @@
         <v>45164.5</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N58">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
+        <v>1.975</v>
+      </c>
+      <c r="V58">
         <v>1.825</v>
       </c>
-      <c r="V58">
-        <v>1.975</v>
-      </c>
       <c r="W58">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5699,13 +5699,13 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5716,7 +5716,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6808899</v>
+        <v>6808625</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5728,58 +5728,58 @@
         <v>45164.5</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L59">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P59">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
         <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5788,13 +5788,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5805,7 +5805,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6808625</v>
+        <v>6808624</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5817,19 +5817,19 @@
         <v>45164.5</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5841,34 +5841,34 @@
         <v>3.1</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O60">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P60">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q60">
         <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5877,13 +5877,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5906,10 +5906,10 @@
         <v>45164.5</v>
       </c>
       <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
         <v>32</v>
-      </c>
-      <c r="G61" t="s">
-        <v>30</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K61">
         <v>1.8</v>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K62">
         <v>2.4</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K63">
         <v>2.5</v>
@@ -6250,7 +6250,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6808898</v>
+        <v>6808631</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6262,73 +6262,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>55</v>
       </c>
       <c r="K65">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L65">
         <v>3.2</v>
       </c>
       <c r="M65">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O65">
         <v>3.2</v>
       </c>
       <c r="P65">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
+        <v>1.85</v>
+      </c>
+      <c r="T65">
+        <v>2.25</v>
+      </c>
+      <c r="U65">
         <v>1.8</v>
       </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
-      <c r="U65">
-        <v>2</v>
-      </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
+        <v>-1</v>
+      </c>
+      <c r="AB65">
         <v>0.8</v>
-      </c>
-      <c r="AB65">
-        <v>1</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6339,7 +6339,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6808631</v>
+        <v>6808898</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6351,73 +6351,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>54</v>
       </c>
       <c r="K66">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
         <v>3.2</v>
       </c>
       <c r="M66">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N66">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O66">
         <v>3.2</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66">
         <v>1.8</v>
       </c>
-      <c r="V66">
-        <v>2</v>
-      </c>
       <c r="W66">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB66">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K68">
         <v>1.727</v>
@@ -6621,7 +6621,7 @@
         <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6630,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K69">
         <v>2.35</v>
@@ -6707,7 +6707,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K70">
         <v>2.45</v>
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K71">
         <v>1.909</v>
@@ -6885,10 +6885,10 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6986,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K73">
         <v>2.1</v>
@@ -7152,7 +7152,7 @@
         <v>45178.44791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>40</v>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K75">
         <v>2.15</v>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7333,7 +7333,7 @@
         <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K77">
         <v>2.3</v>
@@ -7431,7 +7431,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K78">
         <v>2.4</v>
@@ -7508,7 +7508,7 @@
         <v>45180.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7686,10 +7686,10 @@
         <v>45184.625</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7698,7 +7698,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K81">
         <v>2.5</v>
@@ -7778,7 +7778,7 @@
         <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7953,7 +7953,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
         <v>41</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K84">
         <v>1.8</v>
@@ -8054,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K85">
         <v>1.8</v>
@@ -8143,7 +8143,7 @@
         <v>4</v>
       </c>
       <c r="J86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K86">
         <v>2.5</v>
@@ -8220,7 +8220,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8232,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K87">
         <v>2.15</v>
@@ -8321,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K88">
         <v>2.3</v>
@@ -8398,10 +8398,10 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8410,7 +8410,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K89">
         <v>2.875</v>
@@ -8487,7 +8487,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K90">
         <v>2.1</v>
@@ -8576,7 +8576,7 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8668,7 +8668,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8677,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K92">
         <v>2.375</v>
@@ -8757,7 +8757,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K93">
         <v>2.1</v>
@@ -8843,7 +8843,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8855,7 +8855,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K94">
         <v>1.8</v>
@@ -8935,7 +8935,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9202,7 +9202,7 @@
         <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9300,7 +9300,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K99">
         <v>2.4</v>
@@ -9377,7 +9377,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>44</v>
@@ -9389,7 +9389,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6808894</v>
+        <v>6808664</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,56 +9466,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K101">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N101">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
         <v>1.85</v>
       </c>
-      <c r="S101">
+      <c r="V101">
         <v>1.95</v>
       </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>1.95</v>
-      </c>
-      <c r="V101">
-        <v>1.85</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
@@ -9523,19 +9523,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9543,7 +9543,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6808664</v>
+        <v>6808894</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9555,56 +9555,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K102">
+        <v>2.875</v>
+      </c>
+      <c r="L102">
+        <v>3.3</v>
+      </c>
+      <c r="M102">
+        <v>2.15</v>
+      </c>
+      <c r="N102">
+        <v>2.875</v>
+      </c>
+      <c r="O102">
+        <v>3.3</v>
+      </c>
+      <c r="P102">
+        <v>2.15</v>
+      </c>
+      <c r="Q102">
+        <v>0.25</v>
+      </c>
+      <c r="R102">
+        <v>1.85</v>
+      </c>
+      <c r="S102">
+        <v>1.95</v>
+      </c>
+      <c r="T102">
         <v>2.5</v>
       </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>2.375</v>
-      </c>
-      <c r="N102">
-        <v>2.3</v>
-      </c>
-      <c r="O102">
-        <v>3.4</v>
-      </c>
-      <c r="P102">
-        <v>2.55</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.8</v>
-      </c>
-      <c r="S102">
-        <v>2</v>
-      </c>
-      <c r="T102">
-        <v>3</v>
-      </c>
       <c r="U102">
+        <v>1.95</v>
+      </c>
+      <c r="V102">
         <v>1.85</v>
       </c>
-      <c r="V102">
-        <v>1.95</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
@@ -9612,19 +9612,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9644,7 +9644,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>47</v>
@@ -9822,10 +9822,10 @@
         <v>45200.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9834,7 +9834,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9923,7 +9923,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K106">
         <v>2.25</v>
@@ -10012,7 +10012,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K107">
         <v>2.4</v>
@@ -10077,7 +10077,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6808666</v>
+        <v>6808667</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10089,73 +10089,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>55</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>2.45</v>
+        <v>1.285</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10166,7 +10166,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6808667</v>
+        <v>6808666</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10178,73 +10178,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
         <v>3</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>54</v>
       </c>
       <c r="K109">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N109">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="O109">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q109">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W109">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10270,7 +10270,7 @@
         <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10356,7 +10356,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
         <v>48</v>
@@ -10368,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K111">
         <v>1.75</v>
@@ -10445,7 +10445,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>40</v>
@@ -10457,7 +10457,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K112">
         <v>1.75</v>
@@ -10537,7 +10537,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10546,7 +10546,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K113">
         <v>1.6</v>
@@ -10626,7 +10626,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10801,7 +10801,7 @@
         <v>45212.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -10893,7 +10893,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K117">
         <v>2.3</v>
@@ -10982,7 +10982,7 @@
         <v>49</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K118">
         <v>2.45</v>
@@ -11068,7 +11068,7 @@
         <v>45214.375</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11080,7 +11080,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K119">
         <v>2.15</v>
@@ -11335,7 +11335,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>47</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11436,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K123">
         <v>1.5</v>
@@ -11513,10 +11513,10 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K124">
         <v>2.2</v>
@@ -11602,10 +11602,10 @@
         <v>45220.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K125">
         <v>2.25</v>
@@ -11694,7 +11694,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K126">
         <v>2.8</v>
@@ -11792,7 +11792,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11881,7 +11881,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K129">
         <v>1.727</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K130">
         <v>1.909</v>
@@ -12139,7 +12139,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K131">
         <v>1.833</v>
@@ -12225,7 +12225,7 @@
         <v>45225.375</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>41</v>
@@ -12326,7 +12326,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12403,7 +12403,7 @@
         <v>45227.375</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
         <v>48</v>
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K134">
         <v>1.533</v>
@@ -12492,7 +12492,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
         <v>42</v>
@@ -12504,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K135">
         <v>2.25</v>
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K137">
         <v>2.7</v>
@@ -12771,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K138">
         <v>4.333</v>
@@ -12851,7 +12851,7 @@
         <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -12860,7 +12860,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K139">
         <v>3.5</v>
@@ -12937,7 +12937,7 @@
         <v>45228.39236111111</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
         <v>46</v>
@@ -13014,7 +13014,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6808683</v>
+        <v>6808198</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13026,73 +13026,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N141">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
         <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X141">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA141">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13103,7 +13103,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6808198</v>
+        <v>6808683</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13115,73 +13115,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K142">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142">
         <v>3.25</v>
       </c>
-      <c r="M142">
-        <v>2.3</v>
-      </c>
       <c r="N142">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB142">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13394,7 +13394,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K145">
         <v>1.75</v>
@@ -13483,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K146">
         <v>2.25</v>
@@ -13560,10 +13560,10 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13572,7 +13572,7 @@
         <v>5</v>
       </c>
       <c r="J147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K147">
         <v>2.75</v>
@@ -13652,7 +13652,7 @@
         <v>47</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13661,7 +13661,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K148">
         <v>2</v>
@@ -13741,7 +13741,7 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13839,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K150">
         <v>2.45</v>
@@ -13916,7 +13916,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>48</v>
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K151">
         <v>1.615</v>
@@ -14008,7 +14008,7 @@
         <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14017,7 +14017,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K152">
         <v>2</v>
@@ -14094,7 +14094,7 @@
         <v>45241.51041666666</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
         <v>44</v>
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K153">
         <v>2.4</v>
@@ -14195,7 +14195,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K154">
         <v>2.2</v>
@@ -14272,7 +14272,7 @@
         <v>45242.375</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
         <v>38</v>
@@ -14284,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K155">
         <v>2</v>
@@ -14373,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K156">
         <v>2.3</v>
@@ -14450,7 +14450,7 @@
         <v>45242.375</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
         <v>47</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K157">
         <v>2.2</v>
@@ -14542,7 +14542,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14640,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K159">
         <v>2.25</v>
@@ -14729,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K160">
         <v>2.2</v>
@@ -14806,7 +14806,7 @@
         <v>45248.375</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>38</v>
@@ -14818,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14996,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -15076,7 +15076,7 @@
         <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
         <v>42</v>
@@ -15174,7 +15174,7 @@
         <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K165">
         <v>2.1</v>
@@ -15263,7 +15263,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K166">
         <v>2.25</v>
@@ -15340,10 +15340,10 @@
         <v>45254.65625</v>
       </c>
       <c r="F167" t="s">
+        <v>29</v>
+      </c>
+      <c r="G167" t="s">
         <v>35</v>
-      </c>
-      <c r="G167" t="s">
-        <v>33</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15352,7 +15352,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15441,7 +15441,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K168">
         <v>2.5</v>
@@ -15518,10 +15518,10 @@
         <v>45255.35416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15530,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K169">
         <v>2.5</v>
@@ -15595,7 +15595,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6808698</v>
+        <v>6808885</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15607,76 +15607,76 @@
         <v>45255.375</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170" t="s">
+        <v>56</v>
+      </c>
+      <c r="K170">
+        <v>2.6</v>
+      </c>
+      <c r="L170">
+        <v>3.1</v>
+      </c>
+      <c r="M170">
+        <v>2.6</v>
+      </c>
+      <c r="N170">
+        <v>2.8</v>
+      </c>
+      <c r="O170">
+        <v>2.9</v>
+      </c>
+      <c r="P170">
+        <v>2.55</v>
+      </c>
+      <c r="Q170">
         <v>0</v>
       </c>
-      <c r="J170" t="s">
-        <v>54</v>
-      </c>
-      <c r="K170">
-        <v>2.1</v>
-      </c>
-      <c r="L170">
-        <v>3.25</v>
-      </c>
-      <c r="M170">
-        <v>3.25</v>
-      </c>
-      <c r="N170">
-        <v>2.15</v>
-      </c>
-      <c r="O170">
-        <v>3.25</v>
-      </c>
-      <c r="P170">
-        <v>3.1</v>
-      </c>
-      <c r="Q170">
-        <v>-0.25</v>
-      </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W170">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15684,7 +15684,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6808885</v>
+        <v>6808698</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15696,76 +15696,76 @@
         <v>45255.375</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K171">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L171">
+        <v>3.25</v>
+      </c>
+      <c r="M171">
+        <v>3.25</v>
+      </c>
+      <c r="N171">
+        <v>2.15</v>
+      </c>
+      <c r="O171">
+        <v>3.25</v>
+      </c>
+      <c r="P171">
         <v>3.1</v>
       </c>
-      <c r="M171">
-        <v>2.6</v>
-      </c>
-      <c r="N171">
-        <v>2.8</v>
-      </c>
-      <c r="O171">
-        <v>2.9</v>
-      </c>
-      <c r="P171">
-        <v>2.55</v>
-      </c>
       <c r="Q171">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V171">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X171">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA171">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15788,7 +15788,7 @@
         <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15797,7 +15797,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K172">
         <v>1.7</v>
@@ -15886,7 +15886,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K173">
         <v>2.25</v>
@@ -15966,7 +15966,7 @@
         <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -15975,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K174">
         <v>2.05</v>
@@ -16064,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K175">
         <v>2.5</v>
@@ -16144,7 +16144,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16153,7 +16153,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K176">
         <v>1.909</v>
@@ -16230,10 +16230,10 @@
         <v>45262.375</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K177">
         <v>2.25</v>
@@ -16331,7 +16331,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K178">
         <v>1.909</v>
@@ -16408,7 +16408,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
         <v>45</v>
@@ -16420,7 +16420,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K179">
         <v>1.4</v>
@@ -16598,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K181">
         <v>2.1</v>
@@ -16678,7 +16678,7 @@
         <v>49</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16687,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K182">
         <v>2.4</v>
@@ -16764,7 +16764,7 @@
         <v>45346.29166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
         <v>43</v>
@@ -16776,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K183">
         <v>2</v>
@@ -16942,7 +16942,7 @@
         <v>45346.36458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
         <v>44</v>
@@ -16954,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K185">
         <v>1.909</v>
@@ -17031,7 +17031,7 @@
         <v>45346.375</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
         <v>41</v>
@@ -17132,7 +17132,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K187">
         <v>2.3</v>
@@ -17212,7 +17212,7 @@
         <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17301,7 +17301,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17368,6 +17368,95 @@
       </c>
       <c r="AC189">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>7884849</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45350.33333333334</v>
+      </c>
+      <c r="F190" t="s">
+        <v>45</v>
+      </c>
+      <c r="G190" t="s">
+        <v>29</v>
+      </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" t="s">
+        <v>55</v>
+      </c>
+      <c r="K190">
+        <v>2.7</v>
+      </c>
+      <c r="L190">
+        <v>3.1</v>
+      </c>
+      <c r="M190">
+        <v>2.35</v>
+      </c>
+      <c r="N190">
+        <v>2.625</v>
+      </c>
+      <c r="O190">
+        <v>3.1</v>
+      </c>
+      <c r="P190">
+        <v>2.375</v>
+      </c>
+      <c r="Q190">
+        <v>0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.8</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.25</v>
+      </c>
+      <c r="U190">
+        <v>1.8</v>
+      </c>
+      <c r="V190">
+        <v>2</v>
+      </c>
+      <c r="W190">
+        <v>1.625</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
+        <v>0.8</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>0.8</v>
+      </c>
+      <c r="AC190">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -106,28 +106,28 @@
     <t>Olimpia Elblag</t>
   </si>
   <si>
+    <t>Siarka Tarnobrzeg</t>
+  </si>
+  <si>
+    <t>Hutnik Krakow</t>
+  </si>
+  <si>
+    <t>Radunia Stezyca</t>
+  </si>
+  <si>
+    <t>Garbarnia Krakow</t>
+  </si>
+  <si>
     <t>Wisla Pulawy</t>
+  </si>
+  <si>
+    <t>Polonia Warsaw</t>
   </si>
   <si>
     <t>Zaglebie Lubin II</t>
   </si>
   <si>
-    <t>Hutnik Krakow</t>
-  </si>
-  <si>
-    <t>Polonia Warsaw</t>
-  </si>
-  <si>
-    <t>Radunia Stezyca</t>
-  </si>
-  <si>
     <t>Kotwica Kolobrzeg</t>
-  </si>
-  <si>
-    <t>Siarka Tarnobrzeg</t>
-  </si>
-  <si>
-    <t>Garbarnia Krakow</t>
   </si>
   <si>
     <t>Stomil Olsztyn</t>
@@ -136,10 +136,10 @@
     <t>MKP Pogon Siedlce</t>
   </si>
   <si>
-    <t>Olimpia Grudziadz</t>
+    <t>GKS Jastrzebie</t>
   </si>
   <si>
-    <t>GKS Jastrzebie</t>
+    <t>Olimpia Grudziadz</t>
   </si>
   <si>
     <t>KKS 1925 Kalisz</t>
@@ -166,16 +166,16 @@
     <t>Polonia Bytom</t>
   </si>
   <si>
+    <t>Slask Wroclaw II</t>
+  </si>
+  <si>
     <t>Znicz Pruszkw</t>
   </si>
   <si>
-    <t>Motor Lublin</t>
+    <t>Gornik Polkowice</t>
   </si>
   <si>
-    <t>Slask Wroclaw II</t>
-  </si>
-  <si>
-    <t>Gornik Polkowice</t>
+    <t>Motor Lublin</t>
   </si>
   <si>
     <t>A</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC190"/>
+  <dimension ref="A1:AC197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,7 +658,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5226044</v>
+        <v>5224885</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -747,46 +747,46 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>55</v>
       </c>
       <c r="K3">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P3">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
         <v>1.8</v>
@@ -795,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="W3">
-        <v>0.2849999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -804,16 +804,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5226042</v>
+        <v>5224889</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -836,73 +836,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N4">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5224889</v>
+        <v>5224884</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,43 +925,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M5">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>2.5</v>
@@ -976,16 +976,16 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y5">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
         <v>-1</v>
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5228058</v>
+        <v>5229462</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="N6">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O6">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q6">
         <v>0.25</v>
       </c>
       <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
         <v>1.8</v>
       </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X6">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5224884</v>
+        <v>5226044</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1103,46 +1103,46 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L7">
+        <v>4.5</v>
+      </c>
+      <c r="M7">
+        <v>6.5</v>
+      </c>
+      <c r="N7">
+        <v>1.285</v>
+      </c>
+      <c r="O7">
+        <v>5.25</v>
+      </c>
+      <c r="P7">
+        <v>7.5</v>
+      </c>
+      <c r="Q7">
+        <v>-1.5</v>
+      </c>
+      <c r="R7">
+        <v>1.825</v>
+      </c>
+      <c r="S7">
+        <v>1.975</v>
+      </c>
+      <c r="T7">
         <v>3.25</v>
-      </c>
-      <c r="M7">
-        <v>2.5</v>
-      </c>
-      <c r="N7">
-        <v>2.6</v>
-      </c>
-      <c r="O7">
-        <v>3.1</v>
-      </c>
-      <c r="P7">
-        <v>2.5</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1.95</v>
-      </c>
-      <c r="S7">
-        <v>1.85</v>
-      </c>
-      <c r="T7">
-        <v>2.5</v>
       </c>
       <c r="U7">
         <v>1.8</v>
@@ -1151,25 +1151,25 @@
         <v>2</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X7">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5226043</v>
+        <v>5228058</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1192,7 +1192,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1204,25 +1204,25 @@
         <v>56</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P8">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
         <v>1.8</v>
@@ -1231,34 +1231,34 @@
         <v>2</v>
       </c>
       <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8">
+        <v>1.925</v>
+      </c>
+      <c r="V8">
+        <v>1.875</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
         <v>2.25</v>
       </c>
-      <c r="U8">
-        <v>1.9</v>
-      </c>
-      <c r="V8">
-        <v>1.9</v>
-      </c>
-      <c r="W8">
-        <v>-1</v>
-      </c>
-      <c r="X8">
-        <v>3.333</v>
-      </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5224885</v>
+        <v>5226042</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,56 +1281,56 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>55</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>1.95</v>
+      </c>
+      <c r="N9">
         <v>3.3</v>
       </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
+      <c r="O9">
+        <v>3.6</v>
+      </c>
+      <c r="P9">
+        <v>1.85</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9">
+        <v>1.9</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
+        <v>1.975</v>
+      </c>
+      <c r="V9">
+        <v>1.825</v>
+      </c>
+      <c r="W9">
         <v>2.3</v>
       </c>
-      <c r="O9">
-        <v>3.3</v>
-      </c>
-      <c r="P9">
-        <v>2.625</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1.775</v>
-      </c>
-      <c r="S9">
-        <v>2.025</v>
-      </c>
-      <c r="T9">
-        <v>2.5</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9">
-        <v>1.3</v>
-      </c>
       <c r="X9">
         <v>-1</v>
       </c>
@@ -1338,16 +1338,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5229462</v>
+        <v>5226043</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1370,73 +1370,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1545,10 +1545,10 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1812,7 +1812,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1990,7 +1990,7 @@
         <v>45129.5</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -2067,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6808905</v>
+        <v>6808005</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2079,58 +2079,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>55</v>
       </c>
       <c r="K18">
+        <v>2.2</v>
+      </c>
+      <c r="L18">
+        <v>3.1</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
         <v>2.5</v>
       </c>
-      <c r="L18">
-        <v>3.2</v>
-      </c>
-      <c r="M18">
+      <c r="O18">
+        <v>3.1</v>
+      </c>
+      <c r="P18">
+        <v>2.6</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
+        <v>1.95</v>
+      </c>
+      <c r="T18">
         <v>2.5</v>
       </c>
-      <c r="N18">
-        <v>2.15</v>
-      </c>
-      <c r="O18">
-        <v>3.25</v>
-      </c>
-      <c r="P18">
-        <v>3.1</v>
-      </c>
-      <c r="Q18">
-        <v>-0.25</v>
-      </c>
-      <c r="R18">
-        <v>1.9</v>
-      </c>
-      <c r="S18">
-        <v>1.9</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2139,16 +2139,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6808005</v>
+        <v>6808604</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,19 +2168,19 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19">
         <v>2.2</v>
@@ -2192,52 +2192,52 @@
         <v>3</v>
       </c>
       <c r="N19">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O19">
         <v>3.1</v>
       </c>
       <c r="P19">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
         <v>1.85</v>
-      </c>
-      <c r="S19">
-        <v>1.95</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2245,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6808604</v>
+        <v>6808905</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2260,73 +2260,73 @@
         <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
+        <v>3.2</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <v>2.15</v>
+      </c>
+      <c r="O20">
+        <v>3.25</v>
+      </c>
+      <c r="P20">
         <v>3.1</v>
       </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>2.6</v>
-      </c>
-      <c r="O20">
-        <v>3.1</v>
-      </c>
-      <c r="P20">
-        <v>2.5</v>
-      </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2349,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2868,7 +2868,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6808160</v>
+        <v>6808608</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2880,13 +2880,13 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2895,43 +2895,43 @@
         <v>55</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N27">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
         <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2940,16 +2940,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6808608</v>
+        <v>6808160</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2969,13 +2969,13 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2984,61 +2984,61 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
+        <v>3.3</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>1.8</v>
+      </c>
+      <c r="O28">
         <v>3.4</v>
       </c>
-      <c r="M28">
-        <v>3.4</v>
-      </c>
-      <c r="N28">
-        <v>1.85</v>
-      </c>
-      <c r="O28">
-        <v>3.5</v>
-      </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q28">
         <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
+        <v>0.8</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
-      <c r="Z28">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6808609</v>
+        <v>6808161</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3058,76 +3058,76 @@
         <v>45137.5</v>
       </c>
       <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="G29" t="s">
-        <v>42</v>
-      </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>56</v>
       </c>
       <c r="K29">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N29">
+        <v>2.2</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
+        <v>2.875</v>
+      </c>
+      <c r="Q29">
+        <v>-0.25</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>1.8</v>
+      </c>
+      <c r="T29">
         <v>2.25</v>
       </c>
-      <c r="O29">
-        <v>3.75</v>
-      </c>
-      <c r="P29">
-        <v>2.5</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
+      <c r="U29">
         <v>1.8</v>
       </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>1.875</v>
-      </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3135,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6808161</v>
+        <v>6808609</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3147,76 +3147,76 @@
         <v>45137.5</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>56</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
+        <v>2.4</v>
+      </c>
+      <c r="N30">
+        <v>2.25</v>
+      </c>
+      <c r="O30">
+        <v>3.75</v>
+      </c>
+      <c r="P30">
+        <v>2.5</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1.875</v>
+      </c>
+      <c r="V30">
+        <v>1.925</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
         <v>2.75</v>
       </c>
-      <c r="N30">
-        <v>2.2</v>
-      </c>
-      <c r="O30">
-        <v>3.2</v>
-      </c>
-      <c r="P30">
-        <v>2.875</v>
-      </c>
-      <c r="Q30">
-        <v>-0.25</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30">
-        <v>1.8</v>
-      </c>
-      <c r="T30">
-        <v>2.25</v>
-      </c>
-      <c r="U30">
-        <v>1.8</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
-      <c r="X30">
-        <v>2.2</v>
-      </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3236,7 +3236,7 @@
         <v>45138.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3328,7 +3328,7 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3506,7 +3506,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3773,7 +3773,7 @@
         <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3859,10 +3859,10 @@
         <v>45144.5</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4037,7 +4037,7 @@
         <v>45150.5</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>48</v>
@@ -4218,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6808166</v>
+        <v>6808617</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,28 +4393,28 @@
         <v>45151.5</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L44">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N44">
         <v>2.2</v>
@@ -4423,46 +4423,46 @@
         <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
+        <v>1.925</v>
+      </c>
+      <c r="V44">
         <v>1.875</v>
       </c>
-      <c r="V44">
-        <v>1.925</v>
-      </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X44">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA44">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6808617</v>
+        <v>6808619</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,46 +4482,46 @@
         <v>45151.5</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>55</v>
       </c>
       <c r="K45">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N45">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>2.5</v>
@@ -4533,7 +4533,7 @@
         <v>1.875</v>
       </c>
       <c r="W45">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4542,16 +4542,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6808619</v>
+        <v>6808165</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,76 +4571,76 @@
         <v>45151.5</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L46">
         <v>3.25</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB46">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6808165</v>
+        <v>6808166</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4660,76 +4660,76 @@
         <v>45151.5</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
         <v>3.25</v>
       </c>
       <c r="M47">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N47">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O47">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.8</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
         <v>1.875</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.925</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.9</v>
-      </c>
-      <c r="V47">
-        <v>1.9</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y47">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB47">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4752,7 +4752,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4838,7 +4838,7 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
@@ -4915,7 +4915,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6808168</v>
+        <v>6808169</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4927,56 +4927,56 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>54</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N50">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O50">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
+        <v>1.875</v>
+      </c>
+      <c r="S50">
+        <v>1.925</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
         <v>1.95</v>
       </c>
-      <c r="S50">
+      <c r="V50">
         <v>1.85</v>
       </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
-      <c r="U50">
-        <v>1.775</v>
-      </c>
-      <c r="V50">
-        <v>2.025</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
@@ -4984,19 +4984,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6808169</v>
+        <v>6808168</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5016,55 +5016,55 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>54</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N51">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5073,19 +5073,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5372,7 +5372,7 @@
         <v>45163.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5464,7 +5464,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6808899</v>
+        <v>6808624</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,58 +5639,58 @@
         <v>45164.5</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>55</v>
       </c>
       <c r="K58">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
+        <v>1.825</v>
+      </c>
+      <c r="V58">
         <v>1.975</v>
       </c>
-      <c r="V58">
-        <v>1.825</v>
-      </c>
       <c r="W58">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5699,13 +5699,13 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5728,7 +5728,7 @@
         <v>45164.5</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
         <v>49</v>
@@ -5805,7 +5805,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6808624</v>
+        <v>6808899</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5817,58 +5817,58 @@
         <v>45164.5</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>55</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N60">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O60">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P60">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q60">
         <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
+        <v>1.975</v>
+      </c>
+      <c r="V60">
         <v>1.825</v>
       </c>
-      <c r="V60">
-        <v>1.975</v>
-      </c>
       <c r="W60">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5877,13 +5877,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5906,10 +5906,10 @@
         <v>45164.5</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>45171.375</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
         <v>43</v>
@@ -6250,7 +6250,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6808631</v>
+        <v>6808898</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6262,73 +6262,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K65">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L65">
         <v>3.2</v>
       </c>
       <c r="M65">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O65">
         <v>3.2</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
         <v>1.8</v>
       </c>
-      <c r="V65">
-        <v>2</v>
-      </c>
       <c r="W65">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB65">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6339,7 +6339,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6808898</v>
+        <v>6808631</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6351,73 +6351,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L66">
         <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N66">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O66">
         <v>3.2</v>
       </c>
       <c r="P66">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
+        <v>1.85</v>
+      </c>
+      <c r="T66">
+        <v>2.25</v>
+      </c>
+      <c r="U66">
         <v>1.8</v>
       </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
-      <c r="U66">
-        <v>2</v>
-      </c>
       <c r="V66">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
         <v>0.8</v>
-      </c>
-      <c r="AB66">
-        <v>1</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6621,7 +6621,7 @@
         <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6707,7 +6707,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6885,10 +6885,10 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6974,7 +6974,7 @@
         <v>45177.5</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -7152,10 +7152,10 @@
         <v>45178.44791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -7333,7 +7333,7 @@
         <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7508,7 +7508,7 @@
         <v>45180.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7689,7 +7689,7 @@
         <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7775,10 +7775,10 @@
         <v>45185.40972222222</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7953,10 +7953,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7203342</v>
+        <v>6808649</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,55 +8042,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J85" t="s">
         <v>54</v>
       </c>
       <c r="K85">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N85">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P85">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8099,19 +8099,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6808649</v>
+        <v>7203342</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,55 +8131,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>54</v>
       </c>
       <c r="K86">
+        <v>1.8</v>
+      </c>
+      <c r="L86">
+        <v>3.4</v>
+      </c>
+      <c r="M86">
+        <v>3.75</v>
+      </c>
+      <c r="N86">
+        <v>1.95</v>
+      </c>
+      <c r="O86">
+        <v>3.3</v>
+      </c>
+      <c r="P86">
+        <v>3.25</v>
+      </c>
+      <c r="Q86">
+        <v>-0.5</v>
+      </c>
+      <c r="R86">
+        <v>2.025</v>
+      </c>
+      <c r="S86">
+        <v>1.775</v>
+      </c>
+      <c r="T86">
         <v>2.5</v>
       </c>
-      <c r="L86">
-        <v>3.2</v>
-      </c>
-      <c r="M86">
-        <v>2.5</v>
-      </c>
-      <c r="N86">
-        <v>2.5</v>
-      </c>
-      <c r="O86">
-        <v>3.25</v>
-      </c>
-      <c r="P86">
-        <v>2.5</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.9</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8188,19 +8188,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8220,7 +8220,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8398,10 +8398,10 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8576,7 +8576,7 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8668,7 +8668,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8757,7 +8757,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8843,7 +8843,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8935,7 +8935,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9288,10 +9288,10 @@
         <v>45194.63541666666</v>
       </c>
       <c r="F99" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" t="s">
         <v>41</v>
-      </c>
-      <c r="G99" t="s">
-        <v>40</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6808023</v>
+        <v>6808664</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,56 +9377,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
         <v>54</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N100">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O100">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P100">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
         <v>1.85</v>
       </c>
-      <c r="S100">
+      <c r="V100">
         <v>1.95</v>
       </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9434,19 +9434,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6808664</v>
+        <v>6808023</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,55 +9466,55 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>54</v>
       </c>
       <c r="K101">
+        <v>1.909</v>
+      </c>
+      <c r="L101">
+        <v>3.3</v>
+      </c>
+      <c r="M101">
+        <v>3.5</v>
+      </c>
+      <c r="N101">
+        <v>2.05</v>
+      </c>
+      <c r="O101">
+        <v>3.25</v>
+      </c>
+      <c r="P101">
+        <v>3.1</v>
+      </c>
+      <c r="Q101">
+        <v>-0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.85</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
         <v>2.5</v>
       </c>
-      <c r="L101">
-        <v>3.4</v>
-      </c>
-      <c r="M101">
-        <v>2.375</v>
-      </c>
-      <c r="N101">
-        <v>2.3</v>
-      </c>
-      <c r="O101">
-        <v>3.4</v>
-      </c>
-      <c r="P101">
-        <v>2.55</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.8</v>
-      </c>
-      <c r="S101">
-        <v>2</v>
-      </c>
-      <c r="T101">
-        <v>3</v>
-      </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9523,19 +9523,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9736,7 +9736,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9822,10 +9822,10 @@
         <v>45200.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9911,7 +9911,7 @@
         <v>45200.59930555556</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
         <v>39</v>
@@ -10181,7 +10181,7 @@
         <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10267,10 +10267,10 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10356,7 +10356,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>48</v>
@@ -10445,10 +10445,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10537,7 +10537,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10893,7 +10893,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -10982,7 +10982,7 @@
         <v>49</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>45214.375</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11157,7 +11157,7 @@
         <v>45215.55208333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
         <v>46</v>
@@ -11335,7 +11335,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
         <v>47</v>
@@ -11513,10 +11513,10 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>45220.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
         <v>29</v>
@@ -11694,7 +11694,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11961,7 +11961,7 @@
         <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12050,7 +12050,7 @@
         <v>47</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12139,7 +12139,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12225,10 +12225,10 @@
         <v>45225.375</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12492,7 +12492,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
         <v>42</v>
@@ -12670,7 +12670,7 @@
         <v>45227.59930555556</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12759,7 +12759,7 @@
         <v>45228.3125</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12851,7 +12851,7 @@
         <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -12937,7 +12937,7 @@
         <v>45228.39236111111</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
         <v>46</v>
@@ -13014,7 +13014,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6808198</v>
+        <v>6808683</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13026,73 +13026,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K141">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L141">
+        <v>3.3</v>
+      </c>
+      <c r="M141">
         <v>3.25</v>
       </c>
-      <c r="M141">
-        <v>2.3</v>
-      </c>
       <c r="N141">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q141">
         <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13103,7 +13103,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6808683</v>
+        <v>6808198</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13115,73 +13115,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M142">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O142">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X142">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA142">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13192,7 +13192,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6808888</v>
+        <v>6808197</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13204,76 +13204,76 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>56</v>
       </c>
       <c r="K143">
+        <v>1.666</v>
+      </c>
+      <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
+        <v>4.2</v>
+      </c>
+      <c r="N143">
+        <v>2.3</v>
+      </c>
+      <c r="O143">
+        <v>3.25</v>
+      </c>
+      <c r="P143">
+        <v>2.7</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1.775</v>
+      </c>
+      <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
         <v>1.85</v>
       </c>
-      <c r="L143">
-        <v>3.4</v>
-      </c>
-      <c r="M143">
-        <v>3.5</v>
-      </c>
-      <c r="N143">
-        <v>1.85</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
-      <c r="P143">
-        <v>3.5</v>
-      </c>
-      <c r="Q143">
-        <v>-0.5</v>
-      </c>
-      <c r="R143">
-        <v>1.925</v>
-      </c>
-      <c r="S143">
-        <v>1.875</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.825</v>
-      </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13281,7 +13281,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6808197</v>
+        <v>6808888</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13293,76 +13293,76 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>56</v>
       </c>
       <c r="K144">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N144">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13560,10 +13560,10 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13652,7 +13652,7 @@
         <v>47</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13741,7 +13741,7 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13916,7 +13916,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
         <v>48</v>
@@ -14005,10 +14005,10 @@
         <v>45241.375</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14183,7 +14183,7 @@
         <v>45242.35416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
         <v>46</v>
@@ -14272,7 +14272,7 @@
         <v>45242.375</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
         <v>38</v>
@@ -14450,7 +14450,7 @@
         <v>45242.375</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>47</v>
@@ -14542,7 +14542,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14720,7 +14720,7 @@
         <v>48</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14806,7 +14806,7 @@
         <v>45248.375</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
         <v>38</v>
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14987,7 +14987,7 @@
         <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -15076,7 +15076,7 @@
         <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
         <v>42</v>
@@ -15343,7 +15343,7 @@
         <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15518,10 +15518,10 @@
         <v>45255.35416666666</v>
       </c>
       <c r="F169" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" t="s">
         <v>32</v>
-      </c>
-      <c r="G169" t="s">
-        <v>34</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15699,7 +15699,7 @@
         <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15788,7 +15788,7 @@
         <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15877,7 +15877,7 @@
         <v>49</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15966,7 +15966,7 @@
         <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16144,7 +16144,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16230,10 +16230,10 @@
         <v>45262.375</v>
       </c>
       <c r="F177" t="s">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
         <v>31</v>
-      </c>
-      <c r="G177" t="s">
-        <v>32</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16408,7 +16408,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
         <v>45</v>
@@ -16678,7 +16678,7 @@
         <v>49</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16856,7 +16856,7 @@
         <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16942,7 +16942,7 @@
         <v>45346.36458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
         <v>44</v>
@@ -17031,10 +17031,10 @@
         <v>45346.375</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17212,7 +17212,7 @@
         <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17301,7 +17301,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17457,6 +17457,539 @@
       </c>
       <c r="AC190">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>6808711</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45352.57291666666</v>
+      </c>
+      <c r="F191" t="s">
+        <v>39</v>
+      </c>
+      <c r="G191" t="s">
+        <v>31</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" t="s">
+        <v>56</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>3.25</v>
+      </c>
+      <c r="M191">
+        <v>3.3</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191">
+        <v>3.4</v>
+      </c>
+      <c r="P191">
+        <v>3.3</v>
+      </c>
+      <c r="Q191">
+        <v>-0.5</v>
+      </c>
+      <c r="R191">
+        <v>2.025</v>
+      </c>
+      <c r="S191">
+        <v>1.775</v>
+      </c>
+      <c r="T191">
+        <v>2.75</v>
+      </c>
+      <c r="U191">
+        <v>1.95</v>
+      </c>
+      <c r="V191">
+        <v>1.85</v>
+      </c>
+      <c r="W191">
+        <v>-1</v>
+      </c>
+      <c r="X191">
+        <v>2.4</v>
+      </c>
+      <c r="Y191">
+        <v>-1</v>
+      </c>
+      <c r="Z191">
+        <v>-1</v>
+      </c>
+      <c r="AA191">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>6808143</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45353.33333333334</v>
+      </c>
+      <c r="F192" t="s">
+        <v>32</v>
+      </c>
+      <c r="G192" t="s">
+        <v>29</v>
+      </c>
+      <c r="K192">
+        <v>2.2</v>
+      </c>
+      <c r="L192">
+        <v>3.3</v>
+      </c>
+      <c r="M192">
+        <v>2.8</v>
+      </c>
+      <c r="N192">
+        <v>2.2</v>
+      </c>
+      <c r="O192">
+        <v>3.25</v>
+      </c>
+      <c r="P192">
+        <v>2.8</v>
+      </c>
+      <c r="Q192">
+        <v>-0.25</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
+        <v>1.8</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
+        <v>2.025</v>
+      </c>
+      <c r="V192">
+        <v>1.775</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>6808881</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45353.33333333334</v>
+      </c>
+      <c r="F193" t="s">
+        <v>48</v>
+      </c>
+      <c r="G193" t="s">
+        <v>40</v>
+      </c>
+      <c r="K193">
+        <v>2.2</v>
+      </c>
+      <c r="L193">
+        <v>3.25</v>
+      </c>
+      <c r="M193">
+        <v>2.875</v>
+      </c>
+      <c r="N193">
+        <v>2.3</v>
+      </c>
+      <c r="O193">
+        <v>3.2</v>
+      </c>
+      <c r="P193">
+        <v>2.75</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>1.75</v>
+      </c>
+      <c r="S193">
+        <v>2.05</v>
+      </c>
+      <c r="T193">
+        <v>2.25</v>
+      </c>
+      <c r="U193">
+        <v>1.975</v>
+      </c>
+      <c r="V193">
+        <v>1.825</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>6808042</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45353.52083333334</v>
+      </c>
+      <c r="F194" t="s">
+        <v>43</v>
+      </c>
+      <c r="G194" t="s">
+        <v>45</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>3.4</v>
+      </c>
+      <c r="M194">
+        <v>3.1</v>
+      </c>
+      <c r="N194">
+        <v>1.909</v>
+      </c>
+      <c r="O194">
+        <v>3.4</v>
+      </c>
+      <c r="P194">
+        <v>3.3</v>
+      </c>
+      <c r="Q194">
+        <v>-0.5</v>
+      </c>
+      <c r="R194">
+        <v>1.975</v>
+      </c>
+      <c r="S194">
+        <v>1.825</v>
+      </c>
+      <c r="T194">
+        <v>2.25</v>
+      </c>
+      <c r="U194">
+        <v>1.85</v>
+      </c>
+      <c r="V194">
+        <v>1.95</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>6808144</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45353.54166666666</v>
+      </c>
+      <c r="F195" t="s">
+        <v>41</v>
+      </c>
+      <c r="G195" t="s">
+        <v>37</v>
+      </c>
+      <c r="K195">
+        <v>2.8</v>
+      </c>
+      <c r="L195">
+        <v>3.6</v>
+      </c>
+      <c r="M195">
+        <v>2.1</v>
+      </c>
+      <c r="N195">
+        <v>2.8</v>
+      </c>
+      <c r="O195">
+        <v>3.6</v>
+      </c>
+      <c r="P195">
+        <v>2.1</v>
+      </c>
+      <c r="Q195">
+        <v>0.25</v>
+      </c>
+      <c r="R195">
+        <v>1.9</v>
+      </c>
+      <c r="S195">
+        <v>1.9</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>1.875</v>
+      </c>
+      <c r="V195">
+        <v>1.925</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>6808712</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45353.54166666666</v>
+      </c>
+      <c r="F196" t="s">
+        <v>49</v>
+      </c>
+      <c r="G196" t="s">
+        <v>36</v>
+      </c>
+      <c r="K196">
+        <v>1.909</v>
+      </c>
+      <c r="L196">
+        <v>3.5</v>
+      </c>
+      <c r="M196">
+        <v>3.3</v>
+      </c>
+      <c r="N196">
+        <v>1.95</v>
+      </c>
+      <c r="O196">
+        <v>3.5</v>
+      </c>
+      <c r="P196">
+        <v>3.2</v>
+      </c>
+      <c r="Q196">
+        <v>-0.5</v>
+      </c>
+      <c r="R196">
+        <v>2.025</v>
+      </c>
+      <c r="S196">
+        <v>1.775</v>
+      </c>
+      <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>1.875</v>
+      </c>
+      <c r="V196">
+        <v>1.925</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>6808041</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45354.47916666666</v>
+      </c>
+      <c r="F197" t="s">
+        <v>44</v>
+      </c>
+      <c r="G197" t="s">
+        <v>47</v>
+      </c>
+      <c r="K197">
+        <v>2.1</v>
+      </c>
+      <c r="L197">
+        <v>3.3</v>
+      </c>
+      <c r="M197">
+        <v>3</v>
+      </c>
+      <c r="N197">
+        <v>2.05</v>
+      </c>
+      <c r="O197">
+        <v>3.3</v>
+      </c>
+      <c r="P197">
+        <v>3.1</v>
+      </c>
+      <c r="Q197">
+        <v>-0.25</v>
+      </c>
+      <c r="R197">
+        <v>1.825</v>
+      </c>
+      <c r="S197">
+        <v>1.975</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>2</v>
+      </c>
+      <c r="V197">
+        <v>1.8</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -103,31 +103,31 @@
     <t>Poland II Liga</t>
   </si>
   <si>
+    <t>Siarka Tarnobrzeg</t>
+  </si>
+  <si>
+    <t>Radunia Stezyca</t>
+  </si>
+  <si>
     <t>Olimpia Elblag</t>
   </si>
   <si>
-    <t>Siarka Tarnobrzeg</t>
+    <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
     <t>Hutnik Krakow</t>
   </si>
   <si>
-    <t>Radunia Stezyca</t>
+    <t>Garbarnia Krakow</t>
   </si>
   <si>
-    <t>Garbarnia Krakow</t>
+    <t>Polonia Warsaw</t>
   </si>
   <si>
     <t>Wisla Pulawy</t>
   </si>
   <si>
-    <t>Polonia Warsaw</t>
-  </si>
-  <si>
     <t>Zaglebie Lubin II</t>
-  </si>
-  <si>
-    <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
     <t>Stomil Olsztyn</t>
@@ -178,13 +178,13 @@
     <t>Motor Lublin</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5185127</v>
+        <v>5224885</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -658,31 +658,31 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>54</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
         <v>2.625</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
         <v>1.8</v>
@@ -706,19 +706,19 @@
         <v>2</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
         <v>-1</v>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5224885</v>
+        <v>5224884</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -747,10 +747,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -759,31 +759,31 @@
         <v>55</v>
       </c>
       <c r="K3">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>2.5</v>
@@ -795,19 +795,19 @@
         <v>2</v>
       </c>
       <c r="W3">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
         <v>-1</v>
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5224889</v>
+        <v>5185127</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -845,37 +845,37 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
         <v>3.5</v>
       </c>
-      <c r="L4">
-        <v>3.3</v>
-      </c>
       <c r="M4">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R4">
+        <v>1.75</v>
+      </c>
+      <c r="S4">
         <v>2.05</v>
       </c>
-      <c r="S4">
-        <v>1.75</v>
-      </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
         <v>1.8</v>
@@ -890,13 +890,13 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.55</v>
+        <v>1.625</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.375</v>
+        <v>1.05</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5224884</v>
+        <v>5226043</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,73 +925,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L5">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="O5">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.1</v>
+        <v>3.333</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5229462</v>
+        <v>5224889</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
+        <v>1.909</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>3.75</v>
+      </c>
+      <c r="P6">
+        <v>1.55</v>
+      </c>
+      <c r="Q6">
+        <v>0.75</v>
+      </c>
+      <c r="R6">
+        <v>2.05</v>
+      </c>
+      <c r="S6">
         <v>1.75</v>
       </c>
-      <c r="N6">
-        <v>3.2</v>
-      </c>
-      <c r="O6">
-        <v>3.4</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>0.25</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
         <v>1.8</v>
       </c>
-      <c r="T6">
-        <v>2.75</v>
-      </c>
-      <c r="U6">
-        <v>1.95</v>
-      </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5226044</v>
+        <v>5229462</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1103,7 +1103,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1112,46 +1112,46 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="N7">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="O7">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>0.2849999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1160,13 +1160,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5226042</v>
+        <v>5226044</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,55 +1281,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P9">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>2.3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1338,13 +1338,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5226043</v>
+        <v>5226042</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1370,73 +1370,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="N10">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X10">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1545,7 +1545,7 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>53</v>
@@ -1557,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1646,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13">
         <v>2.55</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14">
         <v>1.8</v>
@@ -1812,7 +1812,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K15">
         <v>1.666</v>
@@ -1901,7 +1901,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1990,7 +1990,7 @@
         <v>45129.5</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17">
         <v>2.1</v>
@@ -2067,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6808005</v>
+        <v>6808604</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2079,13 +2079,13 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2103,52 +2103,52 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O18">
         <v>3.1</v>
       </c>
       <c r="P18">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
         <v>1.85</v>
-      </c>
-      <c r="S18">
-        <v>1.95</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6808604</v>
+        <v>6808905</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,76 +2168,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L19">
+        <v>3.2</v>
+      </c>
+      <c r="M19">
+        <v>2.5</v>
+      </c>
+      <c r="N19">
+        <v>2.15</v>
+      </c>
+      <c r="O19">
+        <v>3.25</v>
+      </c>
+      <c r="P19">
         <v>3.1</v>
       </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19">
-        <v>2.6</v>
-      </c>
-      <c r="O19">
-        <v>3.1</v>
-      </c>
-      <c r="P19">
-        <v>2.5</v>
-      </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X19">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2245,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6808905</v>
+        <v>6808005</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2257,58 +2257,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20">
+        <v>2.2</v>
+      </c>
+      <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20">
+      <c r="N20">
         <v>2.5</v>
       </c>
-      <c r="L20">
-        <v>3.2</v>
-      </c>
-      <c r="M20">
+      <c r="O20">
+        <v>3.1</v>
+      </c>
+      <c r="P20">
+        <v>2.6</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>1.95</v>
+      </c>
+      <c r="T20">
         <v>2.5</v>
       </c>
-      <c r="N20">
-        <v>2.15</v>
-      </c>
-      <c r="O20">
-        <v>3.25</v>
-      </c>
-      <c r="P20">
-        <v>3.1</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.9</v>
-      </c>
-      <c r="S20">
-        <v>1.9</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2317,16 +2317,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2349,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2438,7 +2438,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22">
         <v>1.615</v>
@@ -2524,7 +2524,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23">
         <v>1.909</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24">
         <v>2.6</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2880,10 +2880,10 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27">
         <v>1.909</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28">
         <v>2.1</v>
@@ -3058,10 +3058,10 @@
         <v>45137.5</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29">
         <v>2.2</v>
@@ -3147,7 +3147,7 @@
         <v>45137.5</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>42</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30">
         <v>2.4</v>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3506,7 +3506,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K34">
         <v>3.1</v>
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
         <v>2.7</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3770,7 +3770,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K37">
         <v>2.3</v>
@@ -3859,10 +3859,10 @@
         <v>45144.5</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38">
         <v>1.75</v>
@@ -3951,7 +3951,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K39">
         <v>2.2</v>
@@ -4025,7 +4025,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6808901</v>
+        <v>6808618</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4037,19 +4037,19 @@
         <v>45150.5</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40">
         <v>2.5</v>
@@ -4082,31 +4082,31 @@
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4114,7 +4114,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6808618</v>
+        <v>6808901</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4126,16 +4126,16 @@
         <v>45150.5</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>54</v>
@@ -4171,31 +4171,31 @@
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC41">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4218,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42">
         <v>2.375</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43">
         <v>2.2</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6808617</v>
+        <v>6808619</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,46 +4393,46 @@
         <v>45151.5</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N44">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>2.5</v>
@@ -4444,7 +4444,7 @@
         <v>1.875</v>
       </c>
       <c r="W44">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4453,16 +4453,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6808619</v>
+        <v>6808617</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,46 +4482,46 @@
         <v>45151.5</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
+        <v>2.4</v>
+      </c>
+      <c r="L45">
+        <v>3.2</v>
+      </c>
+      <c r="M45">
+        <v>2.6</v>
+      </c>
+      <c r="N45">
         <v>2.2</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>3.25</v>
       </c>
-      <c r="M45">
-        <v>2.8</v>
-      </c>
-      <c r="N45">
-        <v>2</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
         <v>2.5</v>
@@ -4533,7 +4533,7 @@
         <v>1.875</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4542,16 +4542,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6808165</v>
+        <v>6808166</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,76 +4571,76 @@
         <v>45151.5</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
         <v>3.25</v>
       </c>
       <c r="M46">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>1.8</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
         <v>1.875</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>1.925</v>
       </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.9</v>
-      </c>
-      <c r="V46">
-        <v>1.9</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y46">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB46">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6808166</v>
+        <v>6808165</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4660,76 +4660,76 @@
         <v>45151.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>56</v>
       </c>
       <c r="K47">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
         <v>3.25</v>
       </c>
       <c r="M47">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z47">
+        <v>-1</v>
+      </c>
+      <c r="AA47">
+        <v>0.925</v>
+      </c>
+      <c r="AB47">
+        <v>0.45</v>
+      </c>
+      <c r="AC47">
         <v>-0.5</v>
-      </c>
-      <c r="AA47">
-        <v>0.4</v>
-      </c>
-      <c r="AB47">
-        <v>-0.5</v>
-      </c>
-      <c r="AC47">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4752,7 +4752,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K48">
         <v>2.25</v>
@@ -4838,7 +4838,7 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K49">
         <v>2.1</v>
@@ -4915,7 +4915,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6808169</v>
+        <v>6808168</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4927,55 +4927,55 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N50">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4984,19 +4984,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6808168</v>
+        <v>6808169</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5016,56 +5016,56 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K51">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
+        <v>1.875</v>
+      </c>
+      <c r="S51">
+        <v>1.925</v>
+      </c>
+      <c r="T51">
+        <v>2.5</v>
+      </c>
+      <c r="U51">
         <v>1.95</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>1.85</v>
       </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
-      <c r="U51">
-        <v>1.775</v>
-      </c>
-      <c r="V51">
-        <v>2.025</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
@@ -5073,19 +5073,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5117,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K52">
         <v>2.625</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K53">
         <v>2.25</v>
@@ -5295,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5372,7 +5372,7 @@
         <v>45163.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K55">
         <v>1.909</v>
@@ -5464,7 +5464,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K56">
         <v>2.5</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K57">
         <v>2.3</v>
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6808624</v>
+        <v>6808899</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,58 +5639,58 @@
         <v>45164.5</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N58">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
+        <v>1.975</v>
+      </c>
+      <c r="V58">
         <v>1.825</v>
       </c>
-      <c r="V58">
-        <v>1.975</v>
-      </c>
       <c r="W58">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5699,13 +5699,13 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5716,7 +5716,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6808625</v>
+        <v>7105151</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5728,76 +5728,76 @@
         <v>45164.5</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>56</v>
+      </c>
+      <c r="K59">
+        <v>1.8</v>
+      </c>
+      <c r="L59">
+        <v>3.25</v>
+      </c>
+      <c r="M59">
         <v>4</v>
       </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
-      <c r="J59" t="s">
-        <v>55</v>
-      </c>
-      <c r="K59">
-        <v>2</v>
-      </c>
-      <c r="L59">
-        <v>3.4</v>
-      </c>
-      <c r="M59">
-        <v>3.1</v>
-      </c>
       <c r="N59">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O59">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5805,7 +5805,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6808899</v>
+        <v>6808624</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5817,58 +5817,58 @@
         <v>45164.5</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N60">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P60">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q60">
         <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
+        <v>1.825</v>
+      </c>
+      <c r="V60">
         <v>1.975</v>
       </c>
-      <c r="V60">
-        <v>1.825</v>
-      </c>
       <c r="W60">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5877,13 +5877,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5894,7 +5894,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7105151</v>
+        <v>6808625</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5906,76 +5906,76 @@
         <v>45164.5</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>54</v>
       </c>
       <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>3.4</v>
+      </c>
+      <c r="M61">
+        <v>3.1</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>3.4</v>
+      </c>
+      <c r="P61">
+        <v>3.1</v>
+      </c>
+      <c r="Q61">
+        <v>-0.25</v>
+      </c>
+      <c r="R61">
         <v>1.8</v>
       </c>
-      <c r="L61">
-        <v>3.25</v>
-      </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.8</v>
-      </c>
-      <c r="O61">
-        <v>3.25</v>
-      </c>
-      <c r="P61">
-        <v>4</v>
-      </c>
-      <c r="Q61">
-        <v>-0.5</v>
-      </c>
-      <c r="R61">
-        <v>1.85</v>
-      </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K62">
         <v>2.4</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K63">
         <v>2.5</v>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K64">
         <v>1.833</v>
@@ -6265,7 +6265,7 @@
         <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6274,7 +6274,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K65">
         <v>3.1</v>
@@ -6351,7 +6351,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
         <v>40</v>
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K66">
         <v>2.1</v>
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K68">
         <v>1.727</v>
@@ -6621,7 +6621,7 @@
         <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6630,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K69">
         <v>2.35</v>
@@ -6707,7 +6707,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K70">
         <v>2.45</v>
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K71">
         <v>1.909</v>
@@ -6885,10 +6885,10 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6986,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K73">
         <v>2.1</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7152,7 +7152,7 @@
         <v>45178.44791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>41</v>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K75">
         <v>2.15</v>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7333,7 +7333,7 @@
         <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K77">
         <v>2.3</v>
@@ -7431,7 +7431,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K78">
         <v>2.4</v>
@@ -7508,7 +7508,7 @@
         <v>45180.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K79">
         <v>1.833</v>
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7609,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -7686,10 +7686,10 @@
         <v>45184.625</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7698,7 +7698,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K81">
         <v>2.5</v>
@@ -7778,7 +7778,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7953,7 +7953,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K84">
         <v>1.8</v>
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6808649</v>
+        <v>7203342</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,55 +8042,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K85">
+        <v>1.8</v>
+      </c>
+      <c r="L85">
+        <v>3.4</v>
+      </c>
+      <c r="M85">
+        <v>3.75</v>
+      </c>
+      <c r="N85">
+        <v>1.95</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
+        <v>3.25</v>
+      </c>
+      <c r="Q85">
+        <v>-0.5</v>
+      </c>
+      <c r="R85">
+        <v>2.025</v>
+      </c>
+      <c r="S85">
+        <v>1.775</v>
+      </c>
+      <c r="T85">
         <v>2.5</v>
       </c>
-      <c r="L85">
-        <v>3.2</v>
-      </c>
-      <c r="M85">
-        <v>2.5</v>
-      </c>
-      <c r="N85">
-        <v>2.5</v>
-      </c>
-      <c r="O85">
-        <v>3.25</v>
-      </c>
-      <c r="P85">
-        <v>2.5</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.9</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8099,19 +8099,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7203342</v>
+        <v>6808649</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,55 +8131,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N86">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8188,19 +8188,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8220,7 +8220,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8232,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K87">
         <v>2.15</v>
@@ -8321,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K88">
         <v>2.3</v>
@@ -8398,10 +8398,10 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8410,7 +8410,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K89">
         <v>2.875</v>
@@ -8487,7 +8487,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K90">
         <v>2.1</v>
@@ -8576,7 +8576,7 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8588,7 +8588,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K91">
         <v>1.615</v>
@@ -8668,7 +8668,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8677,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K92">
         <v>2.375</v>
@@ -8757,7 +8757,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K93">
         <v>2.1</v>
@@ -8843,7 +8843,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8855,7 +8855,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K94">
         <v>1.8</v>
@@ -8935,7 +8935,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -8944,7 +8944,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K95">
         <v>2.5</v>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9202,7 +9202,7 @@
         <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9211,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9300,7 +9300,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K99">
         <v>2.4</v>
@@ -9389,7 +9389,7 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K100">
         <v>2.5</v>
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6808023</v>
+        <v>6808894</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,10 +9466,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9478,28 +9478,28 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K101">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L101">
         <v>3.3</v>
       </c>
       <c r="M101">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N101">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
         <v>1.85</v>
@@ -9511,10 +9511,10 @@
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9523,7 +9523,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9535,7 +9535,7 @@
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9543,7 +9543,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6808894</v>
+        <v>6808023</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9555,10 +9555,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9567,28 +9567,28 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K102">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L102">
         <v>3.3</v>
       </c>
       <c r="M102">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N102">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P102">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
         <v>1.85</v>
@@ -9600,10 +9600,10 @@
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9612,7 +9612,7 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9624,7 +9624,7 @@
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9644,7 +9644,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>47</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K104">
         <v>2.15</v>
@@ -9822,10 +9822,10 @@
         <v>45200.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9834,7 +9834,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9923,7 +9923,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K106">
         <v>2.25</v>
@@ -10012,7 +10012,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K107">
         <v>2.4</v>
@@ -10077,7 +10077,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6808667</v>
+        <v>6808666</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10089,73 +10089,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
         <v>3</v>
       </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
       <c r="J108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K108">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N108">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="O108">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W108">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10166,7 +10166,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6808666</v>
+        <v>6808667</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10178,73 +10178,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>54</v>
       </c>
       <c r="K109">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N109">
-        <v>2.45</v>
+        <v>1.285</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P109">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10270,7 +10270,7 @@
         <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10279,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K110">
         <v>2.45</v>
@@ -10356,7 +10356,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
         <v>48</v>
@@ -10368,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K111">
         <v>1.75</v>
@@ -10445,7 +10445,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10457,7 +10457,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K112">
         <v>1.75</v>
@@ -10537,7 +10537,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10546,7 +10546,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K113">
         <v>1.6</v>
@@ -10626,7 +10626,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10635,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K114">
         <v>2.3</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K115">
         <v>1.6</v>
@@ -10801,7 +10801,7 @@
         <v>45212.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -10813,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K116">
         <v>2.75</v>
@@ -10893,7 +10893,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K117">
         <v>2.3</v>
@@ -10982,7 +10982,7 @@
         <v>49</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K118">
         <v>2.45</v>
@@ -11068,7 +11068,7 @@
         <v>45214.375</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11080,7 +11080,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K119">
         <v>2.15</v>
@@ -11169,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K120">
         <v>3.5</v>
@@ -11258,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K121">
         <v>2.7</v>
@@ -11335,7 +11335,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>47</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11436,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K123">
         <v>1.5</v>
@@ -11513,10 +11513,10 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K124">
         <v>2.2</v>
@@ -11602,10 +11602,10 @@
         <v>45220.29166666666</v>
       </c>
       <c r="F125" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" t="s">
         <v>31</v>
-      </c>
-      <c r="G125" t="s">
-        <v>29</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K125">
         <v>2.25</v>
@@ -11694,7 +11694,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K126">
         <v>2.8</v>
@@ -11792,7 +11792,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11881,7 +11881,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K129">
         <v>1.727</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K130">
         <v>1.909</v>
@@ -12139,7 +12139,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K131">
         <v>1.833</v>
@@ -12225,7 +12225,7 @@
         <v>45225.375</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
         <v>40</v>
@@ -12237,7 +12237,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K132">
         <v>1.727</v>
@@ -12326,7 +12326,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12403,7 +12403,7 @@
         <v>45227.375</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>48</v>
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K134">
         <v>1.533</v>
@@ -12492,7 +12492,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
         <v>42</v>
@@ -12504,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K135">
         <v>2.25</v>
@@ -12593,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K136">
         <v>3.25</v>
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K137">
         <v>2.7</v>
@@ -12771,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K138">
         <v>4.333</v>
@@ -12851,7 +12851,7 @@
         <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -12860,7 +12860,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K139">
         <v>3.5</v>
@@ -12937,7 +12937,7 @@
         <v>45228.39236111111</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>46</v>
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K140">
         <v>1.8</v>
@@ -13014,7 +13014,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6808683</v>
+        <v>6808198</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13026,73 +13026,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N141">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
         <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X141">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA141">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13103,7 +13103,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6808198</v>
+        <v>6808683</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13115,73 +13115,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>55</v>
       </c>
       <c r="K142">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142">
         <v>3.25</v>
       </c>
-      <c r="M142">
-        <v>2.3</v>
-      </c>
       <c r="N142">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB142">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13216,7 +13216,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K143">
         <v>1.666</v>
@@ -13305,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K144">
         <v>1.85</v>
@@ -13394,7 +13394,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K145">
         <v>1.75</v>
@@ -13483,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K146">
         <v>2.25</v>
@@ -13560,10 +13560,10 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13572,7 +13572,7 @@
         <v>5</v>
       </c>
       <c r="J147" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K147">
         <v>2.75</v>
@@ -13652,7 +13652,7 @@
         <v>47</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13661,7 +13661,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K148">
         <v>2</v>
@@ -13741,7 +13741,7 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13839,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K150">
         <v>2.45</v>
@@ -13916,7 +13916,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
         <v>48</v>
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K151">
         <v>1.615</v>
@@ -14008,7 +14008,7 @@
         <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14017,7 +14017,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K152">
         <v>2</v>
@@ -14094,7 +14094,7 @@
         <v>45241.51041666666</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>44</v>
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K153">
         <v>2.4</v>
@@ -14195,7 +14195,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K154">
         <v>2.2</v>
@@ -14260,7 +14260,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6808200</v>
+        <v>6808690</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14272,76 +14272,76 @@
         <v>45242.375</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K155">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L155">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M155">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N155">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O155">
         <v>3.25</v>
       </c>
       <c r="P155">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W155">
+        <v>1.5</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
         <v>0.95</v>
       </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
-      <c r="Z155">
-        <v>1</v>
-      </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14349,7 +14349,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6808689</v>
+        <v>6808200</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14361,10 +14361,10 @@
         <v>45242.375</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14373,46 +14373,46 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K156">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L156">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M156">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N156">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P156">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q156">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>1.8</v>
+        <v>0.95</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14421,7 +14421,7 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA156">
         <v>-1</v>
@@ -14430,7 +14430,7 @@
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14438,7 +14438,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6808690</v>
+        <v>6808689</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14450,49 +14450,49 @@
         <v>45242.375</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K157">
+        <v>2.3</v>
+      </c>
+      <c r="L157">
+        <v>3.2</v>
+      </c>
+      <c r="M157">
+        <v>2.75</v>
+      </c>
+      <c r="N157">
+        <v>2.8</v>
+      </c>
+      <c r="O157">
+        <v>3.4</v>
+      </c>
+      <c r="P157">
         <v>2.2</v>
       </c>
-      <c r="L157">
-        <v>3.3</v>
-      </c>
-      <c r="M157">
-        <v>2.8</v>
-      </c>
-      <c r="N157">
-        <v>2.5</v>
-      </c>
-      <c r="O157">
-        <v>3.25</v>
-      </c>
-      <c r="P157">
-        <v>2.4</v>
-      </c>
       <c r="Q157">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U157">
         <v>1.975</v>
@@ -14501,7 +14501,7 @@
         <v>1.825</v>
       </c>
       <c r="W157">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14510,16 +14510,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14542,7 +14542,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14551,7 +14551,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K158">
         <v>2.2</v>
@@ -14640,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K159">
         <v>2.25</v>
@@ -14729,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K160">
         <v>2.2</v>
@@ -14806,7 +14806,7 @@
         <v>45248.375</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
         <v>38</v>
@@ -14818,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K162">
         <v>2.8</v>
@@ -14996,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -15076,7 +15076,7 @@
         <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15085,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K164">
         <v>2</v>
@@ -15162,7 +15162,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
         <v>42</v>
@@ -15174,7 +15174,7 @@
         <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K165">
         <v>2.1</v>
@@ -15263,7 +15263,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K166">
         <v>2.25</v>
@@ -15340,10 +15340,10 @@
         <v>45254.65625</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15352,7 +15352,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15441,7 +15441,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K168">
         <v>2.5</v>
@@ -15518,10 +15518,10 @@
         <v>45255.35416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15530,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K169">
         <v>2.5</v>
@@ -15619,7 +15619,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K170">
         <v>2.6</v>
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K171">
         <v>2.1</v>
@@ -15788,7 +15788,7 @@
         <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15797,7 +15797,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K172">
         <v>1.7</v>
@@ -15886,7 +15886,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K173">
         <v>2.25</v>
@@ -15966,7 +15966,7 @@
         <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -15975,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K174">
         <v>2.05</v>
@@ -16064,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K175">
         <v>2.5</v>
@@ -16144,7 +16144,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16153,7 +16153,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K176">
         <v>1.909</v>
@@ -16230,10 +16230,10 @@
         <v>45262.375</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K177">
         <v>2.25</v>
@@ -16331,7 +16331,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K178">
         <v>1.909</v>
@@ -16408,7 +16408,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
         <v>45</v>
@@ -16420,7 +16420,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K179">
         <v>1.4</v>
@@ -16509,7 +16509,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16598,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K181">
         <v>2.1</v>
@@ -16678,7 +16678,7 @@
         <v>49</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16687,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K182">
         <v>2.4</v>
@@ -16764,7 +16764,7 @@
         <v>45346.29166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
         <v>43</v>
@@ -16776,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K183">
         <v>2</v>
@@ -16865,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K184">
         <v>2.5</v>
@@ -16942,7 +16942,7 @@
         <v>45346.36458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>44</v>
@@ -16954,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K185">
         <v>1.909</v>
@@ -17031,7 +17031,7 @@
         <v>45346.375</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
         <v>40</v>
@@ -17043,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K186">
         <v>1.909</v>
@@ -17132,7 +17132,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K187">
         <v>2.3</v>
@@ -17212,7 +17212,7 @@
         <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17221,7 +17221,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K188">
         <v>2.25</v>
@@ -17301,7 +17301,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17310,7 +17310,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K189">
         <v>2.25</v>
@@ -17390,7 +17390,7 @@
         <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17399,7 +17399,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K190">
         <v>2.7</v>
@@ -17479,7 +17479,7 @@
         <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17488,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17553,7 +17553,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6808143</v>
+        <v>6808881</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17565,69 +17565,84 @@
         <v>45353.33333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G192" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>3</v>
+      </c>
+      <c r="J192" t="s">
+        <v>56</v>
       </c>
       <c r="K192">
         <v>2.2</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M192">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="N192">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O192">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P192">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T192">
         <v>2.25</v>
       </c>
       <c r="U192">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>1.05</v>
+      </c>
+      <c r="AB192">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC192">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6808881</v>
+        <v>6808143</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,64 +17654,79 @@
         <v>45353.33333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193" t="s">
+        <v>55</v>
       </c>
       <c r="K193">
         <v>2.2</v>
       </c>
       <c r="L193">
+        <v>3.3</v>
+      </c>
+      <c r="M193">
+        <v>2.8</v>
+      </c>
+      <c r="N193">
+        <v>2.2</v>
+      </c>
+      <c r="O193">
         <v>3.25</v>
       </c>
-      <c r="M193">
-        <v>2.875</v>
-      </c>
-      <c r="N193">
-        <v>2.3</v>
-      </c>
-      <c r="O193">
-        <v>3.2</v>
-      </c>
       <c r="P193">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S193">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T193">
         <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27">
+        <v>0.4125</v>
+      </c>
+      <c r="AB193">
+        <v>-0.5</v>
+      </c>
+      <c r="AC193">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -17718,6 +17748,15 @@
       <c r="G194" t="s">
         <v>45</v>
       </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194" t="s">
+        <v>56</v>
+      </c>
       <c r="K194">
         <v>2</v>
       </c>
@@ -17728,49 +17767,55 @@
         <v>3.1</v>
       </c>
       <c r="N194">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O194">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P194">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q194">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R194">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T194">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27">
+        <v>0.8</v>
+      </c>
+      <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -17790,7 +17835,16 @@
         <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>55</v>
       </c>
       <c r="K195">
         <v>2.8</v>
@@ -17811,16 +17865,16 @@
         <v>2.1</v>
       </c>
       <c r="Q195">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
         <v>1.875</v>
@@ -17829,22 +17883,28 @@
         <v>1.925</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
         <v>0</v>
       </c>
       <c r="AA195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -17864,7 +17924,16 @@
         <v>49</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196" t="s">
+        <v>54</v>
       </c>
       <c r="K196">
         <v>1.909</v>
@@ -17885,13 +17954,13 @@
         <v>3.2</v>
       </c>
       <c r="Q196">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
+        <v>1.775</v>
+      </c>
+      <c r="S196">
         <v>2.025</v>
-      </c>
-      <c r="S196">
-        <v>1.775</v>
       </c>
       <c r="T196">
         <v>2.75</v>
@@ -17903,22 +17972,28 @@
         <v>1.925</v>
       </c>
       <c r="W196">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>0.875</v>
+      </c>
+      <c r="AC196">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
       <c r="A197" s="1">
         <v>195</v>
       </c>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Poland II Liga</t>
   </si>
   <si>
-    <t>Siarka Tarnobrzeg</t>
+    <t>Wisla Pulawy</t>
   </si>
   <si>
-    <t>Radunia Stezyca</t>
+    <t>Polonia Warsaw</t>
   </si>
   <si>
-    <t>Olimpia Elblag</t>
+    <t>Garbarnia Krakow</t>
   </si>
   <si>
     <t>Kotwica Kolobrzeg</t>
@@ -118,16 +118,16 @@
     <t>Hutnik Krakow</t>
   </si>
   <si>
-    <t>Garbarnia Krakow</t>
+    <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
-    <t>Polonia Warsaw</t>
-  </si>
-  <si>
-    <t>Wisla Pulawy</t>
+    <t>Radunia Stezyca</t>
   </si>
   <si>
     <t>Zaglebie Lubin II</t>
+  </si>
+  <si>
+    <t>Olimpia Elblag</t>
   </si>
   <si>
     <t>Stomil Olsztyn</t>
@@ -166,16 +166,16 @@
     <t>Polonia Bytom</t>
   </si>
   <si>
-    <t>Slask Wroclaw II</t>
+    <t>Motor Lublin</t>
+  </si>
+  <si>
+    <t>Gornik Polkowice</t>
   </si>
   <si>
     <t>Znicz Pruszkw</t>
   </si>
   <si>
-    <t>Gornik Polkowice</t>
-  </si>
-  <si>
-    <t>Motor Lublin</t>
+    <t>Slask Wroclaw II</t>
   </si>
   <si>
     <t>H</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC197"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5224885</v>
+        <v>5226044</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -658,46 +658,46 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>54</v>
       </c>
       <c r="K2">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P2">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U2">
         <v>1.8</v>
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="W2">
-        <v>1.3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -715,16 +715,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5224884</v>
+        <v>5228058</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -747,73 +747,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>55</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L3">
+        <v>3.3</v>
+      </c>
+      <c r="M3">
+        <v>2.1</v>
+      </c>
+      <c r="N3">
+        <v>2.8</v>
+      </c>
+      <c r="O3">
         <v>3.25</v>
       </c>
-      <c r="M3">
-        <v>2.5</v>
-      </c>
-      <c r="N3">
-        <v>2.6</v>
-      </c>
-      <c r="O3">
-        <v>3.1</v>
-      </c>
       <c r="P3">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5185127</v>
+        <v>5229462</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -836,73 +836,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <v>3.5</v>
       </c>
       <c r="M4">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="N4">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1014,7 +1014,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5229462</v>
+        <v>5224885</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1103,55 +1103,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S7">
+        <v>2.025</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.95</v>
-      </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1160,16 +1160,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5228058</v>
+        <v>5224884</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1192,73 +1192,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>55</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M8">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N8">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O8">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5226044</v>
+        <v>5226042</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,55 +1281,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
         <v>3</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>54</v>
       </c>
       <c r="K9">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N9">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="O9">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>7.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q9">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
+        <v>1.9</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
+        <v>1.975</v>
+      </c>
+      <c r="V9">
         <v>1.825</v>
       </c>
-      <c r="S9">
-        <v>1.975</v>
-      </c>
-      <c r="T9">
-        <v>3.25</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
       <c r="W9">
-        <v>0.2849999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1338,13 +1338,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5226042</v>
+        <v>5185127</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1370,73 +1370,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3.5</v>
+      </c>
+      <c r="M10">
         <v>3.1</v>
       </c>
-      <c r="L10">
-        <v>3.6</v>
-      </c>
-      <c r="M10">
-        <v>1.95</v>
-      </c>
       <c r="N10">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1548,7 +1548,7 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1901,7 +1901,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2067,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6808604</v>
+        <v>6808005</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2079,19 +2079,19 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18">
         <v>2.2</v>
@@ -2103,52 +2103,52 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
         <v>3.1</v>
       </c>
       <c r="P18">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
         <v>1.95</v>
-      </c>
-      <c r="S18">
-        <v>1.85</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6808905</v>
+        <v>6808604</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,76 +2168,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19">
+        <v>2.2</v>
+      </c>
+      <c r="L19">
+        <v>3.1</v>
+      </c>
+      <c r="M19">
         <v>3</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19">
+      <c r="N19">
+        <v>2.6</v>
+      </c>
+      <c r="O19">
+        <v>3.1</v>
+      </c>
+      <c r="P19">
         <v>2.5</v>
       </c>
-      <c r="L19">
-        <v>3.2</v>
-      </c>
-      <c r="M19">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
+        <v>1.85</v>
+      </c>
+      <c r="T19">
         <v>2.5</v>
       </c>
-      <c r="N19">
-        <v>2.15</v>
-      </c>
-      <c r="O19">
-        <v>3.25</v>
-      </c>
-      <c r="P19">
-        <v>3.1</v>
-      </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
-        <v>1.9</v>
-      </c>
-      <c r="S19">
-        <v>1.9</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2245,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6808005</v>
+        <v>6808905</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2257,58 +2257,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>54</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
+        <v>3.2</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <v>2.15</v>
+      </c>
+      <c r="O20">
+        <v>3.25</v>
+      </c>
+      <c r="P20">
         <v>3.1</v>
       </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>2.5</v>
-      </c>
-      <c r="O20">
-        <v>3.1</v>
-      </c>
-      <c r="P20">
-        <v>2.6</v>
-      </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2317,16 +2317,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2349,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2883,7 +2883,7 @@
         <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6808161</v>
+        <v>6808609</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3058,76 +3058,76 @@
         <v>45137.5</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>55</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
+        <v>2.4</v>
+      </c>
+      <c r="N29">
+        <v>2.25</v>
+      </c>
+      <c r="O29">
+        <v>3.75</v>
+      </c>
+      <c r="P29">
+        <v>2.5</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1.8</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>1.875</v>
+      </c>
+      <c r="V29">
+        <v>1.925</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
         <v>2.75</v>
       </c>
-      <c r="N29">
-        <v>2.2</v>
-      </c>
-      <c r="O29">
-        <v>3.2</v>
-      </c>
-      <c r="P29">
-        <v>2.875</v>
-      </c>
-      <c r="Q29">
-        <v>-0.25</v>
-      </c>
-      <c r="R29">
-        <v>2</v>
-      </c>
-      <c r="S29">
-        <v>1.8</v>
-      </c>
-      <c r="T29">
-        <v>2.25</v>
-      </c>
-      <c r="U29">
-        <v>1.8</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>2.2</v>
-      </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3135,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6808609</v>
+        <v>6808161</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3147,76 +3147,76 @@
         <v>45137.5</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>55</v>
       </c>
       <c r="K30">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N30">
+        <v>2.2</v>
+      </c>
+      <c r="O30">
+        <v>3.2</v>
+      </c>
+      <c r="P30">
+        <v>2.875</v>
+      </c>
+      <c r="Q30">
+        <v>-0.25</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
         <v>2.25</v>
       </c>
-      <c r="O30">
-        <v>3.75</v>
-      </c>
-      <c r="P30">
-        <v>2.5</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
+      <c r="U30">
         <v>1.8</v>
       </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.875</v>
-      </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3770,7 +3770,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3862,7 +3862,7 @@
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4126,7 +4126,7 @@
         <v>45150.5</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>48</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6808619</v>
+        <v>6808165</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>45151.5</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
         <v>3.25</v>
       </c>
       <c r="M44">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6808166</v>
+        <v>6808619</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,19 +4571,19 @@
         <v>45151.5</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46">
         <v>2.2</v>
@@ -4595,52 +4595,52 @@
         <v>2.8</v>
       </c>
       <c r="N46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
+        <v>1.925</v>
+      </c>
+      <c r="V46">
         <v>1.875</v>
       </c>
-      <c r="V46">
-        <v>1.925</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6808165</v>
+        <v>6808166</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4660,76 +4660,76 @@
         <v>45151.5</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
         <v>3.25</v>
       </c>
       <c r="M47">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N47">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O47">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.8</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
         <v>1.875</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.925</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.9</v>
-      </c>
-      <c r="V47">
-        <v>1.9</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y47">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB47">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4752,7 +4752,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4915,7 +4915,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6808168</v>
+        <v>6808169</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4927,56 +4927,56 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>56</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N50">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O50">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
+        <v>1.875</v>
+      </c>
+      <c r="S50">
+        <v>1.925</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
         <v>1.95</v>
       </c>
-      <c r="S50">
+      <c r="V50">
         <v>1.85</v>
       </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
-      <c r="U50">
-        <v>1.775</v>
-      </c>
-      <c r="V50">
-        <v>2.025</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
@@ -4984,19 +4984,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6808169</v>
+        <v>6808168</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5016,55 +5016,55 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>56</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N51">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5073,19 +5073,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5372,7 +5372,7 @@
         <v>45163.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6808899</v>
+        <v>6808624</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,58 +5639,58 @@
         <v>45164.5</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>54</v>
       </c>
       <c r="K58">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
+        <v>1.825</v>
+      </c>
+      <c r="V58">
         <v>1.975</v>
       </c>
-      <c r="V58">
-        <v>1.825</v>
-      </c>
       <c r="W58">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5699,13 +5699,13 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5728,7 +5728,7 @@
         <v>45164.5</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -5805,7 +5805,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6808624</v>
+        <v>6808899</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5817,58 +5817,58 @@
         <v>45164.5</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>54</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N60">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O60">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P60">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q60">
         <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
+        <v>1.975</v>
+      </c>
+      <c r="V60">
         <v>1.825</v>
       </c>
-      <c r="V60">
-        <v>1.975</v>
-      </c>
       <c r="W60">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5877,13 +5877,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6265,7 +6265,7 @@
         <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6351,7 +6351,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>40</v>
@@ -6621,7 +6621,7 @@
         <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6888,7 +6888,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7152,7 +7152,7 @@
         <v>45178.44791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>41</v>
@@ -7508,7 +7508,7 @@
         <v>45180.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7686,10 +7686,10 @@
         <v>45184.625</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7778,7 +7778,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7203342</v>
+        <v>6808649</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,55 +8042,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J85" t="s">
         <v>56</v>
       </c>
       <c r="K85">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N85">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P85">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8099,19 +8099,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6808649</v>
+        <v>7203342</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,55 +8131,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>56</v>
       </c>
       <c r="K86">
+        <v>1.8</v>
+      </c>
+      <c r="L86">
+        <v>3.4</v>
+      </c>
+      <c r="M86">
+        <v>3.75</v>
+      </c>
+      <c r="N86">
+        <v>1.95</v>
+      </c>
+      <c r="O86">
+        <v>3.3</v>
+      </c>
+      <c r="P86">
+        <v>3.25</v>
+      </c>
+      <c r="Q86">
+        <v>-0.5</v>
+      </c>
+      <c r="R86">
+        <v>2.025</v>
+      </c>
+      <c r="S86">
+        <v>1.775</v>
+      </c>
+      <c r="T86">
         <v>2.5</v>
       </c>
-      <c r="L86">
-        <v>3.2</v>
-      </c>
-      <c r="M86">
-        <v>2.5</v>
-      </c>
-      <c r="N86">
-        <v>2.5</v>
-      </c>
-      <c r="O86">
-        <v>3.25</v>
-      </c>
-      <c r="P86">
-        <v>2.5</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.9</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8188,19 +8188,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8398,7 +8398,7 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -8487,7 +8487,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8576,7 +8576,7 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8668,7 +8668,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8843,7 +8843,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -9202,7 +9202,7 @@
         <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9644,7 +9644,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
         <v>47</v>
@@ -9825,7 +9825,7 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -10270,7 +10270,7 @@
         <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10445,7 +10445,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10537,7 +10537,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10626,7 +10626,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10801,7 +10801,7 @@
         <v>45212.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -10893,7 +10893,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -11068,7 +11068,7 @@
         <v>45214.375</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11513,10 +11513,10 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11605,7 +11605,7 @@
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -12139,7 +12139,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12225,7 +12225,7 @@
         <v>45225.375</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
         <v>40</v>
@@ -12403,7 +12403,7 @@
         <v>45227.375</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
         <v>48</v>
@@ -12937,7 +12937,7 @@
         <v>45228.39236111111</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>46</v>
@@ -13014,7 +13014,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6808198</v>
+        <v>6808683</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13026,73 +13026,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K141">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L141">
+        <v>3.3</v>
+      </c>
+      <c r="M141">
         <v>3.25</v>
       </c>
-      <c r="M141">
-        <v>2.3</v>
-      </c>
       <c r="N141">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q141">
         <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13103,7 +13103,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6808683</v>
+        <v>6808198</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13115,73 +13115,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M142">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O142">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X142">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA142">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13652,7 +13652,7 @@
         <v>47</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13741,7 +13741,7 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -14094,7 +14094,7 @@
         <v>45241.51041666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
         <v>44</v>
@@ -14260,7 +14260,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6808690</v>
+        <v>6808200</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14272,13 +14272,13 @@
         <v>45242.375</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14287,43 +14287,43 @@
         <v>54</v>
       </c>
       <c r="K155">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L155">
+        <v>3.25</v>
+      </c>
+      <c r="M155">
         <v>3.3</v>
       </c>
-      <c r="M155">
-        <v>2.8</v>
-      </c>
       <c r="N155">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O155">
         <v>3.25</v>
       </c>
       <c r="P155">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14332,16 +14332,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14349,7 +14349,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6808200</v>
+        <v>6808690</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14361,13 +14361,13 @@
         <v>45242.375</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -14376,61 +14376,61 @@
         <v>54</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L156">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M156">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N156">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O156">
         <v>3.25</v>
       </c>
       <c r="P156">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
+        <v>1.5</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
         <v>0.95</v>
       </c>
-      <c r="X156">
-        <v>-1</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>1</v>
-      </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14542,7 +14542,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14806,7 +14806,7 @@
         <v>45248.375</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
         <v>38</v>
@@ -15076,7 +15076,7 @@
         <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
         <v>42</v>
@@ -15340,7 +15340,7 @@
         <v>45254.65625</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15521,7 +15521,7 @@
         <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15788,7 +15788,7 @@
         <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15966,7 +15966,7 @@
         <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16230,7 +16230,7 @@
         <v>45262.375</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
         <v>33</v>
@@ -16678,7 +16678,7 @@
         <v>49</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16764,7 +16764,7 @@
         <v>45346.29166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
         <v>43</v>
@@ -17212,7 +17212,7 @@
         <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17301,7 +17301,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17390,7 +17390,7 @@
         <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17654,10 +17654,10 @@
         <v>45353.33333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17820,7 +17820,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6808144</v>
+        <v>6808712</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17832,49 +17832,49 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K195">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M195">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="N195">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S195">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T195">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
         <v>1.875</v>
@@ -17883,25 +17883,25 @@
         <v>1.925</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X195">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA195">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC195">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17909,7 +17909,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6808712</v>
+        <v>6808144</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17921,49 +17921,49 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K196">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L196">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="N196">
+        <v>2.8</v>
+      </c>
+      <c r="O196">
+        <v>3.6</v>
+      </c>
+      <c r="P196">
+        <v>2.1</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
         <v>1.95</v>
       </c>
-      <c r="O196">
-        <v>3.5</v>
-      </c>
-      <c r="P196">
-        <v>3.2</v>
-      </c>
-      <c r="Q196">
-        <v>-0.25</v>
-      </c>
-      <c r="R196">
-        <v>1.775</v>
-      </c>
       <c r="S196">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
         <v>1.875</v>
@@ -17972,25 +17972,25 @@
         <v>1.925</v>
       </c>
       <c r="W196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18015,6 +18015,15 @@
       <c r="G197" t="s">
         <v>47</v>
       </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>55</v>
+      </c>
       <c r="K197">
         <v>2.1</v>
       </c>
@@ -18025,45 +18034,555 @@
         <v>3</v>
       </c>
       <c r="N197">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O197">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P197">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V197">
+        <v>1.825</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>2.5</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
+        <v>0.875</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>6808709</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45355.52083333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>46</v>
+      </c>
+      <c r="G198" t="s">
+        <v>38</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198" t="s">
+        <v>54</v>
+      </c>
+      <c r="K198">
+        <v>2.3</v>
+      </c>
+      <c r="L198">
+        <v>3.3</v>
+      </c>
+      <c r="M198">
+        <v>2.625</v>
+      </c>
+      <c r="N198">
+        <v>2.2</v>
+      </c>
+      <c r="O198">
+        <v>3.25</v>
+      </c>
+      <c r="P198">
+        <v>2.8</v>
+      </c>
+      <c r="Q198">
+        <v>-0.25</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
         <v>1.8</v>
       </c>
-      <c r="W197">
+      <c r="T198">
+        <v>2.5</v>
+      </c>
+      <c r="U198">
+        <v>1.85</v>
+      </c>
+      <c r="V198">
+        <v>1.95</v>
+      </c>
+      <c r="W198">
+        <v>1.2</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
+        <v>1</v>
+      </c>
+      <c r="AA198">
+        <v>-1</v>
+      </c>
+      <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>6808710</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45355.59375</v>
+      </c>
+      <c r="F199" t="s">
+        <v>29</v>
+      </c>
+      <c r="G199" t="s">
+        <v>42</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
+        <v>55</v>
+      </c>
+      <c r="K199">
+        <v>2.625</v>
+      </c>
+      <c r="L199">
+        <v>3.3</v>
+      </c>
+      <c r="M199">
+        <v>2.3</v>
+      </c>
+      <c r="N199">
+        <v>2.3</v>
+      </c>
+      <c r="O199">
+        <v>3.25</v>
+      </c>
+      <c r="P199">
+        <v>2.625</v>
+      </c>
+      <c r="Q199">
         <v>0</v>
       </c>
-      <c r="X197">
+      <c r="R199">
+        <v>1.775</v>
+      </c>
+      <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
+        <v>1.875</v>
+      </c>
+      <c r="V199">
+        <v>1.925</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
+        <v>2.25</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
         <v>0</v>
       </c>
-      <c r="Y197">
+      <c r="AA199">
+        <v>-0</v>
+      </c>
+      <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7542122</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45356.375</v>
+      </c>
+      <c r="F200" t="s">
+        <v>48</v>
+      </c>
+      <c r="G200" t="s">
+        <v>35</v>
+      </c>
+      <c r="H200">
+        <v>2</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
+        <v>54</v>
+      </c>
+      <c r="K200">
+        <v>2.625</v>
+      </c>
+      <c r="L200">
+        <v>3.2</v>
+      </c>
+      <c r="M200">
+        <v>2.4</v>
+      </c>
+      <c r="N200">
+        <v>2.3</v>
+      </c>
+      <c r="O200">
+        <v>3.2</v>
+      </c>
+      <c r="P200">
+        <v>2.9</v>
+      </c>
+      <c r="Q200">
+        <v>-0.25</v>
+      </c>
+      <c r="R200">
+        <v>2.025</v>
+      </c>
+      <c r="S200">
+        <v>1.775</v>
+      </c>
+      <c r="T200">
+        <v>2</v>
+      </c>
+      <c r="U200">
+        <v>1.825</v>
+      </c>
+      <c r="V200">
+        <v>1.975</v>
+      </c>
+      <c r="W200">
+        <v>1.3</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
+        <v>1.025</v>
+      </c>
+      <c r="AA200">
+        <v>-1</v>
+      </c>
+      <c r="AB200">
+        <v>0.825</v>
+      </c>
+      <c r="AC200">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7549482</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45357.58333333334</v>
+      </c>
+      <c r="F201" t="s">
+        <v>41</v>
+      </c>
+      <c r="G201" t="s">
+        <v>37</v>
+      </c>
+      <c r="H201">
+        <v>3</v>
+      </c>
+      <c r="I201">
         <v>0</v>
       </c>
-      <c r="Z197">
+      <c r="J201" t="s">
+        <v>54</v>
+      </c>
+      <c r="K201">
+        <v>2.2</v>
+      </c>
+      <c r="L201">
+        <v>3.2</v>
+      </c>
+      <c r="M201">
+        <v>2.9</v>
+      </c>
+      <c r="N201">
+        <v>1.95</v>
+      </c>
+      <c r="O201">
+        <v>3.2</v>
+      </c>
+      <c r="P201">
+        <v>3.5</v>
+      </c>
+      <c r="Q201">
+        <v>-0.5</v>
+      </c>
+      <c r="R201">
+        <v>2</v>
+      </c>
+      <c r="S201">
+        <v>1.8</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
+        <v>1.975</v>
+      </c>
+      <c r="V201">
+        <v>1.825</v>
+      </c>
+      <c r="W201">
+        <v>0.95</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>-1</v>
+      </c>
+      <c r="Z201">
+        <v>1</v>
+      </c>
+      <c r="AA201">
+        <v>-1</v>
+      </c>
+      <c r="AB201">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>6808716</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45359.58333333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>49</v>
+      </c>
+      <c r="G202" t="s">
+        <v>40</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
+        <v>3.4</v>
+      </c>
+      <c r="M202">
+        <v>3.1</v>
+      </c>
+      <c r="N202">
+        <v>2.05</v>
+      </c>
+      <c r="O202">
+        <v>3.4</v>
+      </c>
+      <c r="P202">
+        <v>3.1</v>
+      </c>
+      <c r="Q202">
+        <v>-0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
+        <v>1.975</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.875</v>
+      </c>
+      <c r="V202">
+        <v>1.925</v>
+      </c>
+      <c r="W202">
         <v>0</v>
       </c>
-      <c r="AA197">
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6808714</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45359.58333333334</v>
+      </c>
+      <c r="F203" t="s">
+        <v>42</v>
+      </c>
+      <c r="G203" t="s">
+        <v>46</v>
+      </c>
+      <c r="K203">
+        <v>1.727</v>
+      </c>
+      <c r="L203">
+        <v>3.6</v>
+      </c>
+      <c r="M203">
+        <v>3.9</v>
+      </c>
+      <c r="N203">
+        <v>1.75</v>
+      </c>
+      <c r="O203">
+        <v>3.5</v>
+      </c>
+      <c r="P203">
+        <v>3.8</v>
+      </c>
+      <c r="Q203">
+        <v>-0.5</v>
+      </c>
+      <c r="R203">
+        <v>1.8</v>
+      </c>
+      <c r="S203">
+        <v>2</v>
+      </c>
+      <c r="T203">
+        <v>2.75</v>
+      </c>
+      <c r="U203">
+        <v>1.9</v>
+      </c>
+      <c r="V203">
+        <v>1.9</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
         <v>0</v>
       </c>
     </row>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -103,31 +103,31 @@
     <t>Poland II Liga</t>
   </si>
   <si>
-    <t>Wisla Pulawy</t>
+    <t>Hutnik Krakow</t>
+  </si>
+  <si>
+    <t>Garbarnia Krakow</t>
   </si>
   <si>
     <t>Polonia Warsaw</t>
   </si>
   <si>
-    <t>Garbarnia Krakow</t>
+    <t>Wisla Pulawy</t>
   </si>
   <si>
     <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
-    <t>Hutnik Krakow</t>
+    <t>Olimpia Elblag</t>
+  </si>
+  <si>
+    <t>Radunia Stezyca</t>
   </si>
   <si>
     <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
-    <t>Radunia Stezyca</t>
-  </si>
-  <si>
     <t>Zaglebie Lubin II</t>
-  </si>
-  <si>
-    <t>Olimpia Elblag</t>
   </si>
   <si>
     <t>Stomil Olsztyn</t>
@@ -136,10 +136,10 @@
     <t>MKP Pogon Siedlce</t>
   </si>
   <si>
-    <t>GKS Jastrzebie</t>
+    <t>Olimpia Grudziadz</t>
   </si>
   <si>
-    <t>Olimpia Grudziadz</t>
+    <t>GKS Jastrzebie</t>
   </si>
   <si>
     <t>KKS 1925 Kalisz</t>
@@ -166,25 +166,25 @@
     <t>Polonia Bytom</t>
   </si>
   <si>
-    <t>Motor Lublin</t>
+    <t>Znicz Pruszkw</t>
   </si>
   <si>
     <t>Gornik Polkowice</t>
   </si>
   <si>
-    <t>Znicz Pruszkw</t>
+    <t>Motor Lublin</t>
   </si>
   <si>
     <t>Slask Wroclaw II</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5226044</v>
+        <v>5224889</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -658,10 +658,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>54</v>
       </c>
       <c r="K2">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="L2">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N2">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P2">
-        <v>7.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q2">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
         <v>1.8</v>
@@ -706,25 +706,25 @@
         <v>2</v>
       </c>
       <c r="W2">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5228058</v>
+        <v>5229462</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -747,10 +747,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -759,61 +759,61 @@
         <v>55</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="N3">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O3">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q3">
         <v>0.25</v>
       </c>
       <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
         <v>1.8</v>
       </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X3">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5229462</v>
+        <v>5228058</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -836,73 +836,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="N4">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q4">
         <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5226043</v>
+        <v>5226044</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,10 +925,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -937,61 +937,61 @@
         <v>55</v>
       </c>
       <c r="K5">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L5">
         <v>4.5</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N5">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="O5">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
+        <v>1.825</v>
+      </c>
+      <c r="S5">
+        <v>1.975</v>
+      </c>
+      <c r="T5">
+        <v>3.25</v>
+      </c>
+      <c r="U5">
         <v>1.8</v>
       </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.9</v>
-      </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X5">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5224889</v>
+        <v>5226043</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,10 +1014,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1026,61 +1026,61 @@
         <v>56</v>
       </c>
       <c r="K6">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M6">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>1.45</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P6">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y6">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
         <v>-0.5</v>
       </c>
-      <c r="AA6">
-        <v>0.375</v>
-      </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5224885</v>
+        <v>5185127</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1103,31 +1103,31 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N7">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
         <v>2.625</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
         <v>1.8</v>
@@ -1151,19 +1151,19 @@
         <v>2</v>
       </c>
       <c r="W7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z7">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8">
         <v>2.5</v>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5226042</v>
+        <v>5224885</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,55 +1281,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9">
+        <v>2.1</v>
+      </c>
+      <c r="L9">
+        <v>3.3</v>
+      </c>
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9">
-        <v>3.1</v>
-      </c>
-      <c r="L9">
-        <v>3.6</v>
-      </c>
-      <c r="M9">
-        <v>1.95</v>
-      </c>
       <c r="N9">
+        <v>2.3</v>
+      </c>
+      <c r="O9">
         <v>3.3</v>
       </c>
-      <c r="O9">
-        <v>3.6</v>
-      </c>
       <c r="P9">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1338,16 +1338,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5185127</v>
+        <v>5226042</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1370,73 +1370,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N10">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1545,10 +1545,10 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1637,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <v>2.55</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14">
         <v>1.8</v>
@@ -1812,7 +1812,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15">
         <v>1.666</v>
@@ -1901,7 +1901,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1990,7 +1990,7 @@
         <v>45129.5</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17">
         <v>2.1</v>
@@ -2067,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6808005</v>
+        <v>6808905</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2079,58 +2079,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
+        <v>3.2</v>
+      </c>
+      <c r="M18">
+        <v>2.5</v>
+      </c>
+      <c r="N18">
+        <v>2.15</v>
+      </c>
+      <c r="O18">
+        <v>3.25</v>
+      </c>
+      <c r="P18">
         <v>3.1</v>
       </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="N18">
-        <v>2.5</v>
-      </c>
-      <c r="O18">
-        <v>3.1</v>
-      </c>
-      <c r="P18">
-        <v>2.6</v>
-      </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W18">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2139,16 +2139,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2168,7 +2168,7 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
         <v>47</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19">
         <v>2.2</v>
@@ -2245,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6808905</v>
+        <v>6808005</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2257,58 +2257,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <v>2.2</v>
+      </c>
+      <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20">
+      <c r="N20">
         <v>2.5</v>
       </c>
-      <c r="L20">
-        <v>3.2</v>
-      </c>
-      <c r="M20">
+      <c r="O20">
+        <v>3.1</v>
+      </c>
+      <c r="P20">
+        <v>2.6</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>1.95</v>
+      </c>
+      <c r="T20">
         <v>2.5</v>
       </c>
-      <c r="N20">
-        <v>2.15</v>
-      </c>
-      <c r="O20">
-        <v>3.25</v>
-      </c>
-      <c r="P20">
-        <v>3.1</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.9</v>
-      </c>
-      <c r="S20">
-        <v>1.9</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2317,16 +2317,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2438,7 +2438,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K22">
         <v>1.615</v>
@@ -2524,7 +2524,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
         <v>1.909</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24">
         <v>2.6</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2880,10 +2880,10 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27">
         <v>1.909</v>
@@ -2969,7 +2969,7 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>49</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28">
         <v>2.1</v>
@@ -3058,7 +3058,7 @@
         <v>45137.5</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29">
         <v>2.4</v>
@@ -3150,7 +3150,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3236,7 +3236,7 @@
         <v>45138.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3328,7 +3328,7 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3506,7 +3506,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>3.1</v>
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
         <v>2.7</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3770,10 +3770,10 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>2.3</v>
@@ -3859,10 +3859,10 @@
         <v>45144.5</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38">
         <v>1.75</v>
@@ -3951,7 +3951,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>2.2</v>
@@ -4025,7 +4025,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6808618</v>
+        <v>6808901</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4037,19 +4037,19 @@
         <v>45150.5</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>2.5</v>
@@ -4082,31 +4082,31 @@
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4114,7 +4114,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6808901</v>
+        <v>6808618</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4126,16 +4126,16 @@
         <v>45150.5</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>54</v>
@@ -4171,31 +4171,31 @@
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z41">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB41">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4218,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K42">
         <v>2.375</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43">
         <v>2.2</v>
@@ -4393,7 +4393,7 @@
         <v>45151.5</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4405,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K44">
         <v>1.909</v>
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6808617</v>
+        <v>6808166</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,28 +4482,28 @@
         <v>45151.5</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K45">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N45">
         <v>2.2</v>
@@ -4512,46 +4512,46 @@
         <v>3.25</v>
       </c>
       <c r="P45">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
+        <v>1.875</v>
+      </c>
+      <c r="V45">
         <v>1.925</v>
       </c>
-      <c r="V45">
-        <v>1.875</v>
-      </c>
       <c r="W45">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6808619</v>
+        <v>6808617</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,46 +4571,46 @@
         <v>45151.5</v>
       </c>
       <c r="F46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" t="s">
         <v>29</v>
       </c>
-      <c r="G46" t="s">
-        <v>38</v>
-      </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
+        <v>2.4</v>
+      </c>
+      <c r="L46">
+        <v>3.2</v>
+      </c>
+      <c r="M46">
+        <v>2.6</v>
+      </c>
+      <c r="N46">
         <v>2.2</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>3.25</v>
       </c>
-      <c r="M46">
-        <v>2.8</v>
-      </c>
-      <c r="N46">
-        <v>2</v>
-      </c>
-      <c r="O46">
-        <v>3.4</v>
-      </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
         <v>2.5</v>
@@ -4622,7 +4622,7 @@
         <v>1.875</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4631,16 +4631,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6808166</v>
+        <v>6808619</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4660,13 +4660,13 @@
         <v>45151.5</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -4684,52 +4684,52 @@
         <v>2.8</v>
       </c>
       <c r="N47">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P47">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q47">
         <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
+        <v>1.925</v>
+      </c>
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="V47">
-        <v>1.925</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X47">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC47">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4752,7 +4752,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K48">
         <v>2.25</v>
@@ -4838,7 +4838,7 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K49">
         <v>2.1</v>
@@ -4915,7 +4915,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6808169</v>
+        <v>6808168</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4927,55 +4927,55 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N50">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4984,19 +4984,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6808168</v>
+        <v>6808169</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5016,56 +5016,56 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K51">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
+        <v>1.875</v>
+      </c>
+      <c r="S51">
+        <v>1.925</v>
+      </c>
+      <c r="T51">
+        <v>2.5</v>
+      </c>
+      <c r="U51">
         <v>1.95</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>1.85</v>
       </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
-      <c r="U51">
-        <v>1.775</v>
-      </c>
-      <c r="V51">
-        <v>2.025</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
@@ -5073,19 +5073,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5117,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K52">
         <v>2.625</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K53">
         <v>2.25</v>
@@ -5295,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K55">
         <v>1.909</v>
@@ -5464,7 +5464,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K56">
         <v>2.5</v>
@@ -5553,7 +5553,7 @@
         <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K57">
         <v>2.3</v>
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6808624</v>
+        <v>7105151</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,13 +5639,13 @@
         <v>45164.5</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5654,61 +5654,61 @@
         <v>54</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N58">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P58">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
         <v>1.95</v>
-      </c>
-      <c r="S58">
-        <v>1.85</v>
       </c>
       <c r="T58">
         <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
         <v>0.95</v>
       </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
       <c r="AB58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5716,7 +5716,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7105151</v>
+        <v>6808899</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5728,76 +5728,76 @@
         <v>45164.5</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
         <v>0</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
       <c r="J59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K59">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L59">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N59">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O59">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5805,7 +5805,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6808899</v>
+        <v>6808625</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5817,58 +5817,58 @@
         <v>45164.5</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P60">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q60">
         <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5877,13 +5877,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5894,7 +5894,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6808625</v>
+        <v>6808624</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5906,19 +5906,19 @@
         <v>45164.5</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5930,34 +5930,34 @@
         <v>3.1</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P61">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q61">
         <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5966,13 +5966,13 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K62">
         <v>2.4</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K63">
         <v>2.5</v>
@@ -6173,7 +6173,7 @@
         <v>45171.375</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
         <v>43</v>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K64">
         <v>1.833</v>
@@ -6250,7 +6250,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6808898</v>
+        <v>6808631</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6262,73 +6262,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K65">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L65">
         <v>3.2</v>
       </c>
       <c r="M65">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O65">
         <v>3.2</v>
       </c>
       <c r="P65">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
+        <v>1.85</v>
+      </c>
+      <c r="T65">
+        <v>2.25</v>
+      </c>
+      <c r="U65">
         <v>1.8</v>
       </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
-      <c r="U65">
-        <v>2</v>
-      </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
+        <v>-1</v>
+      </c>
+      <c r="AB65">
         <v>0.8</v>
-      </c>
-      <c r="AB65">
-        <v>1</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6339,7 +6339,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6808631</v>
+        <v>6808898</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6351,73 +6351,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>54</v>
       </c>
       <c r="K66">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
         <v>3.2</v>
       </c>
       <c r="M66">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N66">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O66">
         <v>3.2</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66">
         <v>1.8</v>
       </c>
-      <c r="V66">
-        <v>2</v>
-      </c>
       <c r="W66">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB66">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K68">
         <v>1.727</v>
@@ -6621,7 +6621,7 @@
         <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6630,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K69">
         <v>2.35</v>
@@ -6707,7 +6707,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K70">
         <v>2.45</v>
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K71">
         <v>1.909</v>
@@ -6885,7 +6885,7 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6974,7 +6974,7 @@
         <v>45177.5</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -6986,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K73">
         <v>2.1</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7155,7 +7155,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K75">
         <v>2.15</v>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7333,7 +7333,7 @@
         <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K77">
         <v>2.3</v>
@@ -7431,7 +7431,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K78">
         <v>2.4</v>
@@ -7508,7 +7508,7 @@
         <v>45180.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K79">
         <v>1.833</v>
@@ -7609,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -7686,10 +7686,10 @@
         <v>45184.625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7698,7 +7698,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K81">
         <v>2.5</v>
@@ -7775,10 +7775,10 @@
         <v>45185.40972222222</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7953,10 +7953,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K84">
         <v>1.8</v>
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6808649</v>
+        <v>7203342</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,55 +8042,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K85">
+        <v>1.8</v>
+      </c>
+      <c r="L85">
+        <v>3.4</v>
+      </c>
+      <c r="M85">
+        <v>3.75</v>
+      </c>
+      <c r="N85">
+        <v>1.95</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
+        <v>3.25</v>
+      </c>
+      <c r="Q85">
+        <v>-0.5</v>
+      </c>
+      <c r="R85">
+        <v>2.025</v>
+      </c>
+      <c r="S85">
+        <v>1.775</v>
+      </c>
+      <c r="T85">
         <v>2.5</v>
       </c>
-      <c r="L85">
-        <v>3.2</v>
-      </c>
-      <c r="M85">
-        <v>2.5</v>
-      </c>
-      <c r="N85">
-        <v>2.5</v>
-      </c>
-      <c r="O85">
-        <v>3.25</v>
-      </c>
-      <c r="P85">
-        <v>2.5</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.9</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8099,19 +8099,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7203342</v>
+        <v>6808649</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,55 +8131,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N86">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8188,19 +8188,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8220,7 +8220,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8232,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K87">
         <v>2.15</v>
@@ -8321,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K88">
         <v>2.3</v>
@@ -8398,10 +8398,10 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8410,7 +8410,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K89">
         <v>2.875</v>
@@ -8487,7 +8487,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K90">
         <v>2.1</v>
@@ -8576,7 +8576,7 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8588,7 +8588,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K91">
         <v>1.615</v>
@@ -8677,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K92">
         <v>2.375</v>
@@ -8757,7 +8757,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K93">
         <v>2.1</v>
@@ -8843,7 +8843,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8855,7 +8855,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K94">
         <v>1.8</v>
@@ -8935,7 +8935,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -8944,7 +8944,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K95">
         <v>2.5</v>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9202,7 +9202,7 @@
         <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9211,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9288,10 +9288,10 @@
         <v>45194.63541666666</v>
       </c>
       <c r="F99" t="s">
+        <v>41</v>
+      </c>
+      <c r="G99" t="s">
         <v>40</v>
-      </c>
-      <c r="G99" t="s">
-        <v>41</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9300,7 +9300,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K99">
         <v>2.4</v>
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6808664</v>
+        <v>6808894</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,56 +9377,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K100">
+        <v>2.875</v>
+      </c>
+      <c r="L100">
+        <v>3.3</v>
+      </c>
+      <c r="M100">
+        <v>2.15</v>
+      </c>
+      <c r="N100">
+        <v>2.875</v>
+      </c>
+      <c r="O100">
+        <v>3.3</v>
+      </c>
+      <c r="P100">
+        <v>2.15</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.85</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
         <v>2.5</v>
       </c>
-      <c r="L100">
-        <v>3.4</v>
-      </c>
-      <c r="M100">
-        <v>2.375</v>
-      </c>
-      <c r="N100">
-        <v>2.3</v>
-      </c>
-      <c r="O100">
-        <v>3.4</v>
-      </c>
-      <c r="P100">
-        <v>2.55</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.8</v>
-      </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
       <c r="U100">
+        <v>1.95</v>
+      </c>
+      <c r="V100">
         <v>1.85</v>
       </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9434,19 +9434,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6808894</v>
+        <v>6808664</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,56 +9466,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K101">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N101">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
         <v>1.85</v>
       </c>
-      <c r="S101">
+      <c r="V101">
         <v>1.95</v>
       </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>1.95</v>
-      </c>
-      <c r="V101">
-        <v>1.85</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
@@ -9523,19 +9523,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9555,7 +9555,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>44</v>
@@ -9567,7 +9567,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K102">
         <v>1.909</v>
@@ -9644,7 +9644,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>47</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9736,7 +9736,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K104">
         <v>2.15</v>
@@ -9822,10 +9822,10 @@
         <v>45200.4375</v>
       </c>
       <c r="F105" t="s">
+        <v>33</v>
+      </c>
+      <c r="G105" t="s">
         <v>32</v>
-      </c>
-      <c r="G105" t="s">
-        <v>29</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9834,7 +9834,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9911,7 +9911,7 @@
         <v>45200.59930555556</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
         <v>39</v>
@@ -9923,7 +9923,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K106">
         <v>2.25</v>
@@ -10012,7 +10012,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K107">
         <v>2.4</v>
@@ -10077,7 +10077,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6808666</v>
+        <v>6808667</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10089,73 +10089,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>55</v>
+      </c>
+      <c r="K108">
+        <v>1.615</v>
+      </c>
+      <c r="L108">
+        <v>3.75</v>
+      </c>
+      <c r="M108">
+        <v>4.5</v>
+      </c>
+      <c r="N108">
+        <v>1.285</v>
+      </c>
+      <c r="O108">
+        <v>4.75</v>
+      </c>
+      <c r="P108">
+        <v>8.5</v>
+      </c>
+      <c r="Q108">
+        <v>-1.5</v>
+      </c>
+      <c r="R108">
+        <v>1.85</v>
+      </c>
+      <c r="S108">
+        <v>1.95</v>
+      </c>
+      <c r="T108">
         <v>3</v>
       </c>
-      <c r="J108" t="s">
-        <v>56</v>
-      </c>
-      <c r="K108">
-        <v>2.1</v>
-      </c>
-      <c r="L108">
-        <v>3.4</v>
-      </c>
-      <c r="M108">
-        <v>2.8</v>
-      </c>
-      <c r="N108">
-        <v>2.45</v>
-      </c>
-      <c r="O108">
-        <v>3.6</v>
-      </c>
-      <c r="P108">
-        <v>2.3</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
-        <v>2</v>
-      </c>
-      <c r="S108">
-        <v>1.8</v>
-      </c>
-      <c r="T108">
-        <v>2.75</v>
-      </c>
       <c r="U108">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10166,7 +10166,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6808667</v>
+        <v>6808666</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10178,73 +10178,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
         <v>3</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>54</v>
       </c>
       <c r="K109">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N109">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="O109">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q109">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W109">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10267,7 +10267,7 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
         <v>35</v>
@@ -10279,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K110">
         <v>2.45</v>
@@ -10356,7 +10356,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>48</v>
@@ -10368,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K111">
         <v>1.75</v>
@@ -10445,10 +10445,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10457,7 +10457,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K112">
         <v>1.75</v>
@@ -10537,7 +10537,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10546,7 +10546,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K113">
         <v>1.6</v>
@@ -10626,7 +10626,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10635,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K114">
         <v>2.3</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K115">
         <v>1.6</v>
@@ -10801,7 +10801,7 @@
         <v>45212.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -10813,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K116">
         <v>2.75</v>
@@ -10893,7 +10893,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K117">
         <v>2.3</v>
@@ -10982,7 +10982,7 @@
         <v>49</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K118">
         <v>2.45</v>
@@ -11080,7 +11080,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K119">
         <v>2.15</v>
@@ -11157,7 +11157,7 @@
         <v>45215.55208333334</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
         <v>46</v>
@@ -11169,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K120">
         <v>3.5</v>
@@ -11258,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K121">
         <v>2.7</v>
@@ -11335,7 +11335,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>47</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11436,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K123">
         <v>1.5</v>
@@ -11513,7 +11513,7 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
         <v>35</v>
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K124">
         <v>2.2</v>
@@ -11602,10 +11602,10 @@
         <v>45220.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K125">
         <v>2.25</v>
@@ -11694,7 +11694,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K126">
         <v>2.8</v>
@@ -11792,7 +11792,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11881,7 +11881,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -11961,7 +11961,7 @@
         <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K129">
         <v>1.727</v>
@@ -12050,7 +12050,7 @@
         <v>47</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K130">
         <v>1.909</v>
@@ -12139,7 +12139,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K131">
         <v>1.833</v>
@@ -12225,10 +12225,10 @@
         <v>45225.375</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12237,7 +12237,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K132">
         <v>1.727</v>
@@ -12326,7 +12326,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12403,7 +12403,7 @@
         <v>45227.375</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
         <v>48</v>
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K134">
         <v>1.533</v>
@@ -12492,7 +12492,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
         <v>42</v>
@@ -12504,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K135">
         <v>2.25</v>
@@ -12593,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K136">
         <v>3.25</v>
@@ -12670,7 +12670,7 @@
         <v>45227.59930555556</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K137">
         <v>2.7</v>
@@ -12759,7 +12759,7 @@
         <v>45228.3125</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12771,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K138">
         <v>4.333</v>
@@ -12851,7 +12851,7 @@
         <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -12860,7 +12860,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K139">
         <v>3.5</v>
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K140">
         <v>1.8</v>
@@ -13026,10 +13026,10 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13038,7 +13038,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K141">
         <v>2</v>
@@ -13118,7 +13118,7 @@
         <v>49</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K142">
         <v>2.7</v>
@@ -13207,7 +13207,7 @@
         <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13216,7 +13216,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K143">
         <v>1.666</v>
@@ -13305,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K144">
         <v>1.85</v>
@@ -13394,7 +13394,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K145">
         <v>1.75</v>
@@ -13483,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K146">
         <v>2.25</v>
@@ -13560,10 +13560,10 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F147" t="s">
+        <v>29</v>
+      </c>
+      <c r="G147" t="s">
         <v>33</v>
-      </c>
-      <c r="G147" t="s">
-        <v>32</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13572,7 +13572,7 @@
         <v>5</v>
       </c>
       <c r="J147" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K147">
         <v>2.75</v>
@@ -13661,7 +13661,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K148">
         <v>2</v>
@@ -13741,7 +13741,7 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13839,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K150">
         <v>2.45</v>
@@ -13916,7 +13916,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
         <v>48</v>
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K151">
         <v>1.615</v>
@@ -14005,10 +14005,10 @@
         <v>45241.375</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14017,7 +14017,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K152">
         <v>2</v>
@@ -14094,7 +14094,7 @@
         <v>45241.51041666666</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
         <v>44</v>
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K153">
         <v>2.4</v>
@@ -14183,7 +14183,7 @@
         <v>45242.35416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
         <v>46</v>
@@ -14195,7 +14195,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K154">
         <v>2.2</v>
@@ -14260,7 +14260,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6808200</v>
+        <v>6808689</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14272,10 +14272,10 @@
         <v>45242.375</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14284,47 +14284,47 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K155">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L155">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M155">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N155">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O155">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P155">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
+        <v>1.975</v>
+      </c>
+      <c r="T155">
+        <v>3</v>
+      </c>
+      <c r="U155">
+        <v>1.975</v>
+      </c>
+      <c r="V155">
+        <v>1.825</v>
+      </c>
+      <c r="W155">
         <v>1.8</v>
       </c>
-      <c r="T155">
-        <v>2.5</v>
-      </c>
-      <c r="U155">
-        <v>1.9</v>
-      </c>
-      <c r="V155">
-        <v>1.9</v>
-      </c>
-      <c r="W155">
-        <v>0.95</v>
-      </c>
       <c r="X155">
         <v>-1</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA155">
         <v>-1</v>
@@ -14341,7 +14341,7 @@
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14349,7 +14349,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6808690</v>
+        <v>6808200</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14361,58 +14361,58 @@
         <v>45242.375</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K156">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L156">
+        <v>3.25</v>
+      </c>
+      <c r="M156">
         <v>3.3</v>
       </c>
-      <c r="M156">
-        <v>2.8</v>
-      </c>
       <c r="N156">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O156">
         <v>3.25</v>
       </c>
       <c r="P156">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14421,16 +14421,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14438,7 +14438,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6808689</v>
+        <v>6808690</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14450,49 +14450,49 @@
         <v>45242.375</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K157">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L157">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M157">
+        <v>2.8</v>
+      </c>
+      <c r="N157">
+        <v>2.5</v>
+      </c>
+      <c r="O157">
+        <v>3.25</v>
+      </c>
+      <c r="P157">
+        <v>2.4</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>1.85</v>
+      </c>
+      <c r="T157">
         <v>2.75</v>
-      </c>
-      <c r="N157">
-        <v>2.8</v>
-      </c>
-      <c r="O157">
-        <v>3.4</v>
-      </c>
-      <c r="P157">
-        <v>2.2</v>
-      </c>
-      <c r="Q157">
-        <v>0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.825</v>
-      </c>
-      <c r="S157">
-        <v>1.975</v>
-      </c>
-      <c r="T157">
-        <v>3</v>
       </c>
       <c r="U157">
         <v>1.975</v>
@@ -14501,7 +14501,7 @@
         <v>1.825</v>
       </c>
       <c r="W157">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14510,16 +14510,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14542,7 +14542,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14551,7 +14551,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K158">
         <v>2.2</v>
@@ -14640,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K159">
         <v>2.25</v>
@@ -14705,7 +14705,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6808886</v>
+        <v>6808694</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14717,49 +14717,49 @@
         <v>45248.375</v>
       </c>
       <c r="F160" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K160">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N160">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O160">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q160">
         <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S160">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
         <v>1.85</v>
@@ -14768,7 +14768,7 @@
         <v>1.95</v>
       </c>
       <c r="W160">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14777,16 +14777,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.075</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC160">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14794,7 +14794,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6808694</v>
+        <v>6808886</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14806,49 +14806,49 @@
         <v>45248.375</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K161">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M161">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N161">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P161">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q161">
         <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S161">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U161">
         <v>1.85</v>
@@ -14857,25 +14857,25 @@
         <v>1.95</v>
       </c>
       <c r="W161">
+        <v>1.375</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
+        <v>-1</v>
+      </c>
+      <c r="Z161">
+        <v>1.075</v>
+      </c>
+      <c r="AA161">
+        <v>-1</v>
+      </c>
+      <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.95</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>-1</v>
-      </c>
-      <c r="Z161">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
-      <c r="AB161">
-        <v>0.425</v>
-      </c>
-      <c r="AC161">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K162">
         <v>2.8</v>
@@ -14987,7 +14987,7 @@
         <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -14996,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -15076,7 +15076,7 @@
         <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15085,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K164">
         <v>2</v>
@@ -15174,7 +15174,7 @@
         <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K165">
         <v>2.1</v>
@@ -15263,7 +15263,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K166">
         <v>2.25</v>
@@ -15340,10 +15340,10 @@
         <v>45254.65625</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15352,7 +15352,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15441,7 +15441,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K168">
         <v>2.5</v>
@@ -15518,7 +15518,7 @@
         <v>45255.35416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
         <v>35</v>
@@ -15530,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K169">
         <v>2.5</v>
@@ -15595,7 +15595,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6808885</v>
+        <v>6808698</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15607,76 +15607,76 @@
         <v>45255.375</v>
       </c>
       <c r="F170" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>55</v>
       </c>
       <c r="K170">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L170">
+        <v>3.25</v>
+      </c>
+      <c r="M170">
+        <v>3.25</v>
+      </c>
+      <c r="N170">
+        <v>2.15</v>
+      </c>
+      <c r="O170">
+        <v>3.25</v>
+      </c>
+      <c r="P170">
         <v>3.1</v>
       </c>
-      <c r="M170">
-        <v>2.6</v>
-      </c>
-      <c r="N170">
-        <v>2.8</v>
-      </c>
-      <c r="O170">
-        <v>2.9</v>
-      </c>
-      <c r="P170">
-        <v>2.55</v>
-      </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V170">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X170">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15684,7 +15684,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6808698</v>
+        <v>6808885</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15696,76 +15696,76 @@
         <v>45255.375</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171" t="s">
+        <v>56</v>
+      </c>
+      <c r="K171">
+        <v>2.6</v>
+      </c>
+      <c r="L171">
+        <v>3.1</v>
+      </c>
+      <c r="M171">
+        <v>2.6</v>
+      </c>
+      <c r="N171">
+        <v>2.8</v>
+      </c>
+      <c r="O171">
+        <v>2.9</v>
+      </c>
+      <c r="P171">
+        <v>2.55</v>
+      </c>
+      <c r="Q171">
         <v>0</v>
       </c>
-      <c r="J171" t="s">
-        <v>54</v>
-      </c>
-      <c r="K171">
-        <v>2.1</v>
-      </c>
-      <c r="L171">
-        <v>3.25</v>
-      </c>
-      <c r="M171">
-        <v>3.25</v>
-      </c>
-      <c r="N171">
-        <v>2.15</v>
-      </c>
-      <c r="O171">
-        <v>3.25</v>
-      </c>
-      <c r="P171">
-        <v>3.1</v>
-      </c>
-      <c r="Q171">
-        <v>-0.25</v>
-      </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W171">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC171">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15788,7 +15788,7 @@
         <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15797,7 +15797,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K172">
         <v>1.7</v>
@@ -15877,7 +15877,7 @@
         <v>49</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15886,7 +15886,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K173">
         <v>2.25</v>
@@ -15966,7 +15966,7 @@
         <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -15975,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K174">
         <v>2.05</v>
@@ -16064,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K175">
         <v>2.5</v>
@@ -16144,7 +16144,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16153,7 +16153,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K176">
         <v>1.909</v>
@@ -16230,10 +16230,10 @@
         <v>45262.375</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K177">
         <v>2.25</v>
@@ -16331,7 +16331,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K178">
         <v>1.909</v>
@@ -16408,7 +16408,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>45</v>
@@ -16420,7 +16420,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K179">
         <v>1.4</v>
@@ -16509,7 +16509,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16598,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K181">
         <v>2.1</v>
@@ -16687,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K182">
         <v>2.4</v>
@@ -16764,7 +16764,7 @@
         <v>45346.29166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
         <v>43</v>
@@ -16776,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K183">
         <v>2</v>
@@ -16856,7 +16856,7 @@
         <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16865,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K184">
         <v>2.5</v>
@@ -16942,7 +16942,7 @@
         <v>45346.36458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
         <v>44</v>
@@ -16954,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K185">
         <v>1.909</v>
@@ -17031,10 +17031,10 @@
         <v>45346.375</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17043,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K186">
         <v>1.909</v>
@@ -17132,7 +17132,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K187">
         <v>2.3</v>
@@ -17212,7 +17212,7 @@
         <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17221,7 +17221,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K188">
         <v>2.25</v>
@@ -17301,7 +17301,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17310,7 +17310,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K189">
         <v>2.25</v>
@@ -17390,7 +17390,7 @@
         <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17399,7 +17399,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K190">
         <v>2.7</v>
@@ -17479,7 +17479,7 @@
         <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17488,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17568,7 +17568,7 @@
         <v>48</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17577,7 +17577,7 @@
         <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K192">
         <v>2.2</v>
@@ -17657,7 +17657,7 @@
         <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17666,7 +17666,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K193">
         <v>2.2</v>
@@ -17755,7 +17755,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K194">
         <v>2</v>
@@ -17835,7 +17835,7 @@
         <v>49</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H195">
         <v>3</v>
@@ -17844,7 +17844,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K195">
         <v>1.909</v>
@@ -17921,10 +17921,10 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K196">
         <v>2.8</v>
@@ -18022,7 +18022,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K197">
         <v>2.1</v>
@@ -18111,7 +18111,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K198">
         <v>2.3</v>
@@ -18188,7 +18188,7 @@
         <v>45355.59375</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
         <v>42</v>
@@ -18200,7 +18200,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K199">
         <v>2.625</v>
@@ -18289,7 +18289,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K200">
         <v>2.625</v>
@@ -18366,10 +18366,10 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -18378,7 +18378,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K201">
         <v>2.2</v>
@@ -18443,7 +18443,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6808716</v>
+        <v>6808714</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18455,61 +18455,76 @@
         <v>45359.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202" t="s">
+        <v>56</v>
       </c>
       <c r="K202">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M202">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="N202">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S202">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB202">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18517,7 +18532,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6808714</v>
+        <v>6808716</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18529,60 +18544,371 @@
         <v>45359.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G203" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203" t="s">
+        <v>56</v>
       </c>
       <c r="K203">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L203">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="N203">
+        <v>2.05</v>
+      </c>
+      <c r="O203">
+        <v>3.4</v>
+      </c>
+      <c r="P203">
+        <v>3</v>
+      </c>
+      <c r="Q203">
+        <v>-0.25</v>
+      </c>
+      <c r="R203">
+        <v>1.875</v>
+      </c>
+      <c r="S203">
+        <v>1.925</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
+        <v>1.95</v>
+      </c>
+      <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
+        <v>2.4</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>-0.5</v>
+      </c>
+      <c r="AA203">
+        <v>0.4625</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6808145</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F204" t="s">
+        <v>38</v>
+      </c>
+      <c r="G204" t="s">
+        <v>47</v>
+      </c>
+      <c r="K204">
+        <v>2.375</v>
+      </c>
+      <c r="L204">
+        <v>3.1</v>
+      </c>
+      <c r="M204">
+        <v>2.75</v>
+      </c>
+      <c r="N204">
+        <v>2.3</v>
+      </c>
+      <c r="O204">
+        <v>3.1</v>
+      </c>
+      <c r="P204">
+        <v>2.8</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>1.725</v>
+      </c>
+      <c r="S204">
+        <v>2.075</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
+        <v>1.95</v>
+      </c>
+      <c r="V204">
+        <v>1.85</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6808146</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45361.375</v>
+      </c>
+      <c r="F205" t="s">
+        <v>45</v>
+      </c>
+      <c r="G205" t="s">
+        <v>35</v>
+      </c>
+      <c r="K205">
+        <v>2.4</v>
+      </c>
+      <c r="L205">
+        <v>3.2</v>
+      </c>
+      <c r="M205">
+        <v>2.6</v>
+      </c>
+      <c r="N205">
+        <v>2.5</v>
+      </c>
+      <c r="O205">
+        <v>3.2</v>
+      </c>
+      <c r="P205">
+        <v>2.55</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>1.875</v>
+      </c>
+      <c r="S205">
+        <v>1.925</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>1.975</v>
+      </c>
+      <c r="V205">
+        <v>1.825</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7923863</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F206" t="s">
+        <v>34</v>
+      </c>
+      <c r="G206" t="s">
+        <v>37</v>
+      </c>
+      <c r="K206">
+        <v>1.909</v>
+      </c>
+      <c r="L206">
+        <v>3.4</v>
+      </c>
+      <c r="M206">
+        <v>3.4</v>
+      </c>
+      <c r="N206">
+        <v>1.95</v>
+      </c>
+      <c r="O206">
+        <v>3.4</v>
+      </c>
+      <c r="P206">
+        <v>3.25</v>
+      </c>
+      <c r="Q206">
+        <v>-0.25</v>
+      </c>
+      <c r="R206">
         <v>1.75</v>
       </c>
-      <c r="O203">
-        <v>3.5</v>
-      </c>
-      <c r="P203">
-        <v>3.8</v>
-      </c>
-      <c r="Q203">
-        <v>-0.5</v>
-      </c>
-      <c r="R203">
-        <v>1.8</v>
-      </c>
-      <c r="S203">
-        <v>2</v>
-      </c>
-      <c r="T203">
-        <v>2.75</v>
-      </c>
-      <c r="U203">
-        <v>1.9</v>
-      </c>
-      <c r="V203">
-        <v>1.9</v>
-      </c>
-      <c r="W203">
+      <c r="S206">
+        <v>2.05</v>
+      </c>
+      <c r="T206">
+        <v>2.5</v>
+      </c>
+      <c r="U206">
+        <v>1.925</v>
+      </c>
+      <c r="V206">
+        <v>1.875</v>
+      </c>
+      <c r="W206">
         <v>0</v>
       </c>
-      <c r="X203">
+      <c r="X206">
         <v>0</v>
       </c>
-      <c r="Y203">
+      <c r="Y206">
         <v>0</v>
       </c>
-      <c r="Z203">
+      <c r="Z206">
         <v>0</v>
       </c>
-      <c r="AA203">
+      <c r="AA206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>6808044</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45361.42708333334</v>
+      </c>
+      <c r="F207" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" t="s">
+        <v>43</v>
+      </c>
+      <c r="K207">
+        <v>1.5</v>
+      </c>
+      <c r="L207">
+        <v>4</v>
+      </c>
+      <c r="M207">
+        <v>5</v>
+      </c>
+      <c r="N207">
+        <v>1.615</v>
+      </c>
+      <c r="O207">
+        <v>3.75</v>
+      </c>
+      <c r="P207">
+        <v>4.2</v>
+      </c>
+      <c r="Q207">
+        <v>-0.75</v>
+      </c>
+      <c r="R207">
+        <v>1.85</v>
+      </c>
+      <c r="S207">
+        <v>1.95</v>
+      </c>
+      <c r="T207">
+        <v>2.5</v>
+      </c>
+      <c r="U207">
+        <v>1.85</v>
+      </c>
+      <c r="V207">
+        <v>1.95</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
         <v>0</v>
       </c>
     </row>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,10 @@
     <t>Poland II Liga</t>
   </si>
   <si>
-    <t>Hutnik Krakow</t>
+    <t>Polonia Warsaw</t>
   </si>
   <si>
-    <t>Garbarnia Krakow</t>
-  </si>
-  <si>
-    <t>Polonia Warsaw</t>
+    <t>Olimpia Elblag</t>
   </si>
   <si>
     <t>Wisla Pulawy</t>
@@ -118,16 +115,19 @@
     <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
-    <t>Olimpia Elblag</t>
+    <t>Radunia Stezyca</t>
   </si>
   <si>
-    <t>Radunia Stezyca</t>
+    <t>Zaglebie Lubin II</t>
   </si>
   <si>
     <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
-    <t>Zaglebie Lubin II</t>
+    <t>Garbarnia Krakow</t>
+  </si>
+  <si>
+    <t>Hutnik Krakow</t>
   </si>
   <si>
     <t>Stomil Olsztyn</t>
@@ -136,10 +136,10 @@
     <t>MKP Pogon Siedlce</t>
   </si>
   <si>
-    <t>Olimpia Grudziadz</t>
+    <t>GKS Jastrzebie</t>
   </si>
   <si>
-    <t>GKS Jastrzebie</t>
+    <t>Olimpia Grudziadz</t>
   </si>
   <si>
     <t>KKS 1925 Kalisz</t>
@@ -166,25 +166,25 @@
     <t>Polonia Bytom</t>
   </si>
   <si>
-    <t>Znicz Pruszkw</t>
-  </si>
-  <si>
-    <t>Gornik Polkowice</t>
-  </si>
-  <si>
     <t>Motor Lublin</t>
   </si>
   <si>
     <t>Slask Wroclaw II</t>
   </si>
   <si>
+    <t>Gornik Polkowice</t>
+  </si>
+  <si>
+    <t>Znicz Pruszkw</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC207"/>
+  <dimension ref="A1:AC210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5224889</v>
+        <v>5228058</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -661,7 +661,7 @@
         <v>50</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -670,61 +670,61 @@
         <v>54</v>
       </c>
       <c r="K2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>3.3</v>
       </c>
       <c r="M2">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O2">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P2">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y2">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
+        <v>0.4</v>
+      </c>
+      <c r="AA2">
         <v>-0.5</v>
       </c>
-      <c r="AA2">
-        <v>0.375</v>
-      </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5229462</v>
+        <v>5185127</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -747,10 +747,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -759,61 +759,61 @@
         <v>55</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
+        <v>3.1</v>
+      </c>
+      <c r="N3">
+        <v>2.25</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>2.625</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>1.75</v>
       </c>
-      <c r="N3">
-        <v>3.2</v>
-      </c>
-      <c r="O3">
-        <v>3.4</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>0.25</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
       <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
         <v>1.8</v>
       </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.95</v>
-      </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5228058</v>
+        <v>5226044</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -836,10 +836,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -848,61 +848,61 @@
         <v>56</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N4">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="O4">
+        <v>5.25</v>
+      </c>
+      <c r="P4">
+        <v>7.5</v>
+      </c>
+      <c r="Q4">
+        <v>-1.5</v>
+      </c>
+      <c r="R4">
+        <v>1.825</v>
+      </c>
+      <c r="S4">
+        <v>1.975</v>
+      </c>
+      <c r="T4">
         <v>3.25</v>
       </c>
-      <c r="P4">
-        <v>2.2</v>
-      </c>
-      <c r="Q4">
-        <v>0.25</v>
-      </c>
-      <c r="R4">
+      <c r="U4">
         <v>1.8</v>
       </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X4">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5226044</v>
+        <v>5226043</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,73 +925,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L5">
         <v>4.5</v>
       </c>
       <c r="M5">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="O5">
+        <v>4.333</v>
+      </c>
+      <c r="P5">
         <v>5.25</v>
       </c>
-      <c r="P5">
-        <v>7.5</v>
-      </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5226043</v>
+        <v>5224884</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L6">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N6">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="O6">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>1.85</v>
+      </c>
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
         <v>1.8</v>
       </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.9</v>
-      </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3.333</v>
+        <v>2.1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5185127</v>
+        <v>5226042</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1103,73 +1103,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5224884</v>
+        <v>5224885</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1192,10 +1192,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1204,31 +1204,31 @@
         <v>56</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
         <v>2.5</v>
@@ -1240,19 +1240,19 @@
         <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5224885</v>
+        <v>5229462</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,55 +1281,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="N9">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1338,16 +1338,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5226042</v>
+        <v>5224889</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1370,73 +1370,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>55</v>
       </c>
       <c r="K10">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N10">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P10">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1545,10 +1545,10 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1637,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13">
         <v>2.55</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>1.8</v>
@@ -1812,7 +1812,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>1.666</v>
@@ -1901,7 +1901,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1990,7 +1990,7 @@
         <v>45129.5</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17">
         <v>2.1</v>
@@ -2067,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6808905</v>
+        <v>6808604</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2082,73 +2082,73 @@
         <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18">
+        <v>2.2</v>
+      </c>
+      <c r="L18">
+        <v>3.1</v>
+      </c>
+      <c r="M18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18">
+      <c r="N18">
+        <v>2.6</v>
+      </c>
+      <c r="O18">
+        <v>3.1</v>
+      </c>
+      <c r="P18">
         <v>2.5</v>
       </c>
-      <c r="L18">
-        <v>3.2</v>
-      </c>
-      <c r="M18">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
+        <v>1.85</v>
+      </c>
+      <c r="T18">
         <v>2.5</v>
       </c>
-      <c r="N18">
-        <v>2.15</v>
-      </c>
-      <c r="O18">
-        <v>3.25</v>
-      </c>
-      <c r="P18">
-        <v>3.1</v>
-      </c>
-      <c r="Q18">
-        <v>-0.25</v>
-      </c>
-      <c r="R18">
-        <v>1.9</v>
-      </c>
-      <c r="S18">
-        <v>1.9</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6808604</v>
+        <v>6808005</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,13 +2168,13 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2192,52 +2192,52 @@
         <v>3</v>
       </c>
       <c r="N19">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
         <v>3.1</v>
       </c>
       <c r="P19">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
         <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.85</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X19">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2245,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6808005</v>
+        <v>6808905</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2257,58 +2257,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
+        <v>3.2</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <v>2.15</v>
+      </c>
+      <c r="O20">
+        <v>3.25</v>
+      </c>
+      <c r="P20">
         <v>3.1</v>
       </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>2.5</v>
-      </c>
-      <c r="O20">
-        <v>3.1</v>
-      </c>
-      <c r="P20">
-        <v>2.6</v>
-      </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2317,16 +2317,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2349,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2438,7 +2438,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22">
         <v>1.615</v>
@@ -2524,7 +2524,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23">
         <v>1.909</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24">
         <v>2.6</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2880,10 +2880,10 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27">
         <v>1.909</v>
@@ -2969,7 +2969,7 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
         <v>49</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K28">
         <v>2.1</v>
@@ -3058,7 +3058,7 @@
         <v>45137.5</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K29">
         <v>2.4</v>
@@ -3147,10 +3147,10 @@
         <v>45137.5</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3236,7 +3236,7 @@
         <v>45138.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3328,7 +3328,7 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3506,7 +3506,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>3.1</v>
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35">
         <v>2.7</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3770,10 +3770,10 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
         <v>2.3</v>
@@ -3859,10 +3859,10 @@
         <v>45144.5</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K38">
         <v>1.75</v>
@@ -3951,7 +3951,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
         <v>2.2</v>
@@ -4037,7 +4037,7 @@
         <v>45150.5</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>48</v>
@@ -4049,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40">
         <v>2.5</v>
@@ -4138,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41">
         <v>2.5</v>
@@ -4218,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K42">
         <v>2.375</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43">
         <v>2.2</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6808165</v>
+        <v>6808617</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4396,73 +4396,73 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L44">
+        <v>3.2</v>
+      </c>
+      <c r="M44">
+        <v>2.6</v>
+      </c>
+      <c r="N44">
+        <v>2.2</v>
+      </c>
+      <c r="O44">
         <v>3.25</v>
       </c>
-      <c r="M44">
-        <v>3.5</v>
-      </c>
-      <c r="N44">
-        <v>1.615</v>
-      </c>
-      <c r="O44">
-        <v>3.6</v>
-      </c>
       <c r="P44">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
+        <v>1.975</v>
+      </c>
+      <c r="S44">
+        <v>1.825</v>
+      </c>
+      <c r="T44">
+        <v>2.5</v>
+      </c>
+      <c r="U44">
+        <v>1.925</v>
+      </c>
+      <c r="V44">
         <v>1.875</v>
       </c>
-      <c r="S44">
-        <v>1.925</v>
-      </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
-      <c r="U44">
-        <v>1.9</v>
-      </c>
-      <c r="V44">
-        <v>1.9</v>
-      </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6808166</v>
+        <v>6808619</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,13 +4482,13 @@
         <v>45151.5</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4506,52 +4506,52 @@
         <v>2.8</v>
       </c>
       <c r="N45">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
+        <v>1.925</v>
+      </c>
+      <c r="V45">
         <v>1.875</v>
       </c>
-      <c r="V45">
-        <v>1.925</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6808617</v>
+        <v>6808166</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,28 +4571,28 @@
         <v>45151.5</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
         <v>2.2</v>
@@ -4601,46 +4601,46 @@
         <v>3.25</v>
       </c>
       <c r="P46">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
+        <v>1.875</v>
+      </c>
+      <c r="V46">
         <v>1.925</v>
       </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
       <c r="W46">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6808619</v>
+        <v>6808165</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4660,76 +4660,76 @@
         <v>45151.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>55</v>
       </c>
       <c r="K47">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
         <v>3.25</v>
       </c>
       <c r="M47">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB47">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4752,7 +4752,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K48">
         <v>2.25</v>
@@ -4838,7 +4838,7 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K49">
         <v>2.1</v>
@@ -4927,10 +4927,10 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K50">
         <v>2.25</v>
@@ -5016,10 +5016,10 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5028,7 +5028,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51">
         <v>1.909</v>
@@ -5117,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K52">
         <v>2.625</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K53">
         <v>2.25</v>
@@ -5295,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5372,7 +5372,7 @@
         <v>45163.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K55">
         <v>1.909</v>
@@ -5464,7 +5464,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K56">
         <v>2.5</v>
@@ -5553,7 +5553,7 @@
         <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K57">
         <v>2.3</v>
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7105151</v>
+        <v>6808899</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,76 +5639,76 @@
         <v>45164.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K58">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L58">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N58">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O58">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5716,7 +5716,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6808899</v>
+        <v>6808625</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5728,58 +5728,58 @@
         <v>45164.5</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L59">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P59">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
         <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5788,13 +5788,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5805,7 +5805,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6808625</v>
+        <v>7105151</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5817,76 +5817,76 @@
         <v>45164.5</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>55</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M60">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O60">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P60">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5906,10 +5906,10 @@
         <v>45164.5</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K62">
         <v>2.4</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K63">
         <v>2.5</v>
@@ -6173,7 +6173,7 @@
         <v>45171.375</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
         <v>43</v>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K64">
         <v>1.833</v>
@@ -6262,10 +6262,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6274,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K65">
         <v>2.1</v>
@@ -6354,7 +6354,7 @@
         <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6363,7 +6363,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K66">
         <v>3.1</v>
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K68">
         <v>1.727</v>
@@ -6621,7 +6621,7 @@
         <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6630,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K69">
         <v>2.35</v>
@@ -6707,7 +6707,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K70">
         <v>2.45</v>
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K71">
         <v>1.909</v>
@@ -6885,11 +6885,11 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" t="s">
         <v>33</v>
       </c>
-      <c r="G72" t="s">
-        <v>35</v>
-      </c>
       <c r="H72">
         <v>1</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6974,7 +6974,7 @@
         <v>45177.5</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -6986,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K73">
         <v>2.1</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7152,10 +7152,10 @@
         <v>45178.44791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K75">
         <v>2.15</v>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7333,7 +7333,7 @@
         <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K77">
         <v>2.3</v>
@@ -7431,7 +7431,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K78">
         <v>2.4</v>
@@ -7508,7 +7508,7 @@
         <v>45180.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K79">
         <v>1.833</v>
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7609,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -7686,10 +7686,10 @@
         <v>45184.625</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7698,7 +7698,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K81">
         <v>2.5</v>
@@ -7775,10 +7775,10 @@
         <v>45185.40972222222</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7953,10 +7953,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K84">
         <v>1.8</v>
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7203342</v>
+        <v>6808649</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,55 +8042,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K85">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N85">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P85">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8099,19 +8099,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6808649</v>
+        <v>7203342</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,55 +8131,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K86">
+        <v>1.8</v>
+      </c>
+      <c r="L86">
+        <v>3.4</v>
+      </c>
+      <c r="M86">
+        <v>3.75</v>
+      </c>
+      <c r="N86">
+        <v>1.95</v>
+      </c>
+      <c r="O86">
+        <v>3.3</v>
+      </c>
+      <c r="P86">
+        <v>3.25</v>
+      </c>
+      <c r="Q86">
+        <v>-0.5</v>
+      </c>
+      <c r="R86">
+        <v>2.025</v>
+      </c>
+      <c r="S86">
+        <v>1.775</v>
+      </c>
+      <c r="T86">
         <v>2.5</v>
       </c>
-      <c r="L86">
-        <v>3.2</v>
-      </c>
-      <c r="M86">
-        <v>2.5</v>
-      </c>
-      <c r="N86">
-        <v>2.5</v>
-      </c>
-      <c r="O86">
-        <v>3.25</v>
-      </c>
-      <c r="P86">
-        <v>2.5</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.9</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8188,19 +8188,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8220,7 +8220,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8232,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K87">
         <v>2.15</v>
@@ -8321,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K88">
         <v>2.3</v>
@@ -8398,10 +8398,10 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8410,7 +8410,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K89">
         <v>2.875</v>
@@ -8487,7 +8487,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K90">
         <v>2.1</v>
@@ -8576,7 +8576,7 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8588,7 +8588,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K91">
         <v>1.615</v>
@@ -8668,7 +8668,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8677,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K92">
         <v>2.375</v>
@@ -8757,7 +8757,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K93">
         <v>2.1</v>
@@ -8843,7 +8843,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8855,7 +8855,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K94">
         <v>1.8</v>
@@ -8935,7 +8935,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -8944,7 +8944,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K95">
         <v>2.5</v>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9202,7 +9202,7 @@
         <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9211,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9288,10 +9288,10 @@
         <v>45194.63541666666</v>
       </c>
       <c r="F99" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" t="s">
         <v>41</v>
-      </c>
-      <c r="G99" t="s">
-        <v>40</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9300,7 +9300,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K99">
         <v>2.4</v>
@@ -9389,7 +9389,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K100">
         <v>2.875</v>
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6808664</v>
+        <v>6808023</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,55 +9466,55 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K101">
+        <v>1.909</v>
+      </c>
+      <c r="L101">
+        <v>3.3</v>
+      </c>
+      <c r="M101">
+        <v>3.5</v>
+      </c>
+      <c r="N101">
+        <v>2.05</v>
+      </c>
+      <c r="O101">
+        <v>3.25</v>
+      </c>
+      <c r="P101">
+        <v>3.1</v>
+      </c>
+      <c r="Q101">
+        <v>-0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.85</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
         <v>2.5</v>
       </c>
-      <c r="L101">
-        <v>3.4</v>
-      </c>
-      <c r="M101">
-        <v>2.375</v>
-      </c>
-      <c r="N101">
-        <v>2.3</v>
-      </c>
-      <c r="O101">
-        <v>3.4</v>
-      </c>
-      <c r="P101">
-        <v>2.55</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.8</v>
-      </c>
-      <c r="S101">
-        <v>2</v>
-      </c>
-      <c r="T101">
-        <v>3</v>
-      </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9523,19 +9523,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9543,7 +9543,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6808023</v>
+        <v>6808664</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9555,56 +9555,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K102">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N102">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P102">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
+        <v>1.8</v>
+      </c>
+      <c r="S102">
+        <v>2</v>
+      </c>
+      <c r="T102">
+        <v>3</v>
+      </c>
+      <c r="U102">
         <v>1.85</v>
       </c>
-      <c r="S102">
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="T102">
-        <v>2.5</v>
-      </c>
-      <c r="U102">
-        <v>1.9</v>
-      </c>
-      <c r="V102">
-        <v>1.9</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
@@ -9612,19 +9612,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9644,7 +9644,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>47</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9736,7 +9736,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K104">
         <v>2.15</v>
@@ -9822,10 +9822,10 @@
         <v>45200.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9834,7 +9834,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9911,7 +9911,7 @@
         <v>45200.59930555556</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
         <v>39</v>
@@ -9923,7 +9923,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K106">
         <v>2.25</v>
@@ -10012,7 +10012,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K107">
         <v>2.4</v>
@@ -10077,7 +10077,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6808667</v>
+        <v>6808666</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10089,73 +10089,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
         <v>3</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>55</v>
       </c>
       <c r="K108">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N108">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="O108">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W108">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10166,7 +10166,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6808666</v>
+        <v>6808667</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10178,73 +10178,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>56</v>
+      </c>
+      <c r="K109">
+        <v>1.615</v>
+      </c>
+      <c r="L109">
+        <v>3.75</v>
+      </c>
+      <c r="M109">
+        <v>4.5</v>
+      </c>
+      <c r="N109">
+        <v>1.285</v>
+      </c>
+      <c r="O109">
+        <v>4.75</v>
+      </c>
+      <c r="P109">
+        <v>8.5</v>
+      </c>
+      <c r="Q109">
+        <v>-1.5</v>
+      </c>
+      <c r="R109">
+        <v>1.85</v>
+      </c>
+      <c r="S109">
+        <v>1.95</v>
+      </c>
+      <c r="T109">
         <v>3</v>
       </c>
-      <c r="J109" t="s">
-        <v>54</v>
-      </c>
-      <c r="K109">
-        <v>2.1</v>
-      </c>
-      <c r="L109">
-        <v>3.4</v>
-      </c>
-      <c r="M109">
-        <v>2.8</v>
-      </c>
-      <c r="N109">
-        <v>2.45</v>
-      </c>
-      <c r="O109">
-        <v>3.6</v>
-      </c>
-      <c r="P109">
-        <v>2.3</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>2</v>
-      </c>
-      <c r="S109">
-        <v>1.8</v>
-      </c>
-      <c r="T109">
-        <v>2.75</v>
-      </c>
       <c r="U109">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10267,10 +10267,10 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10279,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K110">
         <v>2.45</v>
@@ -10356,7 +10356,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>48</v>
@@ -10368,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K111">
         <v>1.75</v>
@@ -10445,10 +10445,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10457,7 +10457,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K112">
         <v>1.75</v>
@@ -10537,7 +10537,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10546,7 +10546,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K113">
         <v>1.6</v>
@@ -10626,7 +10626,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10635,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K114">
         <v>2.3</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K115">
         <v>1.6</v>
@@ -10801,7 +10801,7 @@
         <v>45212.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -10813,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K116">
         <v>2.75</v>
@@ -10893,7 +10893,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K117">
         <v>2.3</v>
@@ -10982,7 +10982,7 @@
         <v>49</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K118">
         <v>2.45</v>
@@ -11068,7 +11068,7 @@
         <v>45214.375</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11080,7 +11080,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K119">
         <v>2.15</v>
@@ -11157,7 +11157,7 @@
         <v>45215.55208333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
         <v>46</v>
@@ -11169,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K120">
         <v>3.5</v>
@@ -11258,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K121">
         <v>2.7</v>
@@ -11335,7 +11335,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>47</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11436,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K123">
         <v>1.5</v>
@@ -11513,10 +11513,10 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K124">
         <v>2.2</v>
@@ -11602,10 +11602,10 @@
         <v>45220.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K125">
         <v>2.25</v>
@@ -11694,7 +11694,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K126">
         <v>2.8</v>
@@ -11792,7 +11792,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11881,7 +11881,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -11961,7 +11961,7 @@
         <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K129">
         <v>1.727</v>
@@ -12050,7 +12050,7 @@
         <v>47</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K130">
         <v>1.909</v>
@@ -12139,7 +12139,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K131">
         <v>1.833</v>
@@ -12225,10 +12225,10 @@
         <v>45225.375</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12237,7 +12237,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K132">
         <v>1.727</v>
@@ -12326,7 +12326,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12403,7 +12403,7 @@
         <v>45227.375</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
         <v>48</v>
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K134">
         <v>1.533</v>
@@ -12492,7 +12492,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
         <v>42</v>
@@ -12504,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K135">
         <v>2.25</v>
@@ -12593,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K136">
         <v>3.25</v>
@@ -12670,7 +12670,7 @@
         <v>45227.59930555556</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K137">
         <v>2.7</v>
@@ -12759,7 +12759,7 @@
         <v>45228.3125</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12771,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K138">
         <v>4.333</v>
@@ -12851,7 +12851,7 @@
         <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -12860,7 +12860,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K139">
         <v>3.5</v>
@@ -12937,7 +12937,7 @@
         <v>45228.39236111111</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
         <v>46</v>
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K140">
         <v>1.8</v>
@@ -13026,10 +13026,10 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13038,7 +13038,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K141">
         <v>2</v>
@@ -13118,7 +13118,7 @@
         <v>49</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K142">
         <v>2.7</v>
@@ -13192,7 +13192,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6808197</v>
+        <v>6808888</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13204,76 +13204,76 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K143">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13281,7 +13281,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6808888</v>
+        <v>6808197</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13293,76 +13293,76 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>54</v>
+      </c>
+      <c r="K144">
+        <v>1.666</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>4.2</v>
+      </c>
+      <c r="N144">
+        <v>2.3</v>
+      </c>
+      <c r="O144">
+        <v>3.25</v>
+      </c>
+      <c r="P144">
+        <v>2.7</v>
+      </c>
+      <c r="Q144">
         <v>0</v>
       </c>
-      <c r="I144">
+      <c r="R144">
+        <v>1.775</v>
+      </c>
+      <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
+        <v>2.5</v>
+      </c>
+      <c r="U144">
+        <v>1.85</v>
+      </c>
+      <c r="V144">
+        <v>1.95</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>2.25</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
         <v>0</v>
       </c>
-      <c r="J144" t="s">
-        <v>56</v>
-      </c>
-      <c r="K144">
-        <v>1.85</v>
-      </c>
-      <c r="L144">
-        <v>3.4</v>
-      </c>
-      <c r="M144">
-        <v>3.5</v>
-      </c>
-      <c r="N144">
-        <v>1.85</v>
-      </c>
-      <c r="O144">
-        <v>3.4</v>
-      </c>
-      <c r="P144">
-        <v>3.5</v>
-      </c>
-      <c r="Q144">
-        <v>-0.5</v>
-      </c>
-      <c r="R144">
-        <v>1.925</v>
-      </c>
-      <c r="S144">
-        <v>1.875</v>
-      </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
-      <c r="U144">
-        <v>1.825</v>
-      </c>
-      <c r="V144">
-        <v>1.975</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>2.4</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13394,7 +13394,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K145">
         <v>1.75</v>
@@ -13483,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K146">
         <v>2.25</v>
@@ -13560,10 +13560,10 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13572,7 +13572,7 @@
         <v>5</v>
       </c>
       <c r="J147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K147">
         <v>2.75</v>
@@ -13652,7 +13652,7 @@
         <v>47</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13661,7 +13661,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K148">
         <v>2</v>
@@ -13741,7 +13741,7 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13839,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K150">
         <v>2.45</v>
@@ -13916,7 +13916,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
         <v>48</v>
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K151">
         <v>1.615</v>
@@ -14005,10 +14005,10 @@
         <v>45241.375</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14017,7 +14017,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K152">
         <v>2</v>
@@ -14094,7 +14094,7 @@
         <v>45241.51041666666</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
         <v>44</v>
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K153">
         <v>2.4</v>
@@ -14183,7 +14183,7 @@
         <v>45242.35416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
         <v>46</v>
@@ -14195,7 +14195,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K154">
         <v>2.2</v>
@@ -14260,7 +14260,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6808689</v>
+        <v>6808200</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14272,10 +14272,10 @@
         <v>45242.375</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G155" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14284,46 +14284,46 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K155">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L155">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M155">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N155">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O155">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P155">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q155">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>1.8</v>
+        <v>0.95</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14332,7 +14332,7 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA155">
         <v>-1</v>
@@ -14341,7 +14341,7 @@
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14349,7 +14349,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6808200</v>
+        <v>6808689</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14361,10 +14361,10 @@
         <v>45242.375</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14373,47 +14373,47 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L156">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M156">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N156">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O156">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
+        <v>1.975</v>
+      </c>
+      <c r="T156">
+        <v>3</v>
+      </c>
+      <c r="U156">
+        <v>1.975</v>
+      </c>
+      <c r="V156">
+        <v>1.825</v>
+      </c>
+      <c r="W156">
         <v>1.8</v>
       </c>
-      <c r="T156">
-        <v>2.5</v>
-      </c>
-      <c r="U156">
-        <v>1.9</v>
-      </c>
-      <c r="V156">
-        <v>1.9</v>
-      </c>
-      <c r="W156">
-        <v>0.95</v>
-      </c>
       <c r="X156">
         <v>-1</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA156">
         <v>-1</v>
@@ -14430,7 +14430,7 @@
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14450,7 +14450,7 @@
         <v>45242.375</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
         <v>47</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K157">
         <v>2.2</v>
@@ -14542,7 +14542,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14551,7 +14551,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K158">
         <v>2.2</v>
@@ -14640,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K159">
         <v>2.25</v>
@@ -14717,7 +14717,7 @@
         <v>45248.375</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
         <v>38</v>
@@ -14729,7 +14729,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K160">
         <v>1.833</v>
@@ -14809,7 +14809,7 @@
         <v>48</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14818,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K161">
         <v>2.2</v>
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K162">
         <v>2.8</v>
@@ -14987,7 +14987,7 @@
         <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -14996,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -15076,7 +15076,7 @@
         <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15085,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K164">
         <v>2</v>
@@ -15162,7 +15162,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
         <v>42</v>
@@ -15174,7 +15174,7 @@
         <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K165">
         <v>2.1</v>
@@ -15263,7 +15263,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K166">
         <v>2.25</v>
@@ -15340,10 +15340,10 @@
         <v>45254.65625</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15352,7 +15352,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15441,7 +15441,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K168">
         <v>2.5</v>
@@ -15518,10 +15518,10 @@
         <v>45255.35416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15530,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K169">
         <v>2.5</v>
@@ -15595,7 +15595,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6808698</v>
+        <v>6808885</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15607,76 +15607,76 @@
         <v>45255.375</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170" t="s">
+        <v>54</v>
+      </c>
+      <c r="K170">
+        <v>2.6</v>
+      </c>
+      <c r="L170">
+        <v>3.1</v>
+      </c>
+      <c r="M170">
+        <v>2.6</v>
+      </c>
+      <c r="N170">
+        <v>2.8</v>
+      </c>
+      <c r="O170">
+        <v>2.9</v>
+      </c>
+      <c r="P170">
+        <v>2.55</v>
+      </c>
+      <c r="Q170">
         <v>0</v>
       </c>
-      <c r="J170" t="s">
-        <v>55</v>
-      </c>
-      <c r="K170">
-        <v>2.1</v>
-      </c>
-      <c r="L170">
-        <v>3.25</v>
-      </c>
-      <c r="M170">
-        <v>3.25</v>
-      </c>
-      <c r="N170">
-        <v>2.15</v>
-      </c>
-      <c r="O170">
-        <v>3.25</v>
-      </c>
-      <c r="P170">
-        <v>3.1</v>
-      </c>
-      <c r="Q170">
-        <v>-0.25</v>
-      </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W170">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15684,7 +15684,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6808885</v>
+        <v>6808698</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15696,76 +15696,76 @@
         <v>45255.375</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>56</v>
       </c>
       <c r="K171">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L171">
+        <v>3.25</v>
+      </c>
+      <c r="M171">
+        <v>3.25</v>
+      </c>
+      <c r="N171">
+        <v>2.15</v>
+      </c>
+      <c r="O171">
+        <v>3.25</v>
+      </c>
+      <c r="P171">
         <v>3.1</v>
       </c>
-      <c r="M171">
-        <v>2.6</v>
-      </c>
-      <c r="N171">
-        <v>2.8</v>
-      </c>
-      <c r="O171">
-        <v>2.9</v>
-      </c>
-      <c r="P171">
-        <v>2.55</v>
-      </c>
       <c r="Q171">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V171">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X171">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA171">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15788,7 +15788,7 @@
         <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15797,7 +15797,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K172">
         <v>1.7</v>
@@ -15877,7 +15877,7 @@
         <v>49</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15886,7 +15886,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K173">
         <v>2.25</v>
@@ -15966,7 +15966,7 @@
         <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -15975,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K174">
         <v>2.05</v>
@@ -16064,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K175">
         <v>2.5</v>
@@ -16144,7 +16144,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16153,7 +16153,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K176">
         <v>1.909</v>
@@ -16230,10 +16230,10 @@
         <v>45262.375</v>
       </c>
       <c r="F177" t="s">
+        <v>34</v>
+      </c>
+      <c r="G177" t="s">
         <v>37</v>
-      </c>
-      <c r="G177" t="s">
-        <v>29</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K177">
         <v>2.25</v>
@@ -16331,7 +16331,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K178">
         <v>1.909</v>
@@ -16408,7 +16408,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
         <v>45</v>
@@ -16420,7 +16420,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179">
         <v>1.4</v>
@@ -16509,7 +16509,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16598,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K181">
         <v>2.1</v>
@@ -16678,7 +16678,7 @@
         <v>49</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16687,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K182">
         <v>2.4</v>
@@ -16764,7 +16764,7 @@
         <v>45346.29166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
         <v>43</v>
@@ -16776,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K183">
         <v>2</v>
@@ -16856,7 +16856,7 @@
         <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16865,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K184">
         <v>2.5</v>
@@ -16942,7 +16942,7 @@
         <v>45346.36458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>44</v>
@@ -16954,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K185">
         <v>1.909</v>
@@ -17031,10 +17031,10 @@
         <v>45346.375</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17043,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K186">
         <v>1.909</v>
@@ -17132,7 +17132,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K187">
         <v>2.3</v>
@@ -17212,7 +17212,7 @@
         <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17221,7 +17221,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K188">
         <v>2.25</v>
@@ -17301,7 +17301,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17310,7 +17310,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K189">
         <v>2.25</v>
@@ -17390,7 +17390,7 @@
         <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17399,7 +17399,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K190">
         <v>2.7</v>
@@ -17479,7 +17479,7 @@
         <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17488,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17568,7 +17568,7 @@
         <v>48</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17577,7 +17577,7 @@
         <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K192">
         <v>2.2</v>
@@ -17654,10 +17654,10 @@
         <v>45353.33333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17666,7 +17666,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K193">
         <v>2.2</v>
@@ -17755,7 +17755,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K194">
         <v>2</v>
@@ -17835,7 +17835,7 @@
         <v>49</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>3</v>
@@ -17844,7 +17844,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K195">
         <v>1.909</v>
@@ -17921,10 +17921,10 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K196">
         <v>2.8</v>
@@ -18022,7 +18022,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K197">
         <v>2.1</v>
@@ -18111,7 +18111,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K198">
         <v>2.3</v>
@@ -18188,7 +18188,7 @@
         <v>45355.59375</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
         <v>42</v>
@@ -18200,7 +18200,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K199">
         <v>2.625</v>
@@ -18280,7 +18280,7 @@
         <v>48</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18289,7 +18289,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K200">
         <v>2.625</v>
@@ -18366,10 +18366,10 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -18378,7 +18378,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K201">
         <v>2.2</v>
@@ -18467,7 +18467,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K202">
         <v>1.727</v>
@@ -18547,7 +18547,7 @@
         <v>49</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18556,7 +18556,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K203">
         <v>2</v>
@@ -18621,7 +18621,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6808145</v>
+        <v>6808880</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18630,64 +18630,79 @@
         <v>28</v>
       </c>
       <c r="E204" s="2">
-        <v>45360.5</v>
+        <v>45360.33333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G204" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>3</v>
+      </c>
+      <c r="J204" t="s">
+        <v>55</v>
       </c>
       <c r="K204">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L204">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M204">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N204">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O204">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P204">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q204">
         <v>0</v>
       </c>
       <c r="R204">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S204">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB204">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC204">
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18695,7 +18710,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6808146</v>
+        <v>6808713</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,64 +18719,79 @@
         <v>28</v>
       </c>
       <c r="E205" s="2">
-        <v>45361.375</v>
+        <v>45360.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>54</v>
       </c>
       <c r="K205">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L205">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M205">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N205">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O205">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P205">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
         <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA205">
-        <v>0</v>
+        <v>0.425</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18769,7 +18799,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7923863</v>
+        <v>6808145</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18778,64 +18808,79 @@
         <v>28</v>
       </c>
       <c r="E206" s="2">
-        <v>45361.41666666666</v>
+        <v>45360.5</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>55</v>
       </c>
       <c r="K206">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M206">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N206">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P206">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q206">
         <v>-0.25</v>
       </c>
       <c r="R206">
+        <v>2.05</v>
+      </c>
+      <c r="S206">
         <v>1.75</v>
       </c>
-      <c r="S206">
-        <v>2.05</v>
-      </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18843,7 +18888,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6808044</v>
+        <v>6808146</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18852,64 +18897,346 @@
         <v>28</v>
       </c>
       <c r="E207" s="2">
-        <v>45361.42708333334</v>
+        <v>45361.375</v>
       </c>
       <c r="F207" t="s">
+        <v>45</v>
+      </c>
+      <c r="G207" t="s">
         <v>33</v>
       </c>
-      <c r="G207" t="s">
-        <v>43</v>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207" t="s">
+        <v>55</v>
       </c>
       <c r="K207">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M207">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N207">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="O207">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P207">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S207">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V207">
+        <v>1.825</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>1.2</v>
+      </c>
+      <c r="Z207">
+        <v>-1</v>
+      </c>
+      <c r="AA207">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB207">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC207">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>7923863</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F208" t="s">
+        <v>30</v>
+      </c>
+      <c r="G208" t="s">
+        <v>34</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208" t="s">
+        <v>55</v>
+      </c>
+      <c r="K208">
+        <v>1.909</v>
+      </c>
+      <c r="L208">
+        <v>3.4</v>
+      </c>
+      <c r="M208">
+        <v>3.4</v>
+      </c>
+      <c r="N208">
         <v>1.95</v>
       </c>
-      <c r="W207">
+      <c r="O208">
+        <v>3.4</v>
+      </c>
+      <c r="P208">
+        <v>3.25</v>
+      </c>
+      <c r="Q208">
+        <v>-0.5</v>
+      </c>
+      <c r="R208">
+        <v>2.025</v>
+      </c>
+      <c r="S208">
+        <v>1.775</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
+        <v>1.925</v>
+      </c>
+      <c r="V208">
+        <v>1.875</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>2.25</v>
+      </c>
+      <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB208">
+        <v>0.925</v>
+      </c>
+      <c r="AC208">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>6808044</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45361.42708333334</v>
+      </c>
+      <c r="F209" t="s">
+        <v>32</v>
+      </c>
+      <c r="G209" t="s">
+        <v>43</v>
+      </c>
+      <c r="H209">
         <v>0</v>
       </c>
-      <c r="X207">
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
+        <v>55</v>
+      </c>
+      <c r="K209">
+        <v>1.5</v>
+      </c>
+      <c r="L209">
+        <v>4</v>
+      </c>
+      <c r="M209">
+        <v>5</v>
+      </c>
+      <c r="N209">
+        <v>1.6</v>
+      </c>
+      <c r="O209">
+        <v>4</v>
+      </c>
+      <c r="P209">
+        <v>4</v>
+      </c>
+      <c r="Q209">
+        <v>-0.75</v>
+      </c>
+      <c r="R209">
+        <v>1.775</v>
+      </c>
+      <c r="S209">
+        <v>2.025</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
+        <v>1.875</v>
+      </c>
+      <c r="V209">
+        <v>1.925</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>3</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>1.025</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6808043</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45361.66666666666</v>
+      </c>
+      <c r="F210" t="s">
+        <v>41</v>
+      </c>
+      <c r="G210" t="s">
+        <v>44</v>
+      </c>
+      <c r="H210">
         <v>0</v>
       </c>
-      <c r="Y207">
-        <v>0</v>
-      </c>
-      <c r="Z207">
-        <v>0</v>
-      </c>
-      <c r="AA207">
-        <v>0</v>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210" t="s">
+        <v>55</v>
+      </c>
+      <c r="K210">
+        <v>2.55</v>
+      </c>
+      <c r="L210">
+        <v>3.25</v>
+      </c>
+      <c r="M210">
+        <v>2.4</v>
+      </c>
+      <c r="N210">
+        <v>1.95</v>
+      </c>
+      <c r="O210">
+        <v>3.4</v>
+      </c>
+      <c r="P210">
+        <v>3.3</v>
+      </c>
+      <c r="Q210">
+        <v>-0.5</v>
+      </c>
+      <c r="R210">
+        <v>2.025</v>
+      </c>
+      <c r="S210">
+        <v>1.775</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
+        <v>1.9</v>
+      </c>
+      <c r="V210">
+        <v>1.9</v>
+      </c>
+      <c r="W210">
+        <v>-1</v>
+      </c>
+      <c r="X210">
+        <v>-1</v>
+      </c>
+      <c r="Y210">
+        <v>2.3</v>
+      </c>
+      <c r="Z210">
+        <v>-1</v>
+      </c>
+      <c r="AA210">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -103,19 +103,10 @@
     <t>Poland II Liga</t>
   </si>
   <si>
-    <t>Polonia Warsaw</t>
+    <t>Hutnik Krakow</t>
   </si>
   <si>
     <t>Olimpia Elblag</t>
-  </si>
-  <si>
-    <t>Wisla Pulawy</t>
-  </si>
-  <si>
-    <t>Kotwica Kolobrzeg</t>
-  </si>
-  <si>
-    <t>Radunia Stezyca</t>
   </si>
   <si>
     <t>Zaglebie Lubin II</t>
@@ -124,10 +115,19 @@
     <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
+    <t>Kotwica Kolobrzeg</t>
+  </si>
+  <si>
+    <t>Wisla Pulawy</t>
+  </si>
+  <si>
+    <t>Polonia Warsaw</t>
+  </si>
+  <si>
     <t>Garbarnia Krakow</t>
   </si>
   <si>
-    <t>Hutnik Krakow</t>
+    <t>Radunia Stezyca</t>
   </si>
   <si>
     <t>Stomil Olsztyn</t>
@@ -166,25 +166,25 @@
     <t>Polonia Bytom</t>
   </si>
   <si>
-    <t>Motor Lublin</t>
+    <t>Znicz Pruszkw</t>
   </si>
   <si>
     <t>Slask Wroclaw II</t>
   </si>
   <si>
-    <t>Gornik Polkowice</t>
+    <t>Motor Lublin</t>
   </si>
   <si>
-    <t>Znicz Pruszkw</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>Gornik Polkowice</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC210"/>
+  <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5228058</v>
+        <v>5224889</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -661,7 +661,7 @@
         <v>50</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -670,61 +670,61 @@
         <v>54</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L2">
         <v>3.3</v>
       </c>
       <c r="M2">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N2">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P2">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z2">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5226044</v>
+        <v>5226042</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -836,55 +836,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N4">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>7.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
+        <v>1.975</v>
+      </c>
+      <c r="V4">
         <v>1.825</v>
       </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
-      <c r="T4">
-        <v>3.25</v>
-      </c>
-      <c r="U4">
-        <v>1.8</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
-        <v>0.2849999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -893,13 +893,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5226043</v>
+        <v>5224885</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,73 +925,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O5">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R5">
+        <v>1.775</v>
+      </c>
+      <c r="S5">
+        <v>2.025</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
         <v>1.8</v>
       </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.9</v>
-      </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X5">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5224884</v>
+        <v>5226043</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L6">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N6">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="O6">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P6">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.1</v>
+        <v>3.333</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5226042</v>
+        <v>5226044</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1103,55 +1103,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="N7">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P7">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2.3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1160,13 +1160,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5224885</v>
+        <v>5228058</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1192,73 +1192,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>56</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>3.3</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P8">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1281,7 +1281,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5224889</v>
+        <v>5224884</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1370,43 +1370,43 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O10">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1421,16 +1421,16 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y10">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
         <v>-1</v>
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1545,10 +1545,10 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1637,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13">
         <v>2.55</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K14">
         <v>1.8</v>
@@ -1812,7 +1812,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
         <v>1.666</v>
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1990,7 +1990,7 @@
         <v>45129.5</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17">
         <v>2.1</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K18">
         <v>2.2</v>
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6808005</v>
+        <v>6808905</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,58 +2168,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L19">
+        <v>3.2</v>
+      </c>
+      <c r="M19">
+        <v>2.5</v>
+      </c>
+      <c r="N19">
+        <v>2.15</v>
+      </c>
+      <c r="O19">
+        <v>3.25</v>
+      </c>
+      <c r="P19">
         <v>3.1</v>
       </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19">
-        <v>2.5</v>
-      </c>
-      <c r="O19">
-        <v>3.1</v>
-      </c>
-      <c r="P19">
-        <v>2.6</v>
-      </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2228,16 +2228,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2245,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6808905</v>
+        <v>6808005</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2257,58 +2257,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <v>2.2</v>
+      </c>
+      <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20">
+      <c r="N20">
         <v>2.5</v>
       </c>
-      <c r="L20">
-        <v>3.2</v>
-      </c>
-      <c r="M20">
+      <c r="O20">
+        <v>3.1</v>
+      </c>
+      <c r="P20">
+        <v>2.6</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>1.95</v>
+      </c>
+      <c r="T20">
         <v>2.5</v>
       </c>
-      <c r="N20">
-        <v>2.15</v>
-      </c>
-      <c r="O20">
-        <v>3.25</v>
-      </c>
-      <c r="P20">
-        <v>3.1</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.9</v>
-      </c>
-      <c r="S20">
-        <v>1.9</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2317,16 +2317,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2349,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2438,7 +2438,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
         <v>1.615</v>
@@ -2524,7 +2524,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23">
         <v>1.909</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24">
         <v>2.6</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2880,7 +2880,7 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27">
         <v>1.909</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K28">
         <v>2.1</v>
@@ -3058,7 +3058,7 @@
         <v>45137.5</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K29">
         <v>2.4</v>
@@ -3147,10 +3147,10 @@
         <v>45137.5</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3506,7 +3506,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>3.1</v>
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K35">
         <v>2.7</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>2.3</v>
@@ -3859,10 +3859,10 @@
         <v>45144.5</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K38">
         <v>1.75</v>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>2.2</v>
@@ -4037,7 +4037,7 @@
         <v>45150.5</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>48</v>
@@ -4049,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>2.5</v>
@@ -4138,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
         <v>2.5</v>
@@ -4218,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K42">
         <v>2.375</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43">
         <v>2.2</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6808617</v>
+        <v>6808165</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>45151.5</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC44">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6808619</v>
+        <v>6808617</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,46 +4482,46 @@
         <v>45151.5</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45">
+        <v>2.4</v>
+      </c>
+      <c r="L45">
+        <v>3.2</v>
+      </c>
+      <c r="M45">
+        <v>2.6</v>
+      </c>
+      <c r="N45">
         <v>2.2</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>3.25</v>
       </c>
-      <c r="M45">
-        <v>2.8</v>
-      </c>
-      <c r="N45">
-        <v>2</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
         <v>2.5</v>
@@ -4533,7 +4533,7 @@
         <v>1.875</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4542,16 +4542,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6808166</v>
+        <v>6808619</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,19 +4571,19 @@
         <v>45151.5</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
         <v>2.2</v>
@@ -4595,52 +4595,52 @@
         <v>2.8</v>
       </c>
       <c r="N46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
+        <v>1.925</v>
+      </c>
+      <c r="V46">
         <v>1.875</v>
       </c>
-      <c r="V46">
-        <v>1.925</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6808165</v>
+        <v>6808166</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4660,76 +4660,76 @@
         <v>45151.5</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
         <v>3.25</v>
       </c>
       <c r="M47">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N47">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O47">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.8</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
         <v>1.875</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.925</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.9</v>
-      </c>
-      <c r="V47">
-        <v>1.9</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y47">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB47">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4752,7 +4752,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K48">
         <v>2.25</v>
@@ -4838,7 +4838,7 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K49">
         <v>2.1</v>
@@ -4915,7 +4915,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6808168</v>
+        <v>6808169</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4927,56 +4927,56 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N50">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O50">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
+        <v>1.875</v>
+      </c>
+      <c r="S50">
+        <v>1.925</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
         <v>1.95</v>
       </c>
-      <c r="S50">
+      <c r="V50">
         <v>1.85</v>
       </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
-      <c r="U50">
-        <v>1.775</v>
-      </c>
-      <c r="V50">
-        <v>2.025</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
@@ -4984,19 +4984,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6808169</v>
+        <v>6808168</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5016,55 +5016,55 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N51">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5073,19 +5073,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5117,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K52">
         <v>2.625</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K53">
         <v>2.25</v>
@@ -5295,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5372,7 +5372,7 @@
         <v>45163.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K55">
         <v>1.909</v>
@@ -5464,7 +5464,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K56">
         <v>2.5</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K57">
         <v>2.3</v>
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6808899</v>
+        <v>6808624</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,58 +5639,58 @@
         <v>45164.5</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K58">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
+        <v>1.825</v>
+      </c>
+      <c r="V58">
         <v>1.975</v>
       </c>
-      <c r="V58">
-        <v>1.825</v>
-      </c>
       <c r="W58">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5699,13 +5699,13 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5716,7 +5716,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6808625</v>
+        <v>6808899</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5728,58 +5728,58 @@
         <v>45164.5</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O59">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q59">
         <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5788,13 +5788,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5817,10 +5817,10 @@
         <v>45164.5</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K60">
         <v>1.8</v>
@@ -5894,7 +5894,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6808624</v>
+        <v>6808625</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5906,19 +5906,19 @@
         <v>45164.5</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5930,34 +5930,34 @@
         <v>3.1</v>
       </c>
       <c r="N61">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P61">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q61">
         <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5966,13 +5966,13 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K62">
         <v>2.4</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K63">
         <v>2.5</v>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K64">
         <v>1.833</v>
@@ -6274,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K65">
         <v>2.1</v>
@@ -6354,7 +6354,7 @@
         <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6363,7 +6363,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K66">
         <v>3.1</v>
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K68">
         <v>1.727</v>
@@ -6621,7 +6621,7 @@
         <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6630,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K69">
         <v>2.35</v>
@@ -6707,7 +6707,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K70">
         <v>2.45</v>
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K71">
         <v>1.909</v>
@@ -6885,10 +6885,10 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6986,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K73">
         <v>2.1</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7152,7 +7152,7 @@
         <v>45178.44791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
         <v>41</v>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K75">
         <v>2.15</v>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7333,7 +7333,7 @@
         <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K77">
         <v>2.3</v>
@@ -7431,7 +7431,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K78">
         <v>2.4</v>
@@ -7508,7 +7508,7 @@
         <v>45180.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K79">
         <v>1.833</v>
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7609,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -7689,7 +7689,7 @@
         <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7698,7 +7698,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K81">
         <v>2.5</v>
@@ -7778,7 +7778,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7953,7 +7953,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K84">
         <v>1.8</v>
@@ -8054,7 +8054,7 @@
         <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K85">
         <v>2.5</v>
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8220,7 +8220,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8232,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K87">
         <v>2.15</v>
@@ -8321,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K88">
         <v>2.3</v>
@@ -8398,10 +8398,10 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8410,7 +8410,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K89">
         <v>2.875</v>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K90">
         <v>2.1</v>
@@ -8576,7 +8576,7 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8588,7 +8588,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K91">
         <v>1.615</v>
@@ -8668,7 +8668,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8677,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K92">
         <v>2.375</v>
@@ -8757,7 +8757,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K93">
         <v>2.1</v>
@@ -8843,7 +8843,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8855,7 +8855,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K94">
         <v>1.8</v>
@@ -8935,7 +8935,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -8944,7 +8944,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K95">
         <v>2.5</v>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9211,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9300,7 +9300,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K99">
         <v>2.4</v>
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6808894</v>
+        <v>6808023</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,10 +9377,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9389,28 +9389,28 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K100">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
         <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N100">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P100">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
         <v>1.85</v>
@@ -9422,10 +9422,10 @@
         <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9434,7 +9434,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9446,7 +9446,7 @@
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6808023</v>
+        <v>6808664</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,56 +9466,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K101">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N101">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
         <v>1.85</v>
       </c>
-      <c r="S101">
+      <c r="V101">
         <v>1.95</v>
       </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>1.9</v>
-      </c>
-      <c r="V101">
-        <v>1.9</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
@@ -9523,19 +9523,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9543,7 +9543,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6808664</v>
+        <v>6808894</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9555,56 +9555,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K102">
+        <v>2.875</v>
+      </c>
+      <c r="L102">
+        <v>3.3</v>
+      </c>
+      <c r="M102">
+        <v>2.15</v>
+      </c>
+      <c r="N102">
+        <v>2.875</v>
+      </c>
+      <c r="O102">
+        <v>3.3</v>
+      </c>
+      <c r="P102">
+        <v>2.15</v>
+      </c>
+      <c r="Q102">
+        <v>0.25</v>
+      </c>
+      <c r="R102">
+        <v>1.85</v>
+      </c>
+      <c r="S102">
+        <v>1.95</v>
+      </c>
+      <c r="T102">
         <v>2.5</v>
       </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>2.375</v>
-      </c>
-      <c r="N102">
-        <v>2.3</v>
-      </c>
-      <c r="O102">
-        <v>3.4</v>
-      </c>
-      <c r="P102">
-        <v>2.55</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.8</v>
-      </c>
-      <c r="S102">
-        <v>2</v>
-      </c>
-      <c r="T102">
-        <v>3</v>
-      </c>
       <c r="U102">
+        <v>1.95</v>
+      </c>
+      <c r="V102">
         <v>1.85</v>
       </c>
-      <c r="V102">
-        <v>1.95</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
@@ -9612,19 +9612,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K104">
         <v>2.15</v>
@@ -9822,10 +9822,10 @@
         <v>45200.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9834,7 +9834,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9923,7 +9923,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K106">
         <v>2.25</v>
@@ -10012,7 +10012,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K107">
         <v>2.4</v>
@@ -10077,7 +10077,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6808666</v>
+        <v>6808667</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10089,73 +10089,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>55</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>2.45</v>
+        <v>1.285</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10166,7 +10166,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6808667</v>
+        <v>6808666</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10178,73 +10178,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
         <v>3</v>
       </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
       <c r="J109" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K109">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N109">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="O109">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q109">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W109">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10270,7 +10270,7 @@
         <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10279,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K110">
         <v>2.45</v>
@@ -10356,7 +10356,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>48</v>
@@ -10368,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K111">
         <v>1.75</v>
@@ -10445,7 +10445,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10457,7 +10457,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K112">
         <v>1.75</v>
@@ -10537,7 +10537,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10546,7 +10546,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K113">
         <v>1.6</v>
@@ -10635,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K114">
         <v>2.3</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K115">
         <v>1.6</v>
@@ -10813,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K116">
         <v>2.75</v>
@@ -10893,7 +10893,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K117">
         <v>2.3</v>
@@ -10982,7 +10982,7 @@
         <v>49</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K118">
         <v>2.45</v>
@@ -11068,7 +11068,7 @@
         <v>45214.375</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11080,7 +11080,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K119">
         <v>2.15</v>
@@ -11169,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K120">
         <v>3.5</v>
@@ -11258,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K121">
         <v>2.7</v>
@@ -11335,7 +11335,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>47</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11436,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K123">
         <v>1.5</v>
@@ -11513,10 +11513,10 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K124">
         <v>2.2</v>
@@ -11602,7 +11602,7 @@
         <v>45220.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
         <v>30</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K125">
         <v>2.25</v>
@@ -11694,7 +11694,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K126">
         <v>2.8</v>
@@ -11792,7 +11792,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11881,7 +11881,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K129">
         <v>1.727</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K130">
         <v>1.909</v>
@@ -12139,7 +12139,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K131">
         <v>1.833</v>
@@ -12225,7 +12225,7 @@
         <v>45225.375</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>40</v>
@@ -12237,7 +12237,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K132">
         <v>1.727</v>
@@ -12326,7 +12326,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K134">
         <v>1.533</v>
@@ -12492,7 +12492,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
         <v>42</v>
@@ -12504,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K135">
         <v>2.25</v>
@@ -12593,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K136">
         <v>3.25</v>
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K137">
         <v>2.7</v>
@@ -12771,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K138">
         <v>4.333</v>
@@ -12851,7 +12851,7 @@
         <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -12860,7 +12860,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K139">
         <v>3.5</v>
@@ -12937,7 +12937,7 @@
         <v>45228.39236111111</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
         <v>46</v>
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K140">
         <v>1.8</v>
@@ -13014,7 +13014,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6808683</v>
+        <v>6808198</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13026,73 +13026,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N141">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
         <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X141">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA141">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13103,7 +13103,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6808198</v>
+        <v>6808683</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13115,73 +13115,73 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>56</v>
       </c>
       <c r="K142">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142">
         <v>3.25</v>
       </c>
-      <c r="M142">
-        <v>2.3</v>
-      </c>
       <c r="N142">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB142">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13216,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K143">
         <v>1.85</v>
@@ -13305,7 +13305,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K144">
         <v>1.666</v>
@@ -13394,7 +13394,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K145">
         <v>1.75</v>
@@ -13483,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K146">
         <v>2.25</v>
@@ -13560,10 +13560,10 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13572,7 +13572,7 @@
         <v>5</v>
       </c>
       <c r="J147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K147">
         <v>2.75</v>
@@ -13652,7 +13652,7 @@
         <v>47</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13661,7 +13661,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K148">
         <v>2</v>
@@ -13741,7 +13741,7 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13839,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K150">
         <v>2.45</v>
@@ -13916,7 +13916,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
         <v>48</v>
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K151">
         <v>1.615</v>
@@ -14008,7 +14008,7 @@
         <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14017,7 +14017,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K152">
         <v>2</v>
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K153">
         <v>2.4</v>
@@ -14195,7 +14195,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K154">
         <v>2.2</v>
@@ -14260,7 +14260,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6808200</v>
+        <v>6808689</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14272,10 +14272,10 @@
         <v>45242.375</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14284,47 +14284,47 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K155">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L155">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M155">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N155">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O155">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P155">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
+        <v>1.975</v>
+      </c>
+      <c r="T155">
+        <v>3</v>
+      </c>
+      <c r="U155">
+        <v>1.975</v>
+      </c>
+      <c r="V155">
+        <v>1.825</v>
+      </c>
+      <c r="W155">
         <v>1.8</v>
       </c>
-      <c r="T155">
-        <v>2.5</v>
-      </c>
-      <c r="U155">
-        <v>1.9</v>
-      </c>
-      <c r="V155">
-        <v>1.9</v>
-      </c>
-      <c r="W155">
-        <v>0.95</v>
-      </c>
       <c r="X155">
         <v>-1</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA155">
         <v>-1</v>
@@ -14341,7 +14341,7 @@
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14349,7 +14349,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6808689</v>
+        <v>6808690</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14361,49 +14361,49 @@
         <v>45242.375</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K156">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L156">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M156">
+        <v>2.8</v>
+      </c>
+      <c r="N156">
+        <v>2.5</v>
+      </c>
+      <c r="O156">
+        <v>3.25</v>
+      </c>
+      <c r="P156">
+        <v>2.4</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>1.95</v>
+      </c>
+      <c r="S156">
+        <v>1.85</v>
+      </c>
+      <c r="T156">
         <v>2.75</v>
-      </c>
-      <c r="N156">
-        <v>2.8</v>
-      </c>
-      <c r="O156">
-        <v>3.4</v>
-      </c>
-      <c r="P156">
-        <v>2.2</v>
-      </c>
-      <c r="Q156">
-        <v>0.25</v>
-      </c>
-      <c r="R156">
-        <v>1.825</v>
-      </c>
-      <c r="S156">
-        <v>1.975</v>
-      </c>
-      <c r="T156">
-        <v>3</v>
       </c>
       <c r="U156">
         <v>1.975</v>
@@ -14412,7 +14412,7 @@
         <v>1.825</v>
       </c>
       <c r="W156">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14421,16 +14421,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14438,7 +14438,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6808690</v>
+        <v>6808200</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14450,58 +14450,58 @@
         <v>45242.375</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K157">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L157">
+        <v>3.25</v>
+      </c>
+      <c r="M157">
         <v>3.3</v>
       </c>
-      <c r="M157">
-        <v>2.8</v>
-      </c>
       <c r="N157">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O157">
         <v>3.25</v>
       </c>
       <c r="P157">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14510,16 +14510,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14542,7 +14542,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14551,7 +14551,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K158">
         <v>2.2</v>
@@ -14640,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K159">
         <v>2.25</v>
@@ -14717,7 +14717,7 @@
         <v>45248.375</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
         <v>38</v>
@@ -14729,7 +14729,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K160">
         <v>1.833</v>
@@ -14818,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K161">
         <v>2.2</v>
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K162">
         <v>2.8</v>
@@ -14996,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K163">
         <v>2.2</v>
@@ -15076,7 +15076,7 @@
         <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15085,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K164">
         <v>2</v>
@@ -15162,7 +15162,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
         <v>42</v>
@@ -15174,7 +15174,7 @@
         <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K165">
         <v>2.1</v>
@@ -15263,7 +15263,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K166">
         <v>2.25</v>
@@ -15343,7 +15343,7 @@
         <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15352,7 +15352,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K167">
         <v>2.5</v>
@@ -15441,7 +15441,7 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K168">
         <v>2.5</v>
@@ -15518,10 +15518,10 @@
         <v>45255.35416666666</v>
       </c>
       <c r="F169" t="s">
+        <v>29</v>
+      </c>
+      <c r="G169" t="s">
         <v>37</v>
-      </c>
-      <c r="G169" t="s">
-        <v>33</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15530,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K169">
         <v>2.5</v>
@@ -15619,7 +15619,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K170">
         <v>2.6</v>
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K171">
         <v>2.1</v>
@@ -15788,7 +15788,7 @@
         <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15797,7 +15797,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K172">
         <v>1.7</v>
@@ -15886,7 +15886,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K173">
         <v>2.25</v>
@@ -15966,7 +15966,7 @@
         <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -15975,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K174">
         <v>2.05</v>
@@ -16064,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K175">
         <v>2.5</v>
@@ -16144,7 +16144,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16153,7 +16153,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K176">
         <v>1.909</v>
@@ -16230,10 +16230,10 @@
         <v>45262.375</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K177">
         <v>2.25</v>
@@ -16331,7 +16331,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K178">
         <v>1.909</v>
@@ -16408,7 +16408,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>45</v>
@@ -16420,7 +16420,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K179">
         <v>1.4</v>
@@ -16509,7 +16509,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16598,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K181">
         <v>2.1</v>
@@ -16678,7 +16678,7 @@
         <v>49</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16687,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K182">
         <v>2.4</v>
@@ -16776,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K183">
         <v>2</v>
@@ -16865,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K184">
         <v>2.5</v>
@@ -16942,7 +16942,7 @@
         <v>45346.36458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
         <v>44</v>
@@ -16954,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K185">
         <v>1.909</v>
@@ -17031,7 +17031,7 @@
         <v>45346.375</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
         <v>40</v>
@@ -17043,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K186">
         <v>1.909</v>
@@ -17132,7 +17132,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K187">
         <v>2.3</v>
@@ -17212,7 +17212,7 @@
         <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17221,7 +17221,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K188">
         <v>2.25</v>
@@ -17301,7 +17301,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17310,7 +17310,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K189">
         <v>2.25</v>
@@ -17399,7 +17399,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K190">
         <v>2.7</v>
@@ -17479,7 +17479,7 @@
         <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17488,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17577,7 +17577,7 @@
         <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K192">
         <v>2.2</v>
@@ -17654,7 +17654,7 @@
         <v>45353.33333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
         <v>30</v>
@@ -17666,7 +17666,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K193">
         <v>2.2</v>
@@ -17755,7 +17755,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K194">
         <v>2</v>
@@ -17835,7 +17835,7 @@
         <v>49</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>3</v>
@@ -17844,7 +17844,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K195">
         <v>1.909</v>
@@ -17924,7 +17924,7 @@
         <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K196">
         <v>2.8</v>
@@ -18022,7 +18022,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K197">
         <v>2.1</v>
@@ -18111,7 +18111,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K198">
         <v>2.3</v>
@@ -18188,7 +18188,7 @@
         <v>45355.59375</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
         <v>42</v>
@@ -18200,7 +18200,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K199">
         <v>2.625</v>
@@ -18280,7 +18280,7 @@
         <v>48</v>
       </c>
       <c r="G200" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18289,7 +18289,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K200">
         <v>2.625</v>
@@ -18378,7 +18378,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K201">
         <v>2.2</v>
@@ -18467,7 +18467,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K202">
         <v>1.727</v>
@@ -18556,7 +18556,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K203">
         <v>2</v>
@@ -18645,7 +18645,7 @@
         <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18722,10 +18722,10 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18734,7 +18734,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K205">
         <v>2.1</v>
@@ -18823,7 +18823,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K206">
         <v>2.375</v>
@@ -18903,7 +18903,7 @@
         <v>45</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18912,7 +18912,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K207">
         <v>2.4</v>
@@ -18992,7 +18992,7 @@
         <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19001,7 +19001,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K208">
         <v>1.909</v>
@@ -19078,7 +19078,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
         <v>43</v>
@@ -19090,7 +19090,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K209">
         <v>1.5</v>
@@ -19179,7 +19179,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19237,6 +19237,821 @@
       </c>
       <c r="AC210">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>7550308</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45364.58333333334</v>
+      </c>
+      <c r="F211" t="s">
+        <v>39</v>
+      </c>
+      <c r="G211" t="s">
+        <v>38</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>55</v>
+      </c>
+      <c r="K211">
+        <v>1.85</v>
+      </c>
+      <c r="L211">
+        <v>3.4</v>
+      </c>
+      <c r="M211">
+        <v>3.6</v>
+      </c>
+      <c r="N211">
+        <v>1.8</v>
+      </c>
+      <c r="O211">
+        <v>3.4</v>
+      </c>
+      <c r="P211">
+        <v>3.8</v>
+      </c>
+      <c r="Q211">
+        <v>-0.5</v>
+      </c>
+      <c r="R211">
+        <v>1.8</v>
+      </c>
+      <c r="S211">
+        <v>2</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>2</v>
+      </c>
+      <c r="V211">
+        <v>1.8</v>
+      </c>
+      <c r="W211">
+        <v>0.8</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.8</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7545543</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45364.67708333334</v>
+      </c>
+      <c r="F212" t="s">
+        <v>40</v>
+      </c>
+      <c r="G212" t="s">
+        <v>42</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>56</v>
+      </c>
+      <c r="K212">
+        <v>2.55</v>
+      </c>
+      <c r="L212">
+        <v>3.1</v>
+      </c>
+      <c r="M212">
+        <v>2.5</v>
+      </c>
+      <c r="N212">
+        <v>2.1</v>
+      </c>
+      <c r="O212">
+        <v>3.25</v>
+      </c>
+      <c r="P212">
+        <v>3</v>
+      </c>
+      <c r="Q212">
+        <v>-0.25</v>
+      </c>
+      <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
+        <v>1.95</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>2.25</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>-0.5</v>
+      </c>
+      <c r="AA212">
+        <v>0.45</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>6808046</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45366.625</v>
+      </c>
+      <c r="F213" t="s">
+        <v>43</v>
+      </c>
+      <c r="G213" t="s">
+        <v>41</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213" t="s">
+        <v>56</v>
+      </c>
+      <c r="K213">
+        <v>2.1</v>
+      </c>
+      <c r="L213">
+        <v>3.3</v>
+      </c>
+      <c r="M213">
+        <v>3</v>
+      </c>
+      <c r="N213">
+        <v>2.625</v>
+      </c>
+      <c r="O213">
+        <v>2.875</v>
+      </c>
+      <c r="P213">
+        <v>2.625</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>1.9</v>
+      </c>
+      <c r="S213">
+        <v>1.9</v>
+      </c>
+      <c r="T213">
+        <v>1.75</v>
+      </c>
+      <c r="U213">
+        <v>1.75</v>
+      </c>
+      <c r="V213">
+        <v>2.05</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>1.875</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>-0</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>6808879</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45366.66666666666</v>
+      </c>
+      <c r="F214" t="s">
+        <v>34</v>
+      </c>
+      <c r="G214" t="s">
+        <v>48</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>3</v>
+      </c>
+      <c r="J214" t="s">
+        <v>54</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>3.3</v>
+      </c>
+      <c r="M214">
+        <v>3.2</v>
+      </c>
+      <c r="N214">
+        <v>2.3</v>
+      </c>
+      <c r="O214">
+        <v>3.1</v>
+      </c>
+      <c r="P214">
+        <v>2.75</v>
+      </c>
+      <c r="Q214">
+        <v>-0.25</v>
+      </c>
+      <c r="R214">
+        <v>2.05</v>
+      </c>
+      <c r="S214">
+        <v>1.75</v>
+      </c>
+      <c r="T214">
+        <v>2.25</v>
+      </c>
+      <c r="U214">
+        <v>1.875</v>
+      </c>
+      <c r="V214">
+        <v>1.925</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>1.75</v>
+      </c>
+      <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>0.75</v>
+      </c>
+      <c r="AB214">
+        <v>0.875</v>
+      </c>
+      <c r="AC214">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>6808721</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45367.375</v>
+      </c>
+      <c r="F215" t="s">
+        <v>31</v>
+      </c>
+      <c r="G215" t="s">
+        <v>45</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="s">
+        <v>56</v>
+      </c>
+      <c r="K215">
+        <v>1.909</v>
+      </c>
+      <c r="L215">
+        <v>3.3</v>
+      </c>
+      <c r="M215">
+        <v>3.5</v>
+      </c>
+      <c r="N215">
+        <v>2.1</v>
+      </c>
+      <c r="O215">
+        <v>3.1</v>
+      </c>
+      <c r="P215">
+        <v>3.1</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.875</v>
+      </c>
+      <c r="S215">
+        <v>1.925</v>
+      </c>
+      <c r="T215">
+        <v>2.5</v>
+      </c>
+      <c r="U215">
+        <v>1.85</v>
+      </c>
+      <c r="V215">
+        <v>1.95</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>2.1</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>-0.5</v>
+      </c>
+      <c r="AA215">
+        <v>0.4625</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>6808720</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F216" t="s">
+        <v>40</v>
+      </c>
+      <c r="G216" t="s">
+        <v>30</v>
+      </c>
+      <c r="K216">
+        <v>2.3</v>
+      </c>
+      <c r="L216">
+        <v>3.25</v>
+      </c>
+      <c r="M216">
+        <v>2.7</v>
+      </c>
+      <c r="N216">
+        <v>1.909</v>
+      </c>
+      <c r="O216">
+        <v>3.5</v>
+      </c>
+      <c r="P216">
+        <v>3.3</v>
+      </c>
+      <c r="Q216">
+        <v>-0.5</v>
+      </c>
+      <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
+        <v>1.825</v>
+      </c>
+      <c r="T216">
+        <v>2.5</v>
+      </c>
+      <c r="U216">
+        <v>2</v>
+      </c>
+      <c r="V216">
+        <v>1.8</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>6808147</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F217" t="s">
+        <v>37</v>
+      </c>
+      <c r="G217" t="s">
+        <v>33</v>
+      </c>
+      <c r="K217">
+        <v>2.75</v>
+      </c>
+      <c r="L217">
+        <v>3.2</v>
+      </c>
+      <c r="M217">
+        <v>2.3</v>
+      </c>
+      <c r="N217">
+        <v>3.1</v>
+      </c>
+      <c r="O217">
+        <v>3.2</v>
+      </c>
+      <c r="P217">
+        <v>2.1</v>
+      </c>
+      <c r="Q217">
+        <v>0.25</v>
+      </c>
+      <c r="R217">
+        <v>1.95</v>
+      </c>
+      <c r="S217">
+        <v>1.85</v>
+      </c>
+      <c r="T217">
+        <v>2.5</v>
+      </c>
+      <c r="U217">
+        <v>2.025</v>
+      </c>
+      <c r="V217">
+        <v>1.775</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>6808045</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45368.54166666666</v>
+      </c>
+      <c r="F218" t="s">
+        <v>44</v>
+      </c>
+      <c r="G218" t="s">
+        <v>38</v>
+      </c>
+      <c r="K218">
+        <v>1.8</v>
+      </c>
+      <c r="L218">
+        <v>3.4</v>
+      </c>
+      <c r="M218">
+        <v>3.75</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218">
+        <v>3.3</v>
+      </c>
+      <c r="P218">
+        <v>3.3</v>
+      </c>
+      <c r="Q218">
+        <v>-0.25</v>
+      </c>
+      <c r="R218">
+        <v>1.775</v>
+      </c>
+      <c r="S218">
+        <v>2.025</v>
+      </c>
+      <c r="T218">
+        <v>2.25</v>
+      </c>
+      <c r="U218">
+        <v>1.9</v>
+      </c>
+      <c r="V218">
+        <v>1.9</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>6808717</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45368.64583333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>47</v>
+      </c>
+      <c r="G219" t="s">
+        <v>42</v>
+      </c>
+      <c r="K219">
+        <v>2.3</v>
+      </c>
+      <c r="L219">
+        <v>3.2</v>
+      </c>
+      <c r="M219">
+        <v>2.75</v>
+      </c>
+      <c r="N219">
+        <v>2.3</v>
+      </c>
+      <c r="O219">
+        <v>3.2</v>
+      </c>
+      <c r="P219">
+        <v>2.7</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>1.75</v>
+      </c>
+      <c r="S219">
+        <v>2.05</v>
+      </c>
+      <c r="T219">
+        <v>2.25</v>
+      </c>
+      <c r="U219">
+        <v>1.775</v>
+      </c>
+      <c r="V219">
+        <v>2.025</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>6808718</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45369.59375</v>
+      </c>
+      <c r="F220" t="s">
+        <v>46</v>
+      </c>
+      <c r="G220" t="s">
+        <v>29</v>
+      </c>
+      <c r="K220">
+        <v>2.4</v>
+      </c>
+      <c r="L220">
+        <v>3.2</v>
+      </c>
+      <c r="M220">
+        <v>2.6</v>
+      </c>
+      <c r="N220">
+        <v>2.1</v>
+      </c>
+      <c r="O220">
+        <v>3.25</v>
+      </c>
+      <c r="P220">
+        <v>3</v>
+      </c>
+      <c r="Q220">
+        <v>-0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.9</v>
+      </c>
+      <c r="S220">
+        <v>1.9</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>1.8</v>
+      </c>
+      <c r="V220">
+        <v>2</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -106,28 +106,28 @@
     <t>Hutnik Krakow</t>
   </si>
   <si>
-    <t>Olimpia Elblag</t>
+    <t>Garbarnia Krakow</t>
+  </si>
+  <si>
+    <t>Polonia Warsaw</t>
+  </si>
+  <si>
+    <t>Siarka Tarnobrzeg</t>
   </si>
   <si>
     <t>Zaglebie Lubin II</t>
   </si>
   <si>
-    <t>Siarka Tarnobrzeg</t>
-  </si>
-  <si>
     <t>Kotwica Kolobrzeg</t>
   </si>
   <si>
-    <t>Wisla Pulawy</t>
+    <t>Radunia Stezyca</t>
   </si>
   <si>
-    <t>Polonia Warsaw</t>
+    <t>Olimpia Elblag</t>
   </si>
   <si>
-    <t>Garbarnia Krakow</t>
-  </si>
-  <si>
-    <t>Radunia Stezyca</t>
+    <t>Wisla Pulawy</t>
   </si>
   <si>
     <t>Stomil Olsztyn</t>
@@ -169,13 +169,13 @@
     <t>Znicz Pruszkw</t>
   </si>
   <si>
-    <t>Slask Wroclaw II</t>
+    <t>Gornik Polkowice</t>
   </si>
   <si>
     <t>Motor Lublin</t>
   </si>
   <si>
-    <t>Gornik Polkowice</t>
+    <t>Slask Wroclaw II</t>
   </si>
   <si>
     <t>A</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5185127</v>
+        <v>5229462</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -747,73 +747,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5226042</v>
+        <v>5228058</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -836,73 +836,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4">
-        <v>3.1</v>
-      </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="N4">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -925,7 +925,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5226043</v>
+        <v>5226042</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="N6">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="O6">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X6">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5226044</v>
+        <v>5226043</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1103,73 +1103,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L7">
         <v>4.5</v>
       </c>
       <c r="M7">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N7">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="O7">
+        <v>4.333</v>
+      </c>
+      <c r="P7">
         <v>5.25</v>
       </c>
-      <c r="P7">
-        <v>7.5</v>
-      </c>
       <c r="Q7">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5228058</v>
+        <v>5224884</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1192,73 +1192,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>56</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M8">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N8">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O8">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5229462</v>
+        <v>5185127</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,73 +1281,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>3.5</v>
       </c>
       <c r="M9">
+        <v>3.1</v>
+      </c>
+      <c r="N9">
+        <v>2.25</v>
+      </c>
+      <c r="O9">
+        <v>3.5</v>
+      </c>
+      <c r="P9">
+        <v>2.625</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>1.75</v>
       </c>
-      <c r="N9">
-        <v>3.2</v>
-      </c>
-      <c r="O9">
-        <v>3.4</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>0.25</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
       <c r="S9">
+        <v>2.05</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
         <v>1.8</v>
       </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.95</v>
-      </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5224884</v>
+        <v>5226044</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1370,46 +1370,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L10">
+        <v>4.5</v>
+      </c>
+      <c r="M10">
+        <v>6.5</v>
+      </c>
+      <c r="N10">
+        <v>1.285</v>
+      </c>
+      <c r="O10">
+        <v>5.25</v>
+      </c>
+      <c r="P10">
+        <v>7.5</v>
+      </c>
+      <c r="Q10">
+        <v>-1.5</v>
+      </c>
+      <c r="R10">
+        <v>1.825</v>
+      </c>
+      <c r="S10">
+        <v>1.975</v>
+      </c>
+      <c r="T10">
         <v>3.25</v>
-      </c>
-      <c r="M10">
-        <v>2.5</v>
-      </c>
-      <c r="N10">
-        <v>2.6</v>
-      </c>
-      <c r="O10">
-        <v>3.1</v>
-      </c>
-      <c r="P10">
-        <v>2.5</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1.95</v>
-      </c>
-      <c r="S10">
-        <v>1.85</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
       </c>
       <c r="U10">
         <v>1.8</v>
@@ -1418,25 +1418,25 @@
         <v>2</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X10">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1545,7 +1545,7 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
@@ -1812,7 +1812,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1901,7 +1901,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2067,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6808604</v>
+        <v>6808005</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2079,19 +2079,19 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K18">
         <v>2.2</v>
@@ -2103,52 +2103,52 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
         <v>3.1</v>
       </c>
       <c r="P18">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
         <v>1.95</v>
-      </c>
-      <c r="S18">
-        <v>1.85</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6808905</v>
+        <v>6808604</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,76 +2168,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
+        <v>2.2</v>
+      </c>
+      <c r="L19">
+        <v>3.1</v>
+      </c>
+      <c r="M19">
         <v>3</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19">
+      <c r="N19">
+        <v>2.6</v>
+      </c>
+      <c r="O19">
+        <v>3.1</v>
+      </c>
+      <c r="P19">
         <v>2.5</v>
       </c>
-      <c r="L19">
-        <v>3.2</v>
-      </c>
-      <c r="M19">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
+        <v>1.85</v>
+      </c>
+      <c r="T19">
         <v>2.5</v>
       </c>
-      <c r="N19">
-        <v>2.15</v>
-      </c>
-      <c r="O19">
-        <v>3.25</v>
-      </c>
-      <c r="P19">
-        <v>3.1</v>
-      </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
-        <v>1.9</v>
-      </c>
-      <c r="S19">
-        <v>1.9</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2245,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6808005</v>
+        <v>6808905</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2257,58 +2257,58 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>55</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
+        <v>3.2</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <v>2.15</v>
+      </c>
+      <c r="O20">
+        <v>3.25</v>
+      </c>
+      <c r="P20">
         <v>3.1</v>
       </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>2.5</v>
-      </c>
-      <c r="O20">
-        <v>3.1</v>
-      </c>
-      <c r="P20">
-        <v>2.6</v>
-      </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2317,16 +2317,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2349,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2868,7 +2868,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6808608</v>
+        <v>6808160</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2880,13 +2880,13 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2895,61 +2895,61 @@
         <v>55</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
+        <v>3.3</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>1.8</v>
+      </c>
+      <c r="O27">
         <v>3.4</v>
       </c>
-      <c r="M27">
-        <v>3.4</v>
-      </c>
-      <c r="N27">
-        <v>1.85</v>
-      </c>
-      <c r="O27">
-        <v>3.5</v>
-      </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q27">
         <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
+        <v>0.8</v>
+      </c>
+      <c r="X27">
+        <v>-1</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
-      <c r="Y27">
-        <v>-1</v>
-      </c>
-      <c r="Z27">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6808160</v>
+        <v>6808608</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2969,13 +2969,13 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2984,43 +2984,43 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N28">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q28">
         <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3029,16 +3029,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6808609</v>
+        <v>6808161</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3058,76 +3058,76 @@
         <v>45137.5</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>56</v>
       </c>
       <c r="K29">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="N29">
+        <v>2.2</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
+        <v>2.875</v>
+      </c>
+      <c r="Q29">
+        <v>-0.25</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>1.8</v>
+      </c>
+      <c r="T29">
         <v>2.25</v>
       </c>
-      <c r="O29">
-        <v>3.75</v>
-      </c>
-      <c r="P29">
-        <v>2.5</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
+      <c r="U29">
         <v>1.8</v>
       </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>1.875</v>
-      </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3135,7 +3135,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6808161</v>
+        <v>6808609</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3147,76 +3147,76 @@
         <v>45137.5</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>56</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
+        <v>2.4</v>
+      </c>
+      <c r="N30">
+        <v>2.25</v>
+      </c>
+      <c r="O30">
+        <v>3.75</v>
+      </c>
+      <c r="P30">
+        <v>2.5</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1.875</v>
+      </c>
+      <c r="V30">
+        <v>1.925</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
         <v>2.75</v>
       </c>
-      <c r="N30">
-        <v>2.2</v>
-      </c>
-      <c r="O30">
-        <v>3.2</v>
-      </c>
-      <c r="P30">
-        <v>2.875</v>
-      </c>
-      <c r="Q30">
-        <v>-0.25</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30">
-        <v>1.8</v>
-      </c>
-      <c r="T30">
-        <v>2.25</v>
-      </c>
-      <c r="U30">
-        <v>1.8</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
-      <c r="X30">
-        <v>2.2</v>
-      </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3506,7 +3506,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3770,7 +3770,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3862,7 +3862,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6808901</v>
+        <v>6808618</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4037,19 +4037,19 @@
         <v>45150.5</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40">
         <v>2.5</v>
@@ -4082,31 +4082,31 @@
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB40">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4114,7 +4114,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6808618</v>
+        <v>6808901</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4126,19 +4126,19 @@
         <v>45150.5</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41">
         <v>2.5</v>
@@ -4171,31 +4171,31 @@
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC41">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4218,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6808165</v>
+        <v>6808617</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>45151.5</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L44">
+        <v>3.2</v>
+      </c>
+      <c r="M44">
+        <v>2.6</v>
+      </c>
+      <c r="N44">
+        <v>2.2</v>
+      </c>
+      <c r="O44">
         <v>3.25</v>
       </c>
-      <c r="M44">
-        <v>3.5</v>
-      </c>
-      <c r="N44">
-        <v>1.615</v>
-      </c>
-      <c r="O44">
-        <v>3.6</v>
-      </c>
       <c r="P44">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
+        <v>1.975</v>
+      </c>
+      <c r="S44">
+        <v>1.825</v>
+      </c>
+      <c r="T44">
+        <v>2.5</v>
+      </c>
+      <c r="U44">
+        <v>1.925</v>
+      </c>
+      <c r="V44">
         <v>1.875</v>
       </c>
-      <c r="S44">
-        <v>1.925</v>
-      </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
-      <c r="U44">
-        <v>1.9</v>
-      </c>
-      <c r="V44">
-        <v>1.9</v>
-      </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6808617</v>
+        <v>6808166</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,28 +4482,28 @@
         <v>45151.5</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K45">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N45">
         <v>2.2</v>
@@ -4512,46 +4512,46 @@
         <v>3.25</v>
       </c>
       <c r="P45">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
+        <v>1.875</v>
+      </c>
+      <c r="V45">
         <v>1.925</v>
       </c>
-      <c r="V45">
-        <v>1.875</v>
-      </c>
       <c r="W45">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6808619</v>
+        <v>6808165</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,76 +4571,76 @@
         <v>45151.5</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L46">
         <v>3.25</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB46">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6808166</v>
+        <v>6808619</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4663,16 +4663,16 @@
         <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47">
         <v>2.2</v>
@@ -4684,52 +4684,52 @@
         <v>2.8</v>
       </c>
       <c r="N47">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P47">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q47">
         <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
+        <v>1.925</v>
+      </c>
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="V47">
-        <v>1.925</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X47">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC47">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4752,7 +4752,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4915,7 +4915,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6808169</v>
+        <v>6808168</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4927,55 +4927,55 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>54</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N50">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4984,19 +4984,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6808168</v>
+        <v>6808169</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5016,56 +5016,56 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>54</v>
       </c>
       <c r="K51">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
+        <v>1.875</v>
+      </c>
+      <c r="S51">
+        <v>1.925</v>
+      </c>
+      <c r="T51">
+        <v>2.5</v>
+      </c>
+      <c r="U51">
         <v>1.95</v>
       </c>
-      <c r="S51">
+      <c r="V51">
         <v>1.85</v>
       </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
-      <c r="U51">
-        <v>1.775</v>
-      </c>
-      <c r="V51">
-        <v>2.025</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
@@ -5073,19 +5073,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5372,7 +5372,7 @@
         <v>45163.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5464,7 +5464,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5639,10 +5639,10 @@
         <v>45164.5</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5805,7 +5805,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7105151</v>
+        <v>6808625</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5817,76 +5817,76 @@
         <v>45164.5</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>3.4</v>
+      </c>
+      <c r="M60">
+        <v>3.1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>3.4</v>
+      </c>
+      <c r="P60">
+        <v>3.1</v>
+      </c>
+      <c r="Q60">
+        <v>-0.25</v>
+      </c>
+      <c r="R60">
         <v>1.8</v>
       </c>
-      <c r="L60">
-        <v>3.25</v>
-      </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.8</v>
-      </c>
-      <c r="O60">
-        <v>3.25</v>
-      </c>
-      <c r="P60">
-        <v>4</v>
-      </c>
-      <c r="Q60">
-        <v>-0.5</v>
-      </c>
-      <c r="R60">
-        <v>1.85</v>
-      </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5894,7 +5894,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6808625</v>
+        <v>7105151</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5906,76 +5906,76 @@
         <v>45164.5</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>54</v>
+      </c>
+      <c r="K61">
+        <v>1.8</v>
+      </c>
+      <c r="L61">
+        <v>3.25</v>
+      </c>
+      <c r="M61">
         <v>4</v>
       </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-      <c r="J61" t="s">
-        <v>55</v>
-      </c>
-      <c r="K61">
-        <v>2</v>
-      </c>
-      <c r="L61">
-        <v>3.4</v>
-      </c>
-      <c r="M61">
-        <v>3.1</v>
-      </c>
       <c r="N61">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P61">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6262,7 +6262,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
@@ -6354,7 +6354,7 @@
         <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6621,7 +6621,7 @@
         <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6885,10 +6885,10 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7152,7 +7152,7 @@
         <v>45178.44791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>41</v>
@@ -7508,7 +7508,7 @@
         <v>45180.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7686,10 +7686,10 @@
         <v>45184.625</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7778,7 +7778,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7953,7 +7953,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6808649</v>
+        <v>7203342</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,55 +8042,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>54</v>
       </c>
       <c r="K85">
+        <v>1.8</v>
+      </c>
+      <c r="L85">
+        <v>3.4</v>
+      </c>
+      <c r="M85">
+        <v>3.75</v>
+      </c>
+      <c r="N85">
+        <v>1.95</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
+        <v>3.25</v>
+      </c>
+      <c r="Q85">
+        <v>-0.5</v>
+      </c>
+      <c r="R85">
+        <v>2.025</v>
+      </c>
+      <c r="S85">
+        <v>1.775</v>
+      </c>
+      <c r="T85">
         <v>2.5</v>
       </c>
-      <c r="L85">
-        <v>3.2</v>
-      </c>
-      <c r="M85">
-        <v>2.5</v>
-      </c>
-      <c r="N85">
-        <v>2.5</v>
-      </c>
-      <c r="O85">
-        <v>3.25</v>
-      </c>
-      <c r="P85">
-        <v>2.5</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.9</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8099,19 +8099,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7203342</v>
+        <v>6808649</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,55 +8131,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="s">
         <v>54</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N86">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8188,19 +8188,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8398,10 +8398,10 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8487,7 +8487,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8576,7 +8576,7 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8668,7 +8668,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8843,7 +8843,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8935,7 +8935,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9202,7 +9202,7 @@
         <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6808023</v>
+        <v>6808664</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,56 +9377,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
         <v>54</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N100">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O100">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P100">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
         <v>1.85</v>
       </c>
-      <c r="S100">
+      <c r="V100">
         <v>1.95</v>
       </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9434,19 +9434,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6808664</v>
+        <v>6808894</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,56 +9466,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>54</v>
       </c>
       <c r="K101">
+        <v>2.875</v>
+      </c>
+      <c r="L101">
+        <v>3.3</v>
+      </c>
+      <c r="M101">
+        <v>2.15</v>
+      </c>
+      <c r="N101">
+        <v>2.875</v>
+      </c>
+      <c r="O101">
+        <v>3.3</v>
+      </c>
+      <c r="P101">
+        <v>2.15</v>
+      </c>
+      <c r="Q101">
+        <v>0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.85</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
         <v>2.5</v>
       </c>
-      <c r="L101">
-        <v>3.4</v>
-      </c>
-      <c r="M101">
-        <v>2.375</v>
-      </c>
-      <c r="N101">
-        <v>2.3</v>
-      </c>
-      <c r="O101">
-        <v>3.4</v>
-      </c>
-      <c r="P101">
-        <v>2.55</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.8</v>
-      </c>
-      <c r="S101">
-        <v>2</v>
-      </c>
-      <c r="T101">
-        <v>3</v>
-      </c>
       <c r="U101">
+        <v>1.95</v>
+      </c>
+      <c r="V101">
         <v>1.85</v>
       </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
@@ -9523,19 +9523,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9543,7 +9543,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6808894</v>
+        <v>6808023</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9555,10 +9555,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9570,25 +9570,25 @@
         <v>54</v>
       </c>
       <c r="K102">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L102">
         <v>3.3</v>
       </c>
       <c r="M102">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N102">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P102">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
         <v>1.85</v>
@@ -9600,10 +9600,10 @@
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9612,7 +9612,7 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9624,7 +9624,7 @@
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9644,7 +9644,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>47</v>
@@ -9822,10 +9822,10 @@
         <v>45200.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -10181,7 +10181,7 @@
         <v>46</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10270,7 +10270,7 @@
         <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10445,7 +10445,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10537,7 +10537,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10626,7 +10626,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10801,7 +10801,7 @@
         <v>45212.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -10893,7 +10893,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -11068,7 +11068,7 @@
         <v>45214.375</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11335,7 +11335,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
         <v>47</v>
@@ -11513,10 +11513,10 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11605,7 +11605,7 @@
         <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11694,7 +11694,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -12139,7 +12139,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12225,7 +12225,7 @@
         <v>45225.375</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
         <v>40</v>
@@ -12403,7 +12403,7 @@
         <v>45227.375</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
         <v>48</v>
@@ -12492,7 +12492,7 @@
         <v>45227.40625</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
         <v>42</v>
@@ -12937,7 +12937,7 @@
         <v>45228.39236111111</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>46</v>
@@ -13029,7 +13029,7 @@
         <v>49</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13115,7 +13115,7 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13192,7 +13192,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6808888</v>
+        <v>6808197</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13204,76 +13204,76 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>56</v>
       </c>
       <c r="K143">
+        <v>1.666</v>
+      </c>
+      <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
+        <v>4.2</v>
+      </c>
+      <c r="N143">
+        <v>2.3</v>
+      </c>
+      <c r="O143">
+        <v>3.25</v>
+      </c>
+      <c r="P143">
+        <v>2.7</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1.775</v>
+      </c>
+      <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
         <v>1.85</v>
       </c>
-      <c r="L143">
-        <v>3.4</v>
-      </c>
-      <c r="M143">
-        <v>3.5</v>
-      </c>
-      <c r="N143">
-        <v>1.85</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
-      <c r="P143">
-        <v>3.5</v>
-      </c>
-      <c r="Q143">
-        <v>-0.5</v>
-      </c>
-      <c r="R143">
-        <v>1.925</v>
-      </c>
-      <c r="S143">
-        <v>1.875</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.825</v>
-      </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13281,7 +13281,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6808197</v>
+        <v>6808888</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13293,76 +13293,76 @@
         <v>45234.39583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G144" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>56</v>
       </c>
       <c r="K144">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N144">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13563,7 +13563,7 @@
         <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13652,7 +13652,7 @@
         <v>47</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13741,7 +13741,7 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13916,7 +13916,7 @@
         <v>45240.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
         <v>48</v>
@@ -14094,7 +14094,7 @@
         <v>45241.51041666666</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
         <v>44</v>
@@ -14260,7 +14260,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6808689</v>
+        <v>6808200</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14272,10 +14272,10 @@
         <v>45242.375</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14287,43 +14287,43 @@
         <v>55</v>
       </c>
       <c r="K155">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L155">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M155">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N155">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O155">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P155">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q155">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>1.8</v>
+        <v>0.95</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14332,7 +14332,7 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA155">
         <v>-1</v>
@@ -14341,7 +14341,7 @@
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14349,7 +14349,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6808690</v>
+        <v>6808689</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14361,13 +14361,13 @@
         <v>45242.375</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -14376,34 +14376,34 @@
         <v>55</v>
       </c>
       <c r="K156">
+        <v>2.3</v>
+      </c>
+      <c r="L156">
+        <v>3.2</v>
+      </c>
+      <c r="M156">
+        <v>2.75</v>
+      </c>
+      <c r="N156">
+        <v>2.8</v>
+      </c>
+      <c r="O156">
+        <v>3.4</v>
+      </c>
+      <c r="P156">
         <v>2.2</v>
       </c>
-      <c r="L156">
-        <v>3.3</v>
-      </c>
-      <c r="M156">
-        <v>2.8</v>
-      </c>
-      <c r="N156">
-        <v>2.5</v>
-      </c>
-      <c r="O156">
-        <v>3.25</v>
-      </c>
-      <c r="P156">
-        <v>2.4</v>
-      </c>
       <c r="Q156">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U156">
         <v>1.975</v>
@@ -14412,7 +14412,7 @@
         <v>1.825</v>
       </c>
       <c r="W156">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14421,16 +14421,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14438,7 +14438,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6808200</v>
+        <v>6808690</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14450,13 +14450,13 @@
         <v>45242.375</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -14465,61 +14465,61 @@
         <v>55</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L157">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M157">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N157">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O157">
         <v>3.25</v>
       </c>
       <c r="P157">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W157">
+        <v>1.5</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
         <v>0.95</v>
       </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>1</v>
-      </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14542,7 +14542,7 @@
         <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14717,7 +14717,7 @@
         <v>45248.375</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
         <v>38</v>
@@ -14898,7 +14898,7 @@
         <v>49</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -15076,7 +15076,7 @@
         <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
         <v>42</v>
@@ -15340,10 +15340,10 @@
         <v>45254.65625</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15521,7 +15521,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15595,7 +15595,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6808885</v>
+        <v>6808698</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15607,76 +15607,76 @@
         <v>45255.375</v>
       </c>
       <c r="F170" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K170">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L170">
+        <v>3.25</v>
+      </c>
+      <c r="M170">
+        <v>3.25</v>
+      </c>
+      <c r="N170">
+        <v>2.15</v>
+      </c>
+      <c r="O170">
+        <v>3.25</v>
+      </c>
+      <c r="P170">
         <v>3.1</v>
       </c>
-      <c r="M170">
-        <v>2.6</v>
-      </c>
-      <c r="N170">
-        <v>2.8</v>
-      </c>
-      <c r="O170">
-        <v>2.9</v>
-      </c>
-      <c r="P170">
-        <v>2.55</v>
-      </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V170">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X170">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15684,7 +15684,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6808698</v>
+        <v>6808885</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15696,76 +15696,76 @@
         <v>45255.375</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171" t="s">
+        <v>56</v>
+      </c>
+      <c r="K171">
+        <v>2.6</v>
+      </c>
+      <c r="L171">
+        <v>3.1</v>
+      </c>
+      <c r="M171">
+        <v>2.6</v>
+      </c>
+      <c r="N171">
+        <v>2.8</v>
+      </c>
+      <c r="O171">
+        <v>2.9</v>
+      </c>
+      <c r="P171">
+        <v>2.55</v>
+      </c>
+      <c r="Q171">
         <v>0</v>
       </c>
-      <c r="J171" t="s">
-        <v>55</v>
-      </c>
-      <c r="K171">
-        <v>2.1</v>
-      </c>
-      <c r="L171">
-        <v>3.25</v>
-      </c>
-      <c r="M171">
-        <v>3.25</v>
-      </c>
-      <c r="N171">
-        <v>2.15</v>
-      </c>
-      <c r="O171">
-        <v>3.25</v>
-      </c>
-      <c r="P171">
-        <v>3.1</v>
-      </c>
-      <c r="Q171">
-        <v>-0.25</v>
-      </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W171">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC171">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15788,7 +15788,7 @@
         <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15966,7 +15966,7 @@
         <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16230,7 +16230,7 @@
         <v>45262.375</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
         <v>29</v>
@@ -16408,7 +16408,7 @@
         <v>45263.5625</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
         <v>45</v>
@@ -16678,7 +16678,7 @@
         <v>49</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -16764,7 +16764,7 @@
         <v>45346.29166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
         <v>43</v>
@@ -16942,7 +16942,7 @@
         <v>45346.36458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
         <v>44</v>
@@ -17212,7 +17212,7 @@
         <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17301,7 +17301,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17390,7 +17390,7 @@
         <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17654,10 +17654,10 @@
         <v>45353.33333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17820,7 +17820,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6808712</v>
+        <v>6808144</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17832,49 +17832,49 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F195" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K195">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L195">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="N195">
+        <v>2.8</v>
+      </c>
+      <c r="O195">
+        <v>3.6</v>
+      </c>
+      <c r="P195">
+        <v>2.1</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
         <v>1.95</v>
       </c>
-      <c r="O195">
-        <v>3.5</v>
-      </c>
-      <c r="P195">
-        <v>3.2</v>
-      </c>
-      <c r="Q195">
-        <v>-0.25</v>
-      </c>
-      <c r="R195">
-        <v>1.775</v>
-      </c>
       <c r="S195">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
         <v>1.875</v>
@@ -17883,25 +17883,25 @@
         <v>1.925</v>
       </c>
       <c r="W195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB195">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17909,7 +17909,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6808144</v>
+        <v>6808712</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17921,49 +17921,49 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G196" t="s">
         <v>33</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K196">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M196">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="N196">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O196">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S196">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
         <v>1.875</v>
@@ -17972,25 +17972,25 @@
         <v>1.925</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X196">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA196">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC196">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18188,7 +18188,7 @@
         <v>45355.59375</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
         <v>42</v>
@@ -18280,7 +18280,7 @@
         <v>48</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18369,7 +18369,7 @@
         <v>41</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -18443,7 +18443,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6808714</v>
+        <v>6808716</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18455,76 +18455,76 @@
         <v>45359.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G202" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
         <v>56</v>
       </c>
       <c r="K202">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L202">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="N202">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P202">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
+        <v>1.875</v>
+      </c>
+      <c r="S202">
+        <v>1.925</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
         <v>1.85</v>
       </c>
-      <c r="S202">
+      <c r="V202">
         <v>1.95</v>
       </c>
-      <c r="T202">
-        <v>2.75</v>
-      </c>
-      <c r="U202">
-        <v>1.9</v>
-      </c>
-      <c r="V202">
-        <v>1.9</v>
-      </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA202">
+        <v>0.4625</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
         <v>0.95</v>
-      </c>
-      <c r="AB202">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC202">
-        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18532,7 +18532,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6808716</v>
+        <v>6808714</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18544,76 +18544,76 @@
         <v>45359.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J203" t="s">
         <v>56</v>
       </c>
       <c r="K203">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M203">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="N203">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P203">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S203">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18725,7 +18725,7 @@
         <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18903,7 +18903,7 @@
         <v>45</v>
       </c>
       <c r="G207" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18989,10 +18989,10 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19078,7 +19078,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
         <v>43</v>
@@ -19523,7 +19523,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
         <v>48</v>
@@ -19612,7 +19612,7 @@
         <v>45367.375</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
         <v>45</v>
@@ -19689,7 +19689,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6808720</v>
+        <v>6808719</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,64 +19698,79 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45368.41666666666</v>
+        <v>45368.33333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="H216">
+        <v>3</v>
+      </c>
+      <c r="I216">
+        <v>3</v>
+      </c>
+      <c r="J216" t="s">
+        <v>56</v>
       </c>
       <c r="K216">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L216">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M216">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N216">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O216">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P216">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T216">
         <v>2.5</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB216">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC216">
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19763,7 +19778,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6808147</v>
+        <v>6808720</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19775,61 +19790,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217" t="s">
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L217">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M217">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N217">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P217">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T217">
         <v>2.5</v>
       </c>
       <c r="U217">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Z217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB217">
+        <v>0.95</v>
+      </c>
+      <c r="AC217">
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19837,7 +19867,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6808045</v>
+        <v>6808147</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19846,64 +19876,79 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45368.54166666666</v>
+        <v>45368.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218" t="s">
+        <v>56</v>
       </c>
       <c r="K218">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L218">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M218">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O218">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P218">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S218">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T218">
         <v>2.25</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA218">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB218">
+        <v>-0.5</v>
+      </c>
+      <c r="AC218">
+        <v>0.5</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19911,7 +19956,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6808717</v>
+        <v>6808045</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19920,64 +19965,79 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45368.64583333334</v>
+        <v>45368.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>55</v>
       </c>
       <c r="K219">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L219">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M219">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N219">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O219">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P219">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q219">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S219">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T219">
         <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB219">
+        <v>-1</v>
+      </c>
+      <c r="AC219">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -19985,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6808718</v>
+        <v>6808717</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -19994,43 +20054,52 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45369.59375</v>
+        <v>45368.64583333334</v>
       </c>
       <c r="F220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>54</v>
       </c>
       <c r="K220">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L220">
         <v>3.2</v>
       </c>
       <c r="M220">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N220">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O220">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P220">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R220">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S220">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
         <v>1.8</v>
@@ -20039,18 +20108,1195 @@
         <v>2</v>
       </c>
       <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>1.7</v>
+      </c>
+      <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
+        <v>1.05</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>6808718</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45369.59375</v>
+      </c>
+      <c r="F221" t="s">
+        <v>46</v>
+      </c>
+      <c r="G221" t="s">
+        <v>29</v>
+      </c>
+      <c r="H221">
         <v>0</v>
       </c>
-      <c r="X220">
+      <c r="I221">
         <v>0</v>
       </c>
-      <c r="Y220">
+      <c r="J221" t="s">
+        <v>56</v>
+      </c>
+      <c r="K221">
+        <v>2.4</v>
+      </c>
+      <c r="L221">
+        <v>3.2</v>
+      </c>
+      <c r="M221">
+        <v>2.6</v>
+      </c>
+      <c r="N221">
+        <v>2.3</v>
+      </c>
+      <c r="O221">
+        <v>3.4</v>
+      </c>
+      <c r="P221">
+        <v>2.6</v>
+      </c>
+      <c r="Q221">
         <v>0</v>
       </c>
-      <c r="Z220">
+      <c r="R221">
+        <v>1.775</v>
+      </c>
+      <c r="S221">
+        <v>2.025</v>
+      </c>
+      <c r="T221">
+        <v>2.75</v>
+      </c>
+      <c r="U221">
+        <v>1.775</v>
+      </c>
+      <c r="V221">
+        <v>2.025</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
+        <v>2.4</v>
+      </c>
+      <c r="Y221">
+        <v>-1</v>
+      </c>
+      <c r="Z221">
         <v>0</v>
       </c>
-      <c r="AA220">
+      <c r="AA221">
+        <v>-0</v>
+      </c>
+      <c r="AB221">
+        <v>-1</v>
+      </c>
+      <c r="AC221">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>7885222</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45371.58333333334</v>
+      </c>
+      <c r="F222" t="s">
+        <v>47</v>
+      </c>
+      <c r="G222" t="s">
+        <v>37</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222" t="s">
+        <v>56</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>3.25</v>
+      </c>
+      <c r="M222">
+        <v>3.25</v>
+      </c>
+      <c r="N222">
+        <v>1.85</v>
+      </c>
+      <c r="O222">
+        <v>3.25</v>
+      </c>
+      <c r="P222">
+        <v>4</v>
+      </c>
+      <c r="Q222">
+        <v>-0.5</v>
+      </c>
+      <c r="R222">
+        <v>1.9</v>
+      </c>
+      <c r="S222">
+        <v>1.9</v>
+      </c>
+      <c r="T222">
+        <v>2.25</v>
+      </c>
+      <c r="U222">
+        <v>1.775</v>
+      </c>
+      <c r="V222">
+        <v>2.025</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>2.25</v>
+      </c>
+      <c r="Y222">
+        <v>-1</v>
+      </c>
+      <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB222">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC222">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>6808047</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45373.625</v>
+      </c>
+      <c r="F223" t="s">
+        <v>43</v>
+      </c>
+      <c r="G223" t="s">
+        <v>44</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223" t="s">
+        <v>56</v>
+      </c>
+      <c r="K223">
+        <v>2.625</v>
+      </c>
+      <c r="L223">
+        <v>3.2</v>
+      </c>
+      <c r="M223">
+        <v>2.4</v>
+      </c>
+      <c r="N223">
+        <v>2.5</v>
+      </c>
+      <c r="O223">
+        <v>3.2</v>
+      </c>
+      <c r="P223">
+        <v>2.5</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>1.85</v>
+      </c>
+      <c r="S223">
+        <v>1.95</v>
+      </c>
+      <c r="T223">
+        <v>2</v>
+      </c>
+      <c r="U223">
+        <v>1.925</v>
+      </c>
+      <c r="V223">
+        <v>1.875</v>
+      </c>
+      <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
+        <v>2.2</v>
+      </c>
+      <c r="Y223">
+        <v>-1</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>-0</v>
+      </c>
+      <c r="AB223">
+        <v>-1</v>
+      </c>
+      <c r="AC223">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>6808724</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45373.66666666666</v>
+      </c>
+      <c r="F224" t="s">
+        <v>39</v>
+      </c>
+      <c r="G224" t="s">
+        <v>36</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224" t="s">
+        <v>55</v>
+      </c>
+      <c r="K224">
+        <v>1.75</v>
+      </c>
+      <c r="L224">
+        <v>3.4</v>
+      </c>
+      <c r="M224">
+        <v>4</v>
+      </c>
+      <c r="N224">
+        <v>1.7</v>
+      </c>
+      <c r="O224">
+        <v>3.5</v>
+      </c>
+      <c r="P224">
+        <v>4.2</v>
+      </c>
+      <c r="Q224">
+        <v>-0.75</v>
+      </c>
+      <c r="R224">
+        <v>1.975</v>
+      </c>
+      <c r="S224">
+        <v>1.825</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>1.9</v>
+      </c>
+      <c r="V224">
+        <v>1.9</v>
+      </c>
+      <c r="W224">
+        <v>0.7</v>
+      </c>
+      <c r="X224">
+        <v>-1</v>
+      </c>
+      <c r="Y224">
+        <v>-1</v>
+      </c>
+      <c r="Z224">
+        <v>0.4875</v>
+      </c>
+      <c r="AA224">
+        <v>-0.5</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>6808878</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45374.375</v>
+      </c>
+      <c r="F225" t="s">
+        <v>48</v>
+      </c>
+      <c r="G225" t="s">
+        <v>46</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>54</v>
+      </c>
+      <c r="K225">
+        <v>2.15</v>
+      </c>
+      <c r="L225">
+        <v>3.5</v>
+      </c>
+      <c r="M225">
+        <v>2.75</v>
+      </c>
+      <c r="N225">
+        <v>2.05</v>
+      </c>
+      <c r="O225">
+        <v>3.5</v>
+      </c>
+      <c r="P225">
+        <v>3.2</v>
+      </c>
+      <c r="Q225">
+        <v>-0.25</v>
+      </c>
+      <c r="R225">
+        <v>1.825</v>
+      </c>
+      <c r="S225">
+        <v>1.975</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
+        <v>1.8</v>
+      </c>
+      <c r="W225">
+        <v>-1</v>
+      </c>
+      <c r="X225">
+        <v>-1</v>
+      </c>
+      <c r="Y225">
+        <v>2.2</v>
+      </c>
+      <c r="Z225">
+        <v>-1</v>
+      </c>
+      <c r="AA225">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB225">
+        <v>-1</v>
+      </c>
+      <c r="AC225">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>6808149</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45374.4375</v>
+      </c>
+      <c r="F226" t="s">
+        <v>42</v>
+      </c>
+      <c r="G226" t="s">
+        <v>38</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
+        <v>56</v>
+      </c>
+      <c r="K226">
+        <v>1.727</v>
+      </c>
+      <c r="L226">
+        <v>3.5</v>
+      </c>
+      <c r="M226">
+        <v>4</v>
+      </c>
+      <c r="N226">
+        <v>1.8</v>
+      </c>
+      <c r="O226">
+        <v>3.25</v>
+      </c>
+      <c r="P226">
+        <v>4.2</v>
+      </c>
+      <c r="Q226">
+        <v>-0.5</v>
+      </c>
+      <c r="R226">
+        <v>1.8</v>
+      </c>
+      <c r="S226">
+        <v>2</v>
+      </c>
+      <c r="T226">
+        <v>2.25</v>
+      </c>
+      <c r="U226">
+        <v>1.85</v>
+      </c>
+      <c r="V226">
+        <v>1.95</v>
+      </c>
+      <c r="W226">
+        <v>-1</v>
+      </c>
+      <c r="X226">
+        <v>2.25</v>
+      </c>
+      <c r="Y226">
+        <v>-1</v>
+      </c>
+      <c r="Z226">
+        <v>-1</v>
+      </c>
+      <c r="AA226">
+        <v>1</v>
+      </c>
+      <c r="AB226">
+        <v>-1</v>
+      </c>
+      <c r="AC226">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>6808148</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45374.58333333334</v>
+      </c>
+      <c r="F227" t="s">
+        <v>41</v>
+      </c>
+      <c r="G227" t="s">
+        <v>35</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="s">
+        <v>56</v>
+      </c>
+      <c r="K227">
+        <v>2.1</v>
+      </c>
+      <c r="L227">
+        <v>3.3</v>
+      </c>
+      <c r="M227">
+        <v>3</v>
+      </c>
+      <c r="N227">
+        <v>1.909</v>
+      </c>
+      <c r="O227">
+        <v>3.2</v>
+      </c>
+      <c r="P227">
+        <v>3.75</v>
+      </c>
+      <c r="Q227">
+        <v>-0.5</v>
+      </c>
+      <c r="R227">
+        <v>1.95</v>
+      </c>
+      <c r="S227">
+        <v>1.85</v>
+      </c>
+      <c r="T227">
+        <v>2.25</v>
+      </c>
+      <c r="U227">
+        <v>1.975</v>
+      </c>
+      <c r="V227">
+        <v>1.825</v>
+      </c>
+      <c r="W227">
+        <v>-1</v>
+      </c>
+      <c r="X227">
+        <v>2.2</v>
+      </c>
+      <c r="Y227">
+        <v>-1</v>
+      </c>
+      <c r="Z227">
+        <v>-1</v>
+      </c>
+      <c r="AA227">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB227">
+        <v>-0.5</v>
+      </c>
+      <c r="AC227">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>6808726</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45375.33333333334</v>
+      </c>
+      <c r="F228" t="s">
+        <v>29</v>
+      </c>
+      <c r="G228" t="s">
+        <v>47</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="s">
+        <v>56</v>
+      </c>
+      <c r="K228">
+        <v>2.25</v>
+      </c>
+      <c r="L228">
+        <v>3.3</v>
+      </c>
+      <c r="M228">
+        <v>2.75</v>
+      </c>
+      <c r="N228">
+        <v>2.2</v>
+      </c>
+      <c r="O228">
+        <v>3</v>
+      </c>
+      <c r="P228">
+        <v>3.1</v>
+      </c>
+      <c r="Q228">
+        <v>-0.25</v>
+      </c>
+      <c r="R228">
+        <v>1.975</v>
+      </c>
+      <c r="S228">
+        <v>1.825</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.8</v>
+      </c>
+      <c r="V228">
+        <v>2</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
+        <v>2</v>
+      </c>
+      <c r="Y228">
+        <v>-1</v>
+      </c>
+      <c r="Z228">
+        <v>-0.5</v>
+      </c>
+      <c r="AA228">
+        <v>0.4125</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>6808725</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45375.63194444445</v>
+      </c>
+      <c r="F229" t="s">
+        <v>49</v>
+      </c>
+      <c r="G229" t="s">
+        <v>37</v>
+      </c>
+      <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229" t="s">
+        <v>56</v>
+      </c>
+      <c r="K229">
+        <v>2.2</v>
+      </c>
+      <c r="L229">
+        <v>3.3</v>
+      </c>
+      <c r="M229">
+        <v>2.8</v>
+      </c>
+      <c r="N229">
+        <v>1.85</v>
+      </c>
+      <c r="O229">
+        <v>3.4</v>
+      </c>
+      <c r="P229">
+        <v>3.5</v>
+      </c>
+      <c r="Q229">
+        <v>-0.5</v>
+      </c>
+      <c r="R229">
+        <v>1.975</v>
+      </c>
+      <c r="S229">
+        <v>1.825</v>
+      </c>
+      <c r="T229">
+        <v>2.5</v>
+      </c>
+      <c r="U229">
+        <v>1.8</v>
+      </c>
+      <c r="V229">
+        <v>2</v>
+      </c>
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
+        <v>2.4</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
+        <v>-1</v>
+      </c>
+      <c r="AA229">
+        <v>0.825</v>
+      </c>
+      <c r="AB229">
+        <v>0.8</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6808735</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45379.54166666666</v>
+      </c>
+      <c r="F230" t="s">
+        <v>37</v>
+      </c>
+      <c r="G230" t="s">
+        <v>36</v>
+      </c>
+      <c r="K230">
+        <v>2.1</v>
+      </c>
+      <c r="L230">
+        <v>3.25</v>
+      </c>
+      <c r="M230">
+        <v>3</v>
+      </c>
+      <c r="N230">
+        <v>1.95</v>
+      </c>
+      <c r="O230">
+        <v>3.4</v>
+      </c>
+      <c r="P230">
+        <v>3.5</v>
+      </c>
+      <c r="Q230">
+        <v>-0.5</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230">
+        <v>1.8</v>
+      </c>
+      <c r="T230">
+        <v>2.25</v>
+      </c>
+      <c r="U230">
+        <v>1.775</v>
+      </c>
+      <c r="V230">
+        <v>2.025</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>6808737</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45379.625</v>
+      </c>
+      <c r="F231" t="s">
+        <v>40</v>
+      </c>
+      <c r="G231" t="s">
+        <v>34</v>
+      </c>
+      <c r="K231">
+        <v>2.875</v>
+      </c>
+      <c r="L231">
+        <v>3.25</v>
+      </c>
+      <c r="M231">
+        <v>2.2</v>
+      </c>
+      <c r="N231">
+        <v>3.4</v>
+      </c>
+      <c r="O231">
+        <v>3.2</v>
+      </c>
+      <c r="P231">
+        <v>1.95</v>
+      </c>
+      <c r="Q231">
+        <v>0.5</v>
+      </c>
+      <c r="R231">
+        <v>1.775</v>
+      </c>
+      <c r="S231">
+        <v>2.025</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
+        <v>1.9</v>
+      </c>
+      <c r="V231">
+        <v>1.9</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>6808877</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45379.64583333334</v>
+      </c>
+      <c r="F232" t="s">
+        <v>47</v>
+      </c>
+      <c r="G232" t="s">
+        <v>48</v>
+      </c>
+      <c r="K232">
+        <v>2</v>
+      </c>
+      <c r="L232">
+        <v>3.2</v>
+      </c>
+      <c r="M232">
+        <v>3.3</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232">
+        <v>3.2</v>
+      </c>
+      <c r="P232">
+        <v>3.5</v>
+      </c>
+      <c r="Q232">
+        <v>-0.25</v>
+      </c>
+      <c r="R232">
+        <v>1.8</v>
+      </c>
+      <c r="S232">
+        <v>2</v>
+      </c>
+      <c r="T232">
+        <v>2.25</v>
+      </c>
+      <c r="U232">
+        <v>1.9</v>
+      </c>
+      <c r="V232">
+        <v>1.9</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6808048</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45381.33333333334</v>
+      </c>
+      <c r="F233" t="s">
+        <v>35</v>
+      </c>
+      <c r="G233" t="s">
+        <v>43</v>
+      </c>
+      <c r="K233">
+        <v>2</v>
+      </c>
+      <c r="L233">
+        <v>3.1</v>
+      </c>
+      <c r="M233">
+        <v>3.4</v>
+      </c>
+      <c r="N233">
+        <v>2.05</v>
+      </c>
+      <c r="O233">
+        <v>3.2</v>
+      </c>
+      <c r="P233">
+        <v>3.4</v>
+      </c>
+      <c r="Q233">
+        <v>-0.25</v>
+      </c>
+      <c r="R233">
+        <v>1.8</v>
+      </c>
+      <c r="S233">
+        <v>2</v>
+      </c>
+      <c r="T233">
+        <v>2.25</v>
+      </c>
+      <c r="U233">
+        <v>1.975</v>
+      </c>
+      <c r="V233">
+        <v>1.825</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6808733</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45381.33333333334</v>
+      </c>
+      <c r="F234" t="s">
+        <v>38</v>
+      </c>
+      <c r="G234" t="s">
+        <v>29</v>
+      </c>
+      <c r="K234">
+        <v>2.375</v>
+      </c>
+      <c r="L234">
+        <v>3.2</v>
+      </c>
+      <c r="M234">
+        <v>2.625</v>
+      </c>
+      <c r="N234">
+        <v>2.375</v>
+      </c>
+      <c r="O234">
+        <v>3.2</v>
+      </c>
+      <c r="P234">
+        <v>2.625</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>1.8</v>
+      </c>
+      <c r="S234">
+        <v>2</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
+        <v>2</v>
+      </c>
+      <c r="V234">
+        <v>1.8</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
         <v>0</v>
       </c>
     </row>

--- a/Poland II Liga/Poland II Liga.xlsx
+++ b/Poland II Liga/Poland II Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -103,6 +103,18 @@
     <t>Poland II Liga</t>
   </si>
   <si>
+    <t>Radunia Stezyca</t>
+  </si>
+  <si>
+    <t>Olimpia Elblag</t>
+  </si>
+  <si>
+    <t>Siarka Tarnobrzeg</t>
+  </si>
+  <si>
+    <t>Zaglebie Lubin II</t>
+  </si>
+  <si>
     <t>Hutnik Krakow</t>
   </si>
   <si>
@@ -112,22 +124,10 @@
     <t>Polonia Warsaw</t>
   </si>
   <si>
-    <t>Siarka Tarnobrzeg</t>
-  </si>
-  <si>
-    <t>Zaglebie Lubin II</t>
+    <t>Wisla Pulawy</t>
   </si>
   <si>
     <t>Kotwica Kolobrzeg</t>
-  </si>
-  <si>
-    <t>Radunia Stezyca</t>
-  </si>
-  <si>
-    <t>Olimpia Elblag</t>
-  </si>
-  <si>
-    <t>Wisla Pulawy</t>
   </si>
   <si>
     <t>Stomil Olsztyn</t>
@@ -166,6 +166,9 @@
     <t>Polonia Bytom</t>
   </si>
   <si>
+    <t>Slask Wroclaw II</t>
+  </si>
+  <si>
     <t>Znicz Pruszkw</t>
   </si>
   <si>
@@ -175,16 +178,13 @@
     <t>Motor Lublin</t>
   </si>
   <si>
-    <t>Slask Wroclaw II</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5224889</v>
+        <v>5224884</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -658,43 +658,43 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>54</v>
       </c>
       <c r="K2">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M2">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O2">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
         <v>2.5</v>
@@ -709,16 +709,16 @@
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
         <v>-1</v>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5229462</v>
+        <v>5185127</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -747,10 +747,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -759,61 +759,61 @@
         <v>55</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>3.5</v>
       </c>
       <c r="M3">
+        <v>3.1</v>
+      </c>
+      <c r="N3">
+        <v>2.25</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
+        <v>2.625</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>1.75</v>
       </c>
-      <c r="N3">
-        <v>3.2</v>
-      </c>
-      <c r="O3">
-        <v>3.4</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>0.25</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
       <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
         <v>1.8</v>
       </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.95</v>
-      </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5228058</v>
+        <v>5224885</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -836,73 +836,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>56</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
         <v>3.3</v>
       </c>
       <c r="M4">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X4">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5224885</v>
+        <v>5226042</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,56 +925,56 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
+        <v>1.95</v>
+      </c>
+      <c r="N5">
         <v>3.3</v>
       </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
+      <c r="O5">
+        <v>3.6</v>
+      </c>
+      <c r="P5">
+        <v>1.85</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>1.9</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
+        <v>1.975</v>
+      </c>
+      <c r="V5">
+        <v>1.825</v>
+      </c>
+      <c r="W5">
         <v>2.3</v>
       </c>
-      <c r="O5">
-        <v>3.3</v>
-      </c>
-      <c r="P5">
-        <v>2.625</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
-      </c>
-      <c r="T5">
-        <v>2.5</v>
-      </c>
-      <c r="U5">
-        <v>1.8</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>1.3</v>
-      </c>
       <c r="X5">
         <v>-1</v>
       </c>
@@ -982,16 +982,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5226042</v>
+        <v>5224889</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>55</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N6">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5226043</v>
+        <v>5229462</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1103,10 +1103,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1115,61 +1115,61 @@
         <v>56</v>
       </c>
       <c r="K7">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="N7">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O7">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
         <v>1.8</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X7">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5224884</v>
+        <v>5228058</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1192,73 +1192,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L8">
+        <v>3.3</v>
+      </c>
+      <c r="M8">
+        <v>2.1</v>
+      </c>
+      <c r="N8">
+        <v>2.8</v>
+      </c>
+      <c r="O8">
         <v>3.25</v>
       </c>
-      <c r="M8">
-        <v>2.5</v>
-      </c>
-      <c r="N8">
-        <v>2.6</v>
-      </c>
-      <c r="O8">
-        <v>3.1</v>
-      </c>
       <c r="P8">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5185127</v>
+        <v>5226044</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,46 +1281,46 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P9">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
         <v>1.8</v>
@@ -1329,25 +1329,25 @@
         <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5226044</v>
+        <v>5226043</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1370,73 +1370,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L10">
         <v>4.5</v>
       </c>
       <c r="M10">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="O10">
+        <v>4.333</v>
+      </c>
+      <c r="P10">
         <v>5.25</v>
       </c>
-      <c r="P10">
-        <v>7.5</v>
-      </c>
       <c r="Q10">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1545,10 +1545,10 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1637,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13">
         <v>2.55</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>1.8</v>
@@ -1812,7 +1812,7 @@
         <v>45129.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>1.666</v>
@@ -1901,7 +1901,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1990,7 +1990,7 @@
         <v>45129.5</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17">
         <v>2.1</v>
@@ -2067,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6808005</v>
+        <v>6808604</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2079,19 +2079,19 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18">
         <v>2.2</v>
@@ -2103,52 +2103,52 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O18">
         <v>3.1</v>
       </c>
       <c r="P18">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
         <v>1.85</v>
-      </c>
-      <c r="S18">
-        <v>1.95</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6808604</v>
+        <v>6808005</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,13 +2168,13 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2192,52 +2192,52 @@
         <v>3</v>
       </c>
       <c r="N19">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
         <v>3.1</v>
       </c>
       <c r="P19">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
         <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.85</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X19">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20">
         <v>2.5</v>
@@ -2349,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2438,7 +2438,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22">
         <v>1.615</v>
@@ -2524,7 +2524,7 @@
         <v>45135.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23">
         <v>1.909</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24">
         <v>2.6</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2868,7 +2868,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6808160</v>
+        <v>6808608</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2880,58 +2880,58 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N27">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
         <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2940,16 +2940,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6808608</v>
+        <v>6808160</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2969,76 +2969,76 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
+        <v>3.3</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>1.8</v>
+      </c>
+      <c r="O28">
         <v>3.4</v>
       </c>
-      <c r="M28">
-        <v>3.4</v>
-      </c>
-      <c r="N28">
-        <v>1.85</v>
-      </c>
-      <c r="O28">
-        <v>3.5</v>
-      </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q28">
         <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
+        <v>0.8</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
-      <c r="Z28">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3058,10 +3058,10 @@
         <v>45137.5</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K29">
         <v>2.2</v>
@@ -3147,7 +3147,7 @@
         <v>45137.5</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>42</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K30">
         <v>2.4</v>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3506,7 +3506,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>3.1</v>
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35">
         <v>2.7</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K36">
         <v>2.05</v>
@@ -3770,7 +3770,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
         <v>2.3</v>
@@ -3859,10 +3859,10 @@
         <v>45144.5</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K38">
         <v>1.75</v>
@@ -3951,7 +3951,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
         <v>2.2</v>
@@ -4049,7 +4049,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>2.5</v>
@@ -4126,7 +4126,7 @@
         <v>45150.5</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>48</v>
@@ -4138,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K41">
         <v>2.5</v>
@@ -4218,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K42">
         <v>2.375</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43">
         <v>2.2</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6808617</v>
+        <v>6808619</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,46 +4393,46 @@
         <v>45151.5</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N44">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>2.5</v>
@@ -4444,7 +4444,7 @@
         <v>1.875</v>
       </c>
       <c r="W44">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4453,16 +4453,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6808166</v>
+        <v>6808165</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>45151.5</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
         <v>3.25</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N45">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
+        <v>0.925</v>
+      </c>
+      <c r="AB45">
+        <v>0.45</v>
+      </c>
+      <c r="AC45">
         <v>-0.5</v>
-      </c>
-      <c r="AA45">
-        <v>0.4</v>
-      </c>
-      <c r="AB45">
-        <v>-0.5</v>
-      </c>
-      <c r="AC45">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4559,7 +4559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6808165</v>
+        <v>6808166</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4571,76 +4571,76 @@
         <v>45151.5</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>54</v>
       </c>
       <c r="K46">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
         <v>3.25</v>
       </c>
       <c r="M46">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>1.8</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
         <v>1.875</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>1.925</v>
       </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.9</v>
-      </c>
-      <c r="V46">
-        <v>1.9</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y46">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB46">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6808619</v>
+        <v>6808617</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4660,46 +4660,46 @@
         <v>45151.5</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47">
+        <v>2.4</v>
+      </c>
+      <c r="L47">
+        <v>3.2</v>
+      </c>
+      <c r="M47">
+        <v>2.6</v>
+      </c>
+      <c r="N47">
         <v>2.2</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>3.25</v>
       </c>
-      <c r="M47">
-        <v>2.8</v>
-      </c>
-      <c r="N47">
-        <v>2</v>
-      </c>
-      <c r="O47">
-        <v>3.4</v>
-      </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q47">
         <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
         <v>2.5</v>
@@ -4711,7 +4711,7 @@
         <v>1.875</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4720,16 +4720,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4752,7 +4752,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K48">
         <v>2.25</v>
@@ -4838,7 +4838,7 @@
         <v>45157.5</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>39</v>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K49">
         <v>2.1</v>
@@ -4927,10 +4927,10 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K50">
         <v>2.25</v>
@@ -5016,7 +5016,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
         <v>41</v>
@@ -5028,7 +5028,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51">
         <v>1.909</v>
@@ -5117,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K52">
         <v>2.625</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K53">
         <v>2.25</v>
@@ -5295,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5372,7 +5372,7 @@
         <v>45163.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K55">
         <v>1.909</v>
@@ -5464,7 +5464,7 @@
         <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K56">
         <v>2.5</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K57">
         <v>2.3</v>
@@ -5627,7 +5627,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6808624</v>
+        <v>6808899</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5639,58 +5639,58 @@
         <v>45164.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N58">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
+        <v>1.975</v>
+      </c>
+      <c r="V58">
         <v>1.825</v>
       </c>
-      <c r="V58">
-        <v>1.975</v>
-      </c>
       <c r="W58">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5699,13 +5699,13 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5716,7 +5716,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6808899</v>
+        <v>6808624</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5728,58 +5728,58 @@
         <v>45164.5</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L59">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N59">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q59">
         <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
+        <v>1.825</v>
+      </c>
+      <c r="V59">
         <v>1.975</v>
       </c>
-      <c r="V59">
-        <v>1.825</v>
-      </c>
       <c r="W59">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5788,13 +5788,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5829,7 +5829,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5906,10 +5906,10 @@
         <v>45164.5</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K61">
         <v>1.8</v>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K62">
         <v>2.4</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K63">
         <v>2.5</v>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K64">
         <v>1.833</v>
@@ -6262,7 +6262,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
@@ -6274,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K65">
         <v>2.1</v>
@@ -6354,7 +6354,7 @@
         <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6363,7 +6363,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K66">
         <v>3.1</v>
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K67">
         <v>2.5</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K68">
         <v>1.727</v>
@@ -6621,7 +6621,7 @@
         <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6630,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K69">
         <v>2.35</v>
@@ -6707,7 +6707,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K70">
         <v>2.45</v>
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K71">
         <v>1.909</v>
@@ -6885,10 +6885,10 @@
         <v>45173.55208333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6986,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K73">
         <v>2.1</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7152,7 +7152,7 @@
         <v>45178.44791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
         <v>41</v>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K75">
         <v>2.15</v>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7333,7 +7333,7 @@
         <v>47</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K77">
         <v>2.3</v>
@@ -7431,7 +7431,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K78">
         <v>2.4</v>
@@ -7508,7 +7508,7 @@
         <v>45180.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>49</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K79">
         <v>1.833</v>
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7609,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -7686,10 +7686,10 @@
         <v>45184.625</v>
       </c>
       <c r="F81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s">
         <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7698,7 +7698,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K81">
         <v>2.5</v>
@@ -7778,7 +7778,7 @@
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7953,7 +7953,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K84">
         <v>1.8</v>
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7203342</v>
+        <v>6808649</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,55 +8042,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K85">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N85">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P85">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8099,19 +8099,19 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6808649</v>
+        <v>7203342</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,55 +8131,55 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K86">
+        <v>1.8</v>
+      </c>
+      <c r="L86">
+        <v>3.4</v>
+      </c>
+      <c r="M86">
+        <v>3.75</v>
+      </c>
+      <c r="N86">
+        <v>1.95</v>
+      </c>
+      <c r="O86">
+        <v>3.3</v>
+      </c>
+      <c r="P86">
+        <v>3.25</v>
+      </c>
+      <c r="Q86">
+        <v>-0.5</v>
+      </c>
+      <c r="R86">
+        <v>2.025</v>
+      </c>
+      <c r="S86">
+        <v>1.775</v>
+      </c>
+      <c r="T86">
         <v>2.5</v>
       </c>
-      <c r="L86">
-        <v>3.2</v>
-      </c>
-      <c r="M86">
-        <v>2.5</v>
-      </c>
-      <c r="N86">
-        <v>2.5</v>
-      </c>
-      <c r="O86">
-        <v>3.25</v>
-      </c>
-      <c r="P86">
-        <v>2.5</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.9</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8188,19 +8188,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8220,7 +8220,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8232,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K87">
         <v>2.15</v>
@@ -8321,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K88">
         <v>2.3</v>
@@ -8398,10 +8398,10 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8410,7 +8410,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K89">
         <v>2.875</v>
@@ -8487,7 +8487,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K90">
         <v>2.1</v>
@@ -8576,7 +8576,7 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8588,7 +8588,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K91">
         <v>1.615</v>
@@ -8668,7 +8668,7 @@
         <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -8677,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K92">
         <v>2.375</v>
@@ -8757,7 +8757,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K93">
         <v>2.1</v>
@@ -8843,7 +8843,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8855,7 +8855,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K94">
         <v>1.8</v>
@@ -8935,7 +8935,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -8944,7 +8944,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K95">
         <v>2.5</v>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9202,7 +9202,7 @@
         <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9211,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9300,7 +9300,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K99">
         <v>2.4</v>
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6808664</v>
+        <v>6808023</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,55 +9377,55 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K100">
+        <v>1.909</v>
+      </c>
+      <c r="L100">
+        <v>3.3</v>
+      </c>
+      <c r="M100">
+        <v>3.5</v>
+      </c>
+      <c r="N100">
+        <v>2.05</v>
+      </c>
+      <c r="O100">
+        <v>3.25</v>
+      </c>
+      <c r="P100">
+        <v>3.1</v>
+      </c>
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.85</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
         <v>2.5</v>
       </c>
-      <c r="L100">
-        <v>3.4</v>
-      </c>
-      <c r="M100">
-        <v>2.375</v>
-      </c>
-      <c r="N100">
-        <v>2.3</v>
-      </c>
-      <c r="O100">
-        <v>3.4</v>
-      </c>
-      <c r="P100">
-        <v>2.55</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.8</v>
-      </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9434,19 +9434,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9454,7 +9454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6808894</v>
+        <v>6808664</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9466,56 +9466,56 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K101">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N101">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
         <v>1.85</v>
       </c>
-      <c r="S101">
+      <c r="V101">
         <v>1.95</v>
       </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>1.95</v>
-      </c>
-      <c r="V101">
-        <v>1.85</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
@@ -9523,19 +9523,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9543,7 +9543,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6808023</v>
+        <v>6808894</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9555,10 +9555,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9567,28 +9567,28 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K102">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L102">
         <v>3.3</v>
       </c>
       <c r="M102">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N102">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O102">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
         <v>1.85</v>
@@ -9600,10 +9600,10 @@
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9612,7 +9612,7 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9624,7 +9624,7 @@
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9644,7 +9644,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>47</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K104">
         <v>2.15</v>
@@ -9822,10 +9822,10 @@
         <v>45200.4375</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9834,7 +9834,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9923,7 +9923,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K106">
         <v>2.25</v>
@@ -10012,7 +10012,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K107">
         <v>2.4</v>
@@ -10077,7 +10077,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6808667</v>
+        <v>6808666</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10089,73 +10089,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
         <v>3</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>55</v>
       </c>
       <c r="K108">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N108">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="O108">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W108">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10166,7 +10166,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6808666</v>
+        <v>6808667</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10178,73 +10178,73 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>56</v>
+      </c>
+      <c r="K109">
+        <v>1.615</v>
+      </c>
+      <c r="L109">
+        <v>3.75</v>
+      </c>
+      <c r="M109">
+        <v>4.5</v>
+      </c>
+      <c r="N109">
+        <v>1.285</v>
+      </c>
+      <c r="O109">
+        <v>4.75</v>
+      </c>
+      <c r="P109">
+        <v>8.5</v>
+      </c>
+      <c r="Q109">
+        <v>-1.5</v>
+      </c>
+      <c r="R109">
+        <v>1.85</v>
+      </c>
+      <c r="S109">
+        <v>1.95</v>
+      </c>
+      <c r="T109">
         <v>3</v>
       </c>
-      <c r="J109" t="s">
-        <v>54</v>
-      </c>
-      <c r="K109">
-        <v>2.1</v>
-      </c>
-      <c r="L109">
-        <v>3.4</v>
-      </c>
-      <c r="M109">
-        <v>2.8</v>
-      </c>
-      <c r="N109">
-        <v>2.45</v>
-      </c>
-      <c r="O109">
-        <v>3.6</v>
-      </c>
-      <c r="P109">
-        <v>2.3</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>2</v>
-      </c>
-      <c r="S109">
-        <v>1.8</v>
-      </c>
-      <c r="T109">
-        <v>2.75</v>
-      </c>
       <c r="U109">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10270,7 +10270,7 @@
         <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10279,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K110">
         <v>2.45</v>
@@ -10356,7 +10356,7 @@
         <v>45206.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
         <v>48</v>
@@ -10368,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K111">
         <v>1.75</v>
@@ -10445,7 +10445,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -10457,7 +10457,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K112">
         <v>1.75</v>
@@ -10537,7 +10537,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10546,7 +10546,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K113">
         <v>1.6</v>
@@ -10626,7 +10626,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10635,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K114">
         <v>2.3</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K115">
         <v>1.6</v>
@@ -10801,7 +10801,7 @@
         <v>45212.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -10813,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K116">
         <v>2.75</v>
@@ -10893,7 +10893,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K117">
         <v>2.3</v>
@@ -10982,7 +10982,7 @@
         <v>49</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K118">
         <v>2.45</v>
@@ -11068,7 +11068,7 @@
         <v>45214.375</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11080,7 +11080,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K119">
         <v>2.15</v>
@@ -11169,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K120">
         <v>3.5</v>
@@ -11258,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K121">
         <v>2.7</v>
@@ -11335,7 +11335,7 @@
         <v>45217.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
         <v>47</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11436,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K123">
         <v>1.5</v>
@@ -11513,10 +11513,10 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>29</v>
   